--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HQ102"/>
+  <dimension ref="A1:HR102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,6 +1031,9 @@
       <c r="HQ1" t="n">
         <v>10316</v>
       </c>
+      <c r="HR1" t="n">
+        <v>10329</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1710,6 +1713,9 @@
       <c r="HQ2" t="n">
         <v>2020</v>
       </c>
+      <c r="HR2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2389,6 +2395,9 @@
       <c r="HQ3" t="n">
         <v>18</v>
       </c>
+      <c r="HR3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3068,6 +3077,9 @@
       <c r="HQ4" t="n">
         <v>0</v>
       </c>
+      <c r="HR4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3747,6 +3759,9 @@
       <c r="HQ5" t="n">
         <v>1</v>
       </c>
+      <c r="HR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4426,6 +4441,9 @@
       <c r="HQ6" t="n">
         <v>44</v>
       </c>
+      <c r="HR6" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5105,6 +5123,9 @@
       <c r="HQ7" t="n">
         <v>74</v>
       </c>
+      <c r="HR7" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5784,6 +5805,9 @@
       <c r="HQ8" t="n">
         <v>-30</v>
       </c>
+      <c r="HR8" t="n">
+        <v>-22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6463,6 +6487,9 @@
       <c r="HQ9" t="n">
         <v>0</v>
       </c>
+      <c r="HR9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7142,6 +7169,9 @@
       <c r="HQ10" t="n">
         <v>18</v>
       </c>
+      <c r="HR10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7821,6 +7851,9 @@
       <c r="HQ11" t="n">
         <v>172</v>
       </c>
+      <c r="HR11" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8500,6 +8533,9 @@
       <c r="HQ12" t="n">
         <v>129</v>
       </c>
+      <c r="HR12" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9179,6 +9215,9 @@
       <c r="HQ13" t="n">
         <v>301</v>
       </c>
+      <c r="HR13" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9858,6 +9897,9 @@
       <c r="HQ14" t="n">
         <v>1.33</v>
       </c>
+      <c r="HR14" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10537,6 +10579,9 @@
       <c r="HQ15" t="n">
         <v>79</v>
       </c>
+      <c r="HR15" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11216,6 +11261,9 @@
       <c r="HQ16" t="n">
         <v>38</v>
       </c>
+      <c r="HR16" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11895,6 +11943,9 @@
       <c r="HQ17" t="n">
         <v>43</v>
       </c>
+      <c r="HR17" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12574,6 +12625,9 @@
       <c r="HQ18" t="n">
         <v>10</v>
       </c>
+      <c r="HR18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13253,6 +13307,9 @@
       <c r="HQ19" t="n">
         <v>15</v>
       </c>
+      <c r="HR19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13932,6 +13989,9 @@
       <c r="HQ20" t="n">
         <v>6</v>
       </c>
+      <c r="HR20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14611,6 +14671,9 @@
       <c r="HQ21" t="n">
         <v>5</v>
       </c>
+      <c r="HR21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15290,6 +15353,9 @@
       <c r="HQ22" t="n">
         <v>6</v>
       </c>
+      <c r="HR22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15969,6 +16035,9 @@
       <c r="HQ23" t="n">
         <v>2</v>
       </c>
+      <c r="HR23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16648,6 +16717,9 @@
       <c r="HQ24" t="n">
         <v>14</v>
       </c>
+      <c r="HR24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17327,6 +17399,9 @@
       <c r="HQ25" t="n">
         <v>42.9</v>
       </c>
+      <c r="HR25" t="n">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18006,6 +18081,9 @@
       <c r="HQ26" t="n">
         <v>50.17</v>
       </c>
+      <c r="HR26" t="n">
+        <v>42.88</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18685,6 +18763,9 @@
       <c r="HQ27" t="n">
         <v>21.5</v>
       </c>
+      <c r="HR27" t="n">
+        <v>19.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19364,6 +19445,9 @@
       <c r="HQ28" t="n">
         <v>31</v>
       </c>
+      <c r="HR28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20043,6 +20127,9 @@
       <c r="HQ29" t="n">
         <v>42</v>
       </c>
+      <c r="HR29" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20722,6 +20809,9 @@
       <c r="HQ30" t="n">
         <v>36</v>
       </c>
+      <c r="HR30" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21401,6 +21491,9 @@
       <c r="HQ31" t="n">
         <v>32</v>
       </c>
+      <c r="HR31" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22080,6 +22173,9 @@
       <c r="HQ32" t="n">
         <v>2.29</v>
       </c>
+      <c r="HR32" t="n">
+        <v>3.17</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22759,6 +22855,9 @@
       <c r="HQ33" t="n">
         <v>5.33</v>
       </c>
+      <c r="HR33" t="n">
+        <v>7.12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23438,6 +23537,9 @@
       <c r="HQ34" t="n">
         <v>37.5</v>
       </c>
+      <c r="HR34" t="n">
+        <v>29.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24117,6 +24219,9 @@
       <c r="HQ35" t="n">
         <v>18.8</v>
       </c>
+      <c r="HR35" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24796,6 +24901,9 @@
       <c r="HQ36" t="n">
         <v>187</v>
       </c>
+      <c r="HR36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25475,6 +25583,9 @@
       <c r="HQ37" t="n">
         <v>87.09999999999999</v>
       </c>
+      <c r="HR37" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26154,6 +26265,9 @@
       <c r="HQ38" t="n">
         <v>24.74</v>
       </c>
+      <c r="HR38" t="n">
+        <v>24.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26833,6 +26947,9 @@
       <c r="HQ39" t="n">
         <v>88.09999999999999</v>
       </c>
+      <c r="HR39" t="n">
+        <v>70.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27512,6 +27629,9 @@
       <c r="HQ40" t="n">
         <v>8</v>
       </c>
+      <c r="HR40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28191,6 +28311,9 @@
       <c r="HQ41" t="n">
         <v>7</v>
       </c>
+      <c r="HR41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28870,6 +28993,9 @@
       <c r="HQ42" t="n">
         <v>4</v>
       </c>
+      <c r="HR42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29549,6 +29675,9 @@
       <c r="HQ43" t="n">
         <v>3</v>
       </c>
+      <c r="HR43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30228,6 +30357,9 @@
       <c r="HQ44" t="n">
         <v>106</v>
       </c>
+      <c r="HR44" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30907,6 +31039,9 @@
       <c r="HQ45" t="n">
         <v>197</v>
       </c>
+      <c r="HR45" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31586,6 +31721,9 @@
       <c r="HQ46" t="n">
         <v>228</v>
       </c>
+      <c r="HR46" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32265,6 +32403,9 @@
       <c r="HQ47" t="n">
         <v>75.7</v>
       </c>
+      <c r="HR47" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32944,6 +33085,9 @@
       <c r="HQ48" t="n">
         <v>42</v>
       </c>
+      <c r="HR48" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33623,6 +33767,9 @@
       <c r="HQ49" t="n">
         <v>9</v>
       </c>
+      <c r="HR49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34302,6 +34449,9 @@
       <c r="HQ50" t="n">
         <v>8</v>
       </c>
+      <c r="HR50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34981,6 +35131,9 @@
       <c r="HQ51" t="n">
         <v>31</v>
       </c>
+      <c r="HR51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35660,6 +35813,9 @@
       <c r="HQ52" t="n">
         <v>36</v>
       </c>
+      <c r="HR52" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36339,6 +36495,9 @@
       <c r="HQ53" t="n">
         <v>31</v>
       </c>
+      <c r="HR53" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37018,6 +37177,9 @@
       <c r="HQ54" t="n">
         <v>3</v>
       </c>
+      <c r="HR54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37697,6 +37859,9 @@
       <c r="HQ55" t="n">
         <v>5</v>
       </c>
+      <c r="HR55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38376,6 +38541,9 @@
       <c r="HQ56" t="n">
         <v>83.3</v>
       </c>
+      <c r="HR56" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39055,6 +39223,9 @@
       <c r="HQ57" t="n">
         <v>162</v>
       </c>
+      <c r="HR57" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39734,6 +39905,9 @@
       <c r="HQ58" t="n">
         <v>125</v>
       </c>
+      <c r="HR58" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40413,6 +40587,9 @@
       <c r="HQ59" t="n">
         <v>287</v>
       </c>
+      <c r="HR59" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41092,6 +41269,9 @@
       <c r="HQ60" t="n">
         <v>1.3</v>
       </c>
+      <c r="HR60" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41771,6 +41951,9 @@
       <c r="HQ61" t="n">
         <v>58</v>
       </c>
+      <c r="HR61" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42450,6 +42633,9 @@
       <c r="HQ62" t="n">
         <v>58</v>
       </c>
+      <c r="HR62" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43129,6 +43315,9 @@
       <c r="HQ63" t="n">
         <v>23</v>
       </c>
+      <c r="HR63" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43808,6 +43997,9 @@
       <c r="HQ64" t="n">
         <v>15</v>
       </c>
+      <c r="HR64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44487,6 +44679,9 @@
       <c r="HQ65" t="n">
         <v>10</v>
       </c>
+      <c r="HR65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45166,6 +45361,9 @@
       <c r="HQ66" t="n">
         <v>11</v>
       </c>
+      <c r="HR66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45845,6 +46043,9 @@
       <c r="HQ67" t="n">
         <v>8</v>
       </c>
+      <c r="HR67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46524,6 +46725,9 @@
       <c r="HQ68" t="n">
         <v>8</v>
       </c>
+      <c r="HR68" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47203,6 +47407,9 @@
       <c r="HQ69" t="n">
         <v>0</v>
       </c>
+      <c r="HR69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47882,6 +48089,9 @@
       <c r="HQ70" t="n">
         <v>19</v>
       </c>
+      <c r="HR70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48561,6 +48771,9 @@
       <c r="HQ71" t="n">
         <v>57.9</v>
       </c>
+      <c r="HR71" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49240,6 +49453,9 @@
       <c r="HQ72" t="n">
         <v>26.09</v>
       </c>
+      <c r="HR72" t="n">
+        <v>33.18</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49919,6 +50135,9 @@
       <c r="HQ73" t="n">
         <v>15.11</v>
       </c>
+      <c r="HR73" t="n">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50598,6 +50817,9 @@
       <c r="HQ74" t="n">
         <v>35</v>
       </c>
+      <c r="HR74" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51277,6 +51499,9 @@
       <c r="HQ75" t="n">
         <v>35</v>
       </c>
+      <c r="HR75" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51956,6 +52181,9 @@
       <c r="HQ76" t="n">
         <v>27</v>
       </c>
+      <c r="HR76" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52635,6 +52863,9 @@
       <c r="HQ77" t="n">
         <v>48</v>
       </c>
+      <c r="HR77" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53314,6 +53545,9 @@
       <c r="HQ78" t="n">
         <v>2.53</v>
       </c>
+      <c r="HR78" t="n">
+        <v>2.44</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53993,6 +54227,9 @@
       <c r="HQ79" t="n">
         <v>4.36</v>
       </c>
+      <c r="HR79" t="n">
+        <v>5.55</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54672,6 +54909,9 @@
       <c r="HQ80" t="n">
         <v>39.6</v>
       </c>
+      <c r="HR80" t="n">
+        <v>37.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55351,6 +55591,9 @@
       <c r="HQ81" t="n">
         <v>22.9</v>
       </c>
+      <c r="HR81" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56030,6 +56273,9 @@
       <c r="HQ82" t="n">
         <v>187.9</v>
       </c>
+      <c r="HR82" t="n">
+        <v>186.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56709,6 +56955,9 @@
       <c r="HQ83" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="HR83" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57388,6 +57637,9 @@
       <c r="HQ84" t="n">
         <v>25.16</v>
       </c>
+      <c r="HR84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58067,6 +58319,9 @@
       <c r="HQ85" t="n">
         <v>94.59999999999999</v>
       </c>
+      <c r="HR85" t="n">
+        <v>92.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58746,6 +59001,9 @@
       <c r="HQ86" t="n">
         <v>6</v>
       </c>
+      <c r="HR86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59425,6 +59683,9 @@
       <c r="HQ87" t="n">
         <v>5</v>
       </c>
+      <c r="HR87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60104,6 +60365,9 @@
       <c r="HQ88" t="n">
         <v>8</v>
       </c>
+      <c r="HR88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60783,6 +61047,9 @@
       <c r="HQ89" t="n">
         <v>3</v>
       </c>
+      <c r="HR89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61462,6 +61729,9 @@
       <c r="HQ90" t="n">
         <v>106</v>
       </c>
+      <c r="HR90" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62141,6 +62411,9 @@
       <c r="HQ91" t="n">
         <v>186</v>
       </c>
+      <c r="HR91" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62820,6 +63093,9 @@
       <c r="HQ92" t="n">
         <v>233</v>
       </c>
+      <c r="HR92" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63499,6 +63775,9 @@
       <c r="HQ93" t="n">
         <v>81.2</v>
       </c>
+      <c r="HR93" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64178,6 +64457,9 @@
       <c r="HQ94" t="n">
         <v>35</v>
       </c>
+      <c r="HR94" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64857,6 +65139,9 @@
       <c r="HQ95" t="n">
         <v>8</v>
       </c>
+      <c r="HR95" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65536,6 +65821,9 @@
       <c r="HQ96" t="n">
         <v>12</v>
       </c>
+      <c r="HR96" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66215,6 +66503,9 @@
       <c r="HQ97" t="n">
         <v>35</v>
       </c>
+      <c r="HR97" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66894,6 +67185,9 @@
       <c r="HQ98" t="n">
         <v>27</v>
       </c>
+      <c r="HR98" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67573,6 +67867,9 @@
       <c r="HQ99" t="n">
         <v>55</v>
       </c>
+      <c r="HR99" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68252,6 +68549,9 @@
       <c r="HQ100" t="n">
         <v>6</v>
       </c>
+      <c r="HR100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68931,6 +69231,9 @@
       <c r="HQ101" t="n">
         <v>8</v>
       </c>
+      <c r="HR101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69610,6 +69913,9 @@
       <c r="HQ102" t="n">
         <v>72.7</v>
       </c>
+      <c r="HR102" t="n">
+        <v>72.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HR102"/>
+  <dimension ref="A1:HS102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,6 +1034,9 @@
       <c r="HR1" t="n">
         <v>10329</v>
       </c>
+      <c r="HS1" t="n">
+        <v>10344</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1716,6 +1719,9 @@
       <c r="HR2" t="n">
         <v>2021</v>
       </c>
+      <c r="HS2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2398,6 +2404,9 @@
       <c r="HR3" t="n">
         <v>1</v>
       </c>
+      <c r="HS3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3080,6 +3089,9 @@
       <c r="HR4" t="n">
         <v>1</v>
       </c>
+      <c r="HS4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3762,6 +3774,9 @@
       <c r="HR5" t="n">
         <v>0</v>
       </c>
+      <c r="HS5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4444,6 +4459,9 @@
       <c r="HR6" t="n">
         <v>58</v>
       </c>
+      <c r="HS6" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5126,6 +5144,9 @@
       <c r="HR7" t="n">
         <v>80</v>
       </c>
+      <c r="HS7" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5808,6 +5829,9 @@
       <c r="HR8" t="n">
         <v>-22</v>
       </c>
+      <c r="HS8" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6490,6 +6514,9 @@
       <c r="HR9" t="n">
         <v>0</v>
       </c>
+      <c r="HS9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7172,6 +7199,9 @@
       <c r="HR10" t="n">
         <v>11</v>
       </c>
+      <c r="HS10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7854,6 +7884,9 @@
       <c r="HR11" t="n">
         <v>188</v>
       </c>
+      <c r="HS11" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8536,6 +8569,9 @@
       <c r="HR12" t="n">
         <v>155</v>
       </c>
+      <c r="HS12" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9218,6 +9254,9 @@
       <c r="HR13" t="n">
         <v>343</v>
       </c>
+      <c r="HS13" t="n">
+        <v>419</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9900,6 +9939,9 @@
       <c r="HR14" t="n">
         <v>1.21</v>
       </c>
+      <c r="HS14" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10582,6 +10624,9 @@
       <c r="HR15" t="n">
         <v>69</v>
       </c>
+      <c r="HS15" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11264,6 +11309,9 @@
       <c r="HR16" t="n">
         <v>49</v>
       </c>
+      <c r="HS16" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11946,6 +11994,9 @@
       <c r="HR17" t="n">
         <v>17</v>
       </c>
+      <c r="HS17" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12628,6 +12679,9 @@
       <c r="HR18" t="n">
         <v>19</v>
       </c>
+      <c r="HS18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13310,6 +13364,9 @@
       <c r="HR19" t="n">
         <v>20</v>
       </c>
+      <c r="HS19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13992,6 +14049,9 @@
       <c r="HR20" t="n">
         <v>8</v>
       </c>
+      <c r="HS20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14674,6 +14734,9 @@
       <c r="HR21" t="n">
         <v>7</v>
       </c>
+      <c r="HS21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15356,6 +15419,9 @@
       <c r="HR22" t="n">
         <v>9</v>
       </c>
+      <c r="HS22" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16038,6 +16104,9 @@
       <c r="HR23" t="n">
         <v>1</v>
       </c>
+      <c r="HS23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16720,6 +16789,9 @@
       <c r="HR24" t="n">
         <v>18</v>
       </c>
+      <c r="HS24" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17402,6 +17474,9 @@
       <c r="HR25" t="n">
         <v>44.4</v>
       </c>
+      <c r="HS25" t="n">
+        <v>34.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18084,6 +18159,9 @@
       <c r="HR26" t="n">
         <v>42.88</v>
       </c>
+      <c r="HS26" t="n">
+        <v>38.09</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18766,6 +18844,9 @@
       <c r="HR27" t="n">
         <v>19.06</v>
       </c>
+      <c r="HS27" t="n">
+        <v>13.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19448,6 +19529,9 @@
       <c r="HR28" t="n">
         <v>35</v>
       </c>
+      <c r="HS28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20130,6 +20214,9 @@
       <c r="HR29" t="n">
         <v>72</v>
       </c>
+      <c r="HS29" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20812,6 +20899,9 @@
       <c r="HR30" t="n">
         <v>49</v>
       </c>
+      <c r="HS30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21494,6 +21584,9 @@
       <c r="HR31" t="n">
         <v>57</v>
       </c>
+      <c r="HS31" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22176,6 +22269,9 @@
       <c r="HR32" t="n">
         <v>3.17</v>
       </c>
+      <c r="HS32" t="n">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22858,6 +22954,9 @@
       <c r="HR33" t="n">
         <v>7.12</v>
       </c>
+      <c r="HS33" t="n">
+        <v>5.27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23540,6 +23639,9 @@
       <c r="HR34" t="n">
         <v>29.8</v>
       </c>
+      <c r="HS34" t="n">
+        <v>48.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24222,6 +24324,9 @@
       <c r="HR35" t="n">
         <v>14</v>
       </c>
+      <c r="HS35" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24904,6 +25009,9 @@
       <c r="HR36" t="n">
         <v>187.3</v>
       </c>
+      <c r="HS36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25586,6 +25694,9 @@
       <c r="HR37" t="n">
         <v>87.2</v>
       </c>
+      <c r="HS37" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26268,6 +26379,9 @@
       <c r="HR38" t="n">
         <v>24.91</v>
       </c>
+      <c r="HS38" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26950,6 +27064,9 @@
       <c r="HR39" t="n">
         <v>70.90000000000001</v>
       </c>
+      <c r="HS39" t="n">
+        <v>73.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27632,6 +27749,9 @@
       <c r="HR40" t="n">
         <v>9</v>
       </c>
+      <c r="HS40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28314,6 +28434,9 @@
       <c r="HR41" t="n">
         <v>10</v>
       </c>
+      <c r="HS41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28996,6 +29119,9 @@
       <c r="HR42" t="n">
         <v>2</v>
       </c>
+      <c r="HS42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29678,6 +29804,9 @@
       <c r="HR43" t="n">
         <v>2</v>
       </c>
+      <c r="HS43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30360,6 +30489,9 @@
       <c r="HR44" t="n">
         <v>143</v>
       </c>
+      <c r="HS44" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31042,6 +31174,9 @@
       <c r="HR45" t="n">
         <v>203</v>
       </c>
+      <c r="HS45" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31724,6 +31859,9 @@
       <c r="HR46" t="n">
         <v>240</v>
       </c>
+      <c r="HS46" t="n">
+        <v>318</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32406,6 +32544,9 @@
       <c r="HR47" t="n">
         <v>70</v>
       </c>
+      <c r="HS47" t="n">
+        <v>75.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33088,6 +33229,9 @@
       <c r="HR48" t="n">
         <v>72</v>
       </c>
+      <c r="HS48" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33770,6 +33914,9 @@
       <c r="HR49" t="n">
         <v>9</v>
       </c>
+      <c r="HS49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34452,6 +34599,9 @@
       <c r="HR50" t="n">
         <v>7</v>
       </c>
+      <c r="HS50" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35134,6 +35284,9 @@
       <c r="HR51" t="n">
         <v>35</v>
       </c>
+      <c r="HS51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35816,6 +35969,9 @@
       <c r="HR52" t="n">
         <v>49</v>
       </c>
+      <c r="HS52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36498,6 +36654,9 @@
       <c r="HR53" t="n">
         <v>45</v>
       </c>
+      <c r="HS53" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37180,6 +37339,9 @@
       <c r="HR54" t="n">
         <v>2</v>
       </c>
+      <c r="HS54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37862,6 +38024,9 @@
       <c r="HR55" t="n">
         <v>7</v>
       </c>
+      <c r="HS55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38544,6 +38709,9 @@
       <c r="HR56" t="n">
         <v>87.5</v>
       </c>
+      <c r="HS56" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39226,6 +39394,9 @@
       <c r="HR57" t="n">
         <v>218</v>
       </c>
+      <c r="HS57" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39908,6 +40079,9 @@
       <c r="HR58" t="n">
         <v>147</v>
       </c>
+      <c r="HS58" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40590,6 +40764,9 @@
       <c r="HR59" t="n">
         <v>365</v>
       </c>
+      <c r="HS59" t="n">
+        <v>345</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41272,6 +41449,9 @@
       <c r="HR60" t="n">
         <v>1.48</v>
       </c>
+      <c r="HS60" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41954,6 +42134,9 @@
       <c r="HR61" t="n">
         <v>104</v>
       </c>
+      <c r="HS61" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42636,6 +42819,9 @@
       <c r="HR62" t="n">
         <v>55</v>
       </c>
+      <c r="HS62" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43318,6 +43504,9 @@
       <c r="HR63" t="n">
         <v>40</v>
       </c>
+      <c r="HS63" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44000,6 +44189,9 @@
       <c r="HR64" t="n">
         <v>20</v>
       </c>
+      <c r="HS64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44682,6 +44874,9 @@
       <c r="HR65" t="n">
         <v>19</v>
       </c>
+      <c r="HS65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45364,6 +45559,9 @@
       <c r="HR66" t="n">
         <v>11</v>
       </c>
+      <c r="HS66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46046,6 +46244,9 @@
       <c r="HR67" t="n">
         <v>8</v>
       </c>
+      <c r="HS67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46728,6 +46929,9 @@
       <c r="HR68" t="n">
         <v>12</v>
       </c>
+      <c r="HS68" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47410,6 +47614,9 @@
       <c r="HR69" t="n">
         <v>2</v>
       </c>
+      <c r="HS69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48092,6 +48299,9 @@
       <c r="HR70" t="n">
         <v>25</v>
       </c>
+      <c r="HS70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48774,6 +48984,9 @@
       <c r="HR71" t="n">
         <v>44</v>
       </c>
+      <c r="HS71" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49456,6 +49669,9 @@
       <c r="HR72" t="n">
         <v>33.18</v>
       </c>
+      <c r="HS72" t="n">
+        <v>49.29</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50138,6 +50354,9 @@
       <c r="HR73" t="n">
         <v>14.6</v>
       </c>
+      <c r="HS73" t="n">
+        <v>16.43</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50820,6 +51039,9 @@
       <c r="HR74" t="n">
         <v>27</v>
       </c>
+      <c r="HS74" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51502,6 +51724,9 @@
       <c r="HR75" t="n">
         <v>74</v>
       </c>
+      <c r="HS75" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52184,6 +52409,9 @@
       <c r="HR76" t="n">
         <v>49</v>
       </c>
+      <c r="HS76" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52866,6 +53094,9 @@
       <c r="HR77" t="n">
         <v>61</v>
       </c>
+      <c r="HS77" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53548,6 +53779,9 @@
       <c r="HR78" t="n">
         <v>2.44</v>
       </c>
+      <c r="HS78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54230,6 +54464,9 @@
       <c r="HR79" t="n">
         <v>5.55</v>
       </c>
+      <c r="HS79" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54912,6 +55149,9 @@
       <c r="HR80" t="n">
         <v>37.7</v>
       </c>
+      <c r="HS80" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55594,6 +55834,9 @@
       <c r="HR81" t="n">
         <v>18</v>
       </c>
+      <c r="HS81" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56276,6 +56519,9 @@
       <c r="HR82" t="n">
         <v>186.8</v>
       </c>
+      <c r="HS82" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56958,6 +57204,9 @@
       <c r="HR83" t="n">
         <v>85.8</v>
       </c>
+      <c r="HS83" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57640,6 +57889,9 @@
       <c r="HR84" t="n">
         <v>25.8</v>
       </c>
+      <c r="HS84" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58322,6 +58574,9 @@
       <c r="HR85" t="n">
         <v>92.8</v>
       </c>
+      <c r="HS85" t="n">
+        <v>81.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59004,6 +59259,9 @@
       <c r="HR86" t="n">
         <v>6</v>
       </c>
+      <c r="HS86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59686,6 +59944,9 @@
       <c r="HR87" t="n">
         <v>6</v>
       </c>
+      <c r="HS87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60368,6 +60629,9 @@
       <c r="HR88" t="n">
         <v>6</v>
       </c>
+      <c r="HS88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61050,6 +61314,9 @@
       <c r="HR89" t="n">
         <v>4</v>
       </c>
+      <c r="HS89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61732,6 +61999,9 @@
       <c r="HR90" t="n">
         <v>132</v>
       </c>
+      <c r="HS90" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62414,6 +62684,9 @@
       <c r="HR91" t="n">
         <v>220</v>
       </c>
+      <c r="HS91" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63096,6 +63369,9 @@
       <c r="HR92" t="n">
         <v>259</v>
       </c>
+      <c r="HS92" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63778,6 +64054,9 @@
       <c r="HR93" t="n">
         <v>71</v>
       </c>
+      <c r="HS93" t="n">
+        <v>75.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64460,6 +64739,9 @@
       <c r="HR94" t="n">
         <v>74</v>
       </c>
+      <c r="HS94" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65142,6 +65424,9 @@
       <c r="HR95" t="n">
         <v>16</v>
       </c>
+      <c r="HS95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65824,6 +66109,9 @@
       <c r="HR96" t="n">
         <v>19</v>
       </c>
+      <c r="HS96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66506,6 +66794,9 @@
       <c r="HR97" t="n">
         <v>27</v>
       </c>
+      <c r="HS97" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67188,6 +67479,9 @@
       <c r="HR98" t="n">
         <v>49</v>
       </c>
+      <c r="HS98" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67870,6 +68164,9 @@
       <c r="HR99" t="n">
         <v>49</v>
       </c>
+      <c r="HS99" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68552,6 +68849,9 @@
       <c r="HR100" t="n">
         <v>7</v>
       </c>
+      <c r="HS100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69234,6 +69534,9 @@
       <c r="HR101" t="n">
         <v>8</v>
       </c>
+      <c r="HS101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69916,6 +70219,9 @@
       <c r="HR102" t="n">
         <v>72.7</v>
       </c>
+      <c r="HS102" t="n">
+        <v>85.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HS102"/>
+  <dimension ref="A1:HT102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,6 +1037,9 @@
       <c r="HS1" t="n">
         <v>10344</v>
       </c>
+      <c r="HT1" t="n">
+        <v>10351</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1722,6 +1725,9 @@
       <c r="HS2" t="n">
         <v>2021</v>
       </c>
+      <c r="HT2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2407,6 +2413,9 @@
       <c r="HS3" t="n">
         <v>2</v>
       </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3092,6 +3101,9 @@
       <c r="HS4" t="n">
         <v>0</v>
       </c>
+      <c r="HT4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3777,6 +3789,9 @@
       <c r="HS5" t="n">
         <v>0</v>
       </c>
+      <c r="HT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4462,6 +4477,9 @@
       <c r="HS6" t="n">
         <v>87</v>
       </c>
+      <c r="HT6" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5147,6 +5165,9 @@
       <c r="HS7" t="n">
         <v>56</v>
       </c>
+      <c r="HT7" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5832,6 +5853,9 @@
       <c r="HS8" t="n">
         <v>31</v>
       </c>
+      <c r="HT8" t="n">
+        <v>-45</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6517,6 +6541,9 @@
       <c r="HS9" t="n">
         <v>1</v>
       </c>
+      <c r="HT9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7202,6 +7229,9 @@
       <c r="HS10" t="n">
         <v>9</v>
       </c>
+      <c r="HT10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7887,6 +7917,9 @@
       <c r="HS11" t="n">
         <v>241</v>
       </c>
+      <c r="HT11" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8572,6 +8605,9 @@
       <c r="HS12" t="n">
         <v>178</v>
       </c>
+      <c r="HT12" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9257,6 +9293,9 @@
       <c r="HS13" t="n">
         <v>419</v>
       </c>
+      <c r="HT13" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9942,6 +9981,9 @@
       <c r="HS14" t="n">
         <v>1.35</v>
       </c>
+      <c r="HT14" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10627,6 +10669,9 @@
       <c r="HS15" t="n">
         <v>114</v>
       </c>
+      <c r="HT15" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11312,6 +11357,9 @@
       <c r="HS16" t="n">
         <v>48</v>
       </c>
+      <c r="HT16" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11997,6 +12045,9 @@
       <c r="HS17" t="n">
         <v>27</v>
       </c>
+      <c r="HT17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12682,6 +12733,9 @@
       <c r="HS18" t="n">
         <v>21</v>
       </c>
+      <c r="HT18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13367,6 +13421,9 @@
       <c r="HS19" t="n">
         <v>21</v>
       </c>
+      <c r="HT19" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14052,6 +14109,9 @@
       <c r="HS20" t="n">
         <v>11</v>
       </c>
+      <c r="HT20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14737,6 +14797,9 @@
       <c r="HS21" t="n">
         <v>8</v>
       </c>
+      <c r="HT21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15422,6 +15485,9 @@
       <c r="HS22" t="n">
         <v>17</v>
       </c>
+      <c r="HT22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16107,6 +16173,9 @@
       <c r="HS23" t="n">
         <v>4</v>
       </c>
+      <c r="HT23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16792,6 +16861,9 @@
       <c r="HS24" t="n">
         <v>32</v>
       </c>
+      <c r="HT24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17477,6 +17549,9 @@
       <c r="HS25" t="n">
         <v>34.4</v>
       </c>
+      <c r="HT25" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18162,6 +18237,9 @@
       <c r="HS26" t="n">
         <v>38.09</v>
       </c>
+      <c r="HT26" t="n">
+        <v>35.22</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18847,6 +18925,9 @@
       <c r="HS27" t="n">
         <v>13.09</v>
       </c>
+      <c r="HT27" t="n">
+        <v>16.68</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19532,6 +19613,9 @@
       <c r="HS28" t="n">
         <v>29</v>
       </c>
+      <c r="HT28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20217,6 +20301,9 @@
       <c r="HS29" t="n">
         <v>55</v>
       </c>
+      <c r="HT29" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20902,6 +20989,9 @@
       <c r="HS30" t="n">
         <v>35</v>
       </c>
+      <c r="HT30" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21587,6 +21677,9 @@
       <c r="HS31" t="n">
         <v>58</v>
       </c>
+      <c r="HT31" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22272,6 +22365,9 @@
       <c r="HS32" t="n">
         <v>1.81</v>
       </c>
+      <c r="HT32" t="n">
+        <v>2.26</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22957,6 +23053,9 @@
       <c r="HS33" t="n">
         <v>5.27</v>
       </c>
+      <c r="HT33" t="n">
+        <v>4.78</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23642,6 +23741,9 @@
       <c r="HS34" t="n">
         <v>48.3</v>
       </c>
+      <c r="HT34" t="n">
+        <v>39.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24327,6 +24429,9 @@
       <c r="HS35" t="n">
         <v>19</v>
       </c>
+      <c r="HT35" t="n">
+        <v>20.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25012,6 +25117,9 @@
       <c r="HS36" t="n">
         <v>187.3</v>
       </c>
+      <c r="HT36" t="n">
+        <v>186.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25697,6 +25805,9 @@
       <c r="HS37" t="n">
         <v>87.3</v>
       </c>
+      <c r="HT37" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26382,6 +26493,9 @@
       <c r="HS38" t="n">
         <v>24.66</v>
       </c>
+      <c r="HT38" t="n">
+        <v>24.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27067,6 +27181,9 @@
       <c r="HS39" t="n">
         <v>73.40000000000001</v>
       </c>
+      <c r="HT39" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27752,6 +27869,9 @@
       <c r="HS40" t="n">
         <v>10</v>
       </c>
+      <c r="HT40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28437,6 +28557,9 @@
       <c r="HS41" t="n">
         <v>7</v>
       </c>
+      <c r="HT41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29122,6 +29245,9 @@
       <c r="HS42" t="n">
         <v>4</v>
       </c>
+      <c r="HT42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29807,6 +29933,9 @@
       <c r="HS43" t="n">
         <v>2</v>
       </c>
+      <c r="HT43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30492,6 +30621,9 @@
       <c r="HS44" t="n">
         <v>145</v>
       </c>
+      <c r="HT44" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31177,6 +31309,9 @@
       <c r="HS45" t="n">
         <v>278</v>
       </c>
+      <c r="HT45" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31862,6 +31997,9 @@
       <c r="HS46" t="n">
         <v>318</v>
       </c>
+      <c r="HT46" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32547,6 +32685,9 @@
       <c r="HS47" t="n">
         <v>75.90000000000001</v>
       </c>
+      <c r="HT47" t="n">
+        <v>71.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33232,6 +33373,9 @@
       <c r="HS48" t="n">
         <v>55</v>
       </c>
+      <c r="HT48" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33917,6 +34061,9 @@
       <c r="HS49" t="n">
         <v>12</v>
       </c>
+      <c r="HT49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34602,6 +34749,9 @@
       <c r="HS50" t="n">
         <v>22</v>
       </c>
+      <c r="HT50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35287,6 +35437,9 @@
       <c r="HS51" t="n">
         <v>29</v>
       </c>
+      <c r="HT51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35972,6 +36125,9 @@
       <c r="HS52" t="n">
         <v>35</v>
       </c>
+      <c r="HT52" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36657,6 +36813,9 @@
       <c r="HS53" t="n">
         <v>56</v>
       </c>
+      <c r="HT53" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37342,6 +37501,9 @@
       <c r="HS54" t="n">
         <v>3</v>
       </c>
+      <c r="HT54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38027,6 +38189,9 @@
       <c r="HS55" t="n">
         <v>8</v>
       </c>
+      <c r="HT55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38712,6 +38877,9 @@
       <c r="HS56" t="n">
         <v>72.7</v>
       </c>
+      <c r="HT56" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39397,6 +39565,9 @@
       <c r="HS57" t="n">
         <v>207</v>
       </c>
+      <c r="HT57" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40082,6 +40253,9 @@
       <c r="HS58" t="n">
         <v>138</v>
       </c>
+      <c r="HT58" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40767,6 +40941,9 @@
       <c r="HS59" t="n">
         <v>345</v>
       </c>
+      <c r="HT59" t="n">
+        <v>428</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41452,6 +41629,9 @@
       <c r="HS60" t="n">
         <v>1.5</v>
       </c>
+      <c r="HT60" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42137,6 +42317,9 @@
       <c r="HS61" t="n">
         <v>81</v>
       </c>
+      <c r="HT61" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42822,6 +43005,9 @@
       <c r="HS62" t="n">
         <v>48</v>
       </c>
+      <c r="HT62" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43507,6 +43693,9 @@
       <c r="HS63" t="n">
         <v>19</v>
       </c>
+      <c r="HT63" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44192,6 +44381,9 @@
       <c r="HS64" t="n">
         <v>21</v>
       </c>
+      <c r="HT64" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44877,6 +45069,9 @@
       <c r="HS65" t="n">
         <v>21</v>
       </c>
+      <c r="HT65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45562,6 +45757,9 @@
       <c r="HS66" t="n">
         <v>7</v>
       </c>
+      <c r="HT66" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46247,6 +46445,9 @@
       <c r="HS67" t="n">
         <v>6</v>
       </c>
+      <c r="HT67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46932,6 +47133,9 @@
       <c r="HS68" t="n">
         <v>14</v>
       </c>
+      <c r="HT68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47617,6 +47821,9 @@
       <c r="HS69" t="n">
         <v>0</v>
       </c>
+      <c r="HT69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48302,6 +48509,9 @@
       <c r="HS70" t="n">
         <v>21</v>
       </c>
+      <c r="HT70" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48987,6 +49197,9 @@
       <c r="HS71" t="n">
         <v>33.3</v>
       </c>
+      <c r="HT71" t="n">
+        <v>55.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49672,6 +49885,9 @@
       <c r="HS72" t="n">
         <v>49.29</v>
       </c>
+      <c r="HT72" t="n">
+        <v>26.75</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50357,6 +50573,9 @@
       <c r="HS73" t="n">
         <v>16.43</v>
       </c>
+      <c r="HT73" t="n">
+        <v>14.76</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51042,6 +51261,9 @@
       <c r="HS74" t="n">
         <v>21</v>
       </c>
+      <c r="HT74" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51727,6 +51949,9 @@
       <c r="HS75" t="n">
         <v>50</v>
       </c>
+      <c r="HT75" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52412,6 +52637,9 @@
       <c r="HS76" t="n">
         <v>46</v>
       </c>
+      <c r="HT76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53097,6 +53325,9 @@
       <c r="HS77" t="n">
         <v>42</v>
       </c>
+      <c r="HT77" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53782,6 +54013,9 @@
       <c r="HS78" t="n">
         <v>2</v>
       </c>
+      <c r="HT78" t="n">
+        <v>2.21</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54467,6 +54701,9 @@
       <c r="HS79" t="n">
         <v>6</v>
       </c>
+      <c r="HT79" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55152,6 +55389,9 @@
       <c r="HS80" t="n">
         <v>50</v>
       </c>
+      <c r="HT80" t="n">
+        <v>42.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55837,6 +56077,9 @@
       <c r="HS81" t="n">
         <v>16.7</v>
       </c>
+      <c r="HT81" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56522,6 +56765,9 @@
       <c r="HS82" t="n">
         <v>188.3</v>
       </c>
+      <c r="HT82" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57207,6 +57453,9 @@
       <c r="HS83" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="HT83" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57892,6 +58141,9 @@
       <c r="HS84" t="n">
         <v>25.24</v>
       </c>
+      <c r="HT84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58577,6 +58829,9 @@
       <c r="HS85" t="n">
         <v>81.90000000000001</v>
       </c>
+      <c r="HT85" t="n">
+        <v>105.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59262,6 +59517,9 @@
       <c r="HS86" t="n">
         <v>8</v>
       </c>
+      <c r="HT86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59947,6 +60205,9 @@
       <c r="HS87" t="n">
         <v>7</v>
       </c>
+      <c r="HT87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60632,6 +60893,9 @@
       <c r="HS88" t="n">
         <v>2</v>
       </c>
+      <c r="HT88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61317,6 +61581,9 @@
       <c r="HS89" t="n">
         <v>5</v>
       </c>
+      <c r="HT89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62002,6 +62269,9 @@
       <c r="HS90" t="n">
         <v>113</v>
       </c>
+      <c r="HT90" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62687,6 +62957,9 @@
       <c r="HS91" t="n">
         <v>219</v>
       </c>
+      <c r="HT91" t="n">
+        <v>281</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63372,6 +63645,9 @@
       <c r="HS92" t="n">
         <v>260</v>
       </c>
+      <c r="HT92" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64057,6 +64333,9 @@
       <c r="HS93" t="n">
         <v>75.40000000000001</v>
       </c>
+      <c r="HT93" t="n">
+        <v>73.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64742,6 +65021,9 @@
       <c r="HS94" t="n">
         <v>50</v>
       </c>
+      <c r="HT94" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65427,6 +65709,9 @@
       <c r="HS95" t="n">
         <v>6</v>
       </c>
+      <c r="HT95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66112,6 +66397,9 @@
       <c r="HS96" t="n">
         <v>5</v>
       </c>
+      <c r="HT96" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66797,6 +67085,9 @@
       <c r="HS97" t="n">
         <v>21</v>
       </c>
+      <c r="HT97" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67482,6 +67773,9 @@
       <c r="HS98" t="n">
         <v>46</v>
       </c>
+      <c r="HT98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68167,6 +68461,9 @@
       <c r="HS99" t="n">
         <v>49</v>
       </c>
+      <c r="HT99" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68852,6 +69149,9 @@
       <c r="HS100" t="n">
         <v>6</v>
       </c>
+      <c r="HT100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69537,6 +69837,9 @@
       <c r="HS101" t="n">
         <v>6</v>
       </c>
+      <c r="HT101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70222,6 +70525,9 @@
       <c r="HS102" t="n">
         <v>85.7</v>
       </c>
+      <c r="HT102" t="n">
+        <v>56.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HT102"/>
+  <dimension ref="A1:HU102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,6 +1040,9 @@
       <c r="HT1" t="n">
         <v>10351</v>
       </c>
+      <c r="HU1" t="n">
+        <v>10362</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1728,6 +1731,9 @@
       <c r="HT2" t="n">
         <v>2021</v>
       </c>
+      <c r="HU2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2416,6 +2422,9 @@
       <c r="HT3" t="n">
         <v>3</v>
       </c>
+      <c r="HU3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3104,6 +3113,9 @@
       <c r="HT4" t="n">
         <v>1</v>
       </c>
+      <c r="HU4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3792,6 +3804,9 @@
       <c r="HT5" t="n">
         <v>0</v>
       </c>
+      <c r="HU5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4480,6 +4495,9 @@
       <c r="HT6" t="n">
         <v>64</v>
       </c>
+      <c r="HU6" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5168,6 +5186,9 @@
       <c r="HT7" t="n">
         <v>109</v>
       </c>
+      <c r="HU7" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5856,6 +5877,9 @@
       <c r="HT8" t="n">
         <v>-45</v>
       </c>
+      <c r="HU8" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6544,6 +6568,9 @@
       <c r="HT9" t="n">
         <v>0</v>
       </c>
+      <c r="HU9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7232,6 +7259,9 @@
       <c r="HT10" t="n">
         <v>3</v>
       </c>
+      <c r="HU10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7920,6 +7950,9 @@
       <c r="HT11" t="n">
         <v>196</v>
       </c>
+      <c r="HU11" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8608,6 +8641,9 @@
       <c r="HT12" t="n">
         <v>121</v>
       </c>
+      <c r="HU12" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9296,6 +9332,9 @@
       <c r="HT13" t="n">
         <v>317</v>
       </c>
+      <c r="HU13" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9984,6 +10023,9 @@
       <c r="HT14" t="n">
         <v>1.62</v>
       </c>
+      <c r="HU14" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10672,6 +10714,9 @@
       <c r="HT15" t="n">
         <v>78</v>
       </c>
+      <c r="HU15" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11360,6 +11405,9 @@
       <c r="HT16" t="n">
         <v>62</v>
       </c>
+      <c r="HU16" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12048,6 +12096,9 @@
       <c r="HT17" t="n">
         <v>34</v>
       </c>
+      <c r="HU17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12736,6 +12787,9 @@
       <c r="HT18" t="n">
         <v>19</v>
       </c>
+      <c r="HU18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13424,6 +13478,9 @@
       <c r="HT19" t="n">
         <v>29</v>
       </c>
+      <c r="HU19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14112,6 +14169,9 @@
       <c r="HT20" t="n">
         <v>9</v>
       </c>
+      <c r="HU20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14800,6 +14860,9 @@
       <c r="HT21" t="n">
         <v>7</v>
       </c>
+      <c r="HU21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15488,6 +15551,9 @@
       <c r="HT22" t="n">
         <v>8</v>
       </c>
+      <c r="HU22" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16176,6 +16242,9 @@
       <c r="HT23" t="n">
         <v>2</v>
       </c>
+      <c r="HU23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16864,6 +16933,9 @@
       <c r="HT24" t="n">
         <v>19</v>
       </c>
+      <c r="HU24" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17552,6 +17624,9 @@
       <c r="HT25" t="n">
         <v>47.4</v>
       </c>
+      <c r="HU25" t="n">
+        <v>41.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18240,6 +18315,9 @@
       <c r="HT26" t="n">
         <v>35.22</v>
       </c>
+      <c r="HU26" t="n">
+        <v>26.08</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18928,6 +19006,9 @@
       <c r="HT27" t="n">
         <v>16.68</v>
       </c>
+      <c r="HU27" t="n">
+        <v>10.94</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19616,6 +19697,9 @@
       <c r="HT28" t="n">
         <v>29</v>
       </c>
+      <c r="HU28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20304,6 +20388,9 @@
       <c r="HT29" t="n">
         <v>73</v>
       </c>
+      <c r="HU29" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20992,6 +21079,9 @@
       <c r="HT30" t="n">
         <v>47</v>
       </c>
+      <c r="HU30" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21680,6 +21770,9 @@
       <c r="HT31" t="n">
         <v>43</v>
       </c>
+      <c r="HU31" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22368,6 +22461,9 @@
       <c r="HT32" t="n">
         <v>2.26</v>
       </c>
+      <c r="HU32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23056,6 +23152,9 @@
       <c r="HT33" t="n">
         <v>4.78</v>
       </c>
+      <c r="HU33" t="n">
+        <v>4.77</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23744,6 +23843,9 @@
       <c r="HT34" t="n">
         <v>39.5</v>
       </c>
+      <c r="HU34" t="n">
+        <v>46.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24432,6 +24534,9 @@
       <c r="HT35" t="n">
         <v>20.9</v>
       </c>
+      <c r="HU35" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25120,6 +25225,9 @@
       <c r="HT36" t="n">
         <v>186.3</v>
       </c>
+      <c r="HU36" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25808,6 +25916,9 @@
       <c r="HT37" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="HU37" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26496,6 +26607,9 @@
       <c r="HT38" t="n">
         <v>24.49</v>
       </c>
+      <c r="HU38" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27184,6 +27298,9 @@
       <c r="HT39" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="HU39" t="n">
+        <v>80.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27872,6 +27989,9 @@
       <c r="HT40" t="n">
         <v>10</v>
       </c>
+      <c r="HU40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28560,6 +28680,9 @@
       <c r="HT41" t="n">
         <v>7</v>
       </c>
+      <c r="HU41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29248,6 +29371,9 @@
       <c r="HT42" t="n">
         <v>4</v>
       </c>
+      <c r="HU42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29936,6 +30062,9 @@
       <c r="HT43" t="n">
         <v>2</v>
       </c>
+      <c r="HU43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30624,6 +30753,9 @@
       <c r="HT44" t="n">
         <v>127</v>
       </c>
+      <c r="HU44" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31312,6 +31444,9 @@
       <c r="HT45" t="n">
         <v>187</v>
       </c>
+      <c r="HU45" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32000,6 +32135,9 @@
       <c r="HT46" t="n">
         <v>227</v>
       </c>
+      <c r="HU46" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32688,6 +32826,9 @@
       <c r="HT47" t="n">
         <v>71.59999999999999</v>
       </c>
+      <c r="HU47" t="n">
+        <v>72.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33376,6 +33517,9 @@
       <c r="HT48" t="n">
         <v>73</v>
       </c>
+      <c r="HU48" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34064,6 +34208,9 @@
       <c r="HT49" t="n">
         <v>7</v>
       </c>
+      <c r="HU49" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34752,6 +34899,9 @@
       <c r="HT50" t="n">
         <v>10</v>
       </c>
+      <c r="HU50" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35440,6 +35590,9 @@
       <c r="HT51" t="n">
         <v>29</v>
       </c>
+      <c r="HU51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36128,6 +36281,9 @@
       <c r="HT52" t="n">
         <v>47</v>
       </c>
+      <c r="HU52" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36816,6 +36972,9 @@
       <c r="HT53" t="n">
         <v>59</v>
       </c>
+      <c r="HU53" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37504,6 +37663,9 @@
       <c r="HT54" t="n">
         <v>4</v>
       </c>
+      <c r="HU54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38192,6 +38354,9 @@
       <c r="HT55" t="n">
         <v>7</v>
       </c>
+      <c r="HU55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38880,6 +39045,9 @@
       <c r="HT56" t="n">
         <v>77.8</v>
       </c>
+      <c r="HU56" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39568,6 +39736,9 @@
       <c r="HT57" t="n">
         <v>262</v>
       </c>
+      <c r="HU57" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40256,6 +40427,9 @@
       <c r="HT58" t="n">
         <v>166</v>
       </c>
+      <c r="HU58" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40944,6 +41118,9 @@
       <c r="HT59" t="n">
         <v>428</v>
       </c>
+      <c r="HU59" t="n">
+        <v>423</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41632,6 +41809,9 @@
       <c r="HT60" t="n">
         <v>1.58</v>
       </c>
+      <c r="HU60" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42320,6 +42500,9 @@
       <c r="HT61" t="n">
         <v>118</v>
       </c>
+      <c r="HU61" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43008,6 +43191,9 @@
       <c r="HT62" t="n">
         <v>47</v>
       </c>
+      <c r="HU62" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43696,6 +43882,9 @@
       <c r="HT63" t="n">
         <v>35</v>
       </c>
+      <c r="HU63" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44384,6 +44573,9 @@
       <c r="HT64" t="n">
         <v>29</v>
       </c>
+      <c r="HU64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45072,6 +45264,9 @@
       <c r="HT65" t="n">
         <v>19</v>
       </c>
+      <c r="HU65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45760,6 +45955,9 @@
       <c r="HT66" t="n">
         <v>16</v>
       </c>
+      <c r="HU66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46448,6 +46646,9 @@
       <c r="HT67" t="n">
         <v>9</v>
       </c>
+      <c r="HU67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47136,6 +47337,9 @@
       <c r="HT68" t="n">
         <v>11</v>
       </c>
+      <c r="HU68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47824,6 +48028,9 @@
       <c r="HT69" t="n">
         <v>2</v>
       </c>
+      <c r="HU69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48512,6 +48719,9 @@
       <c r="HT70" t="n">
         <v>29</v>
       </c>
+      <c r="HU70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49200,6 +49410,9 @@
       <c r="HT71" t="n">
         <v>55.2</v>
       </c>
+      <c r="HU71" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49888,6 +50101,9 @@
       <c r="HT72" t="n">
         <v>26.75</v>
       </c>
+      <c r="HU72" t="n">
+        <v>35.25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50576,6 +50792,9 @@
       <c r="HT73" t="n">
         <v>14.76</v>
       </c>
+      <c r="HU73" t="n">
+        <v>20.14</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51264,6 +51483,9 @@
       <c r="HT74" t="n">
         <v>43</v>
       </c>
+      <c r="HU74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51952,6 +52174,9 @@
       <c r="HT75" t="n">
         <v>63</v>
       </c>
+      <c r="HU75" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52640,6 +52865,9 @@
       <c r="HT76" t="n">
         <v>34</v>
       </c>
+      <c r="HU76" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53328,6 +53556,9 @@
       <c r="HT77" t="n">
         <v>64</v>
       </c>
+      <c r="HU77" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54016,6 +54247,9 @@
       <c r="HT78" t="n">
         <v>2.21</v>
       </c>
+      <c r="HU78" t="n">
+        <v>2.14</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54704,6 +54938,9 @@
       <c r="HT79" t="n">
         <v>4</v>
       </c>
+      <c r="HU79" t="n">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55392,6 +55629,9 @@
       <c r="HT80" t="n">
         <v>42.2</v>
       </c>
+      <c r="HU80" t="n">
+        <v>42.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56080,6 +56320,9 @@
       <c r="HT81" t="n">
         <v>25</v>
       </c>
+      <c r="HU81" t="n">
+        <v>26.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56768,6 +57011,9 @@
       <c r="HT82" t="n">
         <v>187.8</v>
       </c>
+      <c r="HU82" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57456,6 +57702,9 @@
       <c r="HT83" t="n">
         <v>86.3</v>
       </c>
+      <c r="HU83" t="n">
+        <v>86.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58144,6 +58393,9 @@
       <c r="HT84" t="n">
         <v>26</v>
       </c>
+      <c r="HU84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58832,6 +59084,9 @@
       <c r="HT85" t="n">
         <v>105.4</v>
       </c>
+      <c r="HU85" t="n">
+        <v>95.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59520,6 +59775,9 @@
       <c r="HT86" t="n">
         <v>7</v>
       </c>
+      <c r="HU86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60208,6 +60466,9 @@
       <c r="HT87" t="n">
         <v>4</v>
       </c>
+      <c r="HU87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60896,6 +61157,9 @@
       <c r="HT88" t="n">
         <v>7</v>
       </c>
+      <c r="HU88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61584,6 +61848,9 @@
       <c r="HT89" t="n">
         <v>4</v>
       </c>
+      <c r="HU89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62272,6 +62539,9 @@
       <c r="HT90" t="n">
         <v>144</v>
       </c>
+      <c r="HU90" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62960,6 +63230,9 @@
       <c r="HT91" t="n">
         <v>281</v>
       </c>
+      <c r="HU91" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63648,6 +63921,9 @@
       <c r="HT92" t="n">
         <v>316</v>
       </c>
+      <c r="HU92" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64336,6 +64612,9 @@
       <c r="HT93" t="n">
         <v>73.8</v>
       </c>
+      <c r="HU93" t="n">
+        <v>73.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65024,6 +65303,9 @@
       <c r="HT94" t="n">
         <v>63</v>
       </c>
+      <c r="HU94" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65712,6 +65994,9 @@
       <c r="HT95" t="n">
         <v>10</v>
       </c>
+      <c r="HU95" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66400,6 +66685,9 @@
       <c r="HT96" t="n">
         <v>20</v>
       </c>
+      <c r="HU96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67088,6 +67376,9 @@
       <c r="HT97" t="n">
         <v>43</v>
       </c>
+      <c r="HU97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67776,6 +68067,9 @@
       <c r="HT98" t="n">
         <v>34</v>
       </c>
+      <c r="HU98" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68464,6 +68758,9 @@
       <c r="HT99" t="n">
         <v>63</v>
       </c>
+      <c r="HU99" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69152,6 +69449,9 @@
       <c r="HT100" t="n">
         <v>9</v>
       </c>
+      <c r="HU100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69840,6 +70140,9 @@
       <c r="HT101" t="n">
         <v>9</v>
       </c>
+      <c r="HU101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70528,6 +70831,9 @@
       <c r="HT102" t="n">
         <v>56.2</v>
       </c>
+      <c r="HU102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU102"/>
+  <dimension ref="A1:HV102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,6 +1043,9 @@
       <c r="HU1" t="n">
         <v>10362</v>
       </c>
+      <c r="HV1" t="n">
+        <v>10369</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1734,6 +1737,9 @@
       <c r="HU2" t="n">
         <v>2021</v>
       </c>
+      <c r="HV2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2425,6 +2431,9 @@
       <c r="HU3" t="n">
         <v>4</v>
       </c>
+      <c r="HV3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3116,6 +3125,9 @@
       <c r="HU4" t="n">
         <v>0</v>
       </c>
+      <c r="HV4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3807,6 +3819,9 @@
       <c r="HU5" t="n">
         <v>0</v>
       </c>
+      <c r="HV5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4498,6 +4513,9 @@
       <c r="HU6" t="n">
         <v>96</v>
       </c>
+      <c r="HV6" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5189,6 +5207,9 @@
       <c r="HU7" t="n">
         <v>81</v>
       </c>
+      <c r="HV7" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5880,6 +5901,9 @@
       <c r="HU8" t="n">
         <v>15</v>
       </c>
+      <c r="HV8" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6571,6 +6595,9 @@
       <c r="HU9" t="n">
         <v>1</v>
       </c>
+      <c r="HV9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7262,6 +7289,9 @@
       <c r="HU10" t="n">
         <v>10</v>
       </c>
+      <c r="HV10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7953,6 +7983,9 @@
       <c r="HU11" t="n">
         <v>197</v>
       </c>
+      <c r="HV11" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8644,6 +8677,9 @@
       <c r="HU12" t="n">
         <v>142</v>
       </c>
+      <c r="HV12" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9335,6 +9371,9 @@
       <c r="HU13" t="n">
         <v>339</v>
       </c>
+      <c r="HV13" t="n">
+        <v>359</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10026,6 +10065,9 @@
       <c r="HU14" t="n">
         <v>1.39</v>
       </c>
+      <c r="HV14" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10717,6 +10759,9 @@
       <c r="HU15" t="n">
         <v>90</v>
       </c>
+      <c r="HV15" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11408,6 +11453,9 @@
       <c r="HU16" t="n">
         <v>41</v>
       </c>
+      <c r="HV16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12099,6 +12147,9 @@
       <c r="HU17" t="n">
         <v>30</v>
       </c>
+      <c r="HV17" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12790,6 +12841,9 @@
       <c r="HU18" t="n">
         <v>19</v>
       </c>
+      <c r="HV18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13481,6 +13535,9 @@
       <c r="HU19" t="n">
         <v>16</v>
       </c>
+      <c r="HV19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14172,6 +14229,9 @@
       <c r="HU20" t="n">
         <v>13</v>
       </c>
+      <c r="HV20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14863,6 +14923,9 @@
       <c r="HU21" t="n">
         <v>9</v>
       </c>
+      <c r="HV21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15554,6 +15617,9 @@
       <c r="HU22" t="n">
         <v>16</v>
       </c>
+      <c r="HV22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16245,6 +16311,9 @@
       <c r="HU23" t="n">
         <v>2</v>
       </c>
+      <c r="HV23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16936,6 +17005,9 @@
       <c r="HU24" t="n">
         <v>31</v>
       </c>
+      <c r="HV24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17627,6 +17699,9 @@
       <c r="HU25" t="n">
         <v>41.9</v>
       </c>
+      <c r="HV25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18318,6 +18393,9 @@
       <c r="HU26" t="n">
         <v>26.08</v>
       </c>
+      <c r="HV26" t="n">
+        <v>29.92</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19009,6 +19087,9 @@
       <c r="HU27" t="n">
         <v>10.94</v>
       </c>
+      <c r="HV27" t="n">
+        <v>14.96</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19700,6 +19781,9 @@
       <c r="HU28" t="n">
         <v>37</v>
       </c>
+      <c r="HV28" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20391,6 +20475,9 @@
       <c r="HU29" t="n">
         <v>58</v>
       </c>
+      <c r="HV29" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21082,6 +21169,9 @@
       <c r="HU30" t="n">
         <v>30</v>
       </c>
+      <c r="HV30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21773,6 +21863,9 @@
       <c r="HU31" t="n">
         <v>62</v>
       </c>
+      <c r="HV31" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22464,6 +22557,9 @@
       <c r="HU32" t="n">
         <v>2</v>
       </c>
+      <c r="HV32" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23155,6 +23251,9 @@
       <c r="HU33" t="n">
         <v>4.77</v>
       </c>
+      <c r="HV33" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23846,6 +23945,9 @@
       <c r="HU34" t="n">
         <v>46.8</v>
       </c>
+      <c r="HV34" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24537,6 +24639,9 @@
       <c r="HU35" t="n">
         <v>21</v>
       </c>
+      <c r="HV35" t="n">
+        <v>22.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25228,6 +25333,9 @@
       <c r="HU36" t="n">
         <v>188.6</v>
       </c>
+      <c r="HV36" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25919,6 +26027,9 @@
       <c r="HU37" t="n">
         <v>88</v>
       </c>
+      <c r="HV37" t="n">
+        <v>88.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26610,6 +26721,9 @@
       <c r="HU38" t="n">
         <v>24.8</v>
       </c>
+      <c r="HV38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27301,6 +27415,9 @@
       <c r="HU39" t="n">
         <v>80.3</v>
       </c>
+      <c r="HV39" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27992,6 +28109,9 @@
       <c r="HU40" t="n">
         <v>8</v>
       </c>
+      <c r="HV40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28683,6 +28803,9 @@
       <c r="HU41" t="n">
         <v>7</v>
       </c>
+      <c r="HV41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29374,6 +29497,9 @@
       <c r="HU42" t="n">
         <v>4</v>
       </c>
+      <c r="HV42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30065,6 +30191,9 @@
       <c r="HU43" t="n">
         <v>3</v>
       </c>
+      <c r="HV43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30756,6 +30885,9 @@
       <c r="HU44" t="n">
         <v>130</v>
       </c>
+      <c r="HV44" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31447,6 +31579,9 @@
       <c r="HU45" t="n">
         <v>211</v>
       </c>
+      <c r="HV45" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32138,6 +32273,9 @@
       <c r="HU46" t="n">
         <v>247</v>
       </c>
+      <c r="HV46" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32829,6 +32967,9 @@
       <c r="HU47" t="n">
         <v>72.90000000000001</v>
       </c>
+      <c r="HV47" t="n">
+        <v>74.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33520,6 +33661,9 @@
       <c r="HU48" t="n">
         <v>58</v>
       </c>
+      <c r="HV48" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34211,6 +34355,9 @@
       <c r="HU49" t="n">
         <v>17</v>
       </c>
+      <c r="HV49" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34902,6 +35049,9 @@
       <c r="HU50" t="n">
         <v>21</v>
       </c>
+      <c r="HV50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35593,6 +35743,9 @@
       <c r="HU51" t="n">
         <v>37</v>
       </c>
+      <c r="HV51" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36284,6 +36437,9 @@
       <c r="HU52" t="n">
         <v>30</v>
       </c>
+      <c r="HV52" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36975,6 +37131,9 @@
       <c r="HU53" t="n">
         <v>48</v>
       </c>
+      <c r="HV53" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37666,6 +37825,9 @@
       <c r="HU54" t="n">
         <v>5</v>
       </c>
+      <c r="HV54" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38357,6 +38519,9 @@
       <c r="HU55" t="n">
         <v>9</v>
       </c>
+      <c r="HV55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39048,6 +39213,9 @@
       <c r="HU56" t="n">
         <v>69.2</v>
       </c>
+      <c r="HV56" t="n">
+        <v>91.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39739,6 +39907,9 @@
       <c r="HU57" t="n">
         <v>238</v>
       </c>
+      <c r="HV57" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40430,6 +40601,9 @@
       <c r="HU58" t="n">
         <v>185</v>
       </c>
+      <c r="HV58" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41121,6 +41295,9 @@
       <c r="HU59" t="n">
         <v>423</v>
       </c>
+      <c r="HV59" t="n">
+        <v>374</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41812,6 +41989,9 @@
       <c r="HU60" t="n">
         <v>1.29</v>
       </c>
+      <c r="HV60" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42503,6 +42683,9 @@
       <c r="HU61" t="n">
         <v>118</v>
       </c>
+      <c r="HV61" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43194,6 +43377,9 @@
       <c r="HU62" t="n">
         <v>41</v>
       </c>
+      <c r="HV62" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43885,6 +44071,9 @@
       <c r="HU63" t="n">
         <v>33</v>
       </c>
+      <c r="HV63" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44576,6 +44765,9 @@
       <c r="HU64" t="n">
         <v>16</v>
       </c>
+      <c r="HV64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45267,6 +45459,9 @@
       <c r="HU65" t="n">
         <v>19</v>
       </c>
+      <c r="HV65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45958,6 +46153,9 @@
       <c r="HU66" t="n">
         <v>12</v>
       </c>
+      <c r="HV66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46649,6 +46847,9 @@
       <c r="HU67" t="n">
         <v>6</v>
       </c>
+      <c r="HV67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47340,6 +47541,9 @@
       <c r="HU68" t="n">
         <v>7</v>
       </c>
+      <c r="HV68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48031,6 +48235,9 @@
       <c r="HU69" t="n">
         <v>2</v>
       </c>
+      <c r="HV69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48722,6 +48929,9 @@
       <c r="HU70" t="n">
         <v>21</v>
       </c>
+      <c r="HV70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49413,6 +49623,9 @@
       <c r="HU71" t="n">
         <v>57.1</v>
       </c>
+      <c r="HV71" t="n">
+        <v>64.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50104,6 +50317,9 @@
       <c r="HU72" t="n">
         <v>35.25</v>
       </c>
+      <c r="HV72" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50795,6 +51011,9 @@
       <c r="HU73" t="n">
         <v>20.14</v>
       </c>
+      <c r="HV73" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51486,6 +51705,9 @@
       <c r="HU74" t="n">
         <v>30</v>
       </c>
+      <c r="HV74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52177,6 +52399,9 @@
       <c r="HU75" t="n">
         <v>60</v>
       </c>
+      <c r="HV75" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52868,6 +53093,9 @@
       <c r="HU76" t="n">
         <v>47</v>
       </c>
+      <c r="HV76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53559,6 +53787,9 @@
       <c r="HU77" t="n">
         <v>45</v>
       </c>
+      <c r="HV77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54250,6 +54481,9 @@
       <c r="HU78" t="n">
         <v>2.14</v>
       </c>
+      <c r="HV78" t="n">
+        <v>3.24</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54941,6 +55175,9 @@
       <c r="HU79" t="n">
         <v>3.75</v>
       </c>
+      <c r="HV79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55632,6 +55869,9 @@
       <c r="HU80" t="n">
         <v>42.2</v>
       </c>
+      <c r="HV80" t="n">
+        <v>30.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56323,6 +56563,9 @@
       <c r="HU81" t="n">
         <v>26.7</v>
       </c>
+      <c r="HV81" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57014,6 +57257,9 @@
       <c r="HU82" t="n">
         <v>187.9</v>
       </c>
+      <c r="HV82" t="n">
+        <v>186.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57705,6 +57951,9 @@
       <c r="HU83" t="n">
         <v>86.40000000000001</v>
       </c>
+      <c r="HV83" t="n">
+        <v>83.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58396,6 +58645,9 @@
       <c r="HU84" t="n">
         <v>25.8</v>
       </c>
+      <c r="HV84" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59087,6 +59339,9 @@
       <c r="HU85" t="n">
         <v>95.5</v>
       </c>
+      <c r="HV85" t="n">
+        <v>64.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59778,6 +60033,9 @@
       <c r="HU86" t="n">
         <v>7</v>
       </c>
+      <c r="HV86" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60469,6 +60727,9 @@
       <c r="HU87" t="n">
         <v>6</v>
       </c>
+      <c r="HV87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61160,6 +61421,9 @@
       <c r="HU88" t="n">
         <v>5</v>
       </c>
+      <c r="HV88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61851,6 +62115,9 @@
       <c r="HU89" t="n">
         <v>4</v>
       </c>
+      <c r="HV89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62542,6 +62809,9 @@
       <c r="HU90" t="n">
         <v>130</v>
       </c>
+      <c r="HV90" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63233,6 +63503,9 @@
       <c r="HU91" t="n">
         <v>279</v>
       </c>
+      <c r="HV91" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63924,6 +64197,9 @@
       <c r="HU92" t="n">
         <v>311</v>
       </c>
+      <c r="HV92" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64615,6 +64891,9 @@
       <c r="HU93" t="n">
         <v>73.5</v>
       </c>
+      <c r="HV93" t="n">
+        <v>73.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65306,6 +65585,9 @@
       <c r="HU94" t="n">
         <v>60</v>
       </c>
+      <c r="HV94" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65997,6 +66279,9 @@
       <c r="HU95" t="n">
         <v>15</v>
       </c>
+      <c r="HV95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66688,6 +66973,9 @@
       <c r="HU96" t="n">
         <v>11</v>
       </c>
+      <c r="HV96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67379,6 +67667,9 @@
       <c r="HU97" t="n">
         <v>30</v>
       </c>
+      <c r="HV97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68070,6 +68361,9 @@
       <c r="HU98" t="n">
         <v>47</v>
       </c>
+      <c r="HV98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68761,6 +69055,9 @@
       <c r="HU99" t="n">
         <v>43</v>
       </c>
+      <c r="HV99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69452,6 +69749,9 @@
       <c r="HU100" t="n">
         <v>2</v>
       </c>
+      <c r="HV100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70143,6 +70443,9 @@
       <c r="HU101" t="n">
         <v>6</v>
       </c>
+      <c r="HV101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70834,6 +71137,9 @@
       <c r="HU102" t="n">
         <v>50</v>
       </c>
+      <c r="HV102" t="n">
+        <v>63.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HV102"/>
+  <dimension ref="A1:HW102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,6 +1114,9 @@
       <c r="HV1" t="n">
         <v>10369</v>
       </c>
+      <c r="HW1" t="n">
+        <v>10377</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1740,6 +1811,9 @@
       <c r="HV2" t="n">
         <v>2021</v>
       </c>
+      <c r="HW2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2434,6 +2508,9 @@
       <c r="HV3" t="n">
         <v>5</v>
       </c>
+      <c r="HW3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3128,6 +3205,9 @@
       <c r="HV4" t="n">
         <v>1</v>
       </c>
+      <c r="HW4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3822,6 +3902,9 @@
       <c r="HV5" t="n">
         <v>1</v>
       </c>
+      <c r="HW5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4516,6 +4599,9 @@
       <c r="HV6" t="n">
         <v>84</v>
       </c>
+      <c r="HW6" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5210,6 +5296,9 @@
       <c r="HV7" t="n">
         <v>72</v>
       </c>
+      <c r="HW7" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5904,6 +5993,9 @@
       <c r="HV8" t="n">
         <v>12</v>
       </c>
+      <c r="HW8" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6598,6 +6690,9 @@
       <c r="HV9" t="n">
         <v>1</v>
       </c>
+      <c r="HW9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7292,6 +7387,9 @@
       <c r="HV10" t="n">
         <v>1</v>
       </c>
+      <c r="HW10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7986,6 +8084,9 @@
       <c r="HV11" t="n">
         <v>218</v>
       </c>
+      <c r="HW11" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8680,6 +8781,9 @@
       <c r="HV12" t="n">
         <v>141</v>
       </c>
+      <c r="HW12" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9374,6 +9478,9 @@
       <c r="HV13" t="n">
         <v>359</v>
       </c>
+      <c r="HW13" t="n">
+        <v>392</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10068,6 +10175,9 @@
       <c r="HV14" t="n">
         <v>1.55</v>
       </c>
+      <c r="HW14" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10762,6 +10872,9 @@
       <c r="HV15" t="n">
         <v>102</v>
       </c>
+      <c r="HW15" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11456,6 +11569,9 @@
       <c r="HV16" t="n">
         <v>57</v>
       </c>
+      <c r="HW16" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12150,6 +12266,9 @@
       <c r="HV17" t="n">
         <v>39</v>
       </c>
+      <c r="HW17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12844,6 +12963,9 @@
       <c r="HV18" t="n">
         <v>20</v>
       </c>
+      <c r="HW18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13538,6 +13660,9 @@
       <c r="HV19" t="n">
         <v>18</v>
       </c>
+      <c r="HW19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14232,6 +14357,9 @@
       <c r="HV20" t="n">
         <v>12</v>
       </c>
+      <c r="HW20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14926,6 +15054,9 @@
       <c r="HV21" t="n">
         <v>11</v>
       </c>
+      <c r="HW21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15620,6 +15751,9 @@
       <c r="HV22" t="n">
         <v>8</v>
       </c>
+      <c r="HW22" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16314,6 +16448,9 @@
       <c r="HV23" t="n">
         <v>4</v>
       </c>
+      <c r="HW23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17008,6 +17145,9 @@
       <c r="HV24" t="n">
         <v>24</v>
       </c>
+      <c r="HW24" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17702,6 +17842,9 @@
       <c r="HV25" t="n">
         <v>50</v>
       </c>
+      <c r="HW25" t="n">
+        <v>48.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18396,6 +18539,9 @@
       <c r="HV26" t="n">
         <v>29.92</v>
       </c>
+      <c r="HW26" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19090,6 +19236,9 @@
       <c r="HV27" t="n">
         <v>14.96</v>
       </c>
+      <c r="HW27" t="n">
+        <v>13.52</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19784,6 +19933,9 @@
       <c r="HV28" t="n">
         <v>42</v>
       </c>
+      <c r="HW28" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20478,6 +20630,9 @@
       <c r="HV29" t="n">
         <v>53</v>
       </c>
+      <c r="HW29" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21172,6 +21327,9 @@
       <c r="HV30" t="n">
         <v>42</v>
       </c>
+      <c r="HW30" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21866,6 +22024,9 @@
       <c r="HV31" t="n">
         <v>54</v>
       </c>
+      <c r="HW31" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22560,6 +22721,9 @@
       <c r="HV32" t="n">
         <v>2.25</v>
       </c>
+      <c r="HW32" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23254,6 +23418,9 @@
       <c r="HV33" t="n">
         <v>4.5</v>
       </c>
+      <c r="HW33" t="n">
+        <v>3.79</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23948,6 +24115,9 @@
       <c r="HV34" t="n">
         <v>37</v>
       </c>
+      <c r="HW34" t="n">
+        <v>54.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24642,6 +24812,9 @@
       <c r="HV35" t="n">
         <v>22.2</v>
       </c>
+      <c r="HW35" t="n">
+        <v>26.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25336,6 +25509,9 @@
       <c r="HV36" t="n">
         <v>187.9</v>
       </c>
+      <c r="HW36" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26030,6 +26206,9 @@
       <c r="HV37" t="n">
         <v>88.59999999999999</v>
       </c>
+      <c r="HW37" t="n">
+        <v>88.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26724,6 +26903,9 @@
       <c r="HV38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HW38" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27418,6 +27600,9 @@
       <c r="HV39" t="n">
         <v>85.3</v>
       </c>
+      <c r="HW39" t="n">
+        <v>86.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28112,6 +28297,9 @@
       <c r="HV40" t="n">
         <v>8</v>
       </c>
+      <c r="HW40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28806,6 +28994,9 @@
       <c r="HV41" t="n">
         <v>7</v>
       </c>
+      <c r="HW41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29500,6 +29691,9 @@
       <c r="HV42" t="n">
         <v>5</v>
       </c>
+      <c r="HW42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30194,6 +30388,9 @@
       <c r="HV43" t="n">
         <v>3</v>
       </c>
+      <c r="HW43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30888,6 +31085,9 @@
       <c r="HV44" t="n">
         <v>152</v>
       </c>
+      <c r="HW44" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31582,6 +31782,9 @@
       <c r="HV45" t="n">
         <v>210</v>
       </c>
+      <c r="HW45" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32276,6 +32479,9 @@
       <c r="HV46" t="n">
         <v>266</v>
       </c>
+      <c r="HW46" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32970,6 +33176,9 @@
       <c r="HV47" t="n">
         <v>74.09999999999999</v>
       </c>
+      <c r="HW47" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33664,6 +33873,9 @@
       <c r="HV48" t="n">
         <v>53</v>
       </c>
+      <c r="HW48" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34358,6 +34570,9 @@
       <c r="HV49" t="n">
         <v>18</v>
       </c>
+      <c r="HW49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35052,6 +35267,9 @@
       <c r="HV50" t="n">
         <v>14</v>
       </c>
+      <c r="HW50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35746,6 +35964,9 @@
       <c r="HV51" t="n">
         <v>42</v>
       </c>
+      <c r="HW51" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36440,6 +36661,9 @@
       <c r="HV52" t="n">
         <v>42</v>
       </c>
+      <c r="HW52" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37134,6 +37358,9 @@
       <c r="HV53" t="n">
         <v>52</v>
       </c>
+      <c r="HW53" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37828,6 +38055,9 @@
       <c r="HV54" t="n">
         <v>12</v>
       </c>
+      <c r="HW54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38522,6 +38752,9 @@
       <c r="HV55" t="n">
         <v>11</v>
       </c>
+      <c r="HW55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39216,6 +39449,9 @@
       <c r="HV56" t="n">
         <v>91.7</v>
       </c>
+      <c r="HW56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39910,6 +40146,9 @@
       <c r="HV57" t="n">
         <v>213</v>
       </c>
+      <c r="HW57" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40604,6 +40843,9 @@
       <c r="HV58" t="n">
         <v>161</v>
       </c>
+      <c r="HW58" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41298,6 +41540,9 @@
       <c r="HV59" t="n">
         <v>374</v>
       </c>
+      <c r="HW59" t="n">
+        <v>398</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41992,6 +42237,9 @@
       <c r="HV60" t="n">
         <v>1.32</v>
       </c>
+      <c r="HW60" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42686,6 +42934,9 @@
       <c r="HV61" t="n">
         <v>94</v>
       </c>
+      <c r="HW61" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43380,6 +43631,9 @@
       <c r="HV62" t="n">
         <v>51</v>
       </c>
+      <c r="HW62" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44074,6 +44328,9 @@
       <c r="HV63" t="n">
         <v>37</v>
       </c>
+      <c r="HW63" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44768,6 +45025,9 @@
       <c r="HV64" t="n">
         <v>18</v>
       </c>
+      <c r="HW64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45462,6 +45722,9 @@
       <c r="HV65" t="n">
         <v>20</v>
       </c>
+      <c r="HW65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46156,6 +46419,9 @@
       <c r="HV66" t="n">
         <v>11</v>
       </c>
+      <c r="HW66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46850,6 +47116,9 @@
       <c r="HV67" t="n">
         <v>7</v>
       </c>
+      <c r="HW67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47544,6 +47813,9 @@
       <c r="HV68" t="n">
         <v>6</v>
       </c>
+      <c r="HW68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48238,6 +48510,9 @@
       <c r="HV69" t="n">
         <v>0</v>
       </c>
+      <c r="HW69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48932,6 +49207,9 @@
       <c r="HV70" t="n">
         <v>17</v>
       </c>
+      <c r="HW70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49626,6 +49904,9 @@
       <c r="HV71" t="n">
         <v>64.7</v>
       </c>
+      <c r="HW71" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50320,6 +50601,9 @@
       <c r="HV72" t="n">
         <v>34</v>
       </c>
+      <c r="HW72" t="n">
+        <v>66.33</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51014,6 +51298,9 @@
       <c r="HV73" t="n">
         <v>22</v>
       </c>
+      <c r="HW73" t="n">
+        <v>22.11</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51708,6 +51995,9 @@
       <c r="HV74" t="n">
         <v>35</v>
       </c>
+      <c r="HW74" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52402,6 +52692,9 @@
       <c r="HV75" t="n">
         <v>60</v>
       </c>
+      <c r="HW75" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53096,6 +53389,9 @@
       <c r="HV76" t="n">
         <v>42</v>
       </c>
+      <c r="HW76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53790,6 +54086,9 @@
       <c r="HV77" t="n">
         <v>55</v>
       </c>
+      <c r="HW77" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54484,6 +54783,9 @@
       <c r="HV78" t="n">
         <v>3.24</v>
       </c>
+      <c r="HW78" t="n">
+        <v>2.44</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55178,6 +55480,9 @@
       <c r="HV79" t="n">
         <v>5</v>
       </c>
+      <c r="HW79" t="n">
+        <v>7.33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55872,6 +56177,9 @@
       <c r="HV80" t="n">
         <v>30.9</v>
       </c>
+      <c r="HW80" t="n">
+        <v>34.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56566,6 +56874,9 @@
       <c r="HV81" t="n">
         <v>20</v>
       </c>
+      <c r="HW81" t="n">
+        <v>13.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57260,6 +57571,9 @@
       <c r="HV82" t="n">
         <v>186.6</v>
       </c>
+      <c r="HW82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57954,6 +58268,9 @@
       <c r="HV83" t="n">
         <v>83.8</v>
       </c>
+      <c r="HW83" t="n">
+        <v>84.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58648,6 +58965,9 @@
       <c r="HV84" t="n">
         <v>24.41</v>
       </c>
+      <c r="HW84" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59342,6 +59662,9 @@
       <c r="HV85" t="n">
         <v>64.3</v>
       </c>
+      <c r="HW85" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60036,6 +60359,9 @@
       <c r="HV86" t="n">
         <v>14</v>
       </c>
+      <c r="HW86" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60730,6 +61056,9 @@
       <c r="HV87" t="n">
         <v>2</v>
       </c>
+      <c r="HW87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61424,6 +61753,9 @@
       <c r="HV88" t="n">
         <v>1</v>
       </c>
+      <c r="HW88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62118,6 +62450,9 @@
       <c r="HV89" t="n">
         <v>5</v>
       </c>
+      <c r="HW89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62812,6 +63147,9 @@
       <c r="HV90" t="n">
         <v>139</v>
       </c>
+      <c r="HW90" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63506,6 +63844,9 @@
       <c r="HV91" t="n">
         <v>229</v>
       </c>
+      <c r="HW91" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -64200,6 +64541,9 @@
       <c r="HV92" t="n">
         <v>275</v>
       </c>
+      <c r="HW92" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64894,6 +65238,9 @@
       <c r="HV93" t="n">
         <v>73.5</v>
       </c>
+      <c r="HW93" t="n">
+        <v>76.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65588,6 +65935,9 @@
       <c r="HV94" t="n">
         <v>60</v>
       </c>
+      <c r="HW94" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66282,6 +66632,9 @@
       <c r="HV95" t="n">
         <v>13</v>
       </c>
+      <c r="HW95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66976,6 +67329,9 @@
       <c r="HV96" t="n">
         <v>9</v>
       </c>
+      <c r="HW96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67670,6 +68026,9 @@
       <c r="HV97" t="n">
         <v>35</v>
       </c>
+      <c r="HW97" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68364,6 +68723,9 @@
       <c r="HV98" t="n">
         <v>42</v>
       </c>
+      <c r="HW98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69058,6 +69420,9 @@
       <c r="HV99" t="n">
         <v>56</v>
       </c>
+      <c r="HW99" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69752,6 +70117,9 @@
       <c r="HV100" t="n">
         <v>4</v>
       </c>
+      <c r="HW100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70446,6 +70814,9 @@
       <c r="HV101" t="n">
         <v>7</v>
       </c>
+      <c r="HW101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -71140,6 +71511,9 @@
       <c r="HV102" t="n">
         <v>63.6</v>
       </c>
+      <c r="HW102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HW102"/>
+  <dimension ref="A1:HX102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,6 +1049,9 @@
       <c r="HW1" t="n">
         <v>10377</v>
       </c>
+      <c r="HX1" t="n">
+        <v>10389</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1814,6 +1749,9 @@
       <c r="HW2" t="n">
         <v>2021</v>
       </c>
+      <c r="HX2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2511,6 +2449,9 @@
       <c r="HW3" t="n">
         <v>6</v>
       </c>
+      <c r="HX3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3208,6 +3149,9 @@
       <c r="HW4" t="n">
         <v>0</v>
       </c>
+      <c r="HX4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3905,6 +3849,9 @@
       <c r="HW5" t="n">
         <v>0</v>
       </c>
+      <c r="HX5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4602,6 +4549,9 @@
       <c r="HW6" t="n">
         <v>99</v>
       </c>
+      <c r="HX6" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5299,6 +5249,9 @@
       <c r="HW7" t="n">
         <v>48</v>
       </c>
+      <c r="HX7" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5996,6 +5949,9 @@
       <c r="HW8" t="n">
         <v>51</v>
       </c>
+      <c r="HX8" t="n">
+        <v>-59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6693,6 +6649,9 @@
       <c r="HW9" t="n">
         <v>1</v>
       </c>
+      <c r="HX9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7390,6 +7349,9 @@
       <c r="HW10" t="n">
         <v>12</v>
       </c>
+      <c r="HX10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8087,6 +8049,9 @@
       <c r="HW11" t="n">
         <v>227</v>
       </c>
+      <c r="HX11" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8784,6 +8749,9 @@
       <c r="HW12" t="n">
         <v>165</v>
       </c>
+      <c r="HX12" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9481,6 +9449,9 @@
       <c r="HW13" t="n">
         <v>392</v>
       </c>
+      <c r="HX13" t="n">
+        <v>376</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10178,6 +10149,9 @@
       <c r="HW14" t="n">
         <v>1.38</v>
       </c>
+      <c r="HX14" t="n">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10875,6 +10849,9 @@
       <c r="HW15" t="n">
         <v>100</v>
       </c>
+      <c r="HX15" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11572,6 +11549,9 @@
       <c r="HW16" t="n">
         <v>58</v>
       </c>
+      <c r="HX16" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12269,6 +12249,9 @@
       <c r="HW17" t="n">
         <v>30</v>
       </c>
+      <c r="HX17" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12966,6 +12949,9 @@
       <c r="HW18" t="n">
         <v>16</v>
       </c>
+      <c r="HX18" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13663,6 +13649,9 @@
       <c r="HW19" t="n">
         <v>16</v>
       </c>
+      <c r="HX19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14360,6 +14349,9 @@
       <c r="HW20" t="n">
         <v>14</v>
       </c>
+      <c r="HX20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15057,6 +15049,9 @@
       <c r="HW21" t="n">
         <v>7</v>
       </c>
+      <c r="HX21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15754,6 +15749,9 @@
       <c r="HW22" t="n">
         <v>15</v>
       </c>
+      <c r="HX22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16451,6 +16449,9 @@
       <c r="HW23" t="n">
         <v>0</v>
       </c>
+      <c r="HX23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17148,6 +17149,9 @@
       <c r="HW24" t="n">
         <v>29</v>
       </c>
+      <c r="HX24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17845,6 +17849,9 @@
       <c r="HW25" t="n">
         <v>48.3</v>
       </c>
+      <c r="HX25" t="n">
+        <v>61.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18542,6 +18549,9 @@
       <c r="HW26" t="n">
         <v>28</v>
       </c>
+      <c r="HX26" t="n">
+        <v>34.18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19239,6 +19249,9 @@
       <c r="HW27" t="n">
         <v>13.52</v>
       </c>
+      <c r="HX27" t="n">
+        <v>20.89</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19936,6 +19949,9 @@
       <c r="HW28" t="n">
         <v>38</v>
       </c>
+      <c r="HX28" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20633,6 +20649,9 @@
       <c r="HW29" t="n">
         <v>49</v>
       </c>
+      <c r="HX29" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21330,6 +21349,9 @@
       <c r="HW30" t="n">
         <v>37</v>
       </c>
+      <c r="HX30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22027,6 +22049,9 @@
       <c r="HW31" t="n">
         <v>53</v>
       </c>
+      <c r="HX31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22724,6 +22749,9 @@
       <c r="HW32" t="n">
         <v>1.83</v>
       </c>
+      <c r="HX32" t="n">
+        <v>2.61</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23421,6 +23449,9 @@
       <c r="HW33" t="n">
         <v>3.79</v>
       </c>
+      <c r="HX33" t="n">
+        <v>4.27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24118,6 +24149,9 @@
       <c r="HW34" t="n">
         <v>54.7</v>
       </c>
+      <c r="HX34" t="n">
+        <v>38.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24815,6 +24849,9 @@
       <c r="HW35" t="n">
         <v>26.4</v>
       </c>
+      <c r="HX35" t="n">
+        <v>23.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25512,6 +25549,9 @@
       <c r="HW36" t="n">
         <v>187.9</v>
       </c>
+      <c r="HX36" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26209,6 +26249,9 @@
       <c r="HW37" t="n">
         <v>88.90000000000001</v>
       </c>
+      <c r="HX37" t="n">
+        <v>87.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26906,6 +26949,9 @@
       <c r="HW38" t="n">
         <v>25.24</v>
       </c>
+      <c r="HX38" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27603,6 +27649,9 @@
       <c r="HW39" t="n">
         <v>86.40000000000001</v>
       </c>
+      <c r="HX39" t="n">
+        <v>86.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28300,6 +28349,9 @@
       <c r="HW40" t="n">
         <v>8</v>
       </c>
+      <c r="HX40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28997,6 +29049,9 @@
       <c r="HW41" t="n">
         <v>7</v>
       </c>
+      <c r="HX41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29694,6 +29749,9 @@
       <c r="HW42" t="n">
         <v>5</v>
       </c>
+      <c r="HX42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30391,6 +30449,9 @@
       <c r="HW43" t="n">
         <v>3</v>
       </c>
+      <c r="HX43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31088,6 +31149,9 @@
       <c r="HW44" t="n">
         <v>155</v>
       </c>
+      <c r="HX44" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31785,6 +31849,9 @@
       <c r="HW45" t="n">
         <v>234</v>
       </c>
+      <c r="HX45" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32482,6 +32549,9 @@
       <c r="HW46" t="n">
         <v>267</v>
       </c>
+      <c r="HX46" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33179,6 +33249,9 @@
       <c r="HW47" t="n">
         <v>68.09999999999999</v>
       </c>
+      <c r="HX47" t="n">
+        <v>77.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33876,6 +33949,9 @@
       <c r="HW48" t="n">
         <v>49</v>
       </c>
+      <c r="HX48" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34573,6 +34649,9 @@
       <c r="HW49" t="n">
         <v>12</v>
       </c>
+      <c r="HX49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35270,6 +35349,9 @@
       <c r="HW50" t="n">
         <v>13</v>
       </c>
+      <c r="HX50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35967,6 +36049,9 @@
       <c r="HW51" t="n">
         <v>38</v>
       </c>
+      <c r="HX51" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36664,6 +36749,9 @@
       <c r="HW52" t="n">
         <v>37</v>
       </c>
+      <c r="HX52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37361,6 +37449,9 @@
       <c r="HW53" t="n">
         <v>38</v>
       </c>
+      <c r="HX53" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38058,6 +38149,9 @@
       <c r="HW54" t="n">
         <v>6</v>
       </c>
+      <c r="HX54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38755,6 +38849,9 @@
       <c r="HW55" t="n">
         <v>7</v>
       </c>
+      <c r="HX55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39452,6 +39549,9 @@
       <c r="HW56" t="n">
         <v>50</v>
       </c>
+      <c r="HX56" t="n">
+        <v>90.90000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40149,6 +40249,9 @@
       <c r="HW57" t="n">
         <v>245</v>
       </c>
+      <c r="HX57" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40846,6 +40949,9 @@
       <c r="HW58" t="n">
         <v>153</v>
       </c>
+      <c r="HX58" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41543,6 +41649,9 @@
       <c r="HW59" t="n">
         <v>398</v>
       </c>
+      <c r="HX59" t="n">
+        <v>409</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42240,6 +42349,9 @@
       <c r="HW60" t="n">
         <v>1.6</v>
       </c>
+      <c r="HX60" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42937,6 +43049,9 @@
       <c r="HW61" t="n">
         <v>128</v>
       </c>
+      <c r="HX61" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43634,6 +43749,9 @@
       <c r="HW62" t="n">
         <v>62</v>
       </c>
+      <c r="HX62" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44331,6 +44449,9 @@
       <c r="HW63" t="n">
         <v>33</v>
       </c>
+      <c r="HX63" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45028,6 +45149,9 @@
       <c r="HW64" t="n">
         <v>16</v>
       </c>
+      <c r="HX64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45725,6 +45849,9 @@
       <c r="HW65" t="n">
         <v>16</v>
       </c>
+      <c r="HX65" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46422,6 +46549,9 @@
       <c r="HW66" t="n">
         <v>6</v>
       </c>
+      <c r="HX66" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47119,6 +47249,9 @@
       <c r="HW67" t="n">
         <v>3</v>
       </c>
+      <c r="HX67" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47816,6 +47949,9 @@
       <c r="HW68" t="n">
         <v>9</v>
       </c>
+      <c r="HX68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48513,6 +48649,9 @@
       <c r="HW69" t="n">
         <v>3</v>
       </c>
+      <c r="HX69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49210,6 +49349,9 @@
       <c r="HW70" t="n">
         <v>18</v>
       </c>
+      <c r="HX70" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49907,6 +50049,9 @@
       <c r="HW71" t="n">
         <v>33.3</v>
       </c>
+      <c r="HX71" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50604,6 +50749,9 @@
       <c r="HW72" t="n">
         <v>66.33</v>
       </c>
+      <c r="HX72" t="n">
+        <v>20.45</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51301,6 +51449,9 @@
       <c r="HW73" t="n">
         <v>22.11</v>
       </c>
+      <c r="HX73" t="n">
+        <v>12.78</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51998,6 +52149,9 @@
       <c r="HW74" t="n">
         <v>25</v>
       </c>
+      <c r="HX74" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52695,6 +52849,9 @@
       <c r="HW75" t="n">
         <v>50</v>
       </c>
+      <c r="HX75" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53392,6 +53549,9 @@
       <c r="HW76" t="n">
         <v>40</v>
       </c>
+      <c r="HX76" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54089,6 +54249,9 @@
       <c r="HW77" t="n">
         <v>44</v>
       </c>
+      <c r="HX77" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54786,6 +54949,9 @@
       <c r="HW78" t="n">
         <v>2.44</v>
       </c>
+      <c r="HX78" t="n">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55483,6 +55649,9 @@
       <c r="HW79" t="n">
         <v>7.33</v>
       </c>
+      <c r="HX79" t="n">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56180,6 +56349,9 @@
       <c r="HW80" t="n">
         <v>34.1</v>
       </c>
+      <c r="HX80" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56877,6 +57049,9 @@
       <c r="HW81" t="n">
         <v>13.6</v>
       </c>
+      <c r="HX81" t="n">
+        <v>34.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57574,6 +57749,9 @@
       <c r="HW82" t="n">
         <v>188.5</v>
       </c>
+      <c r="HX82" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58271,6 +58449,9 @@
       <c r="HW83" t="n">
         <v>84.90000000000001</v>
       </c>
+      <c r="HX83" t="n">
+        <v>87.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58968,6 +59149,9 @@
       <c r="HW84" t="n">
         <v>24.8</v>
       </c>
+      <c r="HX84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59665,6 +59849,9 @@
       <c r="HW85" t="n">
         <v>72</v>
       </c>
+      <c r="HX85" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60362,6 +60549,9 @@
       <c r="HW86" t="n">
         <v>14</v>
       </c>
+      <c r="HX86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61059,6 +61249,9 @@
       <c r="HW87" t="n">
         <v>3</v>
       </c>
+      <c r="HX87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61756,6 +61949,9 @@
       <c r="HW88" t="n">
         <v>1</v>
       </c>
+      <c r="HX88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62453,6 +62649,9 @@
       <c r="HW89" t="n">
         <v>4</v>
       </c>
+      <c r="HX89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63150,6 +63349,9 @@
       <c r="HW90" t="n">
         <v>125</v>
       </c>
+      <c r="HX90" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63847,6 +64049,9 @@
       <c r="HW91" t="n">
         <v>265</v>
       </c>
+      <c r="HX91" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -64544,6 +64749,9 @@
       <c r="HW92" t="n">
         <v>304</v>
       </c>
+      <c r="HX92" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65241,6 +65449,9 @@
       <c r="HW93" t="n">
         <v>76.40000000000001</v>
       </c>
+      <c r="HX93" t="n">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65938,6 +66149,9 @@
       <c r="HW94" t="n">
         <v>50</v>
       </c>
+      <c r="HX94" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66635,6 +66849,9 @@
       <c r="HW95" t="n">
         <v>12</v>
       </c>
+      <c r="HX95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67332,6 +67549,9 @@
       <c r="HW96" t="n">
         <v>9</v>
       </c>
+      <c r="HX96" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68029,6 +68249,9 @@
       <c r="HW97" t="n">
         <v>25</v>
       </c>
+      <c r="HX97" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68726,6 +68949,9 @@
       <c r="HW98" t="n">
         <v>40</v>
       </c>
+      <c r="HX98" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69423,6 +69649,9 @@
       <c r="HW99" t="n">
         <v>46</v>
       </c>
+      <c r="HX99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70120,6 +70349,9 @@
       <c r="HW100" t="n">
         <v>2</v>
       </c>
+      <c r="HX100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70817,6 +71049,9 @@
       <c r="HW101" t="n">
         <v>3</v>
       </c>
+      <c r="HX101" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -71514,6 +71749,9 @@
       <c r="HW102" t="n">
         <v>50</v>
       </c>
+      <c r="HX102" t="n">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HY102"/>
+  <dimension ref="A1:IA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,6 +1055,12 @@
       <c r="HY1" t="n">
         <v>10527</v>
       </c>
+      <c r="HZ1" t="n">
+        <v>10527</v>
+      </c>
+      <c r="IA1" t="n">
+        <v>10399</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1758,6 +1764,12 @@
       <c r="HY2" t="n">
         <v>2021</v>
       </c>
+      <c r="HZ2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2461,6 +2473,12 @@
       <c r="HY3" t="n">
         <v>8</v>
       </c>
+      <c r="HZ3" t="n">
+        <v>8</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3164,6 +3182,12 @@
       <c r="HY4" t="n">
         <v>1</v>
       </c>
+      <c r="HZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3867,6 +3891,12 @@
       <c r="HY5" t="n">
         <v>0</v>
       </c>
+      <c r="HZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4570,6 +4600,12 @@
       <c r="HY6" t="n">
         <v>71</v>
       </c>
+      <c r="HZ6" t="n">
+        <v>71</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5273,6 +5309,12 @@
       <c r="HY7" t="n">
         <v>95</v>
       </c>
+      <c r="HZ7" t="n">
+        <v>95</v>
+      </c>
+      <c r="IA7" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5976,6 +6018,12 @@
       <c r="HY8" t="n">
         <v>-24</v>
       </c>
+      <c r="HZ8" t="n">
+        <v>-24</v>
+      </c>
+      <c r="IA8" t="n">
+        <v>-7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6679,6 +6727,12 @@
       <c r="HY9" t="n">
         <v>0</v>
       </c>
+      <c r="HZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7382,6 +7436,12 @@
       <c r="HY10" t="n">
         <v>2</v>
       </c>
+      <c r="HZ10" t="n">
+        <v>2</v>
+      </c>
+      <c r="IA10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8085,6 +8145,12 @@
       <c r="HY11" t="n">
         <v>184</v>
       </c>
+      <c r="HZ11" t="n">
+        <v>184</v>
+      </c>
+      <c r="IA11" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8788,6 +8854,12 @@
       <c r="HY12" t="n">
         <v>159</v>
       </c>
+      <c r="HZ12" t="n">
+        <v>159</v>
+      </c>
+      <c r="IA12" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9491,6 +9563,12 @@
       <c r="HY13" t="n">
         <v>343</v>
       </c>
+      <c r="HZ13" t="n">
+        <v>343</v>
+      </c>
+      <c r="IA13" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10194,6 +10272,12 @@
       <c r="HY14" t="n">
         <v>1.16</v>
       </c>
+      <c r="HZ14" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="IA14" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10897,6 +10981,12 @@
       <c r="HY15" t="n">
         <v>74</v>
       </c>
+      <c r="HZ15" t="n">
+        <v>74</v>
+      </c>
+      <c r="IA15" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11600,6 +11690,12 @@
       <c r="HY16" t="n">
         <v>40</v>
       </c>
+      <c r="HZ16" t="n">
+        <v>40</v>
+      </c>
+      <c r="IA16" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12303,6 +12399,12 @@
       <c r="HY17" t="n">
         <v>52</v>
       </c>
+      <c r="HZ17" t="n">
+        <v>52</v>
+      </c>
+      <c r="IA17" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13006,6 +13108,12 @@
       <c r="HY18" t="n">
         <v>11</v>
       </c>
+      <c r="HZ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="IA18" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13709,6 +13817,12 @@
       <c r="HY19" t="n">
         <v>16</v>
       </c>
+      <c r="HZ19" t="n">
+        <v>16</v>
+      </c>
+      <c r="IA19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14412,6 +14526,12 @@
       <c r="HY20" t="n">
         <v>10</v>
       </c>
+      <c r="HZ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="IA20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15115,6 +15235,12 @@
       <c r="HY21" t="n">
         <v>9</v>
       </c>
+      <c r="HZ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="IA21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15818,6 +15944,12 @@
       <c r="HY22" t="n">
         <v>9</v>
       </c>
+      <c r="HZ22" t="n">
+        <v>9</v>
+      </c>
+      <c r="IA22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16521,6 +16653,12 @@
       <c r="HY23" t="n">
         <v>2</v>
       </c>
+      <c r="HZ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="IA23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17224,6 +17362,12 @@
       <c r="HY24" t="n">
         <v>21</v>
       </c>
+      <c r="HZ24" t="n">
+        <v>21</v>
+      </c>
+      <c r="IA24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17927,6 +18071,12 @@
       <c r="HY25" t="n">
         <v>47.6</v>
       </c>
+      <c r="HZ25" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="IA25" t="n">
+        <v>38.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18630,6 +18780,12 @@
       <c r="HY26" t="n">
         <v>34.3</v>
       </c>
+      <c r="HZ26" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="IA26" t="n">
+        <v>47.62</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19333,6 +19489,12 @@
       <c r="HY27" t="n">
         <v>16.33</v>
       </c>
+      <c r="HZ27" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="IA27" t="n">
+        <v>18.14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20036,6 +20198,12 @@
       <c r="HY28" t="n">
         <v>33</v>
       </c>
+      <c r="HZ28" t="n">
+        <v>33</v>
+      </c>
+      <c r="IA28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20739,6 +20907,12 @@
       <c r="HY29" t="n">
         <v>50</v>
       </c>
+      <c r="HZ29" t="n">
+        <v>50</v>
+      </c>
+      <c r="IA29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21442,6 +21616,12 @@
       <c r="HY30" t="n">
         <v>33</v>
       </c>
+      <c r="HZ30" t="n">
+        <v>33</v>
+      </c>
+      <c r="IA30" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22145,6 +22325,12 @@
       <c r="HY31" t="n">
         <v>52</v>
       </c>
+      <c r="HZ31" t="n">
+        <v>52</v>
+      </c>
+      <c r="IA31" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22848,6 +23034,12 @@
       <c r="HY32" t="n">
         <v>2.48</v>
       </c>
+      <c r="HZ32" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="IA32" t="n">
+        <v>2.33</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23551,6 +23743,12 @@
       <c r="HY33" t="n">
         <v>5.2</v>
       </c>
+      <c r="HZ33" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="IA33" t="n">
+        <v>6.12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24254,6 +24452,12 @@
       <c r="HY34" t="n">
         <v>36.5</v>
       </c>
+      <c r="HZ34" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="IA34" t="n">
+        <v>38.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24957,6 +25161,12 @@
       <c r="HY35" t="n">
         <v>19.2</v>
       </c>
+      <c r="HZ35" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="IA35" t="n">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25660,6 +25870,12 @@
       <c r="HY36" t="n">
         <v>187.2</v>
       </c>
+      <c r="HZ36" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="IA36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26363,6 +26579,12 @@
       <c r="HY37" t="n">
         <v>87.09999999999999</v>
       </c>
+      <c r="HZ37" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="IA37" t="n">
+        <v>87.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27066,6 +27288,12 @@
       <c r="HY38" t="n">
         <v>25.33</v>
       </c>
+      <c r="HZ38" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IA38" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27769,6 +27997,12 @@
       <c r="HY39" t="n">
         <v>87.2</v>
       </c>
+      <c r="HZ39" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="IA39" t="n">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28472,6 +28706,12 @@
       <c r="HY40" t="n">
         <v>9</v>
       </c>
+      <c r="HZ40" t="n">
+        <v>9</v>
+      </c>
+      <c r="IA40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29175,6 +29415,12 @@
       <c r="HY41" t="n">
         <v>6</v>
       </c>
+      <c r="HZ41" t="n">
+        <v>6</v>
+      </c>
+      <c r="IA41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29878,6 +30124,12 @@
       <c r="HY42" t="n">
         <v>5</v>
       </c>
+      <c r="HZ42" t="n">
+        <v>5</v>
+      </c>
+      <c r="IA42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30581,6 +30833,12 @@
       <c r="HY43" t="n">
         <v>3</v>
       </c>
+      <c r="HZ43" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31284,6 +31542,12 @@
       <c r="HY44" t="n">
         <v>121</v>
       </c>
+      <c r="HZ44" t="n">
+        <v>121</v>
+      </c>
+      <c r="IA44" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31987,6 +32251,12 @@
       <c r="HY45" t="n">
         <v>215</v>
       </c>
+      <c r="HZ45" t="n">
+        <v>215</v>
+      </c>
+      <c r="IA45" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32690,6 +32960,12 @@
       <c r="HY46" t="n">
         <v>258</v>
       </c>
+      <c r="HZ46" t="n">
+        <v>258</v>
+      </c>
+      <c r="IA46" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33393,6 +33669,12 @@
       <c r="HY47" t="n">
         <v>75.2</v>
       </c>
+      <c r="HZ47" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="IA47" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34096,6 +34378,12 @@
       <c r="HY48" t="n">
         <v>50</v>
       </c>
+      <c r="HZ48" t="n">
+        <v>50</v>
+      </c>
+      <c r="IA48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34799,6 +35087,12 @@
       <c r="HY49" t="n">
         <v>8</v>
       </c>
+      <c r="HZ49" t="n">
+        <v>8</v>
+      </c>
+      <c r="IA49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35502,6 +35796,12 @@
       <c r="HY50" t="n">
         <v>18</v>
       </c>
+      <c r="HZ50" t="n">
+        <v>18</v>
+      </c>
+      <c r="IA50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36205,6 +36505,12 @@
       <c r="HY51" t="n">
         <v>33</v>
       </c>
+      <c r="HZ51" t="n">
+        <v>33</v>
+      </c>
+      <c r="IA51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36908,6 +37214,12 @@
       <c r="HY52" t="n">
         <v>33</v>
       </c>
+      <c r="HZ52" t="n">
+        <v>33</v>
+      </c>
+      <c r="IA52" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37611,6 +37923,12 @@
       <c r="HY53" t="n">
         <v>46</v>
       </c>
+      <c r="HZ53" t="n">
+        <v>46</v>
+      </c>
+      <c r="IA53" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38314,6 +38632,12 @@
       <c r="HY54" t="n">
         <v>11</v>
       </c>
+      <c r="HZ54" t="n">
+        <v>11</v>
+      </c>
+      <c r="IA54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39017,6 +39341,12 @@
       <c r="HY55" t="n">
         <v>9</v>
       </c>
+      <c r="HZ55" t="n">
+        <v>9</v>
+      </c>
+      <c r="IA55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39720,6 +40050,12 @@
       <c r="HY56" t="n">
         <v>90</v>
       </c>
+      <c r="HZ56" t="n">
+        <v>90</v>
+      </c>
+      <c r="IA56" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40423,6 +40759,12 @@
       <c r="HY57" t="n">
         <v>243</v>
       </c>
+      <c r="HZ57" t="n">
+        <v>243</v>
+      </c>
+      <c r="IA57" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41126,6 +41468,12 @@
       <c r="HY58" t="n">
         <v>117</v>
       </c>
+      <c r="HZ58" t="n">
+        <v>117</v>
+      </c>
+      <c r="IA58" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41829,6 +42177,12 @@
       <c r="HY59" t="n">
         <v>360</v>
       </c>
+      <c r="HZ59" t="n">
+        <v>360</v>
+      </c>
+      <c r="IA59" t="n">
+        <v>378</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42532,6 +42886,12 @@
       <c r="HY60" t="n">
         <v>2.08</v>
       </c>
+      <c r="HZ60" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="IA60" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43235,6 +43595,12 @@
       <c r="HY61" t="n">
         <v>119</v>
       </c>
+      <c r="HZ61" t="n">
+        <v>119</v>
+      </c>
+      <c r="IA61" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43938,6 +44304,12 @@
       <c r="HY62" t="n">
         <v>44</v>
       </c>
+      <c r="HZ62" t="n">
+        <v>44</v>
+      </c>
+      <c r="IA62" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44641,6 +45013,12 @@
       <c r="HY63" t="n">
         <v>18</v>
       </c>
+      <c r="HZ63" t="n">
+        <v>18</v>
+      </c>
+      <c r="IA63" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45344,6 +45722,12 @@
       <c r="HY64" t="n">
         <v>16</v>
       </c>
+      <c r="HZ64" t="n">
+        <v>16</v>
+      </c>
+      <c r="IA64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46047,6 +46431,12 @@
       <c r="HY65" t="n">
         <v>11</v>
       </c>
+      <c r="HZ65" t="n">
+        <v>11</v>
+      </c>
+      <c r="IA65" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46750,6 +47140,12 @@
       <c r="HY66" t="n">
         <v>14</v>
       </c>
+      <c r="HZ66" t="n">
+        <v>14</v>
+      </c>
+      <c r="IA66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47453,6 +47849,12 @@
       <c r="HY67" t="n">
         <v>12</v>
       </c>
+      <c r="HZ67" t="n">
+        <v>12</v>
+      </c>
+      <c r="IA67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48156,6 +48558,12 @@
       <c r="HY68" t="n">
         <v>10</v>
       </c>
+      <c r="HZ68" t="n">
+        <v>10</v>
+      </c>
+      <c r="IA68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48859,6 +49267,12 @@
       <c r="HY69" t="n">
         <v>1</v>
       </c>
+      <c r="HZ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49562,6 +49976,12 @@
       <c r="HY70" t="n">
         <v>25</v>
       </c>
+      <c r="HZ70" t="n">
+        <v>25</v>
+      </c>
+      <c r="IA70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50265,6 +50685,12 @@
       <c r="HY71" t="n">
         <v>56</v>
       </c>
+      <c r="HZ71" t="n">
+        <v>56</v>
+      </c>
+      <c r="IA71" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50968,6 +51394,12 @@
       <c r="HY72" t="n">
         <v>25.71</v>
       </c>
+      <c r="HZ72" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="IA72" t="n">
+        <v>37.8</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51671,6 +52103,12 @@
       <c r="HY73" t="n">
         <v>14.4</v>
       </c>
+      <c r="HZ73" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="IA73" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52374,6 +52812,12 @@
       <c r="HY74" t="n">
         <v>34</v>
       </c>
+      <c r="HZ74" t="n">
+        <v>34</v>
+      </c>
+      <c r="IA74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53077,6 +53521,12 @@
       <c r="HY75" t="n">
         <v>43</v>
       </c>
+      <c r="HZ75" t="n">
+        <v>43</v>
+      </c>
+      <c r="IA75" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53780,6 +54230,12 @@
       <c r="HY76" t="n">
         <v>40</v>
       </c>
+      <c r="HZ76" t="n">
+        <v>40</v>
+      </c>
+      <c r="IA76" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54483,6 +54939,12 @@
       <c r="HY77" t="n">
         <v>49</v>
       </c>
+      <c r="HZ77" t="n">
+        <v>49</v>
+      </c>
+      <c r="IA77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55186,6 +55648,12 @@
       <c r="HY78" t="n">
         <v>1.96</v>
       </c>
+      <c r="HZ78" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="IA78" t="n">
+        <v>2.61</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55889,6 +56357,12 @@
       <c r="HY79" t="n">
         <v>3.5</v>
       </c>
+      <c r="HZ79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="IA79" t="n">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56592,6 +57066,12 @@
       <c r="HY80" t="n">
         <v>49</v>
       </c>
+      <c r="HZ80" t="n">
+        <v>49</v>
+      </c>
+      <c r="IA80" t="n">
+        <v>36.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57295,6 +57775,12 @@
       <c r="HY81" t="n">
         <v>28.6</v>
       </c>
+      <c r="HZ81" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="IA81" t="n">
+        <v>21.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57998,6 +58484,12 @@
       <c r="HY82" t="n">
         <v>188.9</v>
       </c>
+      <c r="HZ82" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="IA82" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58701,6 +59193,12 @@
       <c r="HY83" t="n">
         <v>87.8</v>
       </c>
+      <c r="HZ83" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="IA83" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59404,6 +59902,12 @@
       <c r="HY84" t="n">
         <v>26.16</v>
       </c>
+      <c r="HZ84" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="IA84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60107,6 +60611,12 @@
       <c r="HY85" t="n">
         <v>110</v>
       </c>
+      <c r="HZ85" t="n">
+        <v>110</v>
+      </c>
+      <c r="IA85" t="n">
+        <v>79.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60810,6 +61320,12 @@
       <c r="HY86" t="n">
         <v>5</v>
       </c>
+      <c r="HZ86" t="n">
+        <v>5</v>
+      </c>
+      <c r="IA86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61513,6 +62029,12 @@
       <c r="HY87" t="n">
         <v>5</v>
       </c>
+      <c r="HZ87" t="n">
+        <v>5</v>
+      </c>
+      <c r="IA87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62216,6 +62738,12 @@
       <c r="HY88" t="n">
         <v>8</v>
       </c>
+      <c r="HZ88" t="n">
+        <v>8</v>
+      </c>
+      <c r="IA88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62919,6 +63447,12 @@
       <c r="HY89" t="n">
         <v>4</v>
       </c>
+      <c r="HZ89" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63622,6 +64156,12 @@
       <c r="HY90" t="n">
         <v>135</v>
       </c>
+      <c r="HZ90" t="n">
+        <v>135</v>
+      </c>
+      <c r="IA90" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64325,6 +64865,12 @@
       <c r="HY91" t="n">
         <v>218</v>
       </c>
+      <c r="HZ91" t="n">
+        <v>218</v>
+      </c>
+      <c r="IA91" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65028,6 +65574,12 @@
       <c r="HY92" t="n">
         <v>262</v>
       </c>
+      <c r="HZ92" t="n">
+        <v>262</v>
+      </c>
+      <c r="IA92" t="n">
+        <v>276</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65731,6 +66283,12 @@
       <c r="HY93" t="n">
         <v>72.8</v>
       </c>
+      <c r="HZ93" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="IA93" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66434,6 +66992,12 @@
       <c r="HY94" t="n">
         <v>43</v>
       </c>
+      <c r="HZ94" t="n">
+        <v>43</v>
+      </c>
+      <c r="IA94" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67137,6 +67701,12 @@
       <c r="HY95" t="n">
         <v>18</v>
       </c>
+      <c r="HZ95" t="n">
+        <v>18</v>
+      </c>
+      <c r="IA95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67840,6 +68410,12 @@
       <c r="HY96" t="n">
         <v>22</v>
       </c>
+      <c r="HZ96" t="n">
+        <v>22</v>
+      </c>
+      <c r="IA96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68543,6 +69119,12 @@
       <c r="HY97" t="n">
         <v>34</v>
       </c>
+      <c r="HZ97" t="n">
+        <v>34</v>
+      </c>
+      <c r="IA97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69246,6 +69828,12 @@
       <c r="HY98" t="n">
         <v>40</v>
       </c>
+      <c r="HZ98" t="n">
+        <v>40</v>
+      </c>
+      <c r="IA98" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69949,6 +70537,12 @@
       <c r="HY99" t="n">
         <v>39</v>
       </c>
+      <c r="HZ99" t="n">
+        <v>39</v>
+      </c>
+      <c r="IA99" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70652,6 +71246,12 @@
       <c r="HY100" t="n">
         <v>1</v>
       </c>
+      <c r="HZ100" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71355,6 +71955,12 @@
       <c r="HY101" t="n">
         <v>12</v>
       </c>
+      <c r="HZ101" t="n">
+        <v>12</v>
+      </c>
+      <c r="IA101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72058,6 +72664,12 @@
       <c r="HY102" t="n">
         <v>85.7</v>
       </c>
+      <c r="HZ102" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="IA102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IA102"/>
+  <dimension ref="A1:IC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,6 +1061,12 @@
       <c r="IA1" t="n">
         <v>10399</v>
       </c>
+      <c r="IB1" t="n">
+        <v>10527</v>
+      </c>
+      <c r="IC1" t="n">
+        <v>10416</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1770,6 +1776,12 @@
       <c r="IA2" t="n">
         <v>2021</v>
       </c>
+      <c r="IB2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2479,6 +2491,12 @@
       <c r="IA3" t="n">
         <v>9</v>
       </c>
+      <c r="IB3" t="n">
+        <v>8</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3188,6 +3206,12 @@
       <c r="IA4" t="n">
         <v>1</v>
       </c>
+      <c r="IB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3897,6 +3921,12 @@
       <c r="IA5" t="n">
         <v>0</v>
       </c>
+      <c r="IB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4606,6 +4636,12 @@
       <c r="IA6" t="n">
         <v>61</v>
       </c>
+      <c r="IB6" t="n">
+        <v>71</v>
+      </c>
+      <c r="IC6" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5315,6 +5351,12 @@
       <c r="IA7" t="n">
         <v>68</v>
       </c>
+      <c r="IB7" t="n">
+        <v>95</v>
+      </c>
+      <c r="IC7" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6024,6 +6066,12 @@
       <c r="IA8" t="n">
         <v>-7</v>
       </c>
+      <c r="IB8" t="n">
+        <v>-24</v>
+      </c>
+      <c r="IC8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6733,6 +6781,12 @@
       <c r="IA9" t="n">
         <v>0</v>
       </c>
+      <c r="IB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7442,6 +7496,12 @@
       <c r="IA10" t="n">
         <v>5</v>
       </c>
+      <c r="IB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8151,6 +8211,12 @@
       <c r="IA11" t="n">
         <v>209</v>
       </c>
+      <c r="IB11" t="n">
+        <v>184</v>
+      </c>
+      <c r="IC11" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8860,6 +8926,12 @@
       <c r="IA12" t="n">
         <v>172</v>
       </c>
+      <c r="IB12" t="n">
+        <v>159</v>
+      </c>
+      <c r="IC12" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9569,6 +9641,12 @@
       <c r="IA13" t="n">
         <v>381</v>
       </c>
+      <c r="IB13" t="n">
+        <v>343</v>
+      </c>
+      <c r="IC13" t="n">
+        <v>364</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10278,6 +10356,12 @@
       <c r="IA14" t="n">
         <v>1.22</v>
       </c>
+      <c r="IB14" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="IC14" t="n">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10987,6 +11071,12 @@
       <c r="IA15" t="n">
         <v>102</v>
       </c>
+      <c r="IB15" t="n">
+        <v>74</v>
+      </c>
+      <c r="IC15" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11696,6 +11786,12 @@
       <c r="IA16" t="n">
         <v>69</v>
       </c>
+      <c r="IB16" t="n">
+        <v>40</v>
+      </c>
+      <c r="IC16" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12405,6 +12501,12 @@
       <c r="IA17" t="n">
         <v>43</v>
       </c>
+      <c r="IB17" t="n">
+        <v>52</v>
+      </c>
+      <c r="IC17" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13114,6 +13216,12 @@
       <c r="IA18" t="n">
         <v>13</v>
       </c>
+      <c r="IB18" t="n">
+        <v>11</v>
+      </c>
+      <c r="IC18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13823,6 +13931,12 @@
       <c r="IA19" t="n">
         <v>17</v>
       </c>
+      <c r="IB19" t="n">
+        <v>16</v>
+      </c>
+      <c r="IC19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14532,6 +14646,12 @@
       <c r="IA20" t="n">
         <v>8</v>
       </c>
+      <c r="IB20" t="n">
+        <v>10</v>
+      </c>
+      <c r="IC20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15241,6 +15361,12 @@
       <c r="IA21" t="n">
         <v>7</v>
       </c>
+      <c r="IB21" t="n">
+        <v>9</v>
+      </c>
+      <c r="IC21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15950,6 +16076,12 @@
       <c r="IA22" t="n">
         <v>11</v>
       </c>
+      <c r="IB22" t="n">
+        <v>9</v>
+      </c>
+      <c r="IC22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16659,6 +16791,12 @@
       <c r="IA23" t="n">
         <v>2</v>
       </c>
+      <c r="IB23" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17368,6 +17506,12 @@
       <c r="IA24" t="n">
         <v>21</v>
       </c>
+      <c r="IB24" t="n">
+        <v>21</v>
+      </c>
+      <c r="IC24" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18077,6 +18221,12 @@
       <c r="IA25" t="n">
         <v>38.1</v>
       </c>
+      <c r="IB25" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="IC25" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18786,6 +18936,12 @@
       <c r="IA26" t="n">
         <v>47.62</v>
       </c>
+      <c r="IB26" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="IC26" t="n">
+        <v>30.33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19495,6 +19651,12 @@
       <c r="IA27" t="n">
         <v>18.14</v>
       </c>
+      <c r="IB27" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="IC27" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20204,6 +20366,12 @@
       <c r="IA28" t="n">
         <v>37</v>
       </c>
+      <c r="IB28" t="n">
+        <v>33</v>
+      </c>
+      <c r="IC28" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20913,6 +21081,12 @@
       <c r="IA29" t="n">
         <v>59</v>
       </c>
+      <c r="IB29" t="n">
+        <v>50</v>
+      </c>
+      <c r="IC29" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21622,6 +21796,12 @@
       <c r="IA30" t="n">
         <v>37</v>
       </c>
+      <c r="IB30" t="n">
+        <v>33</v>
+      </c>
+      <c r="IC30" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22331,6 +22511,12 @@
       <c r="IA31" t="n">
         <v>49</v>
       </c>
+      <c r="IB31" t="n">
+        <v>52</v>
+      </c>
+      <c r="IC31" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23040,6 +23226,12 @@
       <c r="IA32" t="n">
         <v>2.33</v>
       </c>
+      <c r="IB32" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="IC32" t="n">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23749,6 +23941,12 @@
       <c r="IA33" t="n">
         <v>6.12</v>
       </c>
+      <c r="IB33" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="IC33" t="n">
+        <v>5.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24458,6 +24656,12 @@
       <c r="IA34" t="n">
         <v>38.8</v>
       </c>
+      <c r="IB34" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="IC34" t="n">
+        <v>34.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25167,6 +25371,12 @@
       <c r="IA35" t="n">
         <v>16.3</v>
       </c>
+      <c r="IB35" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="IC35" t="n">
+        <v>17.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25876,6 +26086,12 @@
       <c r="IA36" t="n">
         <v>187.3</v>
       </c>
+      <c r="IB36" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="IC36" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26585,6 +26801,12 @@
       <c r="IA37" t="n">
         <v>87.09999999999999</v>
       </c>
+      <c r="IB37" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="IC37" t="n">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27294,6 +27516,12 @@
       <c r="IA38" t="n">
         <v>25.16</v>
       </c>
+      <c r="IB38" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IC38" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28003,6 +28231,12 @@
       <c r="IA39" t="n">
         <v>85.5</v>
       </c>
+      <c r="IB39" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="IC39" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28712,6 +28946,12 @@
       <c r="IA40" t="n">
         <v>9</v>
       </c>
+      <c r="IB40" t="n">
+        <v>9</v>
+      </c>
+      <c r="IC40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29421,6 +29661,12 @@
       <c r="IA41" t="n">
         <v>6</v>
       </c>
+      <c r="IB41" t="n">
+        <v>6</v>
+      </c>
+      <c r="IC41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30130,6 +30376,12 @@
       <c r="IA42" t="n">
         <v>4</v>
       </c>
+      <c r="IB42" t="n">
+        <v>5</v>
+      </c>
+      <c r="IC42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30839,6 +31091,12 @@
       <c r="IA43" t="n">
         <v>3</v>
       </c>
+      <c r="IB43" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31548,6 +31806,12 @@
       <c r="IA44" t="n">
         <v>134</v>
       </c>
+      <c r="IB44" t="n">
+        <v>121</v>
+      </c>
+      <c r="IC44" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32257,6 +32521,12 @@
       <c r="IA45" t="n">
         <v>245</v>
       </c>
+      <c r="IB45" t="n">
+        <v>215</v>
+      </c>
+      <c r="IC45" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32966,6 +33236,12 @@
       <c r="IA46" t="n">
         <v>278</v>
       </c>
+      <c r="IB46" t="n">
+        <v>258</v>
+      </c>
+      <c r="IC46" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33675,6 +33951,12 @@
       <c r="IA47" t="n">
         <v>73</v>
       </c>
+      <c r="IB47" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="IC47" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34384,6 +34666,12 @@
       <c r="IA48" t="n">
         <v>59</v>
       </c>
+      <c r="IB48" t="n">
+        <v>50</v>
+      </c>
+      <c r="IC48" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35093,6 +35381,12 @@
       <c r="IA49" t="n">
         <v>10</v>
       </c>
+      <c r="IB49" t="n">
+        <v>8</v>
+      </c>
+      <c r="IC49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35802,6 +36096,12 @@
       <c r="IA50" t="n">
         <v>12</v>
       </c>
+      <c r="IB50" t="n">
+        <v>18</v>
+      </c>
+      <c r="IC50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36511,6 +36811,12 @@
       <c r="IA51" t="n">
         <v>37</v>
       </c>
+      <c r="IB51" t="n">
+        <v>33</v>
+      </c>
+      <c r="IC51" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37220,6 +37526,12 @@
       <c r="IA52" t="n">
         <v>37</v>
       </c>
+      <c r="IB52" t="n">
+        <v>33</v>
+      </c>
+      <c r="IC52" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37929,6 +38241,12 @@
       <c r="IA53" t="n">
         <v>53</v>
       </c>
+      <c r="IB53" t="n">
+        <v>46</v>
+      </c>
+      <c r="IC53" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38638,6 +38956,12 @@
       <c r="IA54" t="n">
         <v>4</v>
       </c>
+      <c r="IB54" t="n">
+        <v>11</v>
+      </c>
+      <c r="IC54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39347,6 +39671,12 @@
       <c r="IA55" t="n">
         <v>7</v>
       </c>
+      <c r="IB55" t="n">
+        <v>9</v>
+      </c>
+      <c r="IC55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40056,6 +40386,12 @@
       <c r="IA56" t="n">
         <v>87.5</v>
       </c>
+      <c r="IB56" t="n">
+        <v>90</v>
+      </c>
+      <c r="IC56" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40765,6 +41101,12 @@
       <c r="IA57" t="n">
         <v>214</v>
       </c>
+      <c r="IB57" t="n">
+        <v>243</v>
+      </c>
+      <c r="IC57" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41474,6 +41816,12 @@
       <c r="IA58" t="n">
         <v>164</v>
       </c>
+      <c r="IB58" t="n">
+        <v>117</v>
+      </c>
+      <c r="IC58" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42183,6 +42531,12 @@
       <c r="IA59" t="n">
         <v>378</v>
       </c>
+      <c r="IB59" t="n">
+        <v>360</v>
+      </c>
+      <c r="IC59" t="n">
+        <v>364</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42892,6 +43246,12 @@
       <c r="IA60" t="n">
         <v>1.3</v>
       </c>
+      <c r="IB60" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="IC60" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43601,6 +43961,12 @@
       <c r="IA61" t="n">
         <v>96</v>
       </c>
+      <c r="IB61" t="n">
+        <v>119</v>
+      </c>
+      <c r="IC61" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44310,6 +44676,12 @@
       <c r="IA62" t="n">
         <v>68</v>
       </c>
+      <c r="IB62" t="n">
+        <v>44</v>
+      </c>
+      <c r="IC62" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45019,6 +45391,12 @@
       <c r="IA63" t="n">
         <v>28</v>
       </c>
+      <c r="IB63" t="n">
+        <v>18</v>
+      </c>
+      <c r="IC63" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45728,6 +46106,12 @@
       <c r="IA64" t="n">
         <v>17</v>
       </c>
+      <c r="IB64" t="n">
+        <v>16</v>
+      </c>
+      <c r="IC64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46437,6 +46821,12 @@
       <c r="IA65" t="n">
         <v>13</v>
       </c>
+      <c r="IB65" t="n">
+        <v>11</v>
+      </c>
+      <c r="IC65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47146,6 +47536,12 @@
       <c r="IA66" t="n">
         <v>10</v>
       </c>
+      <c r="IB66" t="n">
+        <v>14</v>
+      </c>
+      <c r="IC66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47855,6 +48251,12 @@
       <c r="IA67" t="n">
         <v>8</v>
       </c>
+      <c r="IB67" t="n">
+        <v>12</v>
+      </c>
+      <c r="IC67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48564,6 +48966,12 @@
       <c r="IA68" t="n">
         <v>7</v>
       </c>
+      <c r="IB68" t="n">
+        <v>10</v>
+      </c>
+      <c r="IC68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49273,6 +49681,12 @@
       <c r="IA69" t="n">
         <v>1</v>
       </c>
+      <c r="IB69" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49982,6 +50396,12 @@
       <c r="IA70" t="n">
         <v>18</v>
       </c>
+      <c r="IB70" t="n">
+        <v>25</v>
+      </c>
+      <c r="IC70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50691,6 +51111,12 @@
       <c r="IA71" t="n">
         <v>55.6</v>
       </c>
+      <c r="IB71" t="n">
+        <v>56</v>
+      </c>
+      <c r="IC71" t="n">
+        <v>68.40000000000001</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51400,6 +51826,12 @@
       <c r="IA72" t="n">
         <v>37.8</v>
       </c>
+      <c r="IB72" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="IC72" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52109,6 +52541,12 @@
       <c r="IA73" t="n">
         <v>21</v>
       </c>
+      <c r="IB73" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="IC73" t="n">
+        <v>19.16</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52818,6 +53256,12 @@
       <c r="IA74" t="n">
         <v>32</v>
       </c>
+      <c r="IB74" t="n">
+        <v>34</v>
+      </c>
+      <c r="IC74" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53527,6 +53971,12 @@
       <c r="IA75" t="n">
         <v>60</v>
       </c>
+      <c r="IB75" t="n">
+        <v>43</v>
+      </c>
+      <c r="IC75" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54236,6 +54686,12 @@
       <c r="IA76" t="n">
         <v>41</v>
       </c>
+      <c r="IB76" t="n">
+        <v>40</v>
+      </c>
+      <c r="IC76" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54945,6 +55401,12 @@
       <c r="IA77" t="n">
         <v>47</v>
       </c>
+      <c r="IB77" t="n">
+        <v>49</v>
+      </c>
+      <c r="IC77" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55654,6 +56116,12 @@
       <c r="IA78" t="n">
         <v>2.61</v>
       </c>
+      <c r="IB78" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="IC78" t="n">
+        <v>2.37</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56363,6 +56831,12 @@
       <c r="IA79" t="n">
         <v>4.7</v>
       </c>
+      <c r="IB79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="IC79" t="n">
+        <v>3.46</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57072,6 +57546,12 @@
       <c r="IA80" t="n">
         <v>36.2</v>
       </c>
+      <c r="IB80" t="n">
+        <v>49</v>
+      </c>
+      <c r="IC80" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57781,6 +58261,12 @@
       <c r="IA81" t="n">
         <v>21.3</v>
       </c>
+      <c r="IB81" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="IC81" t="n">
+        <v>28.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58490,6 +58976,12 @@
       <c r="IA82" t="n">
         <v>187.2</v>
       </c>
+      <c r="IB82" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="IC82" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59199,6 +59691,12 @@
       <c r="IA83" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="IB83" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="IC83" t="n">
+        <v>84.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59908,6 +60406,12 @@
       <c r="IA84" t="n">
         <v>25.8</v>
       </c>
+      <c r="IB84" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="IC84" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60617,6 +61121,12 @@
       <c r="IA85" t="n">
         <v>79.8</v>
       </c>
+      <c r="IB85" t="n">
+        <v>110</v>
+      </c>
+      <c r="IC85" t="n">
+        <v>101.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61326,6 +61836,12 @@
       <c r="IA86" t="n">
         <v>10</v>
       </c>
+      <c r="IB86" t="n">
+        <v>5</v>
+      </c>
+      <c r="IC86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62035,6 +62551,12 @@
       <c r="IA87" t="n">
         <v>6</v>
       </c>
+      <c r="IB87" t="n">
+        <v>5</v>
+      </c>
+      <c r="IC87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62744,6 +63266,12 @@
       <c r="IA88" t="n">
         <v>2</v>
       </c>
+      <c r="IB88" t="n">
+        <v>8</v>
+      </c>
+      <c r="IC88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63453,6 +63981,12 @@
       <c r="IA89" t="n">
         <v>5</v>
       </c>
+      <c r="IB89" t="n">
+        <v>4</v>
+      </c>
+      <c r="IC89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64162,6 +64696,12 @@
       <c r="IA90" t="n">
         <v>137</v>
       </c>
+      <c r="IB90" t="n">
+        <v>135</v>
+      </c>
+      <c r="IC90" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64871,6 +65411,12 @@
       <c r="IA91" t="n">
         <v>230</v>
       </c>
+      <c r="IB91" t="n">
+        <v>218</v>
+      </c>
+      <c r="IC91" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65580,6 +66126,12 @@
       <c r="IA92" t="n">
         <v>276</v>
       </c>
+      <c r="IB92" t="n">
+        <v>262</v>
+      </c>
+      <c r="IC92" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66289,6 +66841,12 @@
       <c r="IA93" t="n">
         <v>73</v>
       </c>
+      <c r="IB93" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="IC93" t="n">
+        <v>70.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66998,6 +67556,12 @@
       <c r="IA94" t="n">
         <v>60</v>
       </c>
+      <c r="IB94" t="n">
+        <v>43</v>
+      </c>
+      <c r="IC94" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67707,6 +68271,12 @@
       <c r="IA95" t="n">
         <v>11</v>
       </c>
+      <c r="IB95" t="n">
+        <v>18</v>
+      </c>
+      <c r="IC95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68416,6 +68986,12 @@
       <c r="IA96" t="n">
         <v>11</v>
       </c>
+      <c r="IB96" t="n">
+        <v>22</v>
+      </c>
+      <c r="IC96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69125,6 +69701,12 @@
       <c r="IA97" t="n">
         <v>32</v>
       </c>
+      <c r="IB97" t="n">
+        <v>34</v>
+      </c>
+      <c r="IC97" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69834,6 +70416,12 @@
       <c r="IA98" t="n">
         <v>41</v>
       </c>
+      <c r="IB98" t="n">
+        <v>40</v>
+      </c>
+      <c r="IC98" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70543,6 +71131,12 @@
       <c r="IA99" t="n">
         <v>38</v>
       </c>
+      <c r="IB99" t="n">
+        <v>39</v>
+      </c>
+      <c r="IC99" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71252,6 +71846,12 @@
       <c r="IA100" t="n">
         <v>3</v>
       </c>
+      <c r="IB100" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71961,6 +72561,12 @@
       <c r="IA101" t="n">
         <v>8</v>
       </c>
+      <c r="IB101" t="n">
+        <v>12</v>
+      </c>
+      <c r="IC101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72670,6 +73276,12 @@
       <c r="IA102" t="n">
         <v>80</v>
       </c>
+      <c r="IB102" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="IC102" t="n">
+        <v>69.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IC102"/>
+  <dimension ref="A1:ID102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1100,8 +1100,11 @@
       <c r="IB1" s="1" t="n">
         <v>10424</v>
       </c>
-      <c r="IC1" t="n">
+      <c r="IC1" s="1" t="n">
         <v>10431</v>
+      </c>
+      <c r="ID1" t="n">
+        <v>10437</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1815,7 +1818,10 @@
       <c r="IB2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IC2" t="n">
+      <c r="IC2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="ID2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2530,8 +2536,11 @@
       <c r="IB3" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IC3" t="n">
+      <c r="IC3" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3245,7 +3254,10 @@
       <c r="IB4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IC4" t="n">
+      <c r="IC4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3960,8 +3972,11 @@
       <c r="IB5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IC5" t="n">
+      <c r="IC5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="ID5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4675,8 +4690,11 @@
       <c r="IB6" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="IC6" t="n">
+      <c r="IC6" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5390,8 +5408,11 @@
       <c r="IB7" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="IC7" t="n">
+      <c r="IC7" s="1" t="n">
         <v>93</v>
+      </c>
+      <c r="ID7" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6105,8 +6126,11 @@
       <c r="IB8" s="1" t="n">
         <v>-46</v>
       </c>
-      <c r="IC8" t="n">
+      <c r="IC8" s="1" t="n">
         <v>-28</v>
+      </c>
+      <c r="ID8" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6820,8 +6844,11 @@
       <c r="IB9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IC9" t="n">
+      <c r="IC9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="ID9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7535,8 +7562,11 @@
       <c r="IB10" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IC10" t="n">
+      <c r="IC10" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="ID10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8250,8 +8280,11 @@
       <c r="IB11" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="IC11" t="n">
+      <c r="IC11" s="1" t="n">
         <v>215</v>
+      </c>
+      <c r="ID11" t="n">
+        <v>246</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8965,8 +8998,11 @@
       <c r="IB12" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="IC12" t="n">
+      <c r="IC12" s="1" t="n">
         <v>138</v>
+      </c>
+      <c r="ID12" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9680,8 +9716,11 @@
       <c r="IB13" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="IC13" t="n">
+      <c r="IC13" s="1" t="n">
         <v>353</v>
+      </c>
+      <c r="ID13" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10395,8 +10434,11 @@
       <c r="IB14" s="1" t="n">
         <v>1.07</v>
       </c>
-      <c r="IC14" t="n">
+      <c r="IC14" s="1" t="n">
         <v>1.56</v>
+      </c>
+      <c r="ID14" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11110,8 +11152,11 @@
       <c r="IB15" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="IC15" t="n">
+      <c r="IC15" s="1" t="n">
         <v>96</v>
+      </c>
+      <c r="ID15" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11825,8 +11870,11 @@
       <c r="IB16" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IC16" t="n">
+      <c r="IC16" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="ID16" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12540,8 +12588,11 @@
       <c r="IB17" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="IC17" t="n">
+      <c r="IC17" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="ID17" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13255,8 +13306,11 @@
       <c r="IB18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IC18" t="n">
+      <c r="IC18" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="ID18" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13970,8 +14024,11 @@
       <c r="IB19" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IC19" t="n">
+      <c r="IC19" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="ID19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14685,8 +14742,11 @@
       <c r="IB20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IC20" t="n">
+      <c r="IC20" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="ID20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15400,8 +15460,11 @@
       <c r="IB21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IC21" t="n">
+      <c r="IC21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="ID21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16115,8 +16178,11 @@
       <c r="IB22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IC22" t="n">
+      <c r="IC22" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="ID22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16830,7 +16896,10 @@
       <c r="IB23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IC23" t="n">
+      <c r="IC23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17545,8 +17614,11 @@
       <c r="IB24" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="IC24" t="n">
+      <c r="IC24" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="ID24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18260,8 +18332,11 @@
       <c r="IB25" s="1" t="n">
         <v>37.5</v>
       </c>
-      <c r="IC25" t="n">
+      <c r="IC25" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="ID25" t="n">
+        <v>52.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18975,8 +19050,11 @@
       <c r="IB26" s="1" t="n">
         <v>39.11</v>
       </c>
-      <c r="IC26" t="n">
+      <c r="IC26" s="1" t="n">
         <v>39.22</v>
+      </c>
+      <c r="ID26" t="n">
+        <v>35.64</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19690,8 +19768,11 @@
       <c r="IB27" s="1" t="n">
         <v>14.67</v>
       </c>
-      <c r="IC27" t="n">
+      <c r="IC27" s="1" t="n">
         <v>17.65</v>
+      </c>
+      <c r="ID27" t="n">
+        <v>18.67</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20405,8 +20486,11 @@
       <c r="IB28" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IC28" t="n">
+      <c r="IC28" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="ID28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21120,8 +21204,11 @@
       <c r="IB29" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IC29" t="n">
+      <c r="IC29" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="ID29" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21835,8 +21922,11 @@
       <c r="IB30" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IC30" t="n">
+      <c r="IC30" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="ID30" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22550,8 +22640,11 @@
       <c r="IB31" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="IC31" t="n">
+      <c r="IC31" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="ID31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23265,8 +23358,11 @@
       <c r="IB32" s="1" t="n">
         <v>2.42</v>
       </c>
-      <c r="IC32" t="n">
+      <c r="IC32" s="1" t="n">
         <v>2.25</v>
+      </c>
+      <c r="ID32" t="n">
+        <v>2.29</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23980,8 +24076,11 @@
       <c r="IB33" s="1" t="n">
         <v>6.44</v>
       </c>
-      <c r="IC33" t="n">
+      <c r="IC33" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="ID33" t="n">
+        <v>4.36</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24695,8 +24794,11 @@
       <c r="IB34" s="1" t="n">
         <v>34.5</v>
       </c>
-      <c r="IC34" t="n">
+      <c r="IC34" s="1" t="n">
         <v>42.2</v>
+      </c>
+      <c r="ID34" t="n">
+        <v>41.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25410,8 +25512,11 @@
       <c r="IB35" s="1" t="n">
         <v>15.5</v>
       </c>
-      <c r="IC35" t="n">
+      <c r="IC35" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="ID35" t="n">
+        <v>22.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26125,8 +26230,11 @@
       <c r="IB36" s="1" t="n">
         <v>186.9</v>
       </c>
-      <c r="IC36" t="n">
+      <c r="IC36" s="1" t="n">
         <v>187.5</v>
+      </c>
+      <c r="ID36" t="n">
+        <v>185.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26840,8 +26948,11 @@
       <c r="IB37" s="1" t="n">
         <v>86.7</v>
       </c>
-      <c r="IC37" t="n">
+      <c r="IC37" s="1" t="n">
         <v>87.8</v>
+      </c>
+      <c r="ID37" t="n">
+        <v>85.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27555,8 +27666,11 @@
       <c r="IB38" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="IC38" t="n">
+      <c r="IC38" s="1" t="n">
         <v>24.8</v>
+      </c>
+      <c r="ID38" t="n">
+        <v>24.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28270,8 +28384,11 @@
       <c r="IB39" s="1" t="n">
         <v>84.3</v>
       </c>
-      <c r="IC39" t="n">
+      <c r="IC39" s="1" t="n">
         <v>85.7</v>
+      </c>
+      <c r="ID39" t="n">
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28985,8 +29102,11 @@
       <c r="IB40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IC40" t="n">
+      <c r="IC40" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="ID40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -29700,8 +29820,11 @@
       <c r="IB41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IC41" t="n">
+      <c r="IC41" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="ID41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -30415,7 +30538,10 @@
       <c r="IB42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IC42" t="n">
+      <c r="IC42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="ID42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31130,8 +31256,11 @@
       <c r="IB43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IC43" t="n">
+      <c r="IC43" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="ID43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -31845,8 +31974,11 @@
       <c r="IB44" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="IC44" t="n">
+      <c r="IC44" s="1" t="n">
         <v>136</v>
+      </c>
+      <c r="ID44" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32560,8 +32692,11 @@
       <c r="IB45" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="IC45" t="n">
+      <c r="IC45" s="1" t="n">
         <v>211</v>
+      </c>
+      <c r="ID45" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33275,8 +33410,11 @@
       <c r="IB46" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="IC46" t="n">
+      <c r="IC46" s="1" t="n">
         <v>260</v>
+      </c>
+      <c r="ID46" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33990,8 +34128,11 @@
       <c r="IB47" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="IC47" t="n">
+      <c r="IC47" s="1" t="n">
         <v>73.7</v>
+      </c>
+      <c r="ID47" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -34705,8 +34846,11 @@
       <c r="IB48" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IC48" t="n">
+      <c r="IC48" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="ID48" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -35420,8 +35564,11 @@
       <c r="IB49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IC49" t="n">
+      <c r="IC49" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="ID49" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36135,8 +36282,11 @@
       <c r="IB50" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IC50" t="n">
+      <c r="IC50" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="ID50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -36850,8 +37000,11 @@
       <c r="IB51" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IC51" t="n">
+      <c r="IC51" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="ID51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -37565,8 +37718,11 @@
       <c r="IB52" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IC52" t="n">
+      <c r="IC52" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="ID52" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38280,8 +38436,11 @@
       <c r="IB53" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IC53" t="n">
+      <c r="IC53" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="ID53" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -38995,8 +39154,11 @@
       <c r="IB54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IC54" t="n">
+      <c r="IC54" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="ID54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -39710,8 +39872,11 @@
       <c r="IB55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IC55" t="n">
+      <c r="IC55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="ID55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40425,8 +40590,11 @@
       <c r="IB56" s="1" t="n">
         <v>77.8</v>
       </c>
-      <c r="IC56" t="n">
+      <c r="IC56" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="ID56" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -41140,8 +41308,11 @@
       <c r="IB57" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="IC57" t="n">
+      <c r="IC57" s="1" t="n">
         <v>202</v>
+      </c>
+      <c r="ID57" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -41855,8 +42026,11 @@
       <c r="IB58" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="IC58" t="n">
+      <c r="IC58" s="1" t="n">
         <v>139</v>
+      </c>
+      <c r="ID58" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -42570,8 +42744,11 @@
       <c r="IB59" s="1" t="n">
         <v>424</v>
       </c>
-      <c r="IC59" t="n">
+      <c r="IC59" s="1" t="n">
         <v>341</v>
+      </c>
+      <c r="ID59" t="n">
+        <v>318</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -43285,8 +43462,11 @@
       <c r="IB60" s="1" t="n">
         <v>1.47</v>
       </c>
-      <c r="IC60" t="n">
+      <c r="IC60" s="1" t="n">
         <v>1.45</v>
+      </c>
+      <c r="ID60" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -44000,8 +44180,11 @@
       <c r="IB61" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="IC61" t="n">
+      <c r="IC61" s="1" t="n">
         <v>82</v>
+      </c>
+      <c r="ID61" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -44715,8 +44898,11 @@
       <c r="IB62" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="IC62" t="n">
+      <c r="IC62" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="ID62" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -45430,8 +45616,11 @@
       <c r="IB63" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IC63" t="n">
+      <c r="IC63" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="ID63" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -46145,8 +46334,11 @@
       <c r="IB64" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IC64" t="n">
+      <c r="IC64" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="ID64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -46860,8 +47052,11 @@
       <c r="IB65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IC65" t="n">
+      <c r="IC65" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="ID65" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -47575,8 +47770,11 @@
       <c r="IB66" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IC66" t="n">
+      <c r="IC66" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="ID66" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -48290,8 +48488,11 @@
       <c r="IB67" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IC67" t="n">
+      <c r="IC67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="ID67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -49005,8 +49206,11 @@
       <c r="IB68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IC68" t="n">
+      <c r="IC68" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="ID68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -49720,7 +49924,10 @@
       <c r="IB69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IC69" t="n">
+      <c r="IC69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -50435,8 +50642,11 @@
       <c r="IB70" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="IC70" t="n">
+      <c r="IC70" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="ID70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -51150,8 +51360,11 @@
       <c r="IB71" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IC71" t="n">
+      <c r="IC71" s="1" t="n">
         <v>46.4</v>
+      </c>
+      <c r="ID71" t="n">
+        <v>31.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -51865,8 +52078,11 @@
       <c r="IB72" s="1" t="n">
         <v>23.56</v>
       </c>
-      <c r="IC72" t="n">
+      <c r="IC72" s="1" t="n">
         <v>26.23</v>
+      </c>
+      <c r="ID72" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -52580,8 +52796,11 @@
       <c r="IB73" s="1" t="n">
         <v>16.96</v>
       </c>
-      <c r="IC73" t="n">
+      <c r="IC73" s="1" t="n">
         <v>12.18</v>
+      </c>
+      <c r="ID73" t="n">
+        <v>16.74</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -53295,8 +53514,11 @@
       <c r="IB74" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="IC74" t="n">
+      <c r="IC74" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="ID74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -54010,8 +54232,11 @@
       <c r="IB75" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IC75" t="n">
+      <c r="IC75" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="ID75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -54725,8 +54950,11 @@
       <c r="IB76" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IC76" t="n">
+      <c r="IC76" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="ID76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -55440,8 +55668,11 @@
       <c r="IB77" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IC77" t="n">
+      <c r="IC77" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="ID77" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -56155,8 +56386,11 @@
       <c r="IB78" s="1" t="n">
         <v>2.4</v>
       </c>
-      <c r="IC78" t="n">
+      <c r="IC78" s="1" t="n">
         <v>1.86</v>
+      </c>
+      <c r="ID78" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -56870,8 +57104,11 @@
       <c r="IB79" s="1" t="n">
         <v>3.33</v>
       </c>
-      <c r="IC79" t="n">
+      <c r="IC79" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="ID79" t="n">
+        <v>7.67</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -57585,8 +57822,11 @@
       <c r="IB80" s="1" t="n">
         <v>41.7</v>
       </c>
-      <c r="IC80" t="n">
+      <c r="IC80" s="1" t="n">
         <v>51.9</v>
+      </c>
+      <c r="ID80" t="n">
+        <v>39.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -58300,8 +58540,11 @@
       <c r="IB81" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IC81" t="n">
+      <c r="IC81" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="ID81" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -59015,7 +59258,10 @@
       <c r="IB82" s="1" t="n">
         <v>187.9</v>
       </c>
-      <c r="IC82" t="n">
+      <c r="IC82" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="ID82" t="n">
         <v>187.3</v>
       </c>
     </row>
@@ -59730,8 +59976,11 @@
       <c r="IB83" s="1" t="n">
         <v>83.90000000000001</v>
       </c>
-      <c r="IC83" t="n">
+      <c r="IC83" s="1" t="n">
         <v>85.40000000000001</v>
+      </c>
+      <c r="ID83" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -60445,8 +60694,11 @@
       <c r="IB84" s="1" t="n">
         <v>25.41</v>
       </c>
-      <c r="IC84" t="n">
+      <c r="IC84" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="ID84" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -61160,8 +61412,11 @@
       <c r="IB85" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="IC85" t="n">
+      <c r="IC85" s="1" t="n">
         <v>92</v>
+      </c>
+      <c r="ID85" t="n">
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -61875,8 +62130,11 @@
       <c r="IB86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IC86" t="n">
+      <c r="IC86" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="ID86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -62590,8 +62848,11 @@
       <c r="IB87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IC87" t="n">
+      <c r="IC87" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="ID87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -63305,7 +63566,10 @@
       <c r="IB88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IC88" t="n">
+      <c r="IC88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="ID88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -64020,8 +64284,11 @@
       <c r="IB89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IC89" t="n">
+      <c r="IC89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="ID89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -64735,8 +65002,11 @@
       <c r="IB90" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="IC90" t="n">
+      <c r="IC90" s="1" t="n">
         <v>137</v>
+      </c>
+      <c r="ID90" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -65450,8 +65720,11 @@
       <c r="IB91" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="IC91" t="n">
+      <c r="IC91" s="1" t="n">
         <v>208</v>
+      </c>
+      <c r="ID91" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -66165,8 +66438,11 @@
       <c r="IB92" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="IC92" t="n">
+      <c r="IC92" s="1" t="n">
         <v>245</v>
+      </c>
+      <c r="ID92" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -66880,8 +67156,11 @@
       <c r="IB93" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="IC93" t="n">
+      <c r="IC93" s="1" t="n">
         <v>71.8</v>
+      </c>
+      <c r="ID93" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -67595,8 +67874,11 @@
       <c r="IB94" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IC94" t="n">
+      <c r="IC94" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="ID94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -68310,8 +68592,11 @@
       <c r="IB95" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IC95" t="n">
+      <c r="IC95" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="ID95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -69025,8 +69310,11 @@
       <c r="IB96" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IC96" t="n">
+      <c r="IC96" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="ID96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -69740,8 +70028,11 @@
       <c r="IB97" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="IC97" t="n">
+      <c r="IC97" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="ID97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -70455,8 +70746,11 @@
       <c r="IB98" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IC98" t="n">
+      <c r="IC98" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="ID98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -71170,8 +71464,11 @@
       <c r="IB99" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="IC99" t="n">
+      <c r="IC99" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="ID99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -71885,8 +72182,11 @@
       <c r="IB100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IC100" t="n">
+      <c r="IC100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="ID100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -72600,8 +72900,11 @@
       <c r="IB101" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IC101" t="n">
+      <c r="IC101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="ID101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -73315,8 +73618,11 @@
       <c r="IB102" s="1" t="n">
         <v>72.2</v>
       </c>
-      <c r="IC102" t="n">
+      <c r="IC102" s="1" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="ID102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,19 +377,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:ID102"/>
+  <dimension ref="A1:IE102"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="HO1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="IA19" activeCellId="0" pane="topLeft" sqref="IA19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col width="8.529999999999999" customWidth="1" style="1" min="1" max="1021"/>
-    <col width="9.140000000000001" customWidth="1" style="1" min="1022" max="1025"/>
+    <col customWidth="1" max="1021" min="1" style="1" width="8.529999999999999"/>
+    <col customWidth="1" max="1025" min="1022" style="1" width="9.140000000000001"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1103,11 +1103,14 @@
       <c r="IC1" s="1" t="n">
         <v>10431</v>
       </c>
-      <c r="ID1" t="n">
+      <c r="ID1" s="1" t="n">
         <v>10437</v>
       </c>
+      <c r="IE1" t="n">
+        <v>10446</v>
+      </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="2" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1821,11 +1824,14 @@
       <c r="IC2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="ID2" t="n">
+      <c r="ID2" s="1" t="n">
         <v>2021</v>
       </c>
+      <c r="IE2" t="n">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="3" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2539,11 +2545,14 @@
       <c r="IC3" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="ID3" t="n">
+      <c r="ID3" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="IE3" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="4" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -3257,11 +3266,14 @@
       <c r="IC4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="ID4" t="n">
+      <c r="ID4" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="IE4" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="5" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3975,11 +3987,14 @@
       <c r="IC5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="ID5" t="n">
+      <c r="ID5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="IE5" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="6" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4693,11 +4708,14 @@
       <c r="IC6" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="ID6" t="n">
+      <c r="ID6" s="1" t="n">
         <v>76</v>
       </c>
+      <c r="IE6" t="n">
+        <v>91</v>
+      </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="7" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -5411,11 +5429,14 @@
       <c r="IC7" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="ID7" t="n">
+      <c r="ID7" s="1" t="n">
         <v>49</v>
       </c>
+      <c r="IE7" t="n">
+        <v>79</v>
+      </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="8" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -6129,11 +6150,14 @@
       <c r="IC8" s="1" t="n">
         <v>-28</v>
       </c>
-      <c r="ID8" t="n">
+      <c r="ID8" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="IE8" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="9" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -6847,11 +6871,14 @@
       <c r="IC9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="ID9" t="n">
+      <c r="ID9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="IE9" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="10" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -7565,11 +7592,14 @@
       <c r="IC10" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="ID10" t="n">
+      <c r="ID10" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="IE10" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="11" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -8283,11 +8313,14 @@
       <c r="IC11" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="ID11" t="n">
+      <c r="ID11" s="1" t="n">
         <v>246</v>
       </c>
+      <c r="IE11" t="n">
+        <v>198</v>
+      </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="12" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -9001,11 +9034,14 @@
       <c r="IC12" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="ID12" t="n">
+      <c r="ID12" s="1" t="n">
         <v>146</v>
       </c>
+      <c r="IE12" t="n">
+        <v>148</v>
+      </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="13" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -9719,11 +9755,14 @@
       <c r="IC13" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="ID13" t="n">
+      <c r="ID13" s="1" t="n">
         <v>392</v>
       </c>
+      <c r="IE13" t="n">
+        <v>346</v>
+      </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="14" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -10437,11 +10476,14 @@
       <c r="IC14" s="1" t="n">
         <v>1.56</v>
       </c>
-      <c r="ID14" t="n">
+      <c r="ID14" s="1" t="n">
         <v>1.68</v>
       </c>
+      <c r="IE14" t="n">
+        <v>1.34</v>
+      </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="15" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -11155,11 +11197,14 @@
       <c r="IC15" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="ID15" t="n">
+      <c r="ID15" s="1" t="n">
         <v>134</v>
       </c>
+      <c r="IE15" t="n">
+        <v>85</v>
+      </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="16" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -11873,11 +11918,14 @@
       <c r="IC16" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="ID16" t="n">
+      <c r="ID16" s="1" t="n">
         <v>66</v>
       </c>
+      <c r="IE16" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="17" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -12591,11 +12639,14 @@
       <c r="IC17" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="ID17" t="n">
+      <c r="ID17" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="IE17" t="n">
+        <v>20</v>
+      </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="18" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -13309,11 +13360,14 @@
       <c r="IC18" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="ID18" t="n">
+      <c r="ID18" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="IE18" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="19" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -14027,11 +14081,14 @@
       <c r="IC19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="ID19" t="n">
+      <c r="ID19" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="IE19" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="20" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -14745,11 +14802,14 @@
       <c r="IC20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="ID20" t="n">
+      <c r="ID20" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="IE20" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="21" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -15463,11 +15523,14 @@
       <c r="IC21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="ID21" t="n">
+      <c r="ID21" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="IE21" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="22" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -16181,11 +16244,14 @@
       <c r="IC22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="ID22" t="n">
+      <c r="ID22" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="IE22" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="23" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -16899,11 +16965,14 @@
       <c r="IC23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="ID23" t="n">
+      <c r="ID23" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="IE23" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="24" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -17617,11 +17686,14 @@
       <c r="IC24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="ID24" t="n">
+      <c r="ID24" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="IE24" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row r="25" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="25" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -18335,11 +18407,14 @@
       <c r="IC25" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="ID25" t="n">
+      <c r="ID25" s="1" t="n">
         <v>52.4</v>
       </c>
+      <c r="IE25" t="n">
+        <v>66.7</v>
+      </c>
     </row>
-    <row r="26" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="26" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -19053,11 +19128,14 @@
       <c r="IC26" s="1" t="n">
         <v>39.22</v>
       </c>
-      <c r="ID26" t="n">
+      <c r="ID26" s="1" t="n">
         <v>35.64</v>
       </c>
+      <c r="IE26" t="n">
+        <v>24.71</v>
+      </c>
     </row>
-    <row r="27" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="27" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -19771,11 +19849,14 @@
       <c r="IC27" s="1" t="n">
         <v>17.65</v>
       </c>
-      <c r="ID27" t="n">
+      <c r="ID27" s="1" t="n">
         <v>18.67</v>
       </c>
+      <c r="IE27" t="n">
+        <v>16.48</v>
+      </c>
     </row>
-    <row r="28" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="28" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -20489,11 +20570,14 @@
       <c r="IC28" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="ID28" t="n">
+      <c r="ID28" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="IE28" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="29" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -21207,11 +21291,14 @@
       <c r="IC29" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="ID29" t="n">
+      <c r="ID29" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="IE29" t="n">
+        <v>52</v>
+      </c>
     </row>
-    <row r="30" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="30" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -21925,11 +22012,14 @@
       <c r="IC30" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="ID30" t="n">
+      <c r="ID30" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="IE30" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row r="31" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="31" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -22643,11 +22733,14 @@
       <c r="IC31" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="ID31" t="n">
+      <c r="ID31" s="1" t="n">
         <v>48</v>
       </c>
+      <c r="IE31" t="n">
+        <v>51</v>
+      </c>
     </row>
-    <row r="32" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="32" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -23361,11 +23454,14 @@
       <c r="IC32" s="1" t="n">
         <v>2.25</v>
       </c>
-      <c r="ID32" t="n">
+      <c r="ID32" s="1" t="n">
         <v>2.29</v>
       </c>
+      <c r="IE32" t="n">
+        <v>2.43</v>
+      </c>
     </row>
-    <row r="33" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="33" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -24079,11 +24175,14 @@
       <c r="IC33" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="ID33" t="n">
+      <c r="ID33" s="1" t="n">
         <v>4.36</v>
       </c>
+      <c r="IE33" t="n">
+        <v>3.64</v>
+      </c>
     </row>
-    <row r="34" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="34" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -24797,11 +24896,14 @@
       <c r="IC34" s="1" t="n">
         <v>42.2</v>
       </c>
-      <c r="ID34" t="n">
+      <c r="ID34" s="1" t="n">
         <v>41.7</v>
       </c>
+      <c r="IE34" t="n">
+        <v>41.2</v>
+      </c>
     </row>
-    <row r="35" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="35" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -25515,11 +25617,14 @@
       <c r="IC35" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="ID35" t="n">
+      <c r="ID35" s="1" t="n">
         <v>22.9</v>
       </c>
+      <c r="IE35" t="n">
+        <v>27.5</v>
+      </c>
     </row>
-    <row r="36" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="36" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -26233,11 +26338,14 @@
       <c r="IC36" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="ID36" t="n">
+      <c r="ID36" s="1" t="n">
         <v>185.9</v>
       </c>
+      <c r="IE36" t="n">
+        <v>187</v>
+      </c>
     </row>
-    <row r="37" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="37" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -26951,11 +27059,14 @@
       <c r="IC37" s="1" t="n">
         <v>87.8</v>
       </c>
-      <c r="ID37" t="n">
+      <c r="ID37" s="1" t="n">
         <v>85.5</v>
       </c>
+      <c r="IE37" t="n">
+        <v>87.2</v>
+      </c>
     </row>
-    <row r="38" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="38" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -27669,11 +27780,14 @@
       <c r="IC38" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="ID38" t="n">
+      <c r="ID38" s="1" t="n">
         <v>24.41</v>
       </c>
+      <c r="IE38" t="n">
+        <v>24.91</v>
+      </c>
     </row>
-    <row r="39" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="39" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -28387,11 +28501,14 @@
       <c r="IC39" s="1" t="n">
         <v>85.7</v>
       </c>
-      <c r="ID39" t="n">
+      <c r="ID39" s="1" t="n">
         <v>77.09999999999999</v>
       </c>
+      <c r="IE39" t="n">
+        <v>79.3</v>
+      </c>
     </row>
-    <row r="40" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="40" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -29105,11 +29222,14 @@
       <c r="IC40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="ID40" t="n">
+      <c r="ID40" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="IE40" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="41" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="41" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -29823,11 +29943,14 @@
       <c r="IC41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="ID41" t="n">
+      <c r="ID41" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="IE41" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="42" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="42" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -30541,11 +30664,14 @@
       <c r="IC42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID42" t="n">
+      <c r="ID42" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="IE42" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="43" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="43" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -31259,11 +31385,14 @@
       <c r="IC43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="ID43" t="n">
+      <c r="ID43" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="IE43" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="44" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="44" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -31977,11 +32106,14 @@
       <c r="IC44" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="ID44" t="n">
+      <c r="ID44" s="1" t="n">
         <v>129</v>
       </c>
+      <c r="IE44" t="n">
+        <v>120</v>
+      </c>
     </row>
-    <row r="45" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="45" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -32695,11 +32827,14 @@
       <c r="IC45" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="ID45" t="n">
+      <c r="ID45" s="1" t="n">
         <v>254</v>
       </c>
+      <c r="IE45" t="n">
+        <v>218</v>
+      </c>
     </row>
-    <row r="46" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="46" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -33413,11 +33548,14 @@
       <c r="IC46" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="ID46" t="n">
+      <c r="ID46" s="1" t="n">
         <v>302</v>
       </c>
+      <c r="IE46" t="n">
+        <v>268</v>
+      </c>
     </row>
-    <row r="47" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="47" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -34131,11 +34269,14 @@
       <c r="IC47" s="1" t="n">
         <v>73.7</v>
       </c>
-      <c r="ID47" t="n">
+      <c r="ID47" s="1" t="n">
         <v>77</v>
       </c>
+      <c r="IE47" t="n">
+        <v>77.5</v>
+      </c>
     </row>
-    <row r="48" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="48" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -34849,11 +34990,14 @@
       <c r="IC48" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="ID48" t="n">
+      <c r="ID48" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="IE48" t="n">
+        <v>52</v>
+      </c>
     </row>
-    <row r="49" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="49" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -35567,11 +35711,14 @@
       <c r="IC49" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="ID49" t="n">
+      <c r="ID49" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="IE49" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="50" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="50" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -36285,11 +36432,14 @@
       <c r="IC50" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="ID50" t="n">
+      <c r="ID50" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="IE50" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="51" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="51" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -37003,11 +37153,14 @@
       <c r="IC51" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="ID51" t="n">
+      <c r="ID51" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="IE51" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row r="52" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="52" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -37721,11 +37874,14 @@
       <c r="IC52" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="ID52" t="n">
+      <c r="ID52" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="IE52" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row r="53" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="53" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -38439,11 +38595,14 @@
       <c r="IC53" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="ID53" t="n">
+      <c r="ID53" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="IE53" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row r="54" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="54" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -39157,11 +39316,14 @@
       <c r="IC54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="ID54" t="n">
+      <c r="ID54" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="IE54" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="55" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="55" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -39875,11 +40037,14 @@
       <c r="IC55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="ID55" t="n">
+      <c r="ID55" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="IE55" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="56" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="56" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -40593,11 +40758,14 @@
       <c r="IC56" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="ID56" t="n">
+      <c r="ID56" s="1" t="n">
         <v>72.7</v>
       </c>
+      <c r="IE56" t="n">
+        <v>78.59999999999999</v>
+      </c>
     </row>
-    <row r="57" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="57" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -41311,11 +41479,14 @@
       <c r="IC57" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="ID57" t="n">
+      <c r="ID57" s="1" t="n">
         <v>194</v>
       </c>
+      <c r="IE57" t="n">
+        <v>238</v>
+      </c>
     </row>
-    <row r="58" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="58" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -42029,11 +42200,14 @@
       <c r="IC58" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="ID58" t="n">
+      <c r="ID58" s="1" t="n">
         <v>124</v>
       </c>
+      <c r="IE58" t="n">
+        <v>162</v>
+      </c>
     </row>
-    <row r="59" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="59" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -42747,11 +42921,14 @@
       <c r="IC59" s="1" t="n">
         <v>341</v>
       </c>
-      <c r="ID59" t="n">
+      <c r="ID59" s="1" t="n">
         <v>318</v>
       </c>
+      <c r="IE59" t="n">
+        <v>400</v>
+      </c>
     </row>
-    <row r="60" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="60" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -43465,11 +43642,14 @@
       <c r="IC60" s="1" t="n">
         <v>1.45</v>
       </c>
-      <c r="ID60" t="n">
+      <c r="ID60" s="1" t="n">
         <v>1.56</v>
       </c>
+      <c r="IE60" t="n">
+        <v>1.47</v>
+      </c>
     </row>
-    <row r="61" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="61" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -44183,11 +44363,14 @@
       <c r="IC61" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="ID61" t="n">
+      <c r="ID61" s="1" t="n">
         <v>89</v>
       </c>
+      <c r="IE61" t="n">
+        <v>129</v>
+      </c>
     </row>
-    <row r="62" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="62" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -44901,11 +45084,14 @@
       <c r="IC62" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="ID62" t="n">
+      <c r="ID62" s="1" t="n">
         <v>61</v>
       </c>
+      <c r="IE62" t="n">
+        <v>56</v>
+      </c>
     </row>
-    <row r="63" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="63" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -45619,11 +45805,14 @@
       <c r="IC63" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="ID63" t="n">
+      <c r="ID63" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="IE63" t="n">
+        <v>29</v>
+      </c>
     </row>
-    <row r="64" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="64" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -46337,11 +46526,14 @@
       <c r="IC64" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="ID64" t="n">
+      <c r="ID64" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="IE64" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row r="65" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="65" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -47055,11 +47247,14 @@
       <c r="IC65" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="ID65" t="n">
+      <c r="ID65" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="IE65" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row r="66" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="66" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -47773,11 +47968,14 @@
       <c r="IC66" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="ID66" t="n">
+      <c r="ID66" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="IE66" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="67" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="67" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -48491,11 +48689,14 @@
       <c r="IC67" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="ID67" t="n">
+      <c r="ID67" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="IE67" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="68" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="68" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -49209,11 +49410,14 @@
       <c r="IC68" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="ID68" t="n">
+      <c r="ID68" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="IE68" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="69" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="69" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -49927,11 +50131,14 @@
       <c r="IC69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="ID69" t="n">
+      <c r="ID69" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="IE69" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="70" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -50645,11 +50852,14 @@
       <c r="IC70" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="ID70" t="n">
+      <c r="ID70" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="IE70" t="n">
+        <v>19</v>
+      </c>
     </row>
-    <row r="71" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="71" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -51363,11 +51573,14 @@
       <c r="IC71" s="1" t="n">
         <v>46.4</v>
       </c>
-      <c r="ID71" t="n">
+      <c r="ID71" s="1" t="n">
         <v>31.6</v>
       </c>
+      <c r="IE71" t="n">
+        <v>63.2</v>
+      </c>
     </row>
-    <row r="72" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="72" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -52081,11 +52294,14 @@
       <c r="IC72" s="1" t="n">
         <v>26.23</v>
       </c>
-      <c r="ID72" t="n">
+      <c r="ID72" s="1" t="n">
         <v>53</v>
       </c>
+      <c r="IE72" t="n">
+        <v>33.33</v>
+      </c>
     </row>
-    <row r="73" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="73" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -52799,11 +53015,14 @@
       <c r="IC73" s="1" t="n">
         <v>12.18</v>
       </c>
-      <c r="ID73" t="n">
+      <c r="ID73" s="1" t="n">
         <v>16.74</v>
       </c>
+      <c r="IE73" t="n">
+        <v>21.05</v>
+      </c>
     </row>
-    <row r="74" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="74" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -53517,11 +53736,14 @@
       <c r="IC74" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="ID74" t="n">
+      <c r="ID74" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="IE74" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row r="75" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="75" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -54235,11 +54457,14 @@
       <c r="IC75" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="ID75" t="n">
+      <c r="ID75" s="1" t="n">
         <v>58</v>
       </c>
+      <c r="IE75" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row r="76" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="76" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -54953,11 +55178,14 @@
       <c r="IC76" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="ID76" t="n">
+      <c r="ID76" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="IE76" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row r="77" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="77" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -55671,11 +55899,14 @@
       <c r="IC77" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="ID77" t="n">
+      <c r="ID77" s="1" t="n">
         <v>46</v>
       </c>
+      <c r="IE77" t="n">
+        <v>47</v>
+      </c>
     </row>
-    <row r="78" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="78" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -56389,11 +56620,14 @@
       <c r="IC78" s="1" t="n">
         <v>1.86</v>
       </c>
-      <c r="ID78" t="n">
+      <c r="ID78" s="1" t="n">
         <v>2.42</v>
       </c>
+      <c r="IE78" t="n">
+        <v>2.47</v>
+      </c>
     </row>
-    <row r="79" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="79" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -57107,11 +57341,14 @@
       <c r="IC79" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID79" t="n">
+      <c r="ID79" s="1" t="n">
         <v>7.67</v>
       </c>
+      <c r="IE79" t="n">
+        <v>3.92</v>
+      </c>
     </row>
-    <row r="80" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="80" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -57825,11 +58062,14 @@
       <c r="IC80" s="1" t="n">
         <v>51.9</v>
       </c>
-      <c r="ID80" t="n">
+      <c r="ID80" s="1" t="n">
         <v>39.1</v>
       </c>
+      <c r="IE80" t="n">
+        <v>40.4</v>
+      </c>
     </row>
-    <row r="81" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="81" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -58543,11 +58783,14 @@
       <c r="IC81" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="ID81" t="n">
+      <c r="ID81" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="IE81" t="n">
+        <v>25.5</v>
+      </c>
     </row>
-    <row r="82" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="82" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -59261,11 +59504,14 @@
       <c r="IC82" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="ID82" t="n">
+      <c r="ID82" s="1" t="n">
         <v>187.3</v>
       </c>
+      <c r="IE82" t="n">
+        <v>188.3</v>
+      </c>
     </row>
-    <row r="83" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="83" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -59979,11 +60225,14 @@
       <c r="IC83" s="1" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="ID83" t="n">
+      <c r="ID83" s="1" t="n">
         <v>84</v>
       </c>
+      <c r="IE83" t="n">
+        <v>86.5</v>
+      </c>
     </row>
-    <row r="84" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="84" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -60697,11 +60946,14 @@
       <c r="IC84" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="ID84" t="n">
+      <c r="ID84" s="1" t="n">
         <v>24.8</v>
       </c>
+      <c r="IE84" t="n">
+        <v>26.33</v>
+      </c>
     </row>
-    <row r="85" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="85" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -61415,11 +61667,14 @@
       <c r="IC85" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="ID85" t="n">
+      <c r="ID85" s="1" t="n">
         <v>70.09999999999999</v>
       </c>
+      <c r="IE85" t="n">
+        <v>105.8</v>
+      </c>
     </row>
-    <row r="86" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="86" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -62133,11 +62388,14 @@
       <c r="IC86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="ID86" t="n">
+      <c r="ID86" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="IE86" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="87" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="87" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -62851,11 +63109,14 @@
       <c r="IC87" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="ID87" t="n">
+      <c r="ID87" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="IE87" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="88" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="88" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -63569,11 +63830,14 @@
       <c r="IC88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="ID88" t="n">
+      <c r="ID88" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="IE88" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="89" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="89" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -64287,11 +64551,14 @@
       <c r="IC89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="ID89" t="n">
+      <c r="ID89" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="IE89" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="90" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="90" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -65005,11 +65272,14 @@
       <c r="IC90" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="ID90" t="n">
+      <c r="ID90" s="1" t="n">
         <v>114</v>
       </c>
+      <c r="IE90" t="n">
+        <v>124</v>
+      </c>
     </row>
-    <row r="91" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="91" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -65723,11 +65993,14 @@
       <c r="IC91" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="ID91" t="n">
+      <c r="ID91" s="1" t="n">
         <v>193</v>
       </c>
+      <c r="IE91" t="n">
+        <v>270</v>
+      </c>
     </row>
-    <row r="92" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="92" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -66441,11 +66714,14 @@
       <c r="IC92" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="ID92" t="n">
+      <c r="ID92" s="1" t="n">
         <v>232</v>
       </c>
+      <c r="IE92" t="n">
+        <v>310</v>
+      </c>
     </row>
-    <row r="93" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="93" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -67159,11 +67435,14 @@
       <c r="IC93" s="1" t="n">
         <v>71.8</v>
       </c>
-      <c r="ID93" t="n">
+      <c r="ID93" s="1" t="n">
         <v>73</v>
       </c>
+      <c r="IE93" t="n">
+        <v>77.5</v>
+      </c>
     </row>
-    <row r="94" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="94" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -67877,11 +68156,14 @@
       <c r="IC94" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="ID94" t="n">
+      <c r="ID94" s="1" t="n">
         <v>58</v>
       </c>
+      <c r="IE94" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row r="95" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="95" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -68595,11 +68877,14 @@
       <c r="IC95" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="ID95" t="n">
+      <c r="ID95" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="IE95" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row r="96" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="96" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -69313,11 +69598,14 @@
       <c r="IC96" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="ID96" t="n">
+      <c r="ID96" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="IE96" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="97" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="97" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -70031,11 +70319,14 @@
       <c r="IC97" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="ID97" t="n">
+      <c r="ID97" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="IE97" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row r="98" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="98" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -70749,11 +71040,14 @@
       <c r="IC98" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="ID98" t="n">
+      <c r="ID98" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="IE98" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row r="99" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="99" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -71467,11 +71761,14 @@
       <c r="IC99" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="ID99" t="n">
+      <c r="ID99" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="IE99" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row r="100" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="100" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -72185,11 +72482,14 @@
       <c r="IC100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID100" t="n">
+      <c r="ID100" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="IE100" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="101" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="101" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -72903,11 +73203,14 @@
       <c r="IC101" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="ID101" t="n">
+      <c r="ID101" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="IE101" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="102" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="102" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -73621,13 +73924,16 @@
       <c r="IC102" s="1" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="ID102" t="n">
+      <c r="ID102" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IE102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,19 +377,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IE102"/>
+  <dimension ref="A1:IF102"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="HO1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="IA19" activeCellId="0" pane="topLeft" sqref="IA19"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1021" min="1" style="1" width="8.529999999999999"/>
-    <col customWidth="1" max="1025" min="1022" style="1" width="9.140000000000001"/>
+    <col width="8.529999999999999" customWidth="1" style="1" min="1" max="1021"/>
+    <col width="9.140000000000001" customWidth="1" style="1" min="1022" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="2">
+    <row r="1" ht="13.8" customHeight="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1106,11 +1106,14 @@
       <c r="ID1" s="1" t="n">
         <v>10437</v>
       </c>
-      <c r="IE1" t="n">
+      <c r="IE1" s="1" t="n">
         <v>10446</v>
       </c>
+      <c r="IF1" t="n">
+        <v>10461</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="2" s="2">
+    <row r="2" ht="13.8" customHeight="1" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1827,11 +1830,14 @@
       <c r="ID2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IE2" t="n">
+      <c r="IE2" s="1" t="n">
         <v>2021</v>
       </c>
+      <c r="IF2" t="n">
+        <v>2021</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="3" s="2">
+    <row r="3" ht="13.8" customHeight="1" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2548,11 +2554,14 @@
       <c r="ID3" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IE3" t="n">
+      <c r="IE3" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="IF3" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="2">
+    <row r="4" ht="13.8" customHeight="1" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -3269,11 +3278,14 @@
       <c r="ID4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IE4" t="n">
+      <c r="IE4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="IF4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="5" s="2">
+    <row r="5" ht="13.8" customHeight="1" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3990,11 +4002,14 @@
       <c r="ID5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IE5" t="n">
+      <c r="IE5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="IF5" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="2">
+    <row r="6" ht="13.8" customHeight="1" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4711,11 +4726,14 @@
       <c r="ID6" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="IE6" t="n">
+      <c r="IE6" s="1" t="n">
         <v>91</v>
       </c>
+      <c r="IF6" t="n">
+        <v>64</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="2">
+    <row r="7" ht="13.8" customHeight="1" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -5432,11 +5450,14 @@
       <c r="ID7" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="IE7" t="n">
+      <c r="IE7" s="1" t="n">
         <v>79</v>
       </c>
+      <c r="IF7" t="n">
+        <v>80</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="8" s="2">
+    <row r="8" ht="13.8" customHeight="1" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -6153,11 +6174,14 @@
       <c r="ID8" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="IE8" t="n">
+      <c r="IE8" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="IF8" t="n">
+        <v>-16</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="2">
+    <row r="9" ht="13.8" customHeight="1" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -6874,11 +6898,14 @@
       <c r="ID9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IE9" t="n">
+      <c r="IE9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="IF9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="10" s="2">
+    <row r="10" ht="13.8" customHeight="1" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -7595,11 +7622,14 @@
       <c r="ID10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IE10" t="n">
+      <c r="IE10" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="IF10" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="11" s="2">
+    <row r="11" ht="13.8" customHeight="1" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -8316,11 +8346,14 @@
       <c r="ID11" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="IE11" t="n">
+      <c r="IE11" s="1" t="n">
         <v>198</v>
       </c>
+      <c r="IF11" t="n">
+        <v>206</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="12" s="2">
+    <row r="12" ht="13.8" customHeight="1" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -9037,11 +9070,14 @@
       <c r="ID12" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="IE12" t="n">
+      <c r="IE12" s="1" t="n">
         <v>148</v>
       </c>
+      <c r="IF12" t="n">
+        <v>117</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="13" s="2">
+    <row r="13" ht="13.8" customHeight="1" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -9758,11 +9794,14 @@
       <c r="ID13" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="IE13" t="n">
+      <c r="IE13" s="1" t="n">
         <v>346</v>
       </c>
+      <c r="IF13" t="n">
+        <v>323</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="14" s="2">
+    <row r="14" ht="13.8" customHeight="1" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -10479,11 +10518,14 @@
       <c r="ID14" s="1" t="n">
         <v>1.68</v>
       </c>
-      <c r="IE14" t="n">
+      <c r="IE14" s="1" t="n">
         <v>1.34</v>
       </c>
+      <c r="IF14" t="n">
+        <v>1.76</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="15" s="2">
+    <row r="15" ht="13.8" customHeight="1" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -11200,11 +11242,14 @@
       <c r="ID15" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="IE15" t="n">
+      <c r="IE15" s="1" t="n">
         <v>85</v>
       </c>
+      <c r="IF15" t="n">
+        <v>88</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="2">
+    <row r="16" ht="13.8" customHeight="1" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -11921,11 +11966,14 @@
       <c r="ID16" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="IE16" t="n">
+      <c r="IE16" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="IF16" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="17" s="2">
+    <row r="17" ht="13.8" customHeight="1" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -12642,11 +12690,14 @@
       <c r="ID17" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IE17" t="n">
+      <c r="IE17" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="IF17" t="n">
+        <v>41</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="18" s="2">
+    <row r="18" ht="13.8" customHeight="1" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -13363,11 +13414,14 @@
       <c r="ID18" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="IE18" t="n">
+      <c r="IE18" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="IF18" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="19" s="2">
+    <row r="19" ht="13.8" customHeight="1" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -14084,11 +14138,14 @@
       <c r="ID19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IE19" t="n">
+      <c r="IE19" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="IF19" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="20" s="2">
+    <row r="20" ht="13.8" customHeight="1" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -14805,11 +14862,14 @@
       <c r="ID20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IE20" t="n">
+      <c r="IE20" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="IF20" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="21" s="2">
+    <row r="21" ht="13.8" customHeight="1" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -15526,11 +15586,14 @@
       <c r="ID21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IE21" t="n">
+      <c r="IE21" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="IF21" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="22" s="2">
+    <row r="22" ht="13.8" customHeight="1" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -16247,11 +16310,14 @@
       <c r="ID22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IE22" t="n">
+      <c r="IE22" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="IF22" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="23" s="2">
+    <row r="23" ht="13.8" customHeight="1" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -16968,11 +17034,14 @@
       <c r="ID23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IE23" t="n">
+      <c r="IE23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="IF23" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="24" s="2">
+    <row r="24" ht="13.8" customHeight="1" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -17689,11 +17758,14 @@
       <c r="ID24" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IE24" t="n">
+      <c r="IE24" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="IF24" t="n">
+        <v>24</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="25" s="2">
+    <row r="25" ht="13.8" customHeight="1" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -18410,11 +18482,14 @@
       <c r="ID25" s="1" t="n">
         <v>52.4</v>
       </c>
-      <c r="IE25" t="n">
+      <c r="IE25" s="1" t="n">
         <v>66.7</v>
       </c>
+      <c r="IF25" t="n">
+        <v>33.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="26" s="2">
+    <row r="26" ht="13.8" customHeight="1" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -19131,11 +19206,14 @@
       <c r="ID26" s="1" t="n">
         <v>35.64</v>
       </c>
-      <c r="IE26" t="n">
+      <c r="IE26" s="1" t="n">
         <v>24.71</v>
       </c>
+      <c r="IF26" t="n">
+        <v>40.38</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="27" s="2">
+    <row r="27" ht="13.8" customHeight="1" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -19852,11 +19930,14 @@
       <c r="ID27" s="1" t="n">
         <v>18.67</v>
       </c>
-      <c r="IE27" t="n">
+      <c r="IE27" s="1" t="n">
         <v>16.48</v>
       </c>
+      <c r="IF27" t="n">
+        <v>13.46</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="28" s="2">
+    <row r="28" ht="13.8" customHeight="1" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -20573,11 +20654,14 @@
       <c r="ID28" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IE28" t="n">
+      <c r="IE28" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="IF28" t="n">
+        <v>45</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="29" s="2">
+    <row r="29" ht="13.8" customHeight="1" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -21294,11 +21378,14 @@
       <c r="ID29" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IE29" t="n">
+      <c r="IE29" s="1" t="n">
         <v>52</v>
       </c>
+      <c r="IF29" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="30" s="2">
+    <row r="30" ht="13.8" customHeight="1" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -22015,11 +22102,14 @@
       <c r="ID30" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IE30" t="n">
+      <c r="IE30" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="IF30" t="n">
+        <v>28</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="31" s="2">
+    <row r="31" ht="13.8" customHeight="1" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -22736,11 +22826,14 @@
       <c r="ID31" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IE31" t="n">
+      <c r="IE31" s="1" t="n">
         <v>51</v>
       </c>
+      <c r="IF31" t="n">
+        <v>52</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="32" s="2">
+    <row r="32" ht="13.8" customHeight="1" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -23457,11 +23550,14 @@
       <c r="ID32" s="1" t="n">
         <v>2.29</v>
       </c>
-      <c r="IE32" t="n">
+      <c r="IE32" s="1" t="n">
         <v>2.43</v>
       </c>
+      <c r="IF32" t="n">
+        <v>2.17</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="33" s="2">
+    <row r="33" ht="13.8" customHeight="1" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -24178,11 +24274,14 @@
       <c r="ID33" s="1" t="n">
         <v>4.36</v>
       </c>
-      <c r="IE33" t="n">
+      <c r="IE33" s="1" t="n">
         <v>3.64</v>
       </c>
+      <c r="IF33" t="n">
+        <v>6.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="34" s="2">
+    <row r="34" ht="13.8" customHeight="1" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -24899,11 +24998,14 @@
       <c r="ID34" s="1" t="n">
         <v>41.7</v>
       </c>
-      <c r="IE34" t="n">
+      <c r="IE34" s="1" t="n">
         <v>41.2</v>
       </c>
+      <c r="IF34" t="n">
+        <v>40.4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="35" s="2">
+    <row r="35" ht="13.8" customHeight="1" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -25620,11 +25722,14 @@
       <c r="ID35" s="1" t="n">
         <v>22.9</v>
       </c>
-      <c r="IE35" t="n">
+      <c r="IE35" s="1" t="n">
         <v>27.5</v>
       </c>
+      <c r="IF35" t="n">
+        <v>15.4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="36" s="2">
+    <row r="36" ht="13.8" customHeight="1" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -26341,11 +26446,14 @@
       <c r="ID36" s="1" t="n">
         <v>185.9</v>
       </c>
-      <c r="IE36" t="n">
+      <c r="IE36" s="1" t="n">
         <v>187</v>
       </c>
+      <c r="IF36" t="n">
+        <v>187.2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="37" s="2">
+    <row r="37" ht="13.8" customHeight="1" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -27062,11 +27170,14 @@
       <c r="ID37" s="1" t="n">
         <v>85.5</v>
       </c>
-      <c r="IE37" t="n">
+      <c r="IE37" s="1" t="n">
         <v>87.2</v>
       </c>
+      <c r="IF37" t="n">
+        <v>87.2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="38" s="2">
+    <row r="38" ht="13.8" customHeight="1" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -27783,11 +27894,14 @@
       <c r="ID38" s="1" t="n">
         <v>24.41</v>
       </c>
-      <c r="IE38" t="n">
+      <c r="IE38" s="1" t="n">
         <v>24.91</v>
       </c>
+      <c r="IF38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="39" s="2">
+    <row r="39" ht="13.8" customHeight="1" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -28504,11 +28618,14 @@
       <c r="ID39" s="1" t="n">
         <v>77.09999999999999</v>
       </c>
-      <c r="IE39" t="n">
+      <c r="IE39" s="1" t="n">
         <v>79.3</v>
       </c>
+      <c r="IF39" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="40" s="2">
+    <row r="40" ht="13.8" customHeight="1" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -29225,11 +29342,14 @@
       <c r="ID40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IE40" t="n">
+      <c r="IE40" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="IF40" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="41" s="2">
+    <row r="41" ht="13.8" customHeight="1" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -29946,11 +30066,14 @@
       <c r="ID41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IE41" t="n">
+      <c r="IE41" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="IF41" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="42" s="2">
+    <row r="42" ht="13.8" customHeight="1" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -30667,11 +30790,14 @@
       <c r="ID42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IE42" t="n">
+      <c r="IE42" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="IF42" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="43" s="2">
+    <row r="43" ht="13.8" customHeight="1" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -31388,11 +31514,14 @@
       <c r="ID43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IE43" t="n">
+      <c r="IE43" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="IF43" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="44" s="2">
+    <row r="44" ht="13.8" customHeight="1" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -32109,11 +32238,14 @@
       <c r="ID44" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="IE44" t="n">
+      <c r="IE44" s="1" t="n">
         <v>120</v>
       </c>
+      <c r="IF44" t="n">
+        <v>123</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="45" s="2">
+    <row r="45" ht="13.8" customHeight="1" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -32830,11 +32962,14 @@
       <c r="ID45" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="IE45" t="n">
+      <c r="IE45" s="1" t="n">
         <v>218</v>
       </c>
+      <c r="IF45" t="n">
+        <v>194</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="46" s="2">
+    <row r="46" ht="13.8" customHeight="1" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -33551,11 +33686,14 @@
       <c r="ID46" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="IE46" t="n">
+      <c r="IE46" s="1" t="n">
         <v>268</v>
       </c>
+      <c r="IF46" t="n">
+        <v>229</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="47" s="2">
+    <row r="47" ht="13.8" customHeight="1" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -34272,11 +34410,14 @@
       <c r="ID47" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="IE47" t="n">
+      <c r="IE47" s="1" t="n">
         <v>77.5</v>
       </c>
+      <c r="IF47" t="n">
+        <v>70.90000000000001</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="48" s="2">
+    <row r="48" ht="13.8" customHeight="1" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -34993,11 +35134,14 @@
       <c r="ID48" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IE48" t="n">
+      <c r="IE48" s="1" t="n">
         <v>52</v>
       </c>
+      <c r="IF48" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="49" s="2">
+    <row r="49" ht="13.8" customHeight="1" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -35714,11 +35858,14 @@
       <c r="ID49" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IE49" t="n">
+      <c r="IE49" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="IF49" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="50" s="2">
+    <row r="50" ht="13.8" customHeight="1" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -36435,11 +36582,14 @@
       <c r="ID50" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IE50" t="n">
+      <c r="IE50" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="IF50" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="51" s="2">
+    <row r="51" ht="13.8" customHeight="1" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -37156,11 +37306,14 @@
       <c r="ID51" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IE51" t="n">
+      <c r="IE51" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="IF51" t="n">
+        <v>45</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="52" s="2">
+    <row r="52" ht="13.8" customHeight="1" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -37877,11 +38030,14 @@
       <c r="ID52" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IE52" t="n">
+      <c r="IE52" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="IF52" t="n">
+        <v>28</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="53" s="2">
+    <row r="53" ht="13.8" customHeight="1" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -38598,11 +38754,14 @@
       <c r="ID53" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IE53" t="n">
+      <c r="IE53" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="IF53" t="n">
+        <v>49</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="54" s="2">
+    <row r="54" ht="13.8" customHeight="1" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -39319,11 +39478,14 @@
       <c r="ID54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IE54" t="n">
+      <c r="IE54" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="IF54" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="55" s="2">
+    <row r="55" ht="13.8" customHeight="1" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -40040,11 +40202,14 @@
       <c r="ID55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IE55" t="n">
+      <c r="IE55" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="IF55" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="56" s="2">
+    <row r="56" ht="13.8" customHeight="1" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -40761,11 +40926,14 @@
       <c r="ID56" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="IE56" t="n">
+      <c r="IE56" s="1" t="n">
         <v>78.59999999999999</v>
       </c>
+      <c r="IF56" t="n">
+        <v>75</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="57" s="2">
+    <row r="57" ht="13.8" customHeight="1" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -41482,11 +41650,14 @@
       <c r="ID57" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="IE57" t="n">
+      <c r="IE57" s="1" t="n">
         <v>238</v>
       </c>
+      <c r="IF57" t="n">
+        <v>220</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="58" s="2">
+    <row r="58" ht="13.8" customHeight="1" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -42203,11 +42374,14 @@
       <c r="ID58" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="IE58" t="n">
+      <c r="IE58" s="1" t="n">
         <v>162</v>
       </c>
+      <c r="IF58" t="n">
+        <v>115</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="59" s="2">
+    <row r="59" ht="13.8" customHeight="1" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -42924,11 +43098,14 @@
       <c r="ID59" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="IE59" t="n">
+      <c r="IE59" s="1" t="n">
         <v>400</v>
       </c>
+      <c r="IF59" t="n">
+        <v>335</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="60" s="2">
+    <row r="60" ht="13.8" customHeight="1" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -43645,11 +43822,14 @@
       <c r="ID60" s="1" t="n">
         <v>1.56</v>
       </c>
-      <c r="IE60" t="n">
+      <c r="IE60" s="1" t="n">
         <v>1.47</v>
       </c>
+      <c r="IF60" t="n">
+        <v>1.91</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="61" s="2">
+    <row r="61" ht="13.8" customHeight="1" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -44366,11 +44546,14 @@
       <c r="ID61" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="IE61" t="n">
+      <c r="IE61" s="1" t="n">
         <v>129</v>
       </c>
+      <c r="IF61" t="n">
+        <v>104</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="62" s="2">
+    <row r="62" ht="13.8" customHeight="1" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -45087,11 +45270,14 @@
       <c r="ID62" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IE62" t="n">
+      <c r="IE62" s="1" t="n">
         <v>56</v>
       </c>
+      <c r="IF62" t="n">
+        <v>51</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="63" s="2">
+    <row r="63" ht="13.8" customHeight="1" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -45808,11 +45994,14 @@
       <c r="ID63" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IE63" t="n">
+      <c r="IE63" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="IF63" t="n">
+        <v>29</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="64" s="2">
+    <row r="64" ht="13.8" customHeight="1" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -46529,11 +46718,14 @@
       <c r="ID64" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IE64" t="n">
+      <c r="IE64" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="IF64" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="65" s="2">
+    <row r="65" ht="13.8" customHeight="1" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -47250,11 +47442,14 @@
       <c r="ID65" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="IE65" t="n">
+      <c r="IE65" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="IF65" t="n">
+        <v>18</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="66" s="2">
+    <row r="66" ht="13.8" customHeight="1" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -47971,11 +48166,14 @@
       <c r="ID66" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IE66" t="n">
+      <c r="IE66" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="IF66" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="67" s="2">
+    <row r="67" ht="13.8" customHeight="1" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -48692,11 +48890,14 @@
       <c r="ID67" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IE67" t="n">
+      <c r="IE67" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="IF67" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="68" s="2">
+    <row r="68" ht="13.8" customHeight="1" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -49413,11 +49614,14 @@
       <c r="ID68" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IE68" t="n">
+      <c r="IE68" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="IF68" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="69" s="2">
+    <row r="69" ht="13.8" customHeight="1" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -50134,11 +50338,14 @@
       <c r="ID69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IE69" t="n">
+      <c r="IE69" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="IF69" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="70" s="2">
+    <row r="70" ht="13.8" customHeight="1" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -50855,11 +51062,14 @@
       <c r="ID70" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IE70" t="n">
+      <c r="IE70" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="IF70" t="n">
+        <v>20</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="71" s="2">
+    <row r="71" ht="13.8" customHeight="1" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -51576,11 +51786,14 @@
       <c r="ID71" s="1" t="n">
         <v>31.6</v>
       </c>
-      <c r="IE71" t="n">
+      <c r="IE71" s="1" t="n">
         <v>63.2</v>
       </c>
+      <c r="IF71" t="n">
+        <v>60</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="72" s="2">
+    <row r="72" ht="13.8" customHeight="1" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -52297,11 +52510,14 @@
       <c r="ID72" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IE72" t="n">
+      <c r="IE72" s="1" t="n">
         <v>33.33</v>
       </c>
+      <c r="IF72" t="n">
+        <v>27.92</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="73" s="2">
+    <row r="73" ht="13.8" customHeight="1" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -53018,11 +53234,14 @@
       <c r="ID73" s="1" t="n">
         <v>16.74</v>
       </c>
-      <c r="IE73" t="n">
+      <c r="IE73" s="1" t="n">
         <v>21.05</v>
       </c>
+      <c r="IF73" t="n">
+        <v>16.75</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="74" s="2">
+    <row r="74" ht="13.8" customHeight="1" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -53739,11 +53958,14 @@
       <c r="ID74" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IE74" t="n">
+      <c r="IE74" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="IF74" t="n">
+        <v>26</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="75" s="2">
+    <row r="75" ht="13.8" customHeight="1" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -54460,11 +54682,14 @@
       <c r="ID75" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="IE75" t="n">
+      <c r="IE75" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="IF75" t="n">
+        <v>59</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="76" s="2">
+    <row r="76" ht="13.8" customHeight="1" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -55181,11 +55406,14 @@
       <c r="ID76" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IE76" t="n">
+      <c r="IE76" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="IF76" t="n">
+        <v>43</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="77" s="2">
+    <row r="77" ht="13.8" customHeight="1" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -55902,11 +56130,14 @@
       <c r="ID77" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IE77" t="n">
+      <c r="IE77" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="IF77" t="n">
+        <v>40</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="78" s="2">
+    <row r="78" ht="13.8" customHeight="1" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -56623,11 +56854,14 @@
       <c r="ID78" s="1" t="n">
         <v>2.42</v>
       </c>
-      <c r="IE78" t="n">
+      <c r="IE78" s="1" t="n">
         <v>2.47</v>
       </c>
+      <c r="IF78" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="79" s="2">
+    <row r="79" ht="13.8" customHeight="1" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -57344,11 +57578,14 @@
       <c r="ID79" s="1" t="n">
         <v>7.67</v>
       </c>
-      <c r="IE79" t="n">
+      <c r="IE79" s="1" t="n">
         <v>3.92</v>
       </c>
+      <c r="IF79" t="n">
+        <v>3.33</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="80" s="2">
+    <row r="80" ht="13.8" customHeight="1" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -58065,11 +58302,14 @@
       <c r="ID80" s="1" t="n">
         <v>39.1</v>
       </c>
-      <c r="IE80" t="n">
+      <c r="IE80" s="1" t="n">
         <v>40.4</v>
       </c>
+      <c r="IF80" t="n">
+        <v>47.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="81" s="2">
+    <row r="81" ht="13.8" customHeight="1" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -58786,11 +59026,14 @@
       <c r="ID81" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IE81" t="n">
+      <c r="IE81" s="1" t="n">
         <v>25.5</v>
       </c>
+      <c r="IF81" t="n">
+        <v>30</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="82" s="2">
+    <row r="82" ht="13.8" customHeight="1" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -59507,11 +59750,14 @@
       <c r="ID82" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="IE82" t="n">
+      <c r="IE82" s="1" t="n">
         <v>188.3</v>
       </c>
+      <c r="IF82" t="n">
+        <v>188.7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="83" s="2">
+    <row r="83" ht="13.8" customHeight="1" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -60228,11 +60474,14 @@
       <c r="ID83" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="IE83" t="n">
+      <c r="IE83" s="1" t="n">
         <v>86.5</v>
       </c>
+      <c r="IF83" t="n">
+        <v>86.59999999999999</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="84" s="2">
+    <row r="84" ht="13.8" customHeight="1" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -60949,11 +61198,14 @@
       <c r="ID84" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="IE84" t="n">
+      <c r="IE84" s="1" t="n">
         <v>26.33</v>
       </c>
+      <c r="IF84" t="n">
+        <v>25.66</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="85" s="2">
+    <row r="85" ht="13.8" customHeight="1" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -61670,11 +61922,14 @@
       <c r="ID85" s="1" t="n">
         <v>70.09999999999999</v>
       </c>
-      <c r="IE85" t="n">
+      <c r="IE85" s="1" t="n">
         <v>105.8</v>
       </c>
+      <c r="IF85" t="n">
+        <v>99.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="86" s="2">
+    <row r="86" ht="13.8" customHeight="1" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -62391,11 +62646,14 @@
       <c r="ID86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IE86" t="n">
+      <c r="IE86" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="IF86" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="87" s="2">
+    <row r="87" ht="13.8" customHeight="1" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -63112,11 +63370,14 @@
       <c r="ID87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IE87" t="n">
+      <c r="IE87" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="IF87" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="88" s="2">
+    <row r="88" ht="13.8" customHeight="1" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -63833,11 +64094,14 @@
       <c r="ID88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IE88" t="n">
+      <c r="IE88" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="IF88" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="89" s="2">
+    <row r="89" ht="13.8" customHeight="1" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -64554,11 +64818,14 @@
       <c r="ID89" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IE89" t="n">
+      <c r="IE89" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="IF89" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="90" s="2">
+    <row r="90" ht="13.8" customHeight="1" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -65275,11 +65542,14 @@
       <c r="ID90" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="IE90" t="n">
+      <c r="IE90" s="1" t="n">
         <v>124</v>
       </c>
+      <c r="IF90" t="n">
+        <v>122</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="91" s="2">
+    <row r="91" ht="13.8" customHeight="1" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -65996,11 +66266,14 @@
       <c r="ID91" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="IE91" t="n">
+      <c r="IE91" s="1" t="n">
         <v>270</v>
       </c>
+      <c r="IF91" t="n">
+        <v>205</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="92" s="2">
+    <row r="92" ht="13.8" customHeight="1" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -66717,11 +66990,14 @@
       <c r="ID92" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="IE92" t="n">
+      <c r="IE92" s="1" t="n">
         <v>310</v>
       </c>
+      <c r="IF92" t="n">
+        <v>253</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="93" s="2">
+    <row r="93" ht="13.8" customHeight="1" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -67438,11 +67714,14 @@
       <c r="ID93" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="IE93" t="n">
+      <c r="IE93" s="1" t="n">
         <v>77.5</v>
       </c>
+      <c r="IF93" t="n">
+        <v>75.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="94" s="2">
+    <row r="94" ht="13.8" customHeight="1" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -68159,11 +68438,14 @@
       <c r="ID94" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="IE94" t="n">
+      <c r="IE94" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="IF94" t="n">
+        <v>59</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="95" s="2">
+    <row r="95" ht="13.8" customHeight="1" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -68880,11 +69162,14 @@
       <c r="ID95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IE95" t="n">
+      <c r="IE95" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="IF95" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="96" s="2">
+    <row r="96" ht="13.8" customHeight="1" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -69601,11 +69886,14 @@
       <c r="ID96" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IE96" t="n">
+      <c r="IE96" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="IF96" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="97" s="2">
+    <row r="97" ht="13.8" customHeight="1" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -70322,11 +70610,14 @@
       <c r="ID97" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IE97" t="n">
+      <c r="IE97" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="IF97" t="n">
+        <v>26</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="98" s="2">
+    <row r="98" ht="13.8" customHeight="1" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -71043,11 +71334,14 @@
       <c r="ID98" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IE98" t="n">
+      <c r="IE98" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="IF98" t="n">
+        <v>43</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="99" s="2">
+    <row r="99" ht="13.8" customHeight="1" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -71764,11 +72058,14 @@
       <c r="ID99" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IE99" t="n">
+      <c r="IE99" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="IF99" t="n">
+        <v>52</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="100" s="2">
+    <row r="100" ht="13.8" customHeight="1" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -72485,11 +72782,14 @@
       <c r="ID100" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IE100" t="n">
+      <c r="IE100" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="IF100" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="101" s="2">
+    <row r="101" ht="13.8" customHeight="1" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -73206,11 +73506,14 @@
       <c r="ID101" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IE101" t="n">
+      <c r="IE101" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="IF101" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="102" s="2">
+    <row r="102" ht="13.8" customHeight="1" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -73927,13 +74230,16 @@
       <c r="ID102" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IE102" t="n">
+      <c r="IE102" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="IF102" t="n">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IF102"/>
+  <dimension ref="A1:IG102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1109,8 +1109,11 @@
       <c r="IE1" s="1" t="n">
         <v>10446</v>
       </c>
-      <c r="IF1" t="n">
+      <c r="IF1" s="1" t="n">
         <v>10461</v>
+      </c>
+      <c r="IG1" t="n">
+        <v>10466</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1833,7 +1836,10 @@
       <c r="IE2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IF2" t="n">
+      <c r="IF2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IG2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2557,8 +2563,11 @@
       <c r="IE3" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IF3" t="n">
+      <c r="IF3" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3281,8 +3290,11 @@
       <c r="IE4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IF4" t="n">
+      <c r="IF4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4005,7 +4017,10 @@
       <c r="IE5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IF5" t="n">
+      <c r="IF5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,8 +4744,11 @@
       <c r="IE6" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="IF6" t="n">
+      <c r="IF6" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="IG6" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5453,8 +5471,11 @@
       <c r="IE7" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="IF7" t="n">
+      <c r="IF7" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="IG7" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6177,8 +6198,11 @@
       <c r="IE8" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IF8" t="n">
+      <c r="IF8" s="1" t="n">
         <v>-16</v>
+      </c>
+      <c r="IG8" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6901,8 +6925,11 @@
       <c r="IE9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IF9" t="n">
+      <c r="IF9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IG9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7625,8 +7652,11 @@
       <c r="IE10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IF10" t="n">
+      <c r="IF10" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IG10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8349,8 +8379,11 @@
       <c r="IE11" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="IF11" t="n">
+      <c r="IF11" s="1" t="n">
         <v>206</v>
+      </c>
+      <c r="IG11" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9073,8 +9106,11 @@
       <c r="IE12" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="IF12" t="n">
+      <c r="IF12" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="IG12" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9797,8 +9833,11 @@
       <c r="IE13" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="IF13" t="n">
+      <c r="IF13" s="1" t="n">
         <v>323</v>
+      </c>
+      <c r="IG13" t="n">
+        <v>388</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10521,8 +10560,11 @@
       <c r="IE14" s="1" t="n">
         <v>1.34</v>
       </c>
-      <c r="IF14" t="n">
+      <c r="IF14" s="1" t="n">
         <v>1.76</v>
+      </c>
+      <c r="IG14" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11245,8 +11287,11 @@
       <c r="IE15" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="IF15" t="n">
+      <c r="IF15" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="IG15" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11969,8 +12014,11 @@
       <c r="IE16" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IF16" t="n">
+      <c r="IF16" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IG16" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12693,8 +12741,11 @@
       <c r="IE17" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IF17" t="n">
+      <c r="IF17" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IG17" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13417,8 +13468,11 @@
       <c r="IE18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IF18" t="n">
+      <c r="IF18" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IG18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14141,8 +14195,11 @@
       <c r="IE19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IF19" t="n">
+      <c r="IF19" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IG19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14865,8 +14922,11 @@
       <c r="IE20" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IF20" t="n">
+      <c r="IF20" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IG20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15589,8 +15649,11 @@
       <c r="IE21" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IF21" t="n">
+      <c r="IF21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IG21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16313,8 +16376,11 @@
       <c r="IE22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IF22" t="n">
+      <c r="IF22" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IG22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17037,8 +17103,11 @@
       <c r="IE23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IF23" t="n">
+      <c r="IF23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IG23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17761,8 +17830,11 @@
       <c r="IE24" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IF24" t="n">
+      <c r="IF24" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IG24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18485,8 +18557,11 @@
       <c r="IE25" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="IF25" t="n">
+      <c r="IF25" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IG25" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19209,8 +19284,11 @@
       <c r="IE26" s="1" t="n">
         <v>24.71</v>
       </c>
-      <c r="IF26" t="n">
+      <c r="IF26" s="1" t="n">
         <v>40.38</v>
+      </c>
+      <c r="IG26" t="n">
+        <v>24.25</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19933,8 +20011,11 @@
       <c r="IE27" s="1" t="n">
         <v>16.48</v>
       </c>
-      <c r="IF27" t="n">
+      <c r="IF27" s="1" t="n">
         <v>13.46</v>
+      </c>
+      <c r="IG27" t="n">
+        <v>13.86</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20657,8 +20738,11 @@
       <c r="IE28" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IF28" t="n">
+      <c r="IF28" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IG28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21381,8 +21465,11 @@
       <c r="IE29" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IF29" t="n">
+      <c r="IF29" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IG29" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22105,8 +22192,11 @@
       <c r="IE30" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IF30" t="n">
+      <c r="IF30" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IG30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22829,8 +22919,11 @@
       <c r="IE31" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IF31" t="n">
+      <c r="IF31" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IG31" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23553,8 +23646,11 @@
       <c r="IE32" s="1" t="n">
         <v>2.43</v>
       </c>
-      <c r="IF32" t="n">
+      <c r="IF32" s="1" t="n">
         <v>2.17</v>
+      </c>
+      <c r="IG32" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24277,8 +24373,11 @@
       <c r="IE33" s="1" t="n">
         <v>3.64</v>
       </c>
-      <c r="IF33" t="n">
+      <c r="IF33" s="1" t="n">
         <v>6.5</v>
+      </c>
+      <c r="IG33" t="n">
+        <v>3.69</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25001,8 +25100,11 @@
       <c r="IE34" s="1" t="n">
         <v>41.2</v>
       </c>
-      <c r="IF34" t="n">
+      <c r="IF34" s="1" t="n">
         <v>40.4</v>
+      </c>
+      <c r="IG34" t="n">
+        <v>44.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25725,8 +25827,11 @@
       <c r="IE35" s="1" t="n">
         <v>27.5</v>
       </c>
-      <c r="IF35" t="n">
+      <c r="IF35" s="1" t="n">
         <v>15.4</v>
+      </c>
+      <c r="IG35" t="n">
+        <v>27.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26449,8 +26554,11 @@
       <c r="IE36" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="IF36" t="n">
+      <c r="IF36" s="1" t="n">
         <v>187.2</v>
+      </c>
+      <c r="IG36" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -27173,8 +27281,11 @@
       <c r="IE37" s="1" t="n">
         <v>87.2</v>
       </c>
-      <c r="IF37" t="n">
+      <c r="IF37" s="1" t="n">
         <v>87.2</v>
+      </c>
+      <c r="IG37" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27897,8 +28008,11 @@
       <c r="IE38" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="IF38" t="n">
+      <c r="IF38" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="IG38" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28621,8 +28735,11 @@
       <c r="IE39" s="1" t="n">
         <v>79.3</v>
       </c>
-      <c r="IF39" t="n">
+      <c r="IF39" s="1" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="IG39" t="n">
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29345,7 +29462,10 @@
       <c r="IE40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IF40" t="n">
+      <c r="IF40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IG40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -30069,7 +30189,10 @@
       <c r="IE41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IF41" t="n">
+      <c r="IF41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IG41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -30793,7 +30916,10 @@
       <c r="IE42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IF42" t="n">
+      <c r="IF42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IG42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31517,7 +31643,10 @@
       <c r="IE43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IF43" t="n">
+      <c r="IF43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IG43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -32241,8 +32370,11 @@
       <c r="IE44" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="IF44" t="n">
+      <c r="IF44" s="1" t="n">
         <v>123</v>
+      </c>
+      <c r="IG44" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32965,8 +33097,11 @@
       <c r="IE45" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="IF45" t="n">
+      <c r="IF45" s="1" t="n">
         <v>194</v>
+      </c>
+      <c r="IG45" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33689,8 +33824,11 @@
       <c r="IE46" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="IF46" t="n">
+      <c r="IF46" s="1" t="n">
         <v>229</v>
+      </c>
+      <c r="IG46" t="n">
+        <v>284</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34413,8 +34551,11 @@
       <c r="IE47" s="1" t="n">
         <v>77.5</v>
       </c>
-      <c r="IF47" t="n">
+      <c r="IF47" s="1" t="n">
         <v>70.90000000000001</v>
+      </c>
+      <c r="IG47" t="n">
+        <v>73.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -35137,8 +35278,11 @@
       <c r="IE48" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IF48" t="n">
+      <c r="IF48" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IG48" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -35861,8 +36005,11 @@
       <c r="IE49" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IF49" t="n">
+      <c r="IF49" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IG49" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36585,8 +36732,11 @@
       <c r="IE50" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IF50" t="n">
+      <c r="IF50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IG50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -37309,8 +37459,11 @@
       <c r="IE51" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IF51" t="n">
+      <c r="IF51" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IG51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -38033,8 +38186,11 @@
       <c r="IE52" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IF52" t="n">
+      <c r="IF52" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IG52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38757,8 +38913,11 @@
       <c r="IE53" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IF53" t="n">
+      <c r="IF53" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IG53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -39481,8 +39640,11 @@
       <c r="IE54" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IF54" t="n">
+      <c r="IF54" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IG54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -40205,8 +40367,11 @@
       <c r="IE55" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IF55" t="n">
+      <c r="IF55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IG55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40929,8 +41094,11 @@
       <c r="IE56" s="1" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="IF56" t="n">
+      <c r="IF56" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="IG56" t="n">
+        <v>81.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -41653,8 +41821,11 @@
       <c r="IE57" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="IF57" t="n">
+      <c r="IF57" s="1" t="n">
         <v>220</v>
+      </c>
+      <c r="IG57" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -42377,8 +42548,11 @@
       <c r="IE58" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="IF58" t="n">
+      <c r="IF58" s="1" t="n">
         <v>115</v>
+      </c>
+      <c r="IG58" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -43101,8 +43275,11 @@
       <c r="IE59" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="IF59" t="n">
+      <c r="IF59" s="1" t="n">
         <v>335</v>
+      </c>
+      <c r="IG59" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -43825,8 +44002,11 @@
       <c r="IE60" s="1" t="n">
         <v>1.47</v>
       </c>
-      <c r="IF60" t="n">
+      <c r="IF60" s="1" t="n">
         <v>1.91</v>
+      </c>
+      <c r="IG60" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -44549,8 +44729,11 @@
       <c r="IE61" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="IF61" t="n">
+      <c r="IF61" s="1" t="n">
         <v>104</v>
+      </c>
+      <c r="IG61" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -45273,8 +45456,11 @@
       <c r="IE62" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IF62" t="n">
+      <c r="IF62" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IG62" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -45997,8 +46183,11 @@
       <c r="IE63" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IF63" t="n">
+      <c r="IF63" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IG63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -46721,8 +46910,11 @@
       <c r="IE64" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IF64" t="n">
+      <c r="IF64" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IG64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -47445,8 +47637,11 @@
       <c r="IE65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IF65" t="n">
+      <c r="IF65" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IG65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -48169,8 +48364,11 @@
       <c r="IE66" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IF66" t="n">
+      <c r="IF66" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IG66" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -48893,8 +49091,11 @@
       <c r="IE67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IF67" t="n">
+      <c r="IF67" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IG67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -49617,7 +49818,10 @@
       <c r="IE68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IF68" t="n">
+      <c r="IF68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IG68" t="n">
         <v>7</v>
       </c>
     </row>
@@ -50341,8 +50545,11 @@
       <c r="IE69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IF69" t="n">
+      <c r="IF69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IG69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -51065,8 +51272,11 @@
       <c r="IE70" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IF70" t="n">
+      <c r="IF70" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IG70" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -51789,8 +51999,11 @@
       <c r="IE71" s="1" t="n">
         <v>63.2</v>
       </c>
-      <c r="IF71" t="n">
+      <c r="IF71" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IG71" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -52513,8 +52726,11 @@
       <c r="IE72" s="1" t="n">
         <v>33.33</v>
       </c>
-      <c r="IF72" t="n">
+      <c r="IF72" s="1" t="n">
         <v>27.92</v>
+      </c>
+      <c r="IG72" t="n">
+        <v>57.33</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -53237,8 +53453,11 @@
       <c r="IE73" s="1" t="n">
         <v>21.05</v>
       </c>
-      <c r="IF73" t="n">
+      <c r="IF73" s="1" t="n">
         <v>16.75</v>
+      </c>
+      <c r="IG73" t="n">
+        <v>21.5</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -53961,8 +54180,11 @@
       <c r="IE74" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IF74" t="n">
+      <c r="IF74" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IG74" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -54685,8 +54907,11 @@
       <c r="IE75" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IF75" t="n">
+      <c r="IF75" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="IG75" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -55409,8 +55634,11 @@
       <c r="IE76" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IF76" t="n">
+      <c r="IF76" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IG76" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -56133,8 +56361,11 @@
       <c r="IE77" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IF77" t="n">
+      <c r="IF77" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IG77" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -56857,8 +57088,11 @@
       <c r="IE78" s="1" t="n">
         <v>2.47</v>
       </c>
-      <c r="IF78" t="n">
+      <c r="IF78" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IG78" t="n">
+        <v>2.56</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -57581,8 +57815,11 @@
       <c r="IE79" s="1" t="n">
         <v>3.92</v>
       </c>
-      <c r="IF79" t="n">
+      <c r="IF79" s="1" t="n">
         <v>3.33</v>
+      </c>
+      <c r="IG79" t="n">
+        <v>6.83</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -58305,8 +58542,11 @@
       <c r="IE80" s="1" t="n">
         <v>40.4</v>
       </c>
-      <c r="IF80" t="n">
+      <c r="IF80" s="1" t="n">
         <v>47.5</v>
+      </c>
+      <c r="IG80" t="n">
+        <v>31.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -59029,8 +59269,11 @@
       <c r="IE81" s="1" t="n">
         <v>25.5</v>
       </c>
-      <c r="IF81" t="n">
+      <c r="IF81" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IG81" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -59753,8 +59996,11 @@
       <c r="IE82" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="IF82" t="n">
+      <c r="IF82" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="IG82" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -60477,8 +60723,11 @@
       <c r="IE83" s="1" t="n">
         <v>86.5</v>
       </c>
-      <c r="IF83" t="n">
+      <c r="IF83" s="1" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="IG83" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -61201,8 +61450,11 @@
       <c r="IE84" s="1" t="n">
         <v>26.33</v>
       </c>
-      <c r="IF84" t="n">
+      <c r="IF84" s="1" t="n">
         <v>25.66</v>
+      </c>
+      <c r="IG84" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -61925,8 +62177,11 @@
       <c r="IE85" s="1" t="n">
         <v>105.8</v>
       </c>
-      <c r="IF85" t="n">
+      <c r="IF85" s="1" t="n">
         <v>99.8</v>
+      </c>
+      <c r="IG85" t="n">
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -62649,8 +62904,11 @@
       <c r="IE86" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IF86" t="n">
+      <c r="IF86" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IG86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -63373,8 +63631,11 @@
       <c r="IE87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IF87" t="n">
+      <c r="IF87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IG87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -64097,7 +64358,10 @@
       <c r="IE88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IF88" t="n">
+      <c r="IF88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IG88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -64821,8 +65085,11 @@
       <c r="IE89" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IF89" t="n">
+      <c r="IF89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IG89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -65545,8 +65812,11 @@
       <c r="IE90" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="IF90" t="n">
+      <c r="IF90" s="1" t="n">
         <v>122</v>
+      </c>
+      <c r="IG90" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -66269,8 +66539,11 @@
       <c r="IE91" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="IF91" t="n">
+      <c r="IF91" s="1" t="n">
         <v>205</v>
+      </c>
+      <c r="IG91" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -66993,8 +67266,11 @@
       <c r="IE92" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="IF92" t="n">
+      <c r="IF92" s="1" t="n">
         <v>253</v>
+      </c>
+      <c r="IG92" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -67717,8 +67993,11 @@
       <c r="IE93" s="1" t="n">
         <v>77.5</v>
       </c>
-      <c r="IF93" t="n">
+      <c r="IF93" s="1" t="n">
         <v>75.5</v>
+      </c>
+      <c r="IG93" t="n">
+        <v>76.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -68441,8 +68720,11 @@
       <c r="IE94" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IF94" t="n">
+      <c r="IF94" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="IG94" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -69165,8 +69447,11 @@
       <c r="IE95" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IF95" t="n">
+      <c r="IF95" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IG95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -69889,8 +70174,11 @@
       <c r="IE96" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IF96" t="n">
+      <c r="IF96" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IG96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -70613,8 +70901,11 @@
       <c r="IE97" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IF97" t="n">
+      <c r="IF97" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IG97" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -71337,8 +71628,11 @@
       <c r="IE98" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IF98" t="n">
+      <c r="IF98" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IG98" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -72061,8 +72355,11 @@
       <c r="IE99" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IF99" t="n">
+      <c r="IF99" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IG99" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -72785,8 +73082,11 @@
       <c r="IE100" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IF100" t="n">
+      <c r="IF100" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IG100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -73509,8 +73809,11 @@
       <c r="IE101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IF101" t="n">
+      <c r="IF101" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IG101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -74233,8 +74536,11 @@
       <c r="IE102" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="IF102" t="n">
+      <c r="IF102" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="IG102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IG102"/>
+  <dimension ref="A1:IH102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1112,8 +1112,11 @@
       <c r="IF1" s="1" t="n">
         <v>10461</v>
       </c>
-      <c r="IG1" t="n">
+      <c r="IG1" s="1" t="n">
         <v>10466</v>
+      </c>
+      <c r="IH1" t="n">
+        <v>10479</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1839,7 +1842,10 @@
       <c r="IF2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IG2" t="n">
+      <c r="IG2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IH2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2566,8 +2572,11 @@
       <c r="IF3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IG3" t="n">
+      <c r="IG3" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3293,8 +3302,11 @@
       <c r="IF4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IG4" t="n">
+      <c r="IG4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4020,7 +4032,10 @@
       <c r="IF5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IG5" t="n">
+      <c r="IG5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4747,8 +4762,11 @@
       <c r="IF6" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="IG6" t="n">
+      <c r="IG6" s="1" t="n">
         <v>108</v>
+      </c>
+      <c r="IH6" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5474,8 +5492,11 @@
       <c r="IF7" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="IG7" t="n">
+      <c r="IG7" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IH7" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6201,8 +6222,11 @@
       <c r="IF8" s="1" t="n">
         <v>-16</v>
       </c>
-      <c r="IG8" t="n">
+      <c r="IG8" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="IH8" t="n">
+        <v>-69</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6928,8 +6952,11 @@
       <c r="IF9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IG9" t="n">
+      <c r="IG9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IH9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7655,8 +7682,11 @@
       <c r="IF10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IG10" t="n">
+      <c r="IG10" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IH10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8382,8 +8412,11 @@
       <c r="IF11" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="IG11" t="n">
+      <c r="IG11" s="1" t="n">
         <v>223</v>
+      </c>
+      <c r="IH11" t="n">
+        <v>178</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9109,8 +9142,11 @@
       <c r="IF12" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="IG12" t="n">
+      <c r="IG12" s="1" t="n">
         <v>165</v>
+      </c>
+      <c r="IH12" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9836,8 +9872,11 @@
       <c r="IF13" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="IG13" t="n">
+      <c r="IG13" s="1" t="n">
         <v>388</v>
+      </c>
+      <c r="IH13" t="n">
+        <v>299</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10563,8 +10602,11 @@
       <c r="IF14" s="1" t="n">
         <v>1.76</v>
       </c>
-      <c r="IG14" t="n">
+      <c r="IG14" s="1" t="n">
         <v>1.35</v>
+      </c>
+      <c r="IH14" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11290,8 +11332,11 @@
       <c r="IF15" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="IG15" t="n">
+      <c r="IG15" s="1" t="n">
         <v>96</v>
+      </c>
+      <c r="IH15" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12017,8 +12062,11 @@
       <c r="IF16" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IG16" t="n">
+      <c r="IG16" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IH16" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12744,8 +12792,11 @@
       <c r="IF17" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IG17" t="n">
+      <c r="IG17" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="IH17" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13471,8 +13522,11 @@
       <c r="IF18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IG18" t="n">
+      <c r="IG18" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IH18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14198,8 +14252,11 @@
       <c r="IF19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IG19" t="n">
+      <c r="IG19" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IH19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14925,8 +14982,11 @@
       <c r="IF20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IG20" t="n">
+      <c r="IG20" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IH20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15652,8 +15712,11 @@
       <c r="IF21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IG21" t="n">
+      <c r="IG21" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IH21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16379,8 +16442,11 @@
       <c r="IF22" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IG22" t="n">
+      <c r="IG22" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IH22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17106,8 +17172,11 @@
       <c r="IF23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IG23" t="n">
+      <c r="IG23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IH23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17833,8 +17902,11 @@
       <c r="IF24" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="IG24" t="n">
+      <c r="IG24" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IH24" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18560,8 +18632,11 @@
       <c r="IF25" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="IG25" t="n">
+      <c r="IG25" s="1" t="n">
         <v>57.1</v>
+      </c>
+      <c r="IH25" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19287,8 +19362,11 @@
       <c r="IF26" s="1" t="n">
         <v>40.38</v>
       </c>
-      <c r="IG26" t="n">
+      <c r="IG26" s="1" t="n">
         <v>24.25</v>
+      </c>
+      <c r="IH26" t="n">
+        <v>99.67</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20014,8 +20092,11 @@
       <c r="IF27" s="1" t="n">
         <v>13.46</v>
       </c>
-      <c r="IG27" t="n">
+      <c r="IG27" s="1" t="n">
         <v>13.86</v>
+      </c>
+      <c r="IH27" t="n">
+        <v>18.69</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20741,8 +20822,11 @@
       <c r="IF28" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IG28" t="n">
+      <c r="IG28" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IH28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21468,8 +21552,11 @@
       <c r="IF29" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IG29" t="n">
+      <c r="IG29" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IH29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22195,8 +22282,11 @@
       <c r="IF30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IG30" t="n">
+      <c r="IG30" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IH30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22922,8 +23012,11 @@
       <c r="IF31" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IG31" t="n">
+      <c r="IG31" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="IH31" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23649,8 +23742,11 @@
       <c r="IF32" s="1" t="n">
         <v>2.17</v>
       </c>
-      <c r="IG32" t="n">
+      <c r="IG32" s="1" t="n">
         <v>2.11</v>
+      </c>
+      <c r="IH32" t="n">
+        <v>2.38</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24376,8 +24472,11 @@
       <c r="IF33" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="IG33" t="n">
+      <c r="IG33" s="1" t="n">
         <v>3.69</v>
+      </c>
+      <c r="IH33" t="n">
+        <v>12.67</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25103,8 +25202,11 @@
       <c r="IF34" s="1" t="n">
         <v>40.4</v>
       </c>
-      <c r="IG34" t="n">
+      <c r="IG34" s="1" t="n">
         <v>44.1</v>
+      </c>
+      <c r="IH34" t="n">
+        <v>31.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25830,8 +25932,11 @@
       <c r="IF35" s="1" t="n">
         <v>15.4</v>
       </c>
-      <c r="IG35" t="n">
+      <c r="IG35" s="1" t="n">
         <v>27.1</v>
+      </c>
+      <c r="IH35" t="n">
+        <v>7.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26557,7 +26662,10 @@
       <c r="IF36" s="1" t="n">
         <v>187.2</v>
       </c>
-      <c r="IG36" t="n">
+      <c r="IG36" s="1" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="IH36" t="n">
         <v>187.4</v>
       </c>
     </row>
@@ -27284,8 +27392,11 @@
       <c r="IF37" s="1" t="n">
         <v>87.2</v>
       </c>
-      <c r="IG37" t="n">
+      <c r="IG37" s="1" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="IH37" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -28011,8 +28122,11 @@
       <c r="IF38" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="IG38" t="n">
+      <c r="IG38" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IH38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28738,8 +28852,11 @@
       <c r="IF39" s="1" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="IG39" t="n">
+      <c r="IG39" s="1" t="n">
         <v>88.40000000000001</v>
+      </c>
+      <c r="IH39" t="n">
+        <v>88.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29465,7 +29582,10 @@
       <c r="IF40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IG40" t="n">
+      <c r="IG40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IH40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -30192,8 +30312,11 @@
       <c r="IF41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IG41" t="n">
+      <c r="IG41" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IH41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -30919,7 +31042,10 @@
       <c r="IF42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IG42" t="n">
+      <c r="IG42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IH42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31646,7 +31772,10 @@
       <c r="IF43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IG43" t="n">
+      <c r="IG43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IH43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -32373,8 +32502,11 @@
       <c r="IF44" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="IG44" t="n">
+      <c r="IG44" s="1" t="n">
         <v>152</v>
+      </c>
+      <c r="IH44" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -33100,8 +33232,11 @@
       <c r="IF45" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="IG45" t="n">
+      <c r="IG45" s="1" t="n">
         <v>235</v>
+      </c>
+      <c r="IH45" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33827,8 +33962,11 @@
       <c r="IF46" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="IG46" t="n">
+      <c r="IG46" s="1" t="n">
         <v>284</v>
+      </c>
+      <c r="IH46" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34554,8 +34692,11 @@
       <c r="IF47" s="1" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="IG47" t="n">
+      <c r="IG47" s="1" t="n">
         <v>73.2</v>
+      </c>
+      <c r="IH47" t="n">
+        <v>63.9</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -35281,8 +35422,11 @@
       <c r="IF48" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IG48" t="n">
+      <c r="IG48" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IH48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -36008,8 +36152,11 @@
       <c r="IF49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IG49" t="n">
+      <c r="IG49" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IH49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36735,8 +36882,11 @@
       <c r="IF50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IG50" t="n">
+      <c r="IG50" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IH50" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -37462,8 +37612,11 @@
       <c r="IF51" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IG51" t="n">
+      <c r="IG51" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IH51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -38189,8 +38342,11 @@
       <c r="IF52" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IG52" t="n">
+      <c r="IG52" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IH52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38916,8 +39072,11 @@
       <c r="IF53" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="IG53" t="n">
+      <c r="IG53" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="IH53" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -39643,8 +39802,11 @@
       <c r="IF54" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IG54" t="n">
+      <c r="IG54" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IH54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -40370,8 +40532,11 @@
       <c r="IF55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IG55" t="n">
+      <c r="IG55" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IH55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -41097,8 +41262,11 @@
       <c r="IF56" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="IG56" t="n">
+      <c r="IG56" s="1" t="n">
         <v>81.2</v>
+      </c>
+      <c r="IH56" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -41824,8 +41992,11 @@
       <c r="IF57" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="IG57" t="n">
+      <c r="IG57" s="1" t="n">
         <v>198</v>
+      </c>
+      <c r="IH57" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -42551,8 +42722,11 @@
       <c r="IF58" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="IG58" t="n">
+      <c r="IG58" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="IH58" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -43278,8 +43452,11 @@
       <c r="IF59" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="IG59" t="n">
+      <c r="IG59" s="1" t="n">
         <v>344</v>
+      </c>
+      <c r="IH59" t="n">
+        <v>422</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -44005,8 +44182,11 @@
       <c r="IF60" s="1" t="n">
         <v>1.91</v>
       </c>
-      <c r="IG60" t="n">
+      <c r="IG60" s="1" t="n">
         <v>1.36</v>
+      </c>
+      <c r="IH60" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -44732,8 +44912,11 @@
       <c r="IF61" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="IG61" t="n">
+      <c r="IG61" s="1" t="n">
         <v>89</v>
+      </c>
+      <c r="IH61" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -45459,8 +45642,11 @@
       <c r="IF62" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IG62" t="n">
+      <c r="IG62" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IH62" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -46186,8 +46372,11 @@
       <c r="IF63" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IG63" t="n">
+      <c r="IG63" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IH63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -46913,8 +47102,11 @@
       <c r="IF64" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IG64" t="n">
+      <c r="IG64" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IH64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -47640,8 +47832,11 @@
       <c r="IF65" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IG65" t="n">
+      <c r="IG65" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IH65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -48367,8 +48562,11 @@
       <c r="IF66" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IG66" t="n">
+      <c r="IG66" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IH66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -49094,8 +49292,11 @@
       <c r="IF67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IG67" t="n">
+      <c r="IG67" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IH67" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -49821,8 +50022,11 @@
       <c r="IF68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IG68" t="n">
+      <c r="IG68" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IH68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -50548,7 +50752,10 @@
       <c r="IF69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IG69" t="n">
+      <c r="IG69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IH69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -51275,8 +51482,11 @@
       <c r="IF70" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IG70" t="n">
+      <c r="IG70" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IH70" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -52002,8 +52212,11 @@
       <c r="IF71" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IG71" t="n">
+      <c r="IG71" s="1" t="n">
         <v>37.5</v>
+      </c>
+      <c r="IH71" t="n">
+        <v>46.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -52729,8 +52942,11 @@
       <c r="IF72" s="1" t="n">
         <v>27.92</v>
       </c>
-      <c r="IG72" t="n">
+      <c r="IG72" s="1" t="n">
         <v>57.33</v>
+      </c>
+      <c r="IH72" t="n">
+        <v>30.14</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -53456,8 +53672,11 @@
       <c r="IF73" s="1" t="n">
         <v>16.75</v>
       </c>
-      <c r="IG73" t="n">
+      <c r="IG73" s="1" t="n">
         <v>21.5</v>
+      </c>
+      <c r="IH73" t="n">
+        <v>14.07</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -54183,8 +54402,11 @@
       <c r="IF74" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IG74" t="n">
+      <c r="IG74" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="IH74" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -54910,8 +55132,11 @@
       <c r="IF75" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="IG75" t="n">
+      <c r="IG75" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IH75" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -55637,8 +55862,11 @@
       <c r="IF76" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IG76" t="n">
+      <c r="IG76" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IH76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -56364,8 +56592,11 @@
       <c r="IF77" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IG77" t="n">
+      <c r="IG77" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IH77" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -57091,8 +57322,11 @@
       <c r="IF78" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IG78" t="n">
+      <c r="IG78" s="1" t="n">
         <v>2.56</v>
+      </c>
+      <c r="IH78" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -57818,8 +58052,11 @@
       <c r="IF79" s="1" t="n">
         <v>3.33</v>
       </c>
-      <c r="IG79" t="n">
+      <c r="IG79" s="1" t="n">
         <v>6.83</v>
+      </c>
+      <c r="IH79" t="n">
+        <v>4.14</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -58545,8 +58782,11 @@
       <c r="IF80" s="1" t="n">
         <v>47.5</v>
       </c>
-      <c r="IG80" t="n">
+      <c r="IG80" s="1" t="n">
         <v>31.7</v>
+      </c>
+      <c r="IH80" t="n">
+        <v>46.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -59272,8 +59512,11 @@
       <c r="IF81" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IG81" t="n">
+      <c r="IG81" s="1" t="n">
         <v>14.6</v>
+      </c>
+      <c r="IH81" t="n">
+        <v>24.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -59999,8 +60242,11 @@
       <c r="IF82" s="1" t="n">
         <v>188.7</v>
       </c>
-      <c r="IG82" t="n">
+      <c r="IG82" s="1" t="n">
         <v>188.8</v>
+      </c>
+      <c r="IH82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -60726,8 +60972,11 @@
       <c r="IF83" s="1" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="IG83" t="n">
+      <c r="IG83" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="IH83" t="n">
+        <v>88.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -61453,8 +61702,11 @@
       <c r="IF84" s="1" t="n">
         <v>25.66</v>
       </c>
-      <c r="IG84" t="n">
+      <c r="IG84" s="1" t="n">
         <v>25.41</v>
+      </c>
+      <c r="IH84" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -62180,8 +62432,11 @@
       <c r="IF85" s="1" t="n">
         <v>99.8</v>
       </c>
-      <c r="IG85" t="n">
+      <c r="IG85" s="1" t="n">
         <v>93.09999999999999</v>
+      </c>
+      <c r="IH85" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -62907,8 +63162,11 @@
       <c r="IF86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IG86" t="n">
+      <c r="IG86" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IH86" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -63634,8 +63892,11 @@
       <c r="IF87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IG87" t="n">
+      <c r="IG87" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IH87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -64361,8 +64622,11 @@
       <c r="IF88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IG88" t="n">
+      <c r="IG88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IH88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -65088,8 +65352,11 @@
       <c r="IF89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IG89" t="n">
+      <c r="IG89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IH89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -65815,8 +66082,11 @@
       <c r="IF90" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="IG90" t="n">
+      <c r="IG90" s="1" t="n">
         <v>127</v>
+      </c>
+      <c r="IH90" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -66542,8 +66812,11 @@
       <c r="IF91" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="IG91" t="n">
+      <c r="IG91" s="1" t="n">
         <v>218</v>
+      </c>
+      <c r="IH91" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -67269,8 +67542,11 @@
       <c r="IF92" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="IG92" t="n">
+      <c r="IG92" s="1" t="n">
         <v>264</v>
+      </c>
+      <c r="IH92" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -67996,8 +68272,11 @@
       <c r="IF93" s="1" t="n">
         <v>75.5</v>
       </c>
-      <c r="IG93" t="n">
+      <c r="IG93" s="1" t="n">
         <v>76.7</v>
+      </c>
+      <c r="IH93" t="n">
+        <v>76.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -68723,8 +69002,11 @@
       <c r="IF94" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="IG94" t="n">
+      <c r="IG94" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IH94" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -69450,8 +69732,11 @@
       <c r="IF95" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IG95" t="n">
+      <c r="IG95" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IH95" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -70177,8 +70462,11 @@
       <c r="IF96" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IG96" t="n">
+      <c r="IG96" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IH96" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -70904,8 +71192,11 @@
       <c r="IF97" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IG97" t="n">
+      <c r="IG97" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="IH97" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -71631,8 +71922,11 @@
       <c r="IF98" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IG98" t="n">
+      <c r="IG98" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IH98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -72358,8 +72652,11 @@
       <c r="IF99" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IG99" t="n">
+      <c r="IG99" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="IH99" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -73085,8 +73382,11 @@
       <c r="IF100" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IG100" t="n">
+      <c r="IG100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IH100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -73812,8 +74112,11 @@
       <c r="IF101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IG101" t="n">
+      <c r="IG101" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IH101" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -74539,8 +74842,11 @@
       <c r="IF102" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="IG102" t="n">
+      <c r="IG102" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IH102" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IH102"/>
+  <dimension ref="A1:II102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1115,8 +1115,11 @@
       <c r="IG1" s="1" t="n">
         <v>10466</v>
       </c>
-      <c r="IH1" t="n">
+      <c r="IH1" s="1" t="n">
         <v>10479</v>
+      </c>
+      <c r="II1" t="n">
+        <v>10485</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1845,7 +1848,10 @@
       <c r="IG2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IH2" t="n">
+      <c r="IH2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="II2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2575,8 +2581,11 @@
       <c r="IG3" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IH3" t="n">
+      <c r="IH3" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="II3" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3305,8 +3314,11 @@
       <c r="IG4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IH4" t="n">
+      <c r="IH4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="II4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4035,8 +4047,11 @@
       <c r="IG5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IH5" t="n">
+      <c r="IH5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="II5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4765,8 +4780,11 @@
       <c r="IG6" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="IH6" t="n">
+      <c r="IH6" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="II6" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5495,8 +5513,11 @@
       <c r="IG7" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IH7" t="n">
+      <c r="IH7" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="II7" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6225,8 +6246,11 @@
       <c r="IG8" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="IH8" t="n">
+      <c r="IH8" s="1" t="n">
         <v>-69</v>
+      </c>
+      <c r="II8" t="n">
+        <v>-40</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6955,7 +6979,10 @@
       <c r="IG9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IH9" t="n">
+      <c r="IH9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7685,8 +7712,11 @@
       <c r="IG10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IH10" t="n">
+      <c r="IH10" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="II10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8415,8 +8445,11 @@
       <c r="IG11" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="IH11" t="n">
+      <c r="IH11" s="1" t="n">
         <v>178</v>
+      </c>
+      <c r="II11" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9145,8 +9178,11 @@
       <c r="IG12" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="IH12" t="n">
+      <c r="IH12" s="1" t="n">
         <v>121</v>
+      </c>
+      <c r="II12" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9875,8 +9911,11 @@
       <c r="IG13" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="IH13" t="n">
+      <c r="IH13" s="1" t="n">
         <v>299</v>
+      </c>
+      <c r="II13" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10605,8 +10644,11 @@
       <c r="IG14" s="1" t="n">
         <v>1.35</v>
       </c>
-      <c r="IH14" t="n">
+      <c r="IH14" s="1" t="n">
         <v>1.47</v>
+      </c>
+      <c r="II14" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11335,8 +11377,11 @@
       <c r="IG15" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="IH15" t="n">
+      <c r="IH15" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="II15" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12065,8 +12110,11 @@
       <c r="IG16" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IH16" t="n">
+      <c r="IH16" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="II16" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12795,7 +12843,10 @@
       <c r="IG17" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="IH17" t="n">
+      <c r="IH17" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="II17" t="n">
         <v>39</v>
       </c>
     </row>
@@ -13525,8 +13576,11 @@
       <c r="IG18" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IH18" t="n">
+      <c r="IH18" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="II18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14255,7 +14309,10 @@
       <c r="IG19" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IH19" t="n">
+      <c r="IH19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="II19" t="n">
         <v>17</v>
       </c>
     </row>
@@ -14985,8 +15042,11 @@
       <c r="IG20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IH20" t="n">
+      <c r="IH20" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="II20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15715,8 +15775,11 @@
       <c r="IG21" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IH21" t="n">
+      <c r="IH21" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="II21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16445,7 +16508,10 @@
       <c r="IG22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IH22" t="n">
+      <c r="IH22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="II22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -17175,8 +17241,11 @@
       <c r="IG23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IH23" t="n">
+      <c r="IH23" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="II23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17905,8 +17974,11 @@
       <c r="IG24" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IH24" t="n">
+      <c r="IH24" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="II24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18635,8 +18707,11 @@
       <c r="IG25" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="IH25" t="n">
+      <c r="IH25" s="1" t="n">
         <v>18.8</v>
+      </c>
+      <c r="II25" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19365,8 +19440,11 @@
       <c r="IG26" s="1" t="n">
         <v>24.25</v>
       </c>
-      <c r="IH26" t="n">
+      <c r="IH26" s="1" t="n">
         <v>99.67</v>
+      </c>
+      <c r="II26" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20095,8 +20173,11 @@
       <c r="IG27" s="1" t="n">
         <v>13.86</v>
       </c>
-      <c r="IH27" t="n">
+      <c r="IH27" s="1" t="n">
         <v>18.69</v>
+      </c>
+      <c r="II27" t="n">
+        <v>19.11</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20825,8 +20906,11 @@
       <c r="IG28" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IH28" t="n">
+      <c r="IH28" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="II28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21555,8 +21639,11 @@
       <c r="IG29" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IH29" t="n">
+      <c r="IH29" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="II29" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22285,8 +22372,11 @@
       <c r="IG30" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IH30" t="n">
+      <c r="IH30" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="II30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23015,8 +23105,11 @@
       <c r="IG31" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="IH31" t="n">
+      <c r="IH31" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="II31" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23745,8 +23838,11 @@
       <c r="IG32" s="1" t="n">
         <v>2.11</v>
       </c>
-      <c r="IH32" t="n">
+      <c r="IH32" s="1" t="n">
         <v>2.38</v>
+      </c>
+      <c r="II32" t="n">
+        <v>2.39</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24475,8 +24571,11 @@
       <c r="IG33" s="1" t="n">
         <v>3.69</v>
       </c>
-      <c r="IH33" t="n">
+      <c r="IH33" s="1" t="n">
         <v>12.67</v>
+      </c>
+      <c r="II33" t="n">
+        <v>5.38</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25205,8 +25304,11 @@
       <c r="IG34" s="1" t="n">
         <v>44.1</v>
       </c>
-      <c r="IH34" t="n">
+      <c r="IH34" s="1" t="n">
         <v>31.6</v>
+      </c>
+      <c r="II34" t="n">
+        <v>39.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25935,8 +26037,11 @@
       <c r="IG35" s="1" t="n">
         <v>27.1</v>
       </c>
-      <c r="IH35" t="n">
+      <c r="IH35" s="1" t="n">
         <v>7.9</v>
+      </c>
+      <c r="II35" t="n">
+        <v>18.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26665,8 +26770,11 @@
       <c r="IG36" s="1" t="n">
         <v>187.4</v>
       </c>
-      <c r="IH36" t="n">
+      <c r="IH36" s="1" t="n">
         <v>187.4</v>
+      </c>
+      <c r="II36" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -27395,8 +27503,11 @@
       <c r="IG37" s="1" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="IH37" t="n">
+      <c r="IH37" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="II37" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -28125,8 +28236,11 @@
       <c r="IG38" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="IH38" t="n">
+      <c r="IH38" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="II38" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28855,8 +28969,11 @@
       <c r="IG39" s="1" t="n">
         <v>88.40000000000001</v>
       </c>
-      <c r="IH39" t="n">
+      <c r="IH39" s="1" t="n">
         <v>88.7</v>
+      </c>
+      <c r="II39" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29585,8 +29702,11 @@
       <c r="IG40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IH40" t="n">
+      <c r="IH40" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="II40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -30315,7 +30435,10 @@
       <c r="IG41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IH41" t="n">
+      <c r="IH41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="II41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -31045,8 +31168,11 @@
       <c r="IG42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IH42" t="n">
+      <c r="IH42" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="II42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -31775,7 +31901,10 @@
       <c r="IG43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IH43" t="n">
+      <c r="IH43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="II43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -32505,8 +32634,11 @@
       <c r="IG44" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="IH44" t="n">
+      <c r="IH44" s="1" t="n">
         <v>125</v>
+      </c>
+      <c r="II44" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -33235,8 +33367,11 @@
       <c r="IG45" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="IH45" t="n">
+      <c r="IH45" s="1" t="n">
         <v>167</v>
+      </c>
+      <c r="II45" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33965,8 +34100,11 @@
       <c r="IG46" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="IH46" t="n">
+      <c r="IH46" s="1" t="n">
         <v>191</v>
+      </c>
+      <c r="II46" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34695,8 +34833,11 @@
       <c r="IG47" s="1" t="n">
         <v>73.2</v>
       </c>
-      <c r="IH47" t="n">
+      <c r="IH47" s="1" t="n">
         <v>63.9</v>
+      </c>
+      <c r="II47" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -35425,8 +35566,11 @@
       <c r="IG48" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IH48" t="n">
+      <c r="IH48" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="II48" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -36155,8 +36299,11 @@
       <c r="IG49" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IH49" t="n">
+      <c r="IH49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="II49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36885,8 +37032,11 @@
       <c r="IG50" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IH50" t="n">
+      <c r="IH50" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="II50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -37615,8 +37765,11 @@
       <c r="IG51" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IH51" t="n">
+      <c r="IH51" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="II51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -38345,8 +38498,11 @@
       <c r="IG52" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IH52" t="n">
+      <c r="IH52" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="II52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -39075,8 +39231,11 @@
       <c r="IG53" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IH53" t="n">
+      <c r="IH53" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="II53" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -39805,8 +39964,11 @@
       <c r="IG54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IH54" t="n">
+      <c r="IH54" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="II54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -40535,8 +40697,11 @@
       <c r="IG55" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IH55" t="n">
+      <c r="IH55" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="II55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -41265,8 +41430,11 @@
       <c r="IG56" s="1" t="n">
         <v>81.2</v>
       </c>
-      <c r="IH56" t="n">
+      <c r="IH56" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="II56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -41995,8 +42163,11 @@
       <c r="IG57" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="IH57" t="n">
+      <c r="IH57" s="1" t="n">
         <v>258</v>
+      </c>
+      <c r="II57" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -42725,8 +42896,11 @@
       <c r="IG58" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="IH58" t="n">
+      <c r="IH58" s="1" t="n">
         <v>164</v>
+      </c>
+      <c r="II58" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -43455,8 +43629,11 @@
       <c r="IG59" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="IH59" t="n">
+      <c r="IH59" s="1" t="n">
         <v>422</v>
+      </c>
+      <c r="II59" t="n">
+        <v>393</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -44185,8 +44362,11 @@
       <c r="IG60" s="1" t="n">
         <v>1.36</v>
       </c>
-      <c r="IH60" t="n">
+      <c r="IH60" s="1" t="n">
         <v>1.57</v>
+      </c>
+      <c r="II60" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -44915,8 +45095,11 @@
       <c r="IG61" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="IH61" t="n">
+      <c r="IH61" s="1" t="n">
         <v>137</v>
+      </c>
+      <c r="II61" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -45645,8 +45828,11 @@
       <c r="IG62" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IH62" t="n">
+      <c r="IH62" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="II62" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -46375,8 +46561,11 @@
       <c r="IG63" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="IH63" t="n">
+      <c r="IH63" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="II63" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -47105,7 +47294,10 @@
       <c r="IG64" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IH64" t="n">
+      <c r="IH64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="II64" t="n">
         <v>17</v>
       </c>
     </row>
@@ -47835,8 +48027,11 @@
       <c r="IG65" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IH65" t="n">
+      <c r="IH65" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="II65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -48565,7 +48760,10 @@
       <c r="IG66" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IH66" t="n">
+      <c r="IH66" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="II66" t="n">
         <v>14</v>
       </c>
     </row>
@@ -49295,8 +49493,11 @@
       <c r="IG67" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IH67" t="n">
+      <c r="IH67" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="II67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -50025,8 +50226,11 @@
       <c r="IG68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IH68" t="n">
+      <c r="IH68" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="II68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -50755,8 +50959,11 @@
       <c r="IG69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IH69" t="n">
+      <c r="IH69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="II69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -51485,8 +51692,11 @@
       <c r="IG70" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IH70" t="n">
+      <c r="IH70" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="II70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -52215,8 +52425,11 @@
       <c r="IG71" s="1" t="n">
         <v>37.5</v>
       </c>
-      <c r="IH71" t="n">
+      <c r="IH71" s="1" t="n">
         <v>46.7</v>
+      </c>
+      <c r="II71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -52945,8 +53158,11 @@
       <c r="IG72" s="1" t="n">
         <v>57.33</v>
       </c>
-      <c r="IH72" t="n">
+      <c r="IH72" s="1" t="n">
         <v>30.14</v>
+      </c>
+      <c r="II72" t="n">
+        <v>28.07</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -53675,8 +53891,11 @@
       <c r="IG73" s="1" t="n">
         <v>21.5</v>
       </c>
-      <c r="IH73" t="n">
+      <c r="IH73" s="1" t="n">
         <v>14.07</v>
+      </c>
+      <c r="II73" t="n">
+        <v>14.04</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -54405,8 +54624,11 @@
       <c r="IG74" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="IH74" t="n">
+      <c r="IH74" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="II74" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -55135,8 +55357,11 @@
       <c r="IG75" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IH75" t="n">
+      <c r="IH75" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="II75" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -55865,7 +56090,10 @@
       <c r="IG76" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IH76" t="n">
+      <c r="IH76" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="II76" t="n">
         <v>35</v>
       </c>
     </row>
@@ -56595,8 +56823,11 @@
       <c r="IG77" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IH77" t="n">
+      <c r="IH77" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="II77" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -57325,8 +57556,11 @@
       <c r="IG78" s="1" t="n">
         <v>2.56</v>
       </c>
-      <c r="IH78" t="n">
+      <c r="IH78" s="1" t="n">
         <v>1.93</v>
+      </c>
+      <c r="II78" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -58055,8 +58289,11 @@
       <c r="IG79" s="1" t="n">
         <v>6.83</v>
       </c>
-      <c r="IH79" t="n">
+      <c r="IH79" s="1" t="n">
         <v>4.14</v>
+      </c>
+      <c r="II79" t="n">
+        <v>3.93</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -58785,8 +59022,11 @@
       <c r="IG80" s="1" t="n">
         <v>31.7</v>
       </c>
-      <c r="IH80" t="n">
+      <c r="IH80" s="1" t="n">
         <v>46.6</v>
+      </c>
+      <c r="II80" t="n">
+        <v>47.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -59515,8 +59755,11 @@
       <c r="IG81" s="1" t="n">
         <v>14.6</v>
       </c>
-      <c r="IH81" t="n">
+      <c r="IH81" s="1" t="n">
         <v>24.1</v>
+      </c>
+      <c r="II81" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -60245,8 +60488,11 @@
       <c r="IG82" s="1" t="n">
         <v>188.8</v>
       </c>
-      <c r="IH82" t="n">
+      <c r="IH82" s="1" t="n">
         <v>187.7</v>
+      </c>
+      <c r="II82" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -60975,8 +61221,11 @@
       <c r="IG83" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="IH83" t="n">
+      <c r="IH83" s="1" t="n">
         <v>88.2</v>
+      </c>
+      <c r="II83" t="n">
+        <v>84.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -61705,8 +61954,11 @@
       <c r="IG84" s="1" t="n">
         <v>25.41</v>
       </c>
-      <c r="IH84" t="n">
+      <c r="IH84" s="1" t="n">
         <v>27.8</v>
+      </c>
+      <c r="II84" t="n">
+        <v>25.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -62435,8 +62687,11 @@
       <c r="IG85" s="1" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="IH85" t="n">
+      <c r="IH85" s="1" t="n">
         <v>147</v>
+      </c>
+      <c r="II85" t="n">
+        <v>107.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -63165,8 +63420,11 @@
       <c r="IG86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IH86" t="n">
+      <c r="IH86" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="II86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -63895,8 +64153,11 @@
       <c r="IG87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IH87" t="n">
+      <c r="IH87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="II87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -64625,7 +64886,10 @@
       <c r="IG88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IH88" t="n">
+      <c r="IH88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="II88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -65355,8 +65619,11 @@
       <c r="IG89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IH89" t="n">
+      <c r="IH89" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="II89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -66085,8 +66352,11 @@
       <c r="IG90" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="IH90" t="n">
+      <c r="IH90" s="1" t="n">
         <v>145</v>
+      </c>
+      <c r="II90" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -66815,8 +67085,11 @@
       <c r="IG91" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="IH91" t="n">
+      <c r="IH91" s="1" t="n">
         <v>274</v>
+      </c>
+      <c r="II91" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -67545,8 +67818,11 @@
       <c r="IG92" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="IH92" t="n">
+      <c r="IH92" s="1" t="n">
         <v>324</v>
+      </c>
+      <c r="II92" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -68275,7 +68551,10 @@
       <c r="IG93" s="1" t="n">
         <v>76.7</v>
       </c>
-      <c r="IH93" t="n">
+      <c r="IH93" s="1" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="II93" t="n">
         <v>76.8</v>
       </c>
     </row>
@@ -69005,8 +69284,11 @@
       <c r="IG94" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IH94" t="n">
+      <c r="IH94" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="II94" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -69735,8 +70017,11 @@
       <c r="IG95" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IH95" t="n">
+      <c r="IH95" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="II95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -70465,8 +70750,11 @@
       <c r="IG96" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IH96" t="n">
+      <c r="IH96" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="II96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -71195,8 +71483,11 @@
       <c r="IG97" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="IH97" t="n">
+      <c r="IH97" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="II97" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -71925,7 +72216,10 @@
       <c r="IG98" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IH98" t="n">
+      <c r="IH98" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="II98" t="n">
         <v>35</v>
       </c>
     </row>
@@ -72655,8 +72949,11 @@
       <c r="IG99" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="IH99" t="n">
+      <c r="IH99" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="II99" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -73385,8 +73682,11 @@
       <c r="IG100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IH100" t="n">
+      <c r="IH100" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="II100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -74115,8 +74415,11 @@
       <c r="IG101" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IH101" t="n">
+      <c r="IH101" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="II101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -74845,8 +75148,11 @@
       <c r="IG102" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IH102" t="n">
+      <c r="IH102" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="II102" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IJ102"/>
+  <dimension ref="A1:IK102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1121,8 +1121,11 @@
       <c r="II1" s="1" t="n">
         <v>10485</v>
       </c>
-      <c r="IJ1" t="n">
+      <c r="IJ1" s="1" t="n">
         <v>10497</v>
+      </c>
+      <c r="IK1" t="n">
+        <v>10530</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1857,7 +1860,10 @@
       <c r="II2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IJ2" t="n">
+      <c r="IJ2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IK2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2593,8 +2599,11 @@
       <c r="II3" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IJ3" t="n">
+      <c r="IJ3" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3329,7 +3338,10 @@
       <c r="II4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IJ4" t="n">
+      <c r="IJ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4065,8 +4077,11 @@
       <c r="II5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IJ5" t="n">
+      <c r="IJ5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IK5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4801,8 +4816,11 @@
       <c r="II6" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="IJ6" t="n">
+      <c r="IJ6" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IK6" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5537,8 +5555,11 @@
       <c r="II7" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="IJ7" t="n">
+      <c r="IJ7" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IK7" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6273,8 +6294,11 @@
       <c r="II8" s="1" t="n">
         <v>-40</v>
       </c>
-      <c r="IJ8" t="n">
+      <c r="IJ8" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IK8" t="n">
+        <v>-64</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7009,8 +7033,11 @@
       <c r="II9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IJ9" t="n">
+      <c r="IJ9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IK9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7745,8 +7772,11 @@
       <c r="II10" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IJ10" t="n">
+      <c r="IJ10" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IK10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8481,8 +8511,11 @@
       <c r="II11" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="IJ11" t="n">
+      <c r="IJ11" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="IK11" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9217,8 +9250,11 @@
       <c r="II12" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="IJ12" t="n">
+      <c r="IJ12" s="1" t="n">
         <v>151</v>
+      </c>
+      <c r="IK12" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9953,8 +9989,11 @@
       <c r="II13" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="IJ13" t="n">
+      <c r="IJ13" s="1" t="n">
         <v>367</v>
+      </c>
+      <c r="IK13" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10689,8 +10728,11 @@
       <c r="II14" s="1" t="n">
         <v>1.37</v>
       </c>
-      <c r="IJ14" t="n">
+      <c r="IJ14" s="1" t="n">
         <v>1.43</v>
+      </c>
+      <c r="IK14" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11425,8 +11467,11 @@
       <c r="II15" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="IJ15" t="n">
+      <c r="IJ15" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="IK15" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12161,8 +12206,11 @@
       <c r="II16" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IJ16" t="n">
+      <c r="IJ16" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IK16" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12897,8 +12945,11 @@
       <c r="II17" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IJ17" t="n">
+      <c r="IJ17" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IK17" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13633,8 +13684,11 @@
       <c r="II18" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IJ18" t="n">
+      <c r="IJ18" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IK18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14369,8 +14423,11 @@
       <c r="II19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IJ19" t="n">
+      <c r="IJ19" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IK19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15105,8 +15162,11 @@
       <c r="II20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IJ20" t="n">
+      <c r="IJ20" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IK20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15841,8 +15901,11 @@
       <c r="II21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IJ21" t="n">
+      <c r="IJ21" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IK21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16577,8 +16640,11 @@
       <c r="II22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IJ22" t="n">
+      <c r="IJ22" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IK22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17313,8 +17379,11 @@
       <c r="II23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IJ23" t="n">
+      <c r="IJ23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IK23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -18049,8 +18118,11 @@
       <c r="II24" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IJ24" t="n">
+      <c r="IJ24" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IK24" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18785,8 +18857,11 @@
       <c r="II25" s="1" t="n">
         <v>44.4</v>
       </c>
-      <c r="IJ25" t="n">
+      <c r="IJ25" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IK25" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19521,8 +19596,11 @@
       <c r="II26" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IJ26" t="n">
+      <c r="IJ26" s="1" t="n">
         <v>52.43</v>
+      </c>
+      <c r="IK26" t="n">
+        <v>42.25</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20257,8 +20335,11 @@
       <c r="II27" s="1" t="n">
         <v>19.11</v>
       </c>
-      <c r="IJ27" t="n">
+      <c r="IJ27" s="1" t="n">
         <v>18.35</v>
+      </c>
+      <c r="IK27" t="n">
+        <v>24.14</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20993,8 +21074,11 @@
       <c r="II28" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IJ28" t="n">
+      <c r="IJ28" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IK28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21729,8 +21813,11 @@
       <c r="II29" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IJ29" t="n">
+      <c r="IJ29" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IK29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22465,8 +22552,11 @@
       <c r="II30" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IJ30" t="n">
+      <c r="IJ30" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IK30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23201,8 +23291,11 @@
       <c r="II31" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IJ31" t="n">
+      <c r="IJ31" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IK31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23937,8 +24030,11 @@
       <c r="II32" s="1" t="n">
         <v>2.39</v>
       </c>
-      <c r="IJ32" t="n">
+      <c r="IJ32" s="1" t="n">
         <v>2.05</v>
+      </c>
+      <c r="IK32" t="n">
+        <v>3.79</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24673,8 +24769,11 @@
       <c r="II33" s="1" t="n">
         <v>5.38</v>
       </c>
-      <c r="IJ33" t="n">
+      <c r="IJ33" s="1" t="n">
         <v>5.86</v>
+      </c>
+      <c r="IK33" t="n">
+        <v>6.62</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25409,8 +25508,11 @@
       <c r="II34" s="1" t="n">
         <v>39.5</v>
       </c>
-      <c r="IJ34" t="n">
+      <c r="IJ34" s="1" t="n">
         <v>43.9</v>
+      </c>
+      <c r="IK34" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -26145,8 +26247,11 @@
       <c r="II35" s="1" t="n">
         <v>18.6</v>
       </c>
-      <c r="IJ35" t="n">
+      <c r="IJ35" s="1" t="n">
         <v>17.1</v>
+      </c>
+      <c r="IK35" t="n">
+        <v>15.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26881,8 +26986,11 @@
       <c r="II36" s="1" t="n">
         <v>187.2</v>
       </c>
-      <c r="IJ36" t="n">
+      <c r="IJ36" s="1" t="n">
         <v>186.5</v>
+      </c>
+      <c r="IK36" t="n">
+        <v>186.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -27617,8 +27725,11 @@
       <c r="II37" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="IJ37" t="n">
+      <c r="IJ37" s="1" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="IK37" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -28353,8 +28464,11 @@
       <c r="II38" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="IJ38" t="n">
+      <c r="IJ38" s="1" t="n">
         <v>23.8</v>
+      </c>
+      <c r="IK38" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -29089,8 +29203,11 @@
       <c r="II39" s="1" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="IJ39" t="n">
+      <c r="IJ39" s="1" t="n">
         <v>67.3</v>
+      </c>
+      <c r="IK39" t="n">
+        <v>69.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29825,8 +29942,11 @@
       <c r="II40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IJ40" t="n">
+      <c r="IJ40" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IK40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -30561,8 +30681,11 @@
       <c r="II41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IJ41" t="n">
+      <c r="IJ41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IK41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -31297,7 +31420,10 @@
       <c r="II42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IJ42" t="n">
+      <c r="IJ42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IK42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32033,7 +32159,10 @@
       <c r="II43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IJ43" t="n">
+      <c r="IJ43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32769,8 +32898,11 @@
       <c r="II44" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="IJ44" t="n">
+      <c r="IJ44" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="IK44" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -33505,8 +33637,11 @@
       <c r="II45" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="IJ45" t="n">
+      <c r="IJ45" s="1" t="n">
         <v>228</v>
+      </c>
+      <c r="IK45" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -34241,8 +34376,11 @@
       <c r="II46" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="IJ46" t="n">
+      <c r="IJ46" s="1" t="n">
         <v>265</v>
+      </c>
+      <c r="IK46" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34977,8 +35115,11 @@
       <c r="II47" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="IJ47" t="n">
+      <c r="IJ47" s="1" t="n">
         <v>72.2</v>
+      </c>
+      <c r="IK47" t="n">
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -35713,8 +35854,11 @@
       <c r="II48" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IJ48" t="n">
+      <c r="IJ48" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IK48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -36449,8 +36593,11 @@
       <c r="II49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IJ49" t="n">
+      <c r="IJ49" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IK49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -37185,8 +37332,11 @@
       <c r="II50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IJ50" t="n">
+      <c r="IJ50" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IK50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -37921,8 +38071,11 @@
       <c r="II51" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IJ51" t="n">
+      <c r="IJ51" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IK51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -38657,8 +38810,11 @@
       <c r="II52" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IJ52" t="n">
+      <c r="IJ52" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IK52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -39393,8 +39549,11 @@
       <c r="II53" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IJ53" t="n">
+      <c r="IJ53" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IK53" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -40129,8 +40288,11 @@
       <c r="II54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IJ54" t="n">
+      <c r="IJ54" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IK54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -40865,8 +41027,11 @@
       <c r="II55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IJ55" t="n">
+      <c r="IJ55" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IK55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -41601,8 +41766,11 @@
       <c r="II56" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="IJ56" t="n">
+      <c r="IJ56" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="IK56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -42337,8 +42505,11 @@
       <c r="II57" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="IJ57" t="n">
+      <c r="IJ57" s="1" t="n">
         <v>192</v>
+      </c>
+      <c r="IK57" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -43073,8 +43244,11 @@
       <c r="II58" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="IJ58" t="n">
+      <c r="IJ58" s="1" t="n">
         <v>175</v>
+      </c>
+      <c r="IK58" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -43809,8 +43983,11 @@
       <c r="II59" s="1" t="n">
         <v>393</v>
       </c>
-      <c r="IJ59" t="n">
+      <c r="IJ59" s="1" t="n">
         <v>367</v>
+      </c>
+      <c r="IK59" t="n">
+        <v>372</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -44545,8 +44722,11 @@
       <c r="II60" s="1" t="n">
         <v>1.44</v>
       </c>
-      <c r="IJ60" t="n">
+      <c r="IJ60" s="1" t="n">
         <v>1.1</v>
+      </c>
+      <c r="IK60" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -45281,8 +45461,11 @@
       <c r="II61" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="IJ61" t="n">
+      <c r="IJ61" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="IK61" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -46017,8 +46200,11 @@
       <c r="II62" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="IJ62" t="n">
+      <c r="IJ62" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IK62" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -46753,8 +46939,11 @@
       <c r="II63" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="IJ63" t="n">
+      <c r="IJ63" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IK63" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -47489,8 +47678,11 @@
       <c r="II64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IJ64" t="n">
+      <c r="IJ64" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IK64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -48225,8 +48417,11 @@
       <c r="II65" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IJ65" t="n">
+      <c r="IJ65" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IK65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -48961,8 +49156,11 @@
       <c r="II66" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IJ66" t="n">
+      <c r="IJ66" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IK66" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -49697,8 +49895,11 @@
       <c r="II67" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IJ67" t="n">
+      <c r="IJ67" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IK67" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -50433,8 +50634,11 @@
       <c r="II68" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IJ68" t="n">
+      <c r="IJ68" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IK68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -51169,8 +51373,11 @@
       <c r="II69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IJ69" t="n">
+      <c r="IJ69" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IK69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -51905,8 +52112,11 @@
       <c r="II70" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IJ70" t="n">
+      <c r="IJ70" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IK70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -52641,8 +52851,11 @@
       <c r="II71" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IJ71" t="n">
+      <c r="IJ71" s="1" t="n">
         <v>28.6</v>
+      </c>
+      <c r="IK71" t="n">
+        <v>64.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -53377,8 +53590,11 @@
       <c r="II72" s="1" t="n">
         <v>28.07</v>
       </c>
-      <c r="IJ72" t="n">
+      <c r="IJ72" s="1" t="n">
         <v>61.17</v>
+      </c>
+      <c r="IK72" t="n">
+        <v>20.67</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -54113,8 +54329,11 @@
       <c r="II73" s="1" t="n">
         <v>14.04</v>
       </c>
-      <c r="IJ73" t="n">
+      <c r="IJ73" s="1" t="n">
         <v>17.48</v>
+      </c>
+      <c r="IK73" t="n">
+        <v>13.29</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -54849,8 +55068,11 @@
       <c r="II74" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IJ74" t="n">
+      <c r="IJ74" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IK74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -55585,8 +55807,11 @@
       <c r="II75" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IJ75" t="n">
+      <c r="IJ75" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="IK75" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -56321,8 +56546,11 @@
       <c r="II76" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IJ76" t="n">
+      <c r="IJ76" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IK76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -57057,8 +57285,11 @@
       <c r="II77" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IJ77" t="n">
+      <c r="IJ77" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IK77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -57793,8 +58024,11 @@
       <c r="II78" s="1" t="n">
         <v>1.96</v>
       </c>
-      <c r="IJ78" t="n">
+      <c r="IJ78" s="1" t="n">
         <v>2.43</v>
+      </c>
+      <c r="IK78" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -58529,8 +58763,11 @@
       <c r="II79" s="1" t="n">
         <v>3.93</v>
       </c>
-      <c r="IJ79" t="n">
+      <c r="IJ79" s="1" t="n">
         <v>8.5</v>
+      </c>
+      <c r="IK79" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -59265,8 +59502,11 @@
       <c r="II80" s="1" t="n">
         <v>47.3</v>
       </c>
-      <c r="IJ80" t="n">
+      <c r="IJ80" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IK80" t="n">
+        <v>51.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -60001,8 +60241,11 @@
       <c r="II81" s="1" t="n">
         <v>25.5</v>
       </c>
-      <c r="IJ81" t="n">
+      <c r="IJ81" s="1" t="n">
         <v>11.8</v>
+      </c>
+      <c r="IK81" t="n">
+        <v>34.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -60737,8 +60980,11 @@
       <c r="II82" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="IJ82" t="n">
+      <c r="IJ82" s="1" t="n">
         <v>185</v>
+      </c>
+      <c r="IK82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -61473,8 +61719,11 @@
       <c r="II83" s="1" t="n">
         <v>84.5</v>
       </c>
-      <c r="IJ83" t="n">
+      <c r="IJ83" s="1" t="n">
         <v>83.09999999999999</v>
+      </c>
+      <c r="IK83" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -62209,8 +62458,11 @@
       <c r="II84" s="1" t="n">
         <v>25.49</v>
       </c>
-      <c r="IJ84" t="n">
+      <c r="IJ84" s="1" t="n">
         <v>26.33</v>
+      </c>
+      <c r="IK84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -62945,8 +63197,11 @@
       <c r="II85" s="1" t="n">
         <v>107.2</v>
       </c>
-      <c r="IJ85" t="n">
+      <c r="IJ85" s="1" t="n">
         <v>112.3</v>
+      </c>
+      <c r="IK85" t="n">
+        <v>108.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -63681,8 +63936,11 @@
       <c r="II86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IJ86" t="n">
+      <c r="IJ86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IK86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -64417,8 +64675,11 @@
       <c r="II87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IJ87" t="n">
+      <c r="IJ87" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IK87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -65153,8 +65414,11 @@
       <c r="II88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IJ88" t="n">
+      <c r="IJ88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IK88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -65889,8 +66153,11 @@
       <c r="II89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IJ89" t="n">
+      <c r="IJ89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IK89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -66625,8 +66892,11 @@
       <c r="II90" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="IJ90" t="n">
+      <c r="IJ90" s="1" t="n">
         <v>114</v>
+      </c>
+      <c r="IK90" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -67361,8 +67631,11 @@
       <c r="II91" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="IJ91" t="n">
+      <c r="IJ91" s="1" t="n">
         <v>241</v>
+      </c>
+      <c r="IK91" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -68097,8 +68370,11 @@
       <c r="II92" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="IJ92" t="n">
+      <c r="IJ92" s="1" t="n">
         <v>254</v>
+      </c>
+      <c r="IK92" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -68833,8 +69109,11 @@
       <c r="II93" s="1" t="n">
         <v>76.8</v>
       </c>
-      <c r="IJ93" t="n">
+      <c r="IJ93" s="1" t="n">
         <v>69.2</v>
+      </c>
+      <c r="IK93" t="n">
+        <v>73.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -69569,8 +69848,11 @@
       <c r="II94" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IJ94" t="n">
+      <c r="IJ94" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="IK94" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -70305,8 +70587,11 @@
       <c r="II95" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IJ95" t="n">
+      <c r="IJ95" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IK95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -71041,8 +71326,11 @@
       <c r="II96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IJ96" t="n">
+      <c r="IJ96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IK96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -71777,8 +72065,11 @@
       <c r="II97" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IJ97" t="n">
+      <c r="IJ97" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IK97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -72513,8 +72804,11 @@
       <c r="II98" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IJ98" t="n">
+      <c r="IJ98" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IK98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -73249,8 +73543,11 @@
       <c r="II99" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IJ99" t="n">
+      <c r="IJ99" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="IK99" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -73985,8 +74282,11 @@
       <c r="II100" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IJ100" t="n">
+      <c r="IJ100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IK100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -74721,8 +75021,11 @@
       <c r="II101" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IJ101" t="n">
+      <c r="IJ101" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IK101" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -75457,8 +75760,11 @@
       <c r="II102" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="IJ102" t="n">
+      <c r="IJ102" s="1" t="n">
         <v>83.3</v>
+      </c>
+      <c r="IK102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -85,6 +85,74 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -377,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IK102"/>
+  <dimension ref="A1:IL102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1124,8 +1192,11 @@
       <c r="IJ1" s="1" t="n">
         <v>10497</v>
       </c>
-      <c r="IK1" t="n">
+      <c r="IK1" s="1" t="n">
         <v>10530</v>
+      </c>
+      <c r="IL1" t="n">
+        <v>10515</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1863,7 +1934,10 @@
       <c r="IJ2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IK2" t="n">
+      <c r="IK2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IL2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2602,8 +2676,11 @@
       <c r="IJ3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IK3" t="n">
+      <c r="IK3" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3341,7 +3418,10 @@
       <c r="IJ4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IK4" t="n">
+      <c r="IK4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4080,8 +4160,11 @@
       <c r="IJ5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IK5" t="n">
+      <c r="IK5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IL5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4819,8 +4902,11 @@
       <c r="IJ6" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IK6" t="n">
+      <c r="IK6" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IL6" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5558,8 +5644,11 @@
       <c r="IJ7" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IK7" t="n">
+      <c r="IK7" s="1" t="n">
         <v>118</v>
+      </c>
+      <c r="IL7" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6297,8 +6386,11 @@
       <c r="IJ8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IK8" t="n">
+      <c r="IK8" s="1" t="n">
         <v>-64</v>
+      </c>
+      <c r="IL8" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7036,8 +7128,11 @@
       <c r="IJ9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IK9" t="n">
+      <c r="IK9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IL9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7775,8 +7870,11 @@
       <c r="IJ10" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IK10" t="n">
+      <c r="IK10" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IL10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8514,8 +8612,11 @@
       <c r="IJ11" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="IK11" t="n">
+      <c r="IK11" s="1" t="n">
         <v>191</v>
+      </c>
+      <c r="IL11" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9253,8 +9354,11 @@
       <c r="IJ12" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="IK12" t="n">
+      <c r="IK12" s="1" t="n">
         <v>147</v>
+      </c>
+      <c r="IL12" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9992,7 +10096,10 @@
       <c r="IJ13" s="1" t="n">
         <v>367</v>
       </c>
-      <c r="IK13" t="n">
+      <c r="IK13" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="IL13" t="n">
         <v>338</v>
       </c>
     </row>
@@ -10731,8 +10838,11 @@
       <c r="IJ14" s="1" t="n">
         <v>1.43</v>
       </c>
-      <c r="IK14" t="n">
+      <c r="IK14" s="1" t="n">
         <v>1.3</v>
+      </c>
+      <c r="IL14" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11470,7 +11580,10 @@
       <c r="IJ15" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="IK15" t="n">
+      <c r="IK15" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="IL15" t="n">
         <v>95</v>
       </c>
     </row>
@@ -12209,8 +12322,11 @@
       <c r="IJ16" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IK16" t="n">
+      <c r="IK16" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IL16" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12948,8 +13064,11 @@
       <c r="IJ17" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IK17" t="n">
+      <c r="IK17" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IL17" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13687,8 +13806,11 @@
       <c r="IJ18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IK18" t="n">
+      <c r="IK18" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IL18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14426,8 +14548,11 @@
       <c r="IJ19" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IK19" t="n">
+      <c r="IK19" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IL19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15165,8 +15290,11 @@
       <c r="IJ20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IK20" t="n">
+      <c r="IK20" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IL20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15904,8 +16032,11 @@
       <c r="IJ21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IK21" t="n">
+      <c r="IK21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IL21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16643,8 +16774,11 @@
       <c r="IJ22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IK22" t="n">
+      <c r="IK22" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IL22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17382,8 +17516,11 @@
       <c r="IJ23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IK23" t="n">
+      <c r="IK23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IL23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -18121,8 +18258,11 @@
       <c r="IJ24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IK24" t="n">
+      <c r="IK24" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IL24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18860,8 +19000,11 @@
       <c r="IJ25" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IK25" t="n">
+      <c r="IK25" s="1" t="n">
         <v>57.1</v>
+      </c>
+      <c r="IL25" t="n">
+        <v>63.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19599,8 +19742,11 @@
       <c r="IJ26" s="1" t="n">
         <v>52.43</v>
       </c>
-      <c r="IK26" t="n">
+      <c r="IK26" s="1" t="n">
         <v>42.25</v>
+      </c>
+      <c r="IL26" t="n">
+        <v>28.17</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20338,8 +20484,11 @@
       <c r="IJ27" s="1" t="n">
         <v>18.35</v>
       </c>
-      <c r="IK27" t="n">
+      <c r="IK27" s="1" t="n">
         <v>24.14</v>
+      </c>
+      <c r="IL27" t="n">
+        <v>17.79</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -21077,8 +21226,11 @@
       <c r="IJ28" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IK28" t="n">
+      <c r="IK28" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IL28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21816,8 +21968,11 @@
       <c r="IJ29" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IK29" t="n">
+      <c r="IK29" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IL29" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22555,8 +22710,11 @@
       <c r="IJ30" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IK30" t="n">
+      <c r="IK30" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IL30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23294,8 +23452,11 @@
       <c r="IJ31" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IK31" t="n">
+      <c r="IK31" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="IL31" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -24033,8 +24194,11 @@
       <c r="IJ32" s="1" t="n">
         <v>2.05</v>
       </c>
-      <c r="IK32" t="n">
+      <c r="IK32" s="1" t="n">
         <v>3.79</v>
+      </c>
+      <c r="IL32" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24772,8 +24936,11 @@
       <c r="IJ33" s="1" t="n">
         <v>5.86</v>
       </c>
-      <c r="IK33" t="n">
+      <c r="IK33" s="1" t="n">
         <v>6.62</v>
+      </c>
+      <c r="IL33" t="n">
+        <v>3.33</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25511,8 +25678,11 @@
       <c r="IJ34" s="1" t="n">
         <v>43.9</v>
       </c>
-      <c r="IK34" t="n">
+      <c r="IK34" s="1" t="n">
         <v>20.8</v>
+      </c>
+      <c r="IL34" t="n">
+        <v>47.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -26250,8 +26420,11 @@
       <c r="IJ35" s="1" t="n">
         <v>17.1</v>
       </c>
-      <c r="IK35" t="n">
+      <c r="IK35" s="1" t="n">
         <v>15.1</v>
+      </c>
+      <c r="IL35" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26989,8 +27162,11 @@
       <c r="IJ36" s="1" t="n">
         <v>186.5</v>
       </c>
-      <c r="IK36" t="n">
+      <c r="IK36" s="1" t="n">
         <v>186.8</v>
+      </c>
+      <c r="IL36" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -27728,8 +27904,11 @@
       <c r="IJ37" s="1" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="IK37" t="n">
+      <c r="IK37" s="1" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="IL37" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -28467,8 +28646,11 @@
       <c r="IJ38" s="1" t="n">
         <v>23.8</v>
       </c>
-      <c r="IK38" t="n">
+      <c r="IK38" s="1" t="n">
         <v>24.8</v>
+      </c>
+      <c r="IL38" t="n">
+        <v>24.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -29206,8 +29388,11 @@
       <c r="IJ39" s="1" t="n">
         <v>67.3</v>
       </c>
-      <c r="IK39" t="n">
+      <c r="IK39" s="1" t="n">
         <v>69.8</v>
+      </c>
+      <c r="IL39" t="n">
+        <v>64.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29945,8 +30130,11 @@
       <c r="IJ40" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IK40" t="n">
+      <c r="IK40" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IL40" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -30684,8 +30872,11 @@
       <c r="IJ41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IK41" t="n">
+      <c r="IK41" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IL41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -31423,8 +31614,11 @@
       <c r="IJ42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IK42" t="n">
+      <c r="IK42" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IL42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -32162,7 +32356,10 @@
       <c r="IJ43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IK43" t="n">
+      <c r="IK43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32901,8 +33098,11 @@
       <c r="IJ44" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="IK44" t="n">
+      <c r="IK44" s="1" t="n">
         <v>127</v>
+      </c>
+      <c r="IL44" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -33640,8 +33840,11 @@
       <c r="IJ45" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="IK45" t="n">
+      <c r="IK45" s="1" t="n">
         <v>208</v>
+      </c>
+      <c r="IL45" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -34379,8 +34582,11 @@
       <c r="IJ46" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="IK46" t="n">
+      <c r="IK46" s="1" t="n">
         <v>254</v>
+      </c>
+      <c r="IL46" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -35118,8 +35324,11 @@
       <c r="IJ47" s="1" t="n">
         <v>72.2</v>
       </c>
-      <c r="IK47" t="n">
+      <c r="IK47" s="1" t="n">
         <v>75.09999999999999</v>
+      </c>
+      <c r="IL47" t="n">
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -35857,8 +36066,11 @@
       <c r="IJ48" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IK48" t="n">
+      <c r="IK48" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IL48" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -36596,8 +36808,11 @@
       <c r="IJ49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IK49" t="n">
+      <c r="IK49" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IL49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -37335,8 +37550,11 @@
       <c r="IJ50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IK50" t="n">
+      <c r="IK50" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IL50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -38074,8 +38292,11 @@
       <c r="IJ51" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IK51" t="n">
+      <c r="IK51" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IL51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -38813,8 +39034,11 @@
       <c r="IJ52" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IK52" t="n">
+      <c r="IK52" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IL52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -39552,8 +39776,11 @@
       <c r="IJ53" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IK53" t="n">
+      <c r="IK53" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IL53" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -40291,8 +40518,11 @@
       <c r="IJ54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IK54" t="n">
+      <c r="IK54" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IL54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -41030,8 +41260,11 @@
       <c r="IJ55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IK55" t="n">
+      <c r="IK55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IL55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -41769,8 +42002,11 @@
       <c r="IJ56" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="IK56" t="n">
+      <c r="IK56" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="IL56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -42508,8 +42744,11 @@
       <c r="IJ57" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="IK57" t="n">
+      <c r="IK57" s="1" t="n">
         <v>222</v>
+      </c>
+      <c r="IL57" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -43247,8 +43486,11 @@
       <c r="IJ58" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="IK58" t="n">
+      <c r="IK58" s="1" t="n">
         <v>150</v>
+      </c>
+      <c r="IL58" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -43986,8 +44228,11 @@
       <c r="IJ59" s="1" t="n">
         <v>367</v>
       </c>
-      <c r="IK59" t="n">
+      <c r="IK59" s="1" t="n">
         <v>372</v>
+      </c>
+      <c r="IL59" t="n">
+        <v>342</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -44725,8 +44970,11 @@
       <c r="IJ60" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="IK60" t="n">
+      <c r="IK60" s="1" t="n">
         <v>1.48</v>
+      </c>
+      <c r="IL60" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -45464,8 +45712,11 @@
       <c r="IJ61" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="IK61" t="n">
+      <c r="IK61" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="IL61" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -46203,7 +46454,10 @@
       <c r="IJ62" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IK62" t="n">
+      <c r="IK62" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="IL62" t="n">
         <v>71</v>
       </c>
     </row>
@@ -46942,8 +47196,11 @@
       <c r="IJ63" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="IK63" t="n">
+      <c r="IK63" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IL63" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -47681,8 +47938,11 @@
       <c r="IJ64" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IK64" t="n">
+      <c r="IK64" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IL64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -48420,8 +48680,11 @@
       <c r="IJ65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IK65" t="n">
+      <c r="IK65" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IL65" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -49159,8 +49422,11 @@
       <c r="IJ66" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IK66" t="n">
+      <c r="IK66" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IL66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -49898,8 +50164,11 @@
       <c r="IJ67" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IK67" t="n">
+      <c r="IK67" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IL67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -50637,8 +50906,11 @@
       <c r="IJ68" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IK68" t="n">
+      <c r="IK68" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IL68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -51376,8 +51648,11 @@
       <c r="IJ69" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IK69" t="n">
+      <c r="IK69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IL69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -52115,8 +52390,11 @@
       <c r="IJ70" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IK70" t="n">
+      <c r="IK70" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IL70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -52854,8 +53132,11 @@
       <c r="IJ71" s="1" t="n">
         <v>28.6</v>
       </c>
-      <c r="IK71" t="n">
+      <c r="IK71" s="1" t="n">
         <v>64.3</v>
+      </c>
+      <c r="IL71" t="n">
+        <v>47.4</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -53593,8 +53874,11 @@
       <c r="IJ72" s="1" t="n">
         <v>61.17</v>
       </c>
-      <c r="IK72" t="n">
+      <c r="IK72" s="1" t="n">
         <v>20.67</v>
+      </c>
+      <c r="IL72" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -54332,8 +54616,11 @@
       <c r="IJ73" s="1" t="n">
         <v>17.48</v>
       </c>
-      <c r="IK73" t="n">
+      <c r="IK73" s="1" t="n">
         <v>13.29</v>
+      </c>
+      <c r="IL73" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -55071,8 +55358,11 @@
       <c r="IJ74" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IK74" t="n">
+      <c r="IK74" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IL74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -55810,8 +56100,11 @@
       <c r="IJ75" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="IK75" t="n">
+      <c r="IK75" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="IL75" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -56549,8 +56842,11 @@
       <c r="IJ76" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IK76" t="n">
+      <c r="IK76" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IL76" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -57288,8 +57584,11 @@
       <c r="IJ77" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IK77" t="n">
+      <c r="IK77" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IL77" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -58027,8 +58326,11 @@
       <c r="IJ78" s="1" t="n">
         <v>2.43</v>
       </c>
-      <c r="IK78" t="n">
+      <c r="IK78" s="1" t="n">
         <v>1.86</v>
+      </c>
+      <c r="IL78" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -58766,8 +59068,11 @@
       <c r="IJ79" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="IK79" t="n">
+      <c r="IK79" s="1" t="n">
         <v>2.89</v>
+      </c>
+      <c r="IL79" t="n">
+        <v>6.11</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -59505,8 +59810,11 @@
       <c r="IJ80" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="IK80" t="n">
+      <c r="IK80" s="1" t="n">
         <v>51.9</v>
+      </c>
+      <c r="IL80" t="n">
+        <v>34.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -60244,8 +60552,11 @@
       <c r="IJ81" s="1" t="n">
         <v>11.8</v>
       </c>
-      <c r="IK81" t="n">
+      <c r="IK81" s="1" t="n">
         <v>34.6</v>
+      </c>
+      <c r="IL81" t="n">
+        <v>16.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -60983,8 +61294,11 @@
       <c r="IJ82" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="IK82" t="n">
+      <c r="IK82" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="IL82" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -61722,8 +62036,11 @@
       <c r="IJ83" s="1" t="n">
         <v>83.09999999999999</v>
       </c>
-      <c r="IK83" t="n">
+      <c r="IK83" s="1" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="IL83" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -62461,8 +62778,11 @@
       <c r="IJ84" s="1" t="n">
         <v>26.33</v>
       </c>
-      <c r="IK84" t="n">
+      <c r="IK84" s="1" t="n">
         <v>25.91</v>
+      </c>
+      <c r="IL84" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -63200,8 +63520,11 @@
       <c r="IJ85" s="1" t="n">
         <v>112.3</v>
       </c>
-      <c r="IK85" t="n">
+      <c r="IK85" s="1" t="n">
         <v>108.5</v>
+      </c>
+      <c r="IL85" t="n">
+        <v>131.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -63939,8 +64262,11 @@
       <c r="IJ86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IK86" t="n">
+      <c r="IK86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IL86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -64678,8 +65004,11 @@
       <c r="IJ87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IK87" t="n">
+      <c r="IK87" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IL87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -65417,8 +65746,11 @@
       <c r="IJ88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IK88" t="n">
+      <c r="IK88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IL88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -66156,8 +66488,11 @@
       <c r="IJ89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IK89" t="n">
+      <c r="IK89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IL89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -66895,8 +67230,11 @@
       <c r="IJ90" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="IK90" t="n">
+      <c r="IK90" s="1" t="n">
         <v>133</v>
+      </c>
+      <c r="IL90" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -67634,8 +67972,11 @@
       <c r="IJ91" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="IK91" t="n">
+      <c r="IK91" s="1" t="n">
         <v>227</v>
+      </c>
+      <c r="IL91" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -68373,8 +68714,11 @@
       <c r="IJ92" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="IK92" t="n">
+      <c r="IK92" s="1" t="n">
         <v>274</v>
+      </c>
+      <c r="IL92" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -69112,8 +69456,11 @@
       <c r="IJ93" s="1" t="n">
         <v>69.2</v>
       </c>
-      <c r="IK93" t="n">
+      <c r="IK93" s="1" t="n">
         <v>73.7</v>
+      </c>
+      <c r="IL93" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -69851,8 +70198,11 @@
       <c r="IJ94" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="IK94" t="n">
+      <c r="IK94" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="IL94" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -70590,8 +70940,11 @@
       <c r="IJ95" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IK95" t="n">
+      <c r="IK95" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IL95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -71329,8 +71682,11 @@
       <c r="IJ96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IK96" t="n">
+      <c r="IK96" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IL96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -72068,8 +72424,11 @@
       <c r="IJ97" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IK97" t="n">
+      <c r="IK97" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IL97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -72807,8 +73166,11 @@
       <c r="IJ98" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IK98" t="n">
+      <c r="IK98" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IL98" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -73546,8 +73908,11 @@
       <c r="IJ99" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="IK99" t="n">
+      <c r="IK99" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IL99" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -74285,8 +74650,11 @@
       <c r="IJ100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IK100" t="n">
+      <c r="IK100" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IL100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -75024,8 +75392,11 @@
       <c r="IJ101" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IK101" t="n">
+      <c r="IK101" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IL101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -75763,8 +76134,11 @@
       <c r="IJ102" s="1" t="n">
         <v>83.3</v>
       </c>
-      <c r="IK102" t="n">
+      <c r="IK102" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IL102" t="n">
+        <v>55.6</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IL102"/>
+  <dimension ref="A1:IM102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1195,8 +1195,11 @@
       <c r="IK1" s="1" t="n">
         <v>10530</v>
       </c>
-      <c r="IL1" t="n">
+      <c r="IL1" s="1" t="n">
         <v>10515</v>
+      </c>
+      <c r="IM1" t="n">
+        <v>10521</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1937,7 +1940,10 @@
       <c r="IK2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IL2" t="n">
+      <c r="IL2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IM2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2679,8 +2685,11 @@
       <c r="IK3" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IL3" t="n">
+      <c r="IL3" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3421,8 +3430,11 @@
       <c r="IK4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IL4" t="n">
+      <c r="IL4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4163,7 +4175,10 @@
       <c r="IK5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IL5" t="n">
+      <c r="IL5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4905,8 +4920,11 @@
       <c r="IK6" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IL6" t="n">
+      <c r="IL6" s="1" t="n">
         <v>79</v>
+      </c>
+      <c r="IM6" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5647,8 +5665,11 @@
       <c r="IK7" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="IL7" t="n">
+      <c r="IL7" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="IM7" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6389,8 +6410,11 @@
       <c r="IK8" s="1" t="n">
         <v>-64</v>
       </c>
-      <c r="IL8" t="n">
+      <c r="IL8" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IM8" t="n">
+        <v>-58</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7131,8 +7155,11 @@
       <c r="IK9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IL9" t="n">
+      <c r="IL9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IM9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7873,8 +7900,11 @@
       <c r="IK10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IL10" t="n">
+      <c r="IL10" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IM10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8615,8 +8645,11 @@
       <c r="IK11" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="IL11" t="n">
+      <c r="IL11" s="1" t="n">
         <v>203</v>
+      </c>
+      <c r="IM11" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9357,8 +9390,11 @@
       <c r="IK12" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="IL12" t="n">
+      <c r="IL12" s="1" t="n">
         <v>135</v>
+      </c>
+      <c r="IM12" t="n">
+        <v>174</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10099,8 +10135,11 @@
       <c r="IK13" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="IL13" t="n">
+      <c r="IL13" s="1" t="n">
         <v>338</v>
+      </c>
+      <c r="IM13" t="n">
+        <v>354</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10841,8 +10880,11 @@
       <c r="IK14" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="IL14" t="n">
+      <c r="IL14" s="1" t="n">
         <v>1.5</v>
+      </c>
+      <c r="IM14" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11583,8 +11625,11 @@
       <c r="IK15" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="IL15" t="n">
+      <c r="IL15" s="1" t="n">
         <v>95</v>
+      </c>
+      <c r="IM15" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12325,8 +12370,11 @@
       <c r="IK16" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IL16" t="n">
+      <c r="IL16" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="IM16" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -13067,8 +13115,11 @@
       <c r="IK17" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IL17" t="n">
+      <c r="IL17" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IM17" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13809,8 +13860,11 @@
       <c r="IK18" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IL18" t="n">
+      <c r="IL18" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IM18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14551,8 +14605,11 @@
       <c r="IK19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IL19" t="n">
+      <c r="IL19" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IM19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15293,8 +15350,11 @@
       <c r="IK20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IL20" t="n">
+      <c r="IL20" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IM20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -16035,8 +16095,11 @@
       <c r="IK21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IL21" t="n">
+      <c r="IL21" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IM21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16777,8 +16840,11 @@
       <c r="IK22" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IL22" t="n">
+      <c r="IL22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IM22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17519,8 +17585,11 @@
       <c r="IK23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IL23" t="n">
+      <c r="IL23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IM23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -18261,7 +18330,10 @@
       <c r="IK24" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IL24" t="n">
+      <c r="IL24" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="IM24" t="n">
         <v>19</v>
       </c>
     </row>
@@ -19003,8 +19075,11 @@
       <c r="IK25" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="IL25" t="n">
+      <c r="IL25" s="1" t="n">
         <v>63.2</v>
+      </c>
+      <c r="IM25" t="n">
+        <v>31.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19745,8 +19820,11 @@
       <c r="IK26" s="1" t="n">
         <v>42.25</v>
       </c>
-      <c r="IL26" t="n">
+      <c r="IL26" s="1" t="n">
         <v>28.17</v>
+      </c>
+      <c r="IM26" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20487,8 +20565,11 @@
       <c r="IK27" s="1" t="n">
         <v>24.14</v>
       </c>
-      <c r="IL27" t="n">
+      <c r="IL27" s="1" t="n">
         <v>17.79</v>
+      </c>
+      <c r="IM27" t="n">
+        <v>18.63</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -21229,8 +21310,11 @@
       <c r="IK28" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IL28" t="n">
+      <c r="IL28" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IM28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21971,8 +22055,11 @@
       <c r="IK29" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IL29" t="n">
+      <c r="IL29" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IM29" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22713,8 +22800,11 @@
       <c r="IK30" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IL30" t="n">
+      <c r="IL30" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IM30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23455,8 +23545,11 @@
       <c r="IK31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IL31" t="n">
+      <c r="IL31" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IM31" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -24197,8 +24290,11 @@
       <c r="IK32" s="1" t="n">
         <v>3.79</v>
       </c>
-      <c r="IL32" t="n">
+      <c r="IL32" s="1" t="n">
         <v>2.11</v>
+      </c>
+      <c r="IM32" t="n">
+        <v>2.63</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24939,8 +25035,11 @@
       <c r="IK33" s="1" t="n">
         <v>6.62</v>
       </c>
-      <c r="IL33" t="n">
+      <c r="IL33" s="1" t="n">
         <v>3.33</v>
+      </c>
+      <c r="IM33" t="n">
+        <v>8.33</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25681,8 +25780,11 @@
       <c r="IK34" s="1" t="n">
         <v>20.8</v>
       </c>
-      <c r="IL34" t="n">
+      <c r="IL34" s="1" t="n">
         <v>47.5</v>
+      </c>
+      <c r="IM34" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -26423,8 +26525,11 @@
       <c r="IK35" s="1" t="n">
         <v>15.1</v>
       </c>
-      <c r="IL35" t="n">
+      <c r="IL35" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IM35" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -27165,8 +27270,11 @@
       <c r="IK36" s="1" t="n">
         <v>186.8</v>
       </c>
-      <c r="IL36" t="n">
+      <c r="IL36" s="1" t="n">
         <v>187.6</v>
+      </c>
+      <c r="IM36" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -27907,8 +28015,11 @@
       <c r="IK37" s="1" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="IL37" t="n">
+      <c r="IL37" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="IM37" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -28649,8 +28760,11 @@
       <c r="IK38" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="IL38" t="n">
+      <c r="IL38" s="1" t="n">
         <v>24.16</v>
+      </c>
+      <c r="IM38" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -29391,8 +29505,11 @@
       <c r="IK39" s="1" t="n">
         <v>69.8</v>
       </c>
-      <c r="IL39" t="n">
+      <c r="IL39" s="1" t="n">
         <v>64.3</v>
+      </c>
+      <c r="IM39" t="n">
+        <v>64.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -30133,7 +30250,10 @@
       <c r="IK40" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IL40" t="n">
+      <c r="IL40" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="IM40" t="n">
         <v>13</v>
       </c>
     </row>
@@ -30875,8 +30995,11 @@
       <c r="IK41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IL41" t="n">
+      <c r="IL41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IM41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -31617,8 +31740,11 @@
       <c r="IK42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IL42" t="n">
+      <c r="IL42" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IM42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -32359,7 +32485,10 @@
       <c r="IK43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IL43" t="n">
+      <c r="IL43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33101,8 +33230,11 @@
       <c r="IK44" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="IL44" t="n">
+      <c r="IL44" s="1" t="n">
         <v>125</v>
+      </c>
+      <c r="IM44" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -33843,8 +33975,11 @@
       <c r="IK45" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="IL45" t="n">
+      <c r="IL45" s="1" t="n">
         <v>207</v>
+      </c>
+      <c r="IM45" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -34585,8 +34720,11 @@
       <c r="IK46" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="IL46" t="n">
+      <c r="IL46" s="1" t="n">
         <v>252</v>
+      </c>
+      <c r="IM46" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -35327,8 +35465,11 @@
       <c r="IK47" s="1" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="IL47" t="n">
+      <c r="IL47" s="1" t="n">
         <v>74.59999999999999</v>
+      </c>
+      <c r="IM47" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -36069,8 +36210,11 @@
       <c r="IK48" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IL48" t="n">
+      <c r="IL48" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IM48" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -36811,8 +36955,11 @@
       <c r="IK49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IL49" t="n">
+      <c r="IL49" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IM49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -37553,8 +37700,11 @@
       <c r="IK50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IL50" t="n">
+      <c r="IL50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IM50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -38295,8 +38445,11 @@
       <c r="IK51" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IL51" t="n">
+      <c r="IL51" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IM51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -39037,8 +39190,11 @@
       <c r="IK52" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IL52" t="n">
+      <c r="IL52" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IM52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -39779,8 +39935,11 @@
       <c r="IK53" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IL53" t="n">
+      <c r="IL53" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IM53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -40521,8 +40680,11 @@
       <c r="IK54" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IL54" t="n">
+      <c r="IL54" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IM54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -41263,8 +41425,11 @@
       <c r="IK55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IL55" t="n">
+      <c r="IL55" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IM55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -42005,7 +42170,10 @@
       <c r="IK56" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="IL56" t="n">
+      <c r="IL56" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="IM56" t="n">
         <v>66.7</v>
       </c>
     </row>
@@ -42747,8 +42915,11 @@
       <c r="IK57" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="IL57" t="n">
+      <c r="IL57" s="1" t="n">
         <v>221</v>
+      </c>
+      <c r="IM57" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -43489,8 +43660,11 @@
       <c r="IK58" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="IL58" t="n">
+      <c r="IL58" s="1" t="n">
         <v>121</v>
+      </c>
+      <c r="IM58" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -44231,8 +44405,11 @@
       <c r="IK59" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="IL59" t="n">
+      <c r="IL59" s="1" t="n">
         <v>342</v>
+      </c>
+      <c r="IM59" t="n">
+        <v>386</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -44973,8 +45150,11 @@
       <c r="IK60" s="1" t="n">
         <v>1.48</v>
       </c>
-      <c r="IL60" t="n">
+      <c r="IL60" s="1" t="n">
         <v>1.83</v>
+      </c>
+      <c r="IM60" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -45715,8 +45895,11 @@
       <c r="IK61" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="IL61" t="n">
+      <c r="IL61" s="1" t="n">
         <v>111</v>
+      </c>
+      <c r="IM61" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -46457,8 +46640,11 @@
       <c r="IK62" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="IL62" t="n">
+      <c r="IL62" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="IM62" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -47199,8 +47385,11 @@
       <c r="IK63" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IL63" t="n">
+      <c r="IL63" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IM63" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -47941,8 +48130,11 @@
       <c r="IK64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IL64" t="n">
+      <c r="IL64" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IM64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -48683,8 +48875,11 @@
       <c r="IK65" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IL65" t="n">
+      <c r="IL65" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IM65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -49425,8 +49620,11 @@
       <c r="IK66" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IL66" t="n">
+      <c r="IL66" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IM66" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -50167,8 +50365,11 @@
       <c r="IK67" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IL67" t="n">
+      <c r="IL67" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IM67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -50909,8 +51110,11 @@
       <c r="IK68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IL68" t="n">
+      <c r="IL68" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IM68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -51651,7 +51855,10 @@
       <c r="IK69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IL69" t="n">
+      <c r="IL69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52393,8 +52600,11 @@
       <c r="IK70" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IL70" t="n">
+      <c r="IL70" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IM70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -53135,8 +53345,11 @@
       <c r="IK71" s="1" t="n">
         <v>64.3</v>
       </c>
-      <c r="IL71" t="n">
+      <c r="IL71" s="1" t="n">
         <v>47.4</v>
+      </c>
+      <c r="IM71" t="n">
+        <v>77.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -53877,8 +54090,11 @@
       <c r="IK72" s="1" t="n">
         <v>20.67</v>
       </c>
-      <c r="IL72" t="n">
+      <c r="IL72" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IM72" t="n">
+        <v>22.71</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -54619,8 +54835,11 @@
       <c r="IK73" s="1" t="n">
         <v>13.29</v>
       </c>
-      <c r="IL73" t="n">
+      <c r="IL73" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IM73" t="n">
+        <v>17.55</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -55361,8 +55580,11 @@
       <c r="IK74" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IL74" t="n">
+      <c r="IL74" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IM74" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -56103,8 +56325,11 @@
       <c r="IK75" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="IL75" t="n">
+      <c r="IL75" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IM75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -56845,8 +57070,11 @@
       <c r="IK76" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IL76" t="n">
+      <c r="IL76" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IM76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -57587,8 +57815,11 @@
       <c r="IK77" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IL77" t="n">
+      <c r="IL77" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IM77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -58329,8 +58560,11 @@
       <c r="IK78" s="1" t="n">
         <v>1.86</v>
       </c>
-      <c r="IL78" t="n">
+      <c r="IL78" s="1" t="n">
         <v>2.89</v>
+      </c>
+      <c r="IM78" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -59071,8 +59305,11 @@
       <c r="IK79" s="1" t="n">
         <v>2.89</v>
       </c>
-      <c r="IL79" t="n">
+      <c r="IL79" s="1" t="n">
         <v>6.11</v>
+      </c>
+      <c r="IM79" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -59813,8 +60050,11 @@
       <c r="IK80" s="1" t="n">
         <v>51.9</v>
       </c>
-      <c r="IL80" t="n">
+      <c r="IL80" s="1" t="n">
         <v>34.5</v>
+      </c>
+      <c r="IM80" t="n">
+        <v>42.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -60555,8 +60795,11 @@
       <c r="IK81" s="1" t="n">
         <v>34.6</v>
       </c>
-      <c r="IL81" t="n">
+      <c r="IL81" s="1" t="n">
         <v>16.4</v>
+      </c>
+      <c r="IM81" t="n">
+        <v>32.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -61297,8 +61540,11 @@
       <c r="IK82" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="IL82" t="n">
+      <c r="IL82" s="1" t="n">
         <v>188.4</v>
+      </c>
+      <c r="IM82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -62039,8 +62285,11 @@
       <c r="IK83" s="1" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="IL83" t="n">
+      <c r="IL83" s="1" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="IM83" t="n">
+        <v>85.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -62781,8 +63030,11 @@
       <c r="IK84" s="1" t="n">
         <v>25.91</v>
       </c>
-      <c r="IL84" t="n">
+      <c r="IL84" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IM84" t="n">
+        <v>24.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -63523,8 +63775,11 @@
       <c r="IK85" s="1" t="n">
         <v>108.5</v>
       </c>
-      <c r="IL85" t="n">
+      <c r="IL85" s="1" t="n">
         <v>131.2</v>
+      </c>
+      <c r="IM85" t="n">
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -64265,8 +64520,11 @@
       <c r="IK86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IL86" t="n">
+      <c r="IL86" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IM86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -65007,8 +65265,11 @@
       <c r="IK87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IL87" t="n">
+      <c r="IL87" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IM87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -65749,8 +66010,11 @@
       <c r="IK88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IL88" t="n">
+      <c r="IL88" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IM88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -66491,8 +66755,11 @@
       <c r="IK89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IL89" t="n">
+      <c r="IL89" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IM89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -67233,8 +67500,11 @@
       <c r="IK90" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="IL90" t="n">
+      <c r="IL90" s="1" t="n">
         <v>128</v>
+      </c>
+      <c r="IM90" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -67975,8 +68245,11 @@
       <c r="IK91" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="IL91" t="n">
+      <c r="IL91" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="IM91" t="n">
+        <v>263</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -68717,8 +68990,11 @@
       <c r="IK92" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="IL92" t="n">
+      <c r="IL92" s="1" t="n">
         <v>249</v>
+      </c>
+      <c r="IM92" t="n">
+        <v>292</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -69459,8 +69735,11 @@
       <c r="IK93" s="1" t="n">
         <v>73.7</v>
       </c>
-      <c r="IL93" t="n">
+      <c r="IL93" s="1" t="n">
         <v>72.8</v>
+      </c>
+      <c r="IM93" t="n">
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -70201,8 +70480,11 @@
       <c r="IK94" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="IL94" t="n">
+      <c r="IL94" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IM94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -70943,8 +71225,11 @@
       <c r="IK95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IL95" t="n">
+      <c r="IL95" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IM95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -71685,8 +71970,11 @@
       <c r="IK96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IL96" t="n">
+      <c r="IL96" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IM96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -72427,8 +72715,11 @@
       <c r="IK97" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IL97" t="n">
+      <c r="IL97" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IM97" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -73169,8 +73460,11 @@
       <c r="IK98" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IL98" t="n">
+      <c r="IL98" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IM98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -73911,8 +74205,11 @@
       <c r="IK99" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IL99" t="n">
+      <c r="IL99" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IM99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -74653,8 +74950,11 @@
       <c r="IK100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IL100" t="n">
+      <c r="IL100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IM100" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -75395,8 +75695,11 @@
       <c r="IK101" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IL101" t="n">
+      <c r="IL101" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IM101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -76137,8 +76440,11 @@
       <c r="IK102" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="IL102" t="n">
+      <c r="IL102" s="1" t="n">
         <v>55.6</v>
+      </c>
+      <c r="IM102" t="n">
+        <v>64.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IO102"/>
+  <dimension ref="A1:IP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1204,8 +1204,11 @@
       <c r="IN1" s="1" t="n">
         <v>10551</v>
       </c>
-      <c r="IO1" t="n">
+      <c r="IO1" s="1" t="n">
         <v>10561</v>
+      </c>
+      <c r="IP1" t="n">
+        <v>10570</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1955,7 +1958,10 @@
       <c r="IN2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="IO2" t="n">
+      <c r="IO2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IP2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2706,8 +2712,11 @@
       <c r="IN3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IO3" t="n">
+      <c r="IO3" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3457,8 +3466,11 @@
       <c r="IN4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IO4" t="n">
+      <c r="IO4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4208,7 +4220,10 @@
       <c r="IN5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IO5" t="n">
+      <c r="IO5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4959,8 +4974,11 @@
       <c r="IN6" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="IO6" t="n">
+      <c r="IO6" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IP6" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5710,8 +5728,11 @@
       <c r="IN7" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="IO7" t="n">
+      <c r="IO7" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="IP7" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6461,8 +6482,11 @@
       <c r="IN8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IO8" t="n">
+      <c r="IO8" s="1" t="n">
         <v>-10</v>
+      </c>
+      <c r="IP8" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7212,8 +7236,11 @@
       <c r="IN9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IO9" t="n">
+      <c r="IO9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IP9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7963,8 +7990,11 @@
       <c r="IN10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IO10" t="n">
+      <c r="IO10" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IP10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8714,8 +8744,11 @@
       <c r="IN11" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="IO11" t="n">
+      <c r="IO11" s="1" t="n">
         <v>221</v>
+      </c>
+      <c r="IP11" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9465,8 +9498,11 @@
       <c r="IN12" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="IO12" t="n">
+      <c r="IO12" s="1" t="n">
         <v>147</v>
+      </c>
+      <c r="IP12" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10216,8 +10252,11 @@
       <c r="IN13" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="IO13" t="n">
+      <c r="IO13" s="1" t="n">
         <v>368</v>
+      </c>
+      <c r="IP13" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10967,8 +11006,11 @@
       <c r="IN14" s="1" t="n">
         <v>1.27</v>
       </c>
-      <c r="IO14" t="n">
+      <c r="IO14" s="1" t="n">
         <v>1.5</v>
+      </c>
+      <c r="IP14" t="n">
+        <v>1.74</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11718,8 +11760,11 @@
       <c r="IN15" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="IO15" t="n">
+      <c r="IO15" s="1" t="n">
         <v>98</v>
+      </c>
+      <c r="IP15" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12469,8 +12514,11 @@
       <c r="IN16" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="IO16" t="n">
+      <c r="IO16" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="IP16" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -13220,8 +13268,11 @@
       <c r="IN17" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IO17" t="n">
+      <c r="IO17" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IP17" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13971,8 +14022,11 @@
       <c r="IN18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IO18" t="n">
+      <c r="IO18" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IP18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14722,8 +14776,11 @@
       <c r="IN19" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="IO19" t="n">
+      <c r="IO19" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IP19" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15473,8 +15530,11 @@
       <c r="IN20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IO20" t="n">
+      <c r="IO20" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IP20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -16224,8 +16284,11 @@
       <c r="IN21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IO21" t="n">
+      <c r="IO21" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IP21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16975,8 +17038,11 @@
       <c r="IN22" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IO22" t="n">
+      <c r="IO22" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IP22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17726,8 +17792,11 @@
       <c r="IN23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IO23" t="n">
+      <c r="IO23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IP23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -18477,8 +18546,11 @@
       <c r="IN24" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IO24" t="n">
+      <c r="IO24" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IP24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -19228,8 +19300,11 @@
       <c r="IN25" s="1" t="n">
         <v>39.3</v>
       </c>
-      <c r="IO25" t="n">
+      <c r="IO25" s="1" t="n">
         <v>53.3</v>
+      </c>
+      <c r="IP25" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19979,8 +20054,11 @@
       <c r="IN26" s="1" t="n">
         <v>28.45</v>
       </c>
-      <c r="IO26" t="n">
+      <c r="IO26" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IP26" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20730,8 +20808,11 @@
       <c r="IN27" s="1" t="n">
         <v>11.18</v>
       </c>
-      <c r="IO27" t="n">
+      <c r="IO27" s="1" t="n">
         <v>24.53</v>
+      </c>
+      <c r="IP27" t="n">
+        <v>13.89</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -21481,8 +21562,11 @@
       <c r="IN28" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IO28" t="n">
+      <c r="IO28" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IP28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -22232,8 +22316,11 @@
       <c r="IN29" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IO29" t="n">
+      <c r="IO29" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="IP29" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22983,8 +23070,11 @@
       <c r="IN30" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IO30" t="n">
+      <c r="IO30" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IP30" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23734,8 +23824,11 @@
       <c r="IN31" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IO31" t="n">
+      <c r="IO31" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IP31" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -24485,8 +24578,11 @@
       <c r="IN32" s="1" t="n">
         <v>1.96</v>
       </c>
-      <c r="IO32" t="n">
+      <c r="IO32" s="1" t="n">
         <v>2.8</v>
+      </c>
+      <c r="IP32" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -25236,8 +25332,11 @@
       <c r="IN33" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IO33" t="n">
+      <c r="IO33" s="1" t="n">
         <v>5.25</v>
+      </c>
+      <c r="IP33" t="n">
+        <v>3.67</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25987,8 +26086,11 @@
       <c r="IN34" s="1" t="n">
         <v>47.3</v>
       </c>
-      <c r="IO34" t="n">
+      <c r="IO34" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IP34" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -26738,8 +26840,11 @@
       <c r="IN35" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IO35" t="n">
+      <c r="IO35" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IP35" t="n">
+        <v>27.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -27489,7 +27594,10 @@
       <c r="IN36" s="1" t="n">
         <v>188.7</v>
       </c>
-      <c r="IO36" t="n">
+      <c r="IO36" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="IP36" t="n">
         <v>188.3</v>
       </c>
     </row>
@@ -28240,8 +28348,11 @@
       <c r="IN37" s="1" t="n">
         <v>88.3</v>
       </c>
-      <c r="IO37" t="n">
+      <c r="IO37" s="1" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="IP37" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -28991,8 +29102,11 @@
       <c r="IN38" s="1" t="n">
         <v>24.49</v>
       </c>
-      <c r="IO38" t="n">
+      <c r="IO38" s="1" t="n">
         <v>24.66</v>
+      </c>
+      <c r="IP38" t="n">
+        <v>24.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -29742,8 +29856,11 @@
       <c r="IN39" s="1" t="n">
         <v>67.3</v>
       </c>
-      <c r="IO39" t="n">
+      <c r="IO39" s="1" t="n">
         <v>62.9</v>
+      </c>
+      <c r="IP39" t="n">
+        <v>61.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -30493,7 +30610,10 @@
       <c r="IN40" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IO40" t="n">
+      <c r="IO40" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IP40" t="n">
         <v>12</v>
       </c>
     </row>
@@ -31244,8 +31364,11 @@
       <c r="IN41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IO41" t="n">
+      <c r="IO41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IP41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -31995,8 +32118,11 @@
       <c r="IN42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IO42" t="n">
+      <c r="IO42" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IP42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -32746,7 +32872,10 @@
       <c r="IN43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IO43" t="n">
+      <c r="IO43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33497,8 +33626,11 @@
       <c r="IN44" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="IO44" t="n">
+      <c r="IO44" s="1" t="n">
         <v>130</v>
+      </c>
+      <c r="IP44" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -34248,8 +34380,11 @@
       <c r="IN45" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="IO45" t="n">
+      <c r="IO45" s="1" t="n">
         <v>234</v>
+      </c>
+      <c r="IP45" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -34999,8 +35134,11 @@
       <c r="IN46" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="IO46" t="n">
+      <c r="IO46" s="1" t="n">
         <v>271</v>
+      </c>
+      <c r="IP46" t="n">
+        <v>283</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -35750,8 +35888,11 @@
       <c r="IN47" s="1" t="n">
         <v>75.7</v>
       </c>
-      <c r="IO47" t="n">
+      <c r="IO47" s="1" t="n">
         <v>73.59999999999999</v>
+      </c>
+      <c r="IP47" t="n">
+        <v>75.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -36501,8 +36642,11 @@
       <c r="IN48" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IO48" t="n">
+      <c r="IO48" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="IP48" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -37252,8 +37396,11 @@
       <c r="IN49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IO49" t="n">
+      <c r="IO49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IP49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -38003,8 +38150,11 @@
       <c r="IN50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IO50" t="n">
+      <c r="IO50" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IP50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -38754,8 +38904,11 @@
       <c r="IN51" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IO51" t="n">
+      <c r="IO51" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IP51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -39505,8 +39658,11 @@
       <c r="IN52" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IO52" t="n">
+      <c r="IO52" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IP52" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -40256,8 +40412,11 @@
       <c r="IN53" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IO53" t="n">
+      <c r="IO53" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IP53" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -41007,8 +41166,11 @@
       <c r="IN54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IO54" t="n">
+      <c r="IO54" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IP54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -41758,8 +41920,11 @@
       <c r="IN55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IO55" t="n">
+      <c r="IO55" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IP55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -42509,8 +42674,11 @@
       <c r="IN56" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="IO56" t="n">
+      <c r="IO56" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IP56" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -43260,8 +43428,11 @@
       <c r="IN57" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="IO57" t="n">
+      <c r="IO57" s="1" t="n">
         <v>230</v>
+      </c>
+      <c r="IP57" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -44011,8 +44182,11 @@
       <c r="IN58" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="IO58" t="n">
+      <c r="IO58" s="1" t="n">
         <v>148</v>
+      </c>
+      <c r="IP58" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -44762,8 +44936,11 @@
       <c r="IN59" s="1" t="n">
         <v>359</v>
       </c>
-      <c r="IO59" t="n">
+      <c r="IO59" s="1" t="n">
         <v>378</v>
+      </c>
+      <c r="IP59" t="n">
+        <v>313</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -45513,8 +45690,11 @@
       <c r="IN60" s="1" t="n">
         <v>1.49</v>
       </c>
-      <c r="IO60" t="n">
+      <c r="IO60" s="1" t="n">
         <v>1.55</v>
+      </c>
+      <c r="IP60" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -46264,8 +46444,11 @@
       <c r="IN61" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="IO61" t="n">
+      <c r="IO61" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="IP61" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -47015,8 +47198,11 @@
       <c r="IN62" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IO62" t="n">
+      <c r="IO62" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IP62" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -47766,8 +47952,11 @@
       <c r="IN63" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IO63" t="n">
+      <c r="IO63" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="IP63" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -48517,8 +48706,11 @@
       <c r="IN64" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="IO64" t="n">
+      <c r="IO64" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IP64" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -49268,8 +49460,11 @@
       <c r="IN65" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IO65" t="n">
+      <c r="IO65" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IP65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -50019,8 +50214,11 @@
       <c r="IN66" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IO66" t="n">
+      <c r="IO66" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IP66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -50770,8 +50968,11 @@
       <c r="IN67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IO67" t="n">
+      <c r="IO67" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IP67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -51521,8 +51722,11 @@
       <c r="IN68" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IO68" t="n">
+      <c r="IO68" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IP68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -52272,8 +52476,11 @@
       <c r="IN69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IO69" t="n">
+      <c r="IO69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IP69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -53023,8 +53230,11 @@
       <c r="IN70" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IO70" t="n">
+      <c r="IO70" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IP70" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -53774,8 +53984,11 @@
       <c r="IN71" s="1" t="n">
         <v>54.5</v>
       </c>
-      <c r="IO71" t="n">
+      <c r="IO71" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IP71" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -54525,8 +54738,11 @@
       <c r="IN72" s="1" t="n">
         <v>29.92</v>
       </c>
-      <c r="IO72" t="n">
+      <c r="IO72" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IP72" t="n">
+        <v>44.71</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -55276,8 +55492,11 @@
       <c r="IN73" s="1" t="n">
         <v>16.32</v>
       </c>
-      <c r="IO73" t="n">
+      <c r="IO73" s="1" t="n">
         <v>18.9</v>
+      </c>
+      <c r="IP73" t="n">
+        <v>26.08</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -56027,8 +56246,11 @@
       <c r="IN74" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IO74" t="n">
+      <c r="IO74" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IP74" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -56778,8 +57000,11 @@
       <c r="IN75" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IO75" t="n">
+      <c r="IO75" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="IP75" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -57529,8 +57754,11 @@
       <c r="IN76" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IO76" t="n">
+      <c r="IO76" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IP76" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -58280,8 +58508,11 @@
       <c r="IN77" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IO77" t="n">
+      <c r="IO77" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IP77" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -59031,8 +59262,11 @@
       <c r="IN78" s="1" t="n">
         <v>2.18</v>
       </c>
-      <c r="IO78" t="n">
+      <c r="IO78" s="1" t="n">
         <v>2.5</v>
+      </c>
+      <c r="IP78" t="n">
+        <v>3.83</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -59782,8 +60016,11 @@
       <c r="IN79" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IO79" t="n">
+      <c r="IO79" s="1" t="n">
         <v>5.56</v>
+      </c>
+      <c r="IP79" t="n">
+        <v>6.57</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -60533,8 +60770,11 @@
       <c r="IN80" s="1" t="n">
         <v>45.8</v>
       </c>
-      <c r="IO80" t="n">
+      <c r="IO80" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IP80" t="n">
+        <v>21.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -61284,8 +61524,11 @@
       <c r="IN81" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="IO81" t="n">
+      <c r="IO81" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IP81" t="n">
+        <v>15.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -62035,8 +62278,11 @@
       <c r="IN82" s="1" t="n">
         <v>187.2</v>
       </c>
-      <c r="IO82" t="n">
+      <c r="IO82" s="1" t="n">
         <v>187.9</v>
+      </c>
+      <c r="IP82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -62786,8 +63032,11 @@
       <c r="IN83" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="IO83" t="n">
+      <c r="IO83" s="1" t="n">
         <v>86.2</v>
+      </c>
+      <c r="IP83" t="n">
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -63537,8 +63786,11 @@
       <c r="IN84" s="1" t="n">
         <v>23.8</v>
       </c>
-      <c r="IO84" t="n">
+      <c r="IO84" s="1" t="n">
         <v>25.58</v>
+      </c>
+      <c r="IP84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -64288,8 +64540,11 @@
       <c r="IN85" s="1" t="n">
         <v>58.5</v>
       </c>
-      <c r="IO85" t="n">
+      <c r="IO85" s="1" t="n">
         <v>75.90000000000001</v>
+      </c>
+      <c r="IP85" t="n">
+        <v>98.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -65039,8 +65294,11 @@
       <c r="IN86" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IO86" t="n">
+      <c r="IO86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IP86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -65790,8 +66048,11 @@
       <c r="IN87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IO87" t="n">
+      <c r="IO87" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IP87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -66541,8 +66802,11 @@
       <c r="IN88" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IO88" t="n">
+      <c r="IO88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IP88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -67292,8 +67556,11 @@
       <c r="IN89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IO89" t="n">
+      <c r="IO89" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IP89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -68043,8 +68310,11 @@
       <c r="IN90" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="IO90" t="n">
+      <c r="IO90" s="1" t="n">
         <v>142</v>
+      </c>
+      <c r="IP90" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -68794,8 +69064,11 @@
       <c r="IN91" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="IO91" t="n">
+      <c r="IO91" s="1" t="n">
         <v>231</v>
+      </c>
+      <c r="IP91" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -69545,8 +69818,11 @@
       <c r="IN92" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="IO92" t="n">
+      <c r="IO92" s="1" t="n">
         <v>260</v>
+      </c>
+      <c r="IP92" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -70296,8 +70572,11 @@
       <c r="IN93" s="1" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="IO93" t="n">
+      <c r="IO93" s="1" t="n">
         <v>68.8</v>
+      </c>
+      <c r="IP93" t="n">
+        <v>68.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -71047,8 +71326,11 @@
       <c r="IN94" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IO94" t="n">
+      <c r="IO94" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="IP94" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -71798,8 +72080,11 @@
       <c r="IN95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IO95" t="n">
+      <c r="IO95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IP95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -72549,8 +72834,11 @@
       <c r="IN96" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IO96" t="n">
+      <c r="IO96" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IP96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -73300,8 +73588,11 @@
       <c r="IN97" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IO97" t="n">
+      <c r="IO97" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IP97" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -74051,8 +74342,11 @@
       <c r="IN98" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IO98" t="n">
+      <c r="IO98" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IP98" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -74802,8 +75096,11 @@
       <c r="IN99" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IO99" t="n">
+      <c r="IO99" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IP99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -75553,8 +75850,11 @@
       <c r="IN100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IO100" t="n">
+      <c r="IO100" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IP100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -76304,8 +76604,11 @@
       <c r="IN101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IO101" t="n">
+      <c r="IO101" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IP101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -77055,8 +77358,11 @@
       <c r="IN102" s="1" t="n">
         <v>58.3</v>
       </c>
-      <c r="IO102" t="n">
+      <c r="IO102" s="1" t="n">
         <v>55.6</v>
+      </c>
+      <c r="IP102" t="n">
+        <v>42.9</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IP102"/>
+  <dimension ref="A1:IQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1207,8 +1207,11 @@
       <c r="IO1" s="1" t="n">
         <v>10561</v>
       </c>
-      <c r="IP1" t="n">
+      <c r="IP1" s="1" t="n">
         <v>10570</v>
+      </c>
+      <c r="IQ1" t="n">
+        <v>10576</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1961,7 +1964,10 @@
       <c r="IO2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="IP2" t="n">
+      <c r="IP2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IQ2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2715,8 +2721,11 @@
       <c r="IO3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IP3" t="n">
+      <c r="IP3" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3469,8 +3478,11 @@
       <c r="IO4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IP4" t="n">
+      <c r="IP4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4223,8 +4235,11 @@
       <c r="IO5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IP5" t="n">
+      <c r="IP5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4977,8 +4992,11 @@
       <c r="IO6" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IP6" t="n">
+      <c r="IP6" s="1" t="n">
         <v>102</v>
+      </c>
+      <c r="IQ6" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5731,8 +5749,11 @@
       <c r="IO7" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="IP7" t="n">
+      <c r="IP7" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="IQ7" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6485,8 +6506,11 @@
       <c r="IO8" s="1" t="n">
         <v>-10</v>
       </c>
-      <c r="IP8" t="n">
+      <c r="IP8" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IQ8" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7239,7 +7263,10 @@
       <c r="IO9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IP9" t="n">
+      <c r="IP9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7993,8 +8020,11 @@
       <c r="IO10" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IP10" t="n">
+      <c r="IP10" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IQ10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8747,8 +8777,11 @@
       <c r="IO11" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="IP11" t="n">
+      <c r="IP11" s="1" t="n">
         <v>238</v>
+      </c>
+      <c r="IQ11" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9501,8 +9534,11 @@
       <c r="IO12" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="IP12" t="n">
+      <c r="IP12" s="1" t="n">
         <v>137</v>
+      </c>
+      <c r="IQ12" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10255,8 +10291,11 @@
       <c r="IO13" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="IP13" t="n">
+      <c r="IP13" s="1" t="n">
         <v>375</v>
+      </c>
+      <c r="IQ13" t="n">
+        <v>386</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -11009,8 +11048,11 @@
       <c r="IO14" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="IP14" t="n">
+      <c r="IP14" s="1" t="n">
         <v>1.74</v>
+      </c>
+      <c r="IQ14" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11763,8 +11805,11 @@
       <c r="IO15" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="IP15" t="n">
+      <c r="IP15" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="IQ15" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12517,8 +12562,11 @@
       <c r="IO16" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IP16" t="n">
+      <c r="IP16" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IQ16" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -13271,8 +13319,11 @@
       <c r="IO17" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IP17" t="n">
+      <c r="IP17" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IQ17" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -14025,8 +14076,11 @@
       <c r="IO18" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="IP18" t="n">
+      <c r="IP18" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IQ18" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14779,8 +14833,11 @@
       <c r="IO19" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="IP19" t="n">
+      <c r="IP19" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IQ19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15533,8 +15590,11 @@
       <c r="IO20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IP20" t="n">
+      <c r="IP20" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IQ20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -16287,7 +16347,10 @@
       <c r="IO21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IP21" t="n">
+      <c r="IP21" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IQ21" t="n">
         <v>11</v>
       </c>
     </row>
@@ -17041,8 +17104,11 @@
       <c r="IO22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IP22" t="n">
+      <c r="IP22" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IQ22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17795,8 +17861,11 @@
       <c r="IO23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IP23" t="n">
+      <c r="IP23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IQ23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -18549,8 +18618,11 @@
       <c r="IO24" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IP24" t="n">
+      <c r="IP24" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IQ24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -19303,8 +19375,11 @@
       <c r="IO25" s="1" t="n">
         <v>53.3</v>
       </c>
-      <c r="IP25" t="n">
+      <c r="IP25" s="1" t="n">
         <v>55.6</v>
+      </c>
+      <c r="IQ25" t="n">
+        <v>56.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -20057,8 +20132,11 @@
       <c r="IO26" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IP26" t="n">
+      <c r="IP26" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IQ26" t="n">
+        <v>29.69</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20811,8 +20889,11 @@
       <c r="IO27" s="1" t="n">
         <v>24.53</v>
       </c>
-      <c r="IP27" t="n">
+      <c r="IP27" s="1" t="n">
         <v>13.89</v>
+      </c>
+      <c r="IQ27" t="n">
+        <v>16.78</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -21565,8 +21646,11 @@
       <c r="IO28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IP28" t="n">
+      <c r="IP28" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IQ28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -22319,8 +22403,11 @@
       <c r="IO29" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="IP29" t="n">
+      <c r="IP29" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="IQ29" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -23073,8 +23160,11 @@
       <c r="IO30" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IP30" t="n">
+      <c r="IP30" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IQ30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23827,8 +23917,11 @@
       <c r="IO31" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IP31" t="n">
+      <c r="IP31" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IQ31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -24581,8 +24674,11 @@
       <c r="IO32" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="IP32" t="n">
+      <c r="IP32" s="1" t="n">
         <v>2.04</v>
+      </c>
+      <c r="IQ32" t="n">
+        <v>2.22</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -25335,8 +25431,11 @@
       <c r="IO33" s="1" t="n">
         <v>5.25</v>
       </c>
-      <c r="IP33" t="n">
+      <c r="IP33" s="1" t="n">
         <v>3.67</v>
+      </c>
+      <c r="IQ33" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -26089,8 +26188,11 @@
       <c r="IO34" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="IP34" t="n">
+      <c r="IP34" s="1" t="n">
         <v>45.5</v>
+      </c>
+      <c r="IQ34" t="n">
+        <v>43.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -26843,8 +26945,11 @@
       <c r="IO35" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IP35" t="n">
+      <c r="IP35" s="1" t="n">
         <v>27.3</v>
+      </c>
+      <c r="IQ35" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -27597,8 +27702,11 @@
       <c r="IO36" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="IP36" t="n">
+      <c r="IP36" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="IQ36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -28351,8 +28459,11 @@
       <c r="IO37" s="1" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="IP37" t="n">
+      <c r="IP37" s="1" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="IQ37" t="n">
+        <v>86.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -29105,8 +29216,11 @@
       <c r="IO38" s="1" t="n">
         <v>24.66</v>
       </c>
-      <c r="IP38" t="n">
+      <c r="IP38" s="1" t="n">
         <v>24.33</v>
+      </c>
+      <c r="IQ38" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -29859,8 +29973,11 @@
       <c r="IO39" s="1" t="n">
         <v>62.9</v>
       </c>
-      <c r="IP39" t="n">
+      <c r="IP39" s="1" t="n">
         <v>61.3</v>
+      </c>
+      <c r="IQ39" t="n">
+        <v>76.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -30613,8 +30730,11 @@
       <c r="IO40" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IP40" t="n">
+      <c r="IP40" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IQ40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -31367,8 +31487,11 @@
       <c r="IO41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IP41" t="n">
+      <c r="IP41" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -32121,7 +32244,10 @@
       <c r="IO42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IP42" t="n">
+      <c r="IP42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IQ42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -32875,8 +33001,11 @@
       <c r="IO43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IP43" t="n">
+      <c r="IP43" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -33629,8 +33758,11 @@
       <c r="IO44" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="IP44" t="n">
+      <c r="IP44" s="1" t="n">
         <v>126</v>
+      </c>
+      <c r="IQ44" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -34383,8 +34515,11 @@
       <c r="IO45" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="IP45" t="n">
+      <c r="IP45" s="1" t="n">
         <v>248</v>
+      </c>
+      <c r="IQ45" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -35137,8 +35272,11 @@
       <c r="IO46" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="IP46" t="n">
+      <c r="IP46" s="1" t="n">
         <v>283</v>
+      </c>
+      <c r="IQ46" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -35891,8 +36029,11 @@
       <c r="IO47" s="1" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="IP47" t="n">
+      <c r="IP47" s="1" t="n">
         <v>75.5</v>
+      </c>
+      <c r="IQ47" t="n">
+        <v>70.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -36645,8 +36786,11 @@
       <c r="IO48" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="IP48" t="n">
+      <c r="IP48" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="IQ48" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -37399,8 +37543,11 @@
       <c r="IO49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IP49" t="n">
+      <c r="IP49" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IQ49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -38153,8 +38300,11 @@
       <c r="IO50" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IP50" t="n">
+      <c r="IP50" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IQ50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -38907,8 +39057,11 @@
       <c r="IO51" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IP51" t="n">
+      <c r="IP51" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IQ51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -39661,8 +39814,11 @@
       <c r="IO52" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IP52" t="n">
+      <c r="IP52" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IQ52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -40415,8 +40571,11 @@
       <c r="IO53" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IP53" t="n">
+      <c r="IP53" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="IQ53" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -41169,8 +41328,11 @@
       <c r="IO54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IP54" t="n">
+      <c r="IP54" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -41923,7 +42085,10 @@
       <c r="IO55" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IP55" t="n">
+      <c r="IP55" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IQ55" t="n">
         <v>11</v>
       </c>
     </row>
@@ -42677,8 +42842,11 @@
       <c r="IO56" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IP56" t="n">
+      <c r="IP56" s="1" t="n">
         <v>73.3</v>
+      </c>
+      <c r="IQ56" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -43431,8 +43599,11 @@
       <c r="IO57" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="IP57" t="n">
+      <c r="IP57" s="1" t="n">
         <v>201</v>
+      </c>
+      <c r="IQ57" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -44185,8 +44356,11 @@
       <c r="IO58" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="IP58" t="n">
+      <c r="IP58" s="1" t="n">
         <v>112</v>
+      </c>
+      <c r="IQ58" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -44939,8 +45113,11 @@
       <c r="IO59" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="IP59" t="n">
+      <c r="IP59" s="1" t="n">
         <v>313</v>
+      </c>
+      <c r="IQ59" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -45693,8 +45870,11 @@
       <c r="IO60" s="1" t="n">
         <v>1.55</v>
       </c>
-      <c r="IP60" t="n">
+      <c r="IP60" s="1" t="n">
         <v>1.79</v>
+      </c>
+      <c r="IQ60" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -46447,8 +46627,11 @@
       <c r="IO61" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="IP61" t="n">
+      <c r="IP61" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="IQ61" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -47201,8 +47384,11 @@
       <c r="IO62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IP62" t="n">
+      <c r="IP62" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IQ62" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -47955,8 +48141,11 @@
       <c r="IO63" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="IP63" t="n">
+      <c r="IP63" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IQ63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -48709,8 +48898,11 @@
       <c r="IO64" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="IP64" t="n">
+      <c r="IP64" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IQ64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -49463,8 +49655,11 @@
       <c r="IO65" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="IP65" t="n">
+      <c r="IP65" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IQ65" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -50217,8 +50412,11 @@
       <c r="IO66" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IP66" t="n">
+      <c r="IP66" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IQ66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -50971,8 +51169,11 @@
       <c r="IO67" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IP67" t="n">
+      <c r="IP67" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IQ67" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -51725,8 +51926,11 @@
       <c r="IO68" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IP68" t="n">
+      <c r="IP68" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IQ68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -52479,8 +52683,11 @@
       <c r="IO69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IP69" t="n">
+      <c r="IP69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IQ69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -53233,8 +53440,11 @@
       <c r="IO70" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IP70" t="n">
+      <c r="IP70" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IQ70" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -53987,8 +54197,11 @@
       <c r="IO71" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IP71" t="n">
+      <c r="IP71" s="1" t="n">
         <v>58.3</v>
+      </c>
+      <c r="IQ71" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -54741,8 +54954,11 @@
       <c r="IO72" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IP72" t="n">
+      <c r="IP72" s="1" t="n">
         <v>44.71</v>
+      </c>
+      <c r="IQ72" t="n">
+        <v>40.5</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -55495,8 +55711,11 @@
       <c r="IO73" s="1" t="n">
         <v>18.9</v>
       </c>
-      <c r="IP73" t="n">
+      <c r="IP73" s="1" t="n">
         <v>26.08</v>
+      </c>
+      <c r="IQ73" t="n">
+        <v>23.14</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -56249,8 +56468,11 @@
       <c r="IO74" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IP74" t="n">
+      <c r="IP74" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IQ74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -57003,8 +57225,11 @@
       <c r="IO75" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IP75" t="n">
+      <c r="IP75" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="IQ75" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -57757,8 +57982,11 @@
       <c r="IO76" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IP76" t="n">
+      <c r="IP76" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IQ76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -58511,8 +58739,11 @@
       <c r="IO77" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IP77" t="n">
+      <c r="IP77" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IQ77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -59265,8 +59496,11 @@
       <c r="IO78" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="IP78" t="n">
+      <c r="IP78" s="1" t="n">
         <v>3.83</v>
+      </c>
+      <c r="IQ78" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -60019,8 +60253,11 @@
       <c r="IO79" s="1" t="n">
         <v>5.56</v>
       </c>
-      <c r="IP79" t="n">
+      <c r="IP79" s="1" t="n">
         <v>6.57</v>
+      </c>
+      <c r="IQ79" t="n">
+        <v>5.62</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -60773,8 +61010,11 @@
       <c r="IO80" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IP80" t="n">
+      <c r="IP80" s="1" t="n">
         <v>21.7</v>
+      </c>
+      <c r="IQ80" t="n">
+        <v>31.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -61527,8 +61767,11 @@
       <c r="IO81" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IP81" t="n">
+      <c r="IP81" s="1" t="n">
         <v>15.2</v>
+      </c>
+      <c r="IQ81" t="n">
+        <v>17.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -62281,8 +62524,11 @@
       <c r="IO82" s="1" t="n">
         <v>187.9</v>
       </c>
-      <c r="IP82" t="n">
+      <c r="IP82" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="IQ82" t="n">
+        <v>189.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -63035,8 +63281,11 @@
       <c r="IO83" s="1" t="n">
         <v>86.2</v>
       </c>
-      <c r="IP83" t="n">
+      <c r="IP83" s="1" t="n">
         <v>85.90000000000001</v>
+      </c>
+      <c r="IQ83" t="n">
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -63789,8 +64038,11 @@
       <c r="IO84" s="1" t="n">
         <v>25.58</v>
       </c>
-      <c r="IP84" t="n">
+      <c r="IP84" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="IQ84" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -64543,8 +64795,11 @@
       <c r="IO85" s="1" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="IP85" t="n">
+      <c r="IP85" s="1" t="n">
         <v>98.3</v>
+      </c>
+      <c r="IQ85" t="n">
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -65297,7 +65552,10 @@
       <c r="IO86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IP86" t="n">
+      <c r="IP86" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IQ86" t="n">
         <v>11</v>
       </c>
     </row>
@@ -66051,8 +66309,11 @@
       <c r="IO87" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IP87" t="n">
+      <c r="IP87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -66805,8 +67066,11 @@
       <c r="IO88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IP88" t="n">
+      <c r="IP88" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IQ88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -67559,8 +67823,11 @@
       <c r="IO89" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IP89" t="n">
+      <c r="IP89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IQ89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -68313,8 +68580,11 @@
       <c r="IO90" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="IP90" t="n">
+      <c r="IP90" s="1" t="n">
         <v>133</v>
+      </c>
+      <c r="IQ90" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -69067,8 +69337,11 @@
       <c r="IO91" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="IP91" t="n">
+      <c r="IP91" s="1" t="n">
         <v>183</v>
+      </c>
+      <c r="IQ91" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -69821,8 +70094,11 @@
       <c r="IO92" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="IP92" t="n">
+      <c r="IP92" s="1" t="n">
         <v>215</v>
+      </c>
+      <c r="IQ92" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -70575,8 +70851,11 @@
       <c r="IO93" s="1" t="n">
         <v>68.8</v>
       </c>
-      <c r="IP93" t="n">
+      <c r="IP93" s="1" t="n">
         <v>68.7</v>
+      </c>
+      <c r="IQ93" t="n">
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -71329,8 +71608,11 @@
       <c r="IO94" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IP94" t="n">
+      <c r="IP94" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="IQ94" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -72083,8 +72365,11 @@
       <c r="IO95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IP95" t="n">
+      <c r="IP95" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IQ95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -72837,8 +73122,11 @@
       <c r="IO96" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IP96" t="n">
+      <c r="IP96" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IQ96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -73591,8 +73879,11 @@
       <c r="IO97" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IP97" t="n">
+      <c r="IP97" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IQ97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -74345,8 +74636,11 @@
       <c r="IO98" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IP98" t="n">
+      <c r="IP98" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IQ98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -75099,7 +75393,10 @@
       <c r="IO99" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IP99" t="n">
+      <c r="IP99" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="IQ99" t="n">
         <v>51</v>
       </c>
     </row>
@@ -75853,7 +76150,10 @@
       <c r="IO100" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IP100" t="n">
+      <c r="IP100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -76607,8 +76907,11 @@
       <c r="IO101" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IP101" t="n">
+      <c r="IP101" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IQ101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -77361,8 +77664,11 @@
       <c r="IO102" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="IP102" t="n">
+      <c r="IP102" s="1" t="n">
         <v>42.9</v>
+      </c>
+      <c r="IQ102" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IQ102"/>
+  <dimension ref="A1:IR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1210,8 +1210,11 @@
       <c r="IP1" s="1" t="n">
         <v>10570</v>
       </c>
-      <c r="IQ1" t="n">
+      <c r="IQ1" s="1" t="n">
         <v>10576</v>
+      </c>
+      <c r="IR1" t="n">
+        <v>10587</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1967,7 +1970,10 @@
       <c r="IP2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="IQ2" t="n">
+      <c r="IQ2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IR2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2724,8 +2730,11 @@
       <c r="IP3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IQ3" t="n">
+      <c r="IQ3" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3481,8 +3490,11 @@
       <c r="IP4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IQ4" t="n">
+      <c r="IQ4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4238,8 +4250,11 @@
       <c r="IP5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IQ5" t="n">
+      <c r="IQ5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IR5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4995,8 +5010,11 @@
       <c r="IP6" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="IQ6" t="n">
+      <c r="IQ6" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5752,8 +5770,11 @@
       <c r="IP7" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IQ7" t="n">
+      <c r="IQ7" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IR7" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6509,8 +6530,11 @@
       <c r="IP8" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IQ8" t="n">
+      <c r="IQ8" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IR8" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7266,7 +7290,10 @@
       <c r="IP9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IQ9" t="n">
+      <c r="IQ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8023,8 +8050,11 @@
       <c r="IP10" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IQ10" t="n">
+      <c r="IQ10" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IR10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8780,8 +8810,11 @@
       <c r="IP11" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="IQ11" t="n">
+      <c r="IQ11" s="1" t="n">
         <v>223</v>
+      </c>
+      <c r="IR11" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9537,8 +9570,11 @@
       <c r="IP12" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="IQ12" t="n">
+      <c r="IQ12" s="1" t="n">
         <v>163</v>
+      </c>
+      <c r="IR12" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10294,8 +10330,11 @@
       <c r="IP13" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="IQ13" t="n">
+      <c r="IQ13" s="1" t="n">
         <v>386</v>
+      </c>
+      <c r="IR13" t="n">
+        <v>398</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -11051,8 +11090,11 @@
       <c r="IP14" s="1" t="n">
         <v>1.74</v>
       </c>
-      <c r="IQ14" t="n">
+      <c r="IQ14" s="1" t="n">
         <v>1.37</v>
+      </c>
+      <c r="IR14" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11808,8 +11850,11 @@
       <c r="IP15" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="IQ15" t="n">
+      <c r="IQ15" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="IR15" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12565,8 +12610,11 @@
       <c r="IP16" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IQ16" t="n">
+      <c r="IQ16" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="IR16" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -13322,8 +13370,11 @@
       <c r="IP17" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IQ17" t="n">
+      <c r="IQ17" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IR17" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -14079,8 +14130,11 @@
       <c r="IP18" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IQ18" t="n">
+      <c r="IQ18" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IR18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14836,8 +14890,11 @@
       <c r="IP19" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IQ19" t="n">
+      <c r="IQ19" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IR19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15593,8 +15650,11 @@
       <c r="IP20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IQ20" t="n">
+      <c r="IQ20" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IR20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -16350,8 +16410,11 @@
       <c r="IP21" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IQ21" t="n">
+      <c r="IQ21" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IR21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -17107,8 +17170,11 @@
       <c r="IP22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IQ22" t="n">
+      <c r="IQ22" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IR22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17864,7 +17930,10 @@
       <c r="IP23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IQ23" t="n">
+      <c r="IQ23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18621,8 +18690,11 @@
       <c r="IP24" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="IQ24" t="n">
+      <c r="IQ24" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IR24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -19378,8 +19450,11 @@
       <c r="IP25" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="IQ25" t="n">
+      <c r="IQ25" s="1" t="n">
         <v>56.5</v>
+      </c>
+      <c r="IR25" t="n">
+        <v>59.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -20135,8 +20210,11 @@
       <c r="IP26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="IQ26" t="n">
+      <c r="IQ26" s="1" t="n">
         <v>29.69</v>
+      </c>
+      <c r="IR26" t="n">
+        <v>24.88</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20892,8 +20970,11 @@
       <c r="IP27" s="1" t="n">
         <v>13.89</v>
       </c>
-      <c r="IQ27" t="n">
+      <c r="IQ27" s="1" t="n">
         <v>16.78</v>
+      </c>
+      <c r="IR27" t="n">
+        <v>14.74</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -21649,8 +21730,11 @@
       <c r="IP28" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IQ28" t="n">
+      <c r="IQ28" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IR28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -22406,8 +22490,11 @@
       <c r="IP29" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="IQ29" t="n">
+      <c r="IQ29" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IR29" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -23163,8 +23250,11 @@
       <c r="IP30" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IQ30" t="n">
+      <c r="IQ30" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IR30" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23920,8 +24010,11 @@
       <c r="IP31" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IQ31" t="n">
+      <c r="IQ31" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IR31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -24677,8 +24770,11 @@
       <c r="IP32" s="1" t="n">
         <v>2.04</v>
       </c>
-      <c r="IQ32" t="n">
+      <c r="IQ32" s="1" t="n">
         <v>2.22</v>
+      </c>
+      <c r="IR32" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -25434,8 +25530,11 @@
       <c r="IP33" s="1" t="n">
         <v>3.67</v>
       </c>
-      <c r="IQ33" t="n">
+      <c r="IQ33" s="1" t="n">
         <v>3.92</v>
+      </c>
+      <c r="IR33" t="n">
+        <v>3.31</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -26191,8 +26290,11 @@
       <c r="IP34" s="1" t="n">
         <v>45.5</v>
       </c>
-      <c r="IQ34" t="n">
+      <c r="IQ34" s="1" t="n">
         <v>43.1</v>
+      </c>
+      <c r="IR34" t="n">
+        <v>49.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -26948,8 +27050,11 @@
       <c r="IP35" s="1" t="n">
         <v>27.3</v>
       </c>
-      <c r="IQ35" t="n">
+      <c r="IQ35" s="1" t="n">
         <v>25.5</v>
+      </c>
+      <c r="IR35" t="n">
+        <v>30.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -27705,8 +27810,11 @@
       <c r="IP36" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="IQ36" t="n">
+      <c r="IQ36" s="1" t="n">
         <v>188.2</v>
+      </c>
+      <c r="IR36" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -28462,8 +28570,11 @@
       <c r="IP37" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="IQ37" t="n">
+      <c r="IQ37" s="1" t="n">
         <v>86.8</v>
+      </c>
+      <c r="IR37" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -29219,8 +29330,11 @@
       <c r="IP38" s="1" t="n">
         <v>24.33</v>
       </c>
-      <c r="IQ38" t="n">
+      <c r="IQ38" s="1" t="n">
         <v>24.74</v>
+      </c>
+      <c r="IR38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -29976,8 +30090,11 @@
       <c r="IP39" s="1" t="n">
         <v>61.3</v>
       </c>
-      <c r="IQ39" t="n">
+      <c r="IQ39" s="1" t="n">
         <v>76.3</v>
+      </c>
+      <c r="IR39" t="n">
+        <v>79.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -30733,8 +30850,11 @@
       <c r="IP40" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IQ40" t="n">
+      <c r="IQ40" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IR40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -31490,8 +31610,11 @@
       <c r="IP41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IQ41" t="n">
+      <c r="IQ41" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IR41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -32247,7 +32370,10 @@
       <c r="IP42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IQ42" t="n">
+      <c r="IQ42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IR42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -33004,7 +33130,10 @@
       <c r="IP43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IQ43" t="n">
+      <c r="IQ43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IR43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -33761,8 +33890,11 @@
       <c r="IP44" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="IQ44" t="n">
+      <c r="IQ44" s="1" t="n">
         <v>153</v>
+      </c>
+      <c r="IR44" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -34518,8 +34650,11 @@
       <c r="IP45" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="IQ45" t="n">
+      <c r="IQ45" s="1" t="n">
         <v>225</v>
+      </c>
+      <c r="IR45" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -35275,8 +35410,11 @@
       <c r="IP46" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="IQ46" t="n">
+      <c r="IQ46" s="1" t="n">
         <v>273</v>
+      </c>
+      <c r="IR46" t="n">
+        <v>307</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -36032,8 +36170,11 @@
       <c r="IP47" s="1" t="n">
         <v>75.5</v>
       </c>
-      <c r="IQ47" t="n">
+      <c r="IQ47" s="1" t="n">
         <v>70.7</v>
+      </c>
+      <c r="IR47" t="n">
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -36789,8 +36930,11 @@
       <c r="IP48" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="IQ48" t="n">
+      <c r="IQ48" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IR48" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -37546,8 +37690,11 @@
       <c r="IP49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IQ49" t="n">
+      <c r="IQ49" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IR49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -38303,8 +38450,11 @@
       <c r="IP50" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IQ50" t="n">
+      <c r="IQ50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IR50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -39060,8 +39210,11 @@
       <c r="IP51" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IQ51" t="n">
+      <c r="IQ51" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IR51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -39817,8 +39970,11 @@
       <c r="IP52" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IQ52" t="n">
+      <c r="IQ52" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IR52" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -40574,8 +40730,11 @@
       <c r="IP53" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IQ53" t="n">
+      <c r="IQ53" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IR53" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -41331,8 +41490,11 @@
       <c r="IP54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IQ54" t="n">
+      <c r="IQ54" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IR54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -42088,8 +42250,11 @@
       <c r="IP55" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IQ55" t="n">
+      <c r="IQ55" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IR55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -42845,8 +43010,11 @@
       <c r="IP56" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="IQ56" t="n">
+      <c r="IQ56" s="1" t="n">
         <v>84.59999999999999</v>
+      </c>
+      <c r="IR56" t="n">
+        <v>81.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -43602,8 +43770,11 @@
       <c r="IP57" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="IQ57" t="n">
+      <c r="IQ57" s="1" t="n">
         <v>193</v>
+      </c>
+      <c r="IR57" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -44359,8 +44530,11 @@
       <c r="IP58" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="IQ58" t="n">
+      <c r="IQ58" s="1" t="n">
         <v>131</v>
+      </c>
+      <c r="IR58" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -45116,8 +45290,11 @@
       <c r="IP59" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="IQ59" t="n">
+      <c r="IQ59" s="1" t="n">
         <v>324</v>
+      </c>
+      <c r="IR59" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -45873,8 +46050,11 @@
       <c r="IP60" s="1" t="n">
         <v>1.79</v>
       </c>
-      <c r="IQ60" t="n">
+      <c r="IQ60" s="1" t="n">
         <v>1.47</v>
+      </c>
+      <c r="IR60" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -46630,8 +46810,11 @@
       <c r="IP61" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="IQ61" t="n">
+      <c r="IQ61" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="IR61" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -47387,8 +47570,11 @@
       <c r="IP62" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IQ62" t="n">
+      <c r="IQ62" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="IR62" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -48144,8 +48330,11 @@
       <c r="IP63" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IQ63" t="n">
+      <c r="IQ63" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IR63" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -48901,8 +49090,11 @@
       <c r="IP64" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IQ64" t="n">
+      <c r="IQ64" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IR64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -49658,8 +49850,11 @@
       <c r="IP65" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IQ65" t="n">
+      <c r="IQ65" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IR65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -50415,7 +50610,10 @@
       <c r="IP66" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IQ66" t="n">
+      <c r="IQ66" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR66" t="n">
         <v>8</v>
       </c>
     </row>
@@ -51172,8 +51370,11 @@
       <c r="IP67" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IQ67" t="n">
+      <c r="IQ67" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IR67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -51929,8 +52130,11 @@
       <c r="IP68" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IQ68" t="n">
+      <c r="IQ68" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IR68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -52686,8 +52890,11 @@
       <c r="IP69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IQ69" t="n">
+      <c r="IQ69" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IR69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -53443,8 +53650,11 @@
       <c r="IP70" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IQ70" t="n">
+      <c r="IQ70" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IR70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -54200,8 +54410,11 @@
       <c r="IP71" s="1" t="n">
         <v>58.3</v>
       </c>
-      <c r="IQ71" t="n">
+      <c r="IQ71" s="1" t="n">
         <v>57.1</v>
+      </c>
+      <c r="IR71" t="n">
+        <v>42.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -54957,8 +55170,11 @@
       <c r="IP72" s="1" t="n">
         <v>44.71</v>
       </c>
-      <c r="IQ72" t="n">
+      <c r="IQ72" s="1" t="n">
         <v>40.5</v>
+      </c>
+      <c r="IR72" t="n">
+        <v>45.25</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -55714,8 +55930,11 @@
       <c r="IP73" s="1" t="n">
         <v>26.08</v>
       </c>
-      <c r="IQ73" t="n">
+      <c r="IQ73" s="1" t="n">
         <v>23.14</v>
+      </c>
+      <c r="IR73" t="n">
+        <v>19.05</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -56471,8 +56690,11 @@
       <c r="IP74" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IQ74" t="n">
+      <c r="IQ74" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IR74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -57228,8 +57450,11 @@
       <c r="IP75" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="IQ75" t="n">
+      <c r="IQ75" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="IR75" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -57985,7 +58210,10 @@
       <c r="IP76" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IQ76" t="n">
+      <c r="IQ76" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="IR76" t="n">
         <v>37</v>
       </c>
     </row>
@@ -58742,8 +58970,11 @@
       <c r="IP77" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IQ77" t="n">
+      <c r="IQ77" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IR77" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -59499,8 +59730,11 @@
       <c r="IP78" s="1" t="n">
         <v>3.83</v>
       </c>
-      <c r="IQ78" t="n">
+      <c r="IQ78" s="1" t="n">
         <v>3.21</v>
+      </c>
+      <c r="IR78" t="n">
+        <v>2.16</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -60256,8 +60490,11 @@
       <c r="IP79" s="1" t="n">
         <v>6.57</v>
       </c>
-      <c r="IQ79" t="n">
+      <c r="IQ79" s="1" t="n">
         <v>5.62</v>
+      </c>
+      <c r="IR79" t="n">
+        <v>5.12</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -61013,8 +61250,11 @@
       <c r="IP80" s="1" t="n">
         <v>21.7</v>
       </c>
-      <c r="IQ80" t="n">
+      <c r="IQ80" s="1" t="n">
         <v>31.1</v>
+      </c>
+      <c r="IR80" t="n">
+        <v>43.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -61770,8 +62010,11 @@
       <c r="IP81" s="1" t="n">
         <v>15.2</v>
       </c>
-      <c r="IQ81" t="n">
+      <c r="IQ81" s="1" t="n">
         <v>17.8</v>
+      </c>
+      <c r="IR81" t="n">
+        <v>19.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -62527,8 +62770,11 @@
       <c r="IP82" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="IQ82" t="n">
+      <c r="IQ82" s="1" t="n">
         <v>189.4</v>
+      </c>
+      <c r="IR82" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -63284,8 +63530,11 @@
       <c r="IP83" s="1" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="IQ83" t="n">
+      <c r="IQ83" s="1" t="n">
         <v>88.59999999999999</v>
+      </c>
+      <c r="IR83" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -64041,8 +64290,11 @@
       <c r="IP84" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="IQ84" t="n">
+      <c r="IQ84" s="1" t="n">
         <v>25.16</v>
+      </c>
+      <c r="IR84" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -64798,8 +65050,11 @@
       <c r="IP85" s="1" t="n">
         <v>98.3</v>
       </c>
-      <c r="IQ85" t="n">
+      <c r="IQ85" s="1" t="n">
         <v>79.09999999999999</v>
+      </c>
+      <c r="IR85" t="n">
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -65555,8 +65810,11 @@
       <c r="IP86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IQ86" t="n">
+      <c r="IQ86" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IR86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -66312,8 +66570,11 @@
       <c r="IP87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IQ87" t="n">
+      <c r="IQ87" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IR87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -67069,8 +67330,11 @@
       <c r="IP88" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IQ88" t="n">
+      <c r="IQ88" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IR88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -67826,8 +68090,11 @@
       <c r="IP89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IQ89" t="n">
+      <c r="IQ89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IR89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -68583,8 +68850,11 @@
       <c r="IP90" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="IQ90" t="n">
+      <c r="IQ90" s="1" t="n">
         <v>129</v>
+      </c>
+      <c r="IR90" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -69340,8 +69610,11 @@
       <c r="IP91" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="IQ91" t="n">
+      <c r="IQ91" s="1" t="n">
         <v>196</v>
+      </c>
+      <c r="IR91" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -70097,8 +70370,11 @@
       <c r="IP92" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="IQ92" t="n">
+      <c r="IQ92" s="1" t="n">
         <v>240</v>
+      </c>
+      <c r="IR92" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -70854,8 +71130,11 @@
       <c r="IP93" s="1" t="n">
         <v>68.7</v>
       </c>
-      <c r="IQ93" t="n">
+      <c r="IQ93" s="1" t="n">
         <v>74.09999999999999</v>
+      </c>
+      <c r="IR93" t="n">
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -71611,8 +71890,11 @@
       <c r="IP94" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="IQ94" t="n">
+      <c r="IQ94" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="IR94" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -72368,8 +72650,11 @@
       <c r="IP95" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IQ95" t="n">
+      <c r="IQ95" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IR95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -73125,8 +73410,11 @@
       <c r="IP96" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IQ96" t="n">
+      <c r="IQ96" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IR96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -73882,8 +74170,11 @@
       <c r="IP97" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IQ97" t="n">
+      <c r="IQ97" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IR97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -74639,7 +74930,10 @@
       <c r="IP98" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IQ98" t="n">
+      <c r="IQ98" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="IR98" t="n">
         <v>37</v>
       </c>
     </row>
@@ -75396,8 +75690,11 @@
       <c r="IP99" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IQ99" t="n">
+      <c r="IQ99" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IR99" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -76153,8 +76450,11 @@
       <c r="IP100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IQ100" t="n">
+      <c r="IQ100" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IR100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -76910,8 +77210,11 @@
       <c r="IP101" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IQ101" t="n">
+      <c r="IQ101" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IR101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -77667,8 +77970,11 @@
       <c r="IP102" s="1" t="n">
         <v>42.9</v>
       </c>
-      <c r="IQ102" t="n">
+      <c r="IQ102" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IR102" t="n">
+        <v>87.5</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IR102"/>
+  <dimension ref="A1:IS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1213,8 +1213,11 @@
       <c r="IQ1" s="1" t="n">
         <v>10576</v>
       </c>
-      <c r="IR1" t="n">
+      <c r="IR1" s="1" t="n">
         <v>10587</v>
+      </c>
+      <c r="IS1" t="n">
+        <v>10592</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1973,7 +1976,10 @@
       <c r="IQ2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="IR2" t="n">
+      <c r="IR2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IS2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2733,8 +2739,11 @@
       <c r="IQ3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IR3" t="n">
+      <c r="IR3" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3493,8 +3502,11 @@
       <c r="IQ4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IR4" t="n">
+      <c r="IR4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4253,8 +4265,11 @@
       <c r="IQ5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IR5" t="n">
+      <c r="IR5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IS5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5013,8 +5028,11 @@
       <c r="IQ6" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="IR6" t="n">
+      <c r="IR6" s="1" t="n">
         <v>107</v>
+      </c>
+      <c r="IS6" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5773,8 +5791,11 @@
       <c r="IQ7" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IR7" t="n">
+      <c r="IR7" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="IS7" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6533,8 +6554,11 @@
       <c r="IQ8" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IR8" t="n">
+      <c r="IR8" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IS8" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7293,7 +7317,10 @@
       <c r="IQ9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IR9" t="n">
+      <c r="IR9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8053,8 +8080,11 @@
       <c r="IQ10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IR10" t="n">
+      <c r="IR10" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IS10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8813,8 +8843,11 @@
       <c r="IQ11" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="IR11" t="n">
+      <c r="IR11" s="1" t="n">
         <v>226</v>
+      </c>
+      <c r="IS11" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9573,8 +9606,11 @@
       <c r="IQ12" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="IR12" t="n">
+      <c r="IR12" s="1" t="n">
         <v>172</v>
+      </c>
+      <c r="IS12" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10333,8 +10369,11 @@
       <c r="IQ13" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="IR13" t="n">
+      <c r="IR13" s="1" t="n">
         <v>398</v>
+      </c>
+      <c r="IS13" t="n">
+        <v>358</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -11093,8 +11132,11 @@
       <c r="IQ14" s="1" t="n">
         <v>1.37</v>
       </c>
-      <c r="IR14" t="n">
+      <c r="IR14" s="1" t="n">
         <v>1.31</v>
+      </c>
+      <c r="IS14" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11853,8 +11895,11 @@
       <c r="IQ15" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="IR15" t="n">
+      <c r="IR15" s="1" t="n">
         <v>105</v>
+      </c>
+      <c r="IS15" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12613,8 +12658,11 @@
       <c r="IQ16" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="IR16" t="n">
+      <c r="IR16" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IS16" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -13373,8 +13421,11 @@
       <c r="IQ17" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IR17" t="n">
+      <c r="IR17" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IS17" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -14133,8 +14184,11 @@
       <c r="IQ18" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IR18" t="n">
+      <c r="IR18" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IS18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14893,8 +14947,11 @@
       <c r="IQ19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IR19" t="n">
+      <c r="IR19" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IS19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15653,8 +15710,11 @@
       <c r="IQ20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IR20" t="n">
+      <c r="IR20" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IS20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -16413,8 +16473,11 @@
       <c r="IQ21" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IR21" t="n">
+      <c r="IR21" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IS21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -17173,8 +17236,11 @@
       <c r="IQ22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IR22" t="n">
+      <c r="IR22" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IS22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17933,8 +17999,11 @@
       <c r="IQ23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IR23" t="n">
+      <c r="IR23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IS23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -18693,7 +18762,10 @@
       <c r="IQ24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IR24" t="n">
+      <c r="IR24" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="IS24" t="n">
         <v>27</v>
       </c>
     </row>
@@ -19453,8 +19525,11 @@
       <c r="IQ25" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="IR25" t="n">
+      <c r="IR25" s="1" t="n">
         <v>59.3</v>
+      </c>
+      <c r="IS25" t="n">
+        <v>51.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -20213,8 +20288,11 @@
       <c r="IQ26" s="1" t="n">
         <v>29.69</v>
       </c>
-      <c r="IR26" t="n">
+      <c r="IR26" s="1" t="n">
         <v>24.88</v>
+      </c>
+      <c r="IS26" t="n">
+        <v>25.57</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20973,8 +21051,11 @@
       <c r="IQ27" s="1" t="n">
         <v>16.78</v>
       </c>
-      <c r="IR27" t="n">
+      <c r="IR27" s="1" t="n">
         <v>14.74</v>
+      </c>
+      <c r="IS27" t="n">
+        <v>13.26</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -21733,8 +21814,11 @@
       <c r="IQ28" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IR28" t="n">
+      <c r="IR28" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IS28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -22493,8 +22577,11 @@
       <c r="IQ29" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IR29" t="n">
+      <c r="IR29" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="IS29" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -23253,8 +23340,11 @@
       <c r="IQ30" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IR30" t="n">
+      <c r="IR30" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IS30" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -24013,8 +24103,11 @@
       <c r="IQ31" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IR31" t="n">
+      <c r="IR31" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="IS31" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -24773,8 +24866,11 @@
       <c r="IQ32" s="1" t="n">
         <v>2.22</v>
       </c>
-      <c r="IR32" t="n">
+      <c r="IR32" s="1" t="n">
         <v>1.96</v>
+      </c>
+      <c r="IS32" t="n">
+        <v>2.07</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -25533,8 +25629,11 @@
       <c r="IQ33" s="1" t="n">
         <v>3.92</v>
       </c>
-      <c r="IR33" t="n">
+      <c r="IR33" s="1" t="n">
         <v>3.31</v>
+      </c>
+      <c r="IS33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -26293,8 +26392,11 @@
       <c r="IQ34" s="1" t="n">
         <v>43.1</v>
       </c>
-      <c r="IR34" t="n">
+      <c r="IR34" s="1" t="n">
         <v>49.1</v>
+      </c>
+      <c r="IS34" t="n">
+        <v>41.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -27053,8 +27155,11 @@
       <c r="IQ35" s="1" t="n">
         <v>25.5</v>
       </c>
-      <c r="IR35" t="n">
+      <c r="IR35" s="1" t="n">
         <v>30.2</v>
+      </c>
+      <c r="IS35" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -27813,8 +27918,11 @@
       <c r="IQ36" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="IR36" t="n">
+      <c r="IR36" s="1" t="n">
         <v>188.5</v>
+      </c>
+      <c r="IS36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -28573,8 +28681,11 @@
       <c r="IQ37" s="1" t="n">
         <v>86.8</v>
       </c>
-      <c r="IR37" t="n">
+      <c r="IR37" s="1" t="n">
         <v>87.2</v>
+      </c>
+      <c r="IS37" t="n">
+        <v>87.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -29333,8 +29444,11 @@
       <c r="IQ38" s="1" t="n">
         <v>24.74</v>
       </c>
-      <c r="IR38" t="n">
+      <c r="IR38" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="IS38" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -30093,8 +30207,11 @@
       <c r="IQ39" s="1" t="n">
         <v>76.3</v>
       </c>
-      <c r="IR39" t="n">
+      <c r="IR39" s="1" t="n">
         <v>79.5</v>
+      </c>
+      <c r="IS39" t="n">
+        <v>84.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -30853,7 +30970,10 @@
       <c r="IQ40" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IR40" t="n">
+      <c r="IR40" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IS40" t="n">
         <v>10</v>
       </c>
     </row>
@@ -31613,8 +31733,11 @@
       <c r="IQ41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IR41" t="n">
+      <c r="IR41" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IS41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -32373,7 +32496,10 @@
       <c r="IQ42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IR42" t="n">
+      <c r="IR42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IS42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -33133,7 +33259,10 @@
       <c r="IQ43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IR43" t="n">
+      <c r="IR43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IS43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -33893,8 +34022,11 @@
       <c r="IQ44" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="IR44" t="n">
+      <c r="IR44" s="1" t="n">
         <v>134</v>
+      </c>
+      <c r="IS44" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -34653,8 +34785,11 @@
       <c r="IQ45" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="IR45" t="n">
+      <c r="IR45" s="1" t="n">
         <v>259</v>
+      </c>
+      <c r="IS45" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -35413,8 +35548,11 @@
       <c r="IQ46" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="IR46" t="n">
+      <c r="IR46" s="1" t="n">
         <v>307</v>
+      </c>
+      <c r="IS46" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -36173,8 +36311,11 @@
       <c r="IQ47" s="1" t="n">
         <v>70.7</v>
       </c>
-      <c r="IR47" t="n">
+      <c r="IR47" s="1" t="n">
         <v>77.09999999999999</v>
+      </c>
+      <c r="IS47" t="n">
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -36933,8 +37074,11 @@
       <c r="IQ48" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IR48" t="n">
+      <c r="IR48" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="IS48" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -37693,8 +37837,11 @@
       <c r="IQ49" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IR49" t="n">
+      <c r="IR49" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IS49" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -38453,8 +38600,11 @@
       <c r="IQ50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IR50" t="n">
+      <c r="IR50" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IS50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -39213,8 +39363,11 @@
       <c r="IQ51" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IR51" t="n">
+      <c r="IR51" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IS51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -39973,8 +40126,11 @@
       <c r="IQ52" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IR52" t="n">
+      <c r="IR52" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IS52" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -40733,8 +40889,11 @@
       <c r="IQ53" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IR53" t="n">
+      <c r="IR53" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IS53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -41493,8 +41652,11 @@
       <c r="IQ54" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IR54" t="n">
+      <c r="IR54" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IS54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -42253,8 +42415,11 @@
       <c r="IQ55" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IR55" t="n">
+      <c r="IR55" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IS55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -43013,8 +43178,11 @@
       <c r="IQ56" s="1" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="IR56" t="n">
+      <c r="IR56" s="1" t="n">
         <v>81.2</v>
+      </c>
+      <c r="IS56" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -43773,8 +43941,11 @@
       <c r="IQ57" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="IR57" t="n">
+      <c r="IR57" s="1" t="n">
         <v>191</v>
+      </c>
+      <c r="IS57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -44533,8 +44704,11 @@
       <c r="IQ58" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="IR58" t="n">
+      <c r="IR58" s="1" t="n">
         <v>171</v>
+      </c>
+      <c r="IS58" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -45293,8 +45467,11 @@
       <c r="IQ59" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="IR59" t="n">
+      <c r="IR59" s="1" t="n">
         <v>362</v>
+      </c>
+      <c r="IS59" t="n">
+        <v>381</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -46053,8 +46230,11 @@
       <c r="IQ60" s="1" t="n">
         <v>1.47</v>
       </c>
-      <c r="IR60" t="n">
+      <c r="IR60" s="1" t="n">
         <v>1.12</v>
+      </c>
+      <c r="IS60" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -46813,8 +46993,11 @@
       <c r="IQ61" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="IR61" t="n">
+      <c r="IR61" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="IS61" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -47573,8 +47756,11 @@
       <c r="IQ62" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="IR62" t="n">
+      <c r="IR62" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IS62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -48333,8 +48519,11 @@
       <c r="IQ63" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IR63" t="n">
+      <c r="IR63" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IS63" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -49093,8 +49282,11 @@
       <c r="IQ64" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IR64" t="n">
+      <c r="IR64" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IS64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -49853,8 +50045,11 @@
       <c r="IQ65" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IR65" t="n">
+      <c r="IR65" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IS65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -50613,8 +50808,11 @@
       <c r="IQ66" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IR66" t="n">
+      <c r="IR66" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IS66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -51373,8 +51571,11 @@
       <c r="IQ67" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IR67" t="n">
+      <c r="IR67" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IS67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -52133,8 +52334,11 @@
       <c r="IQ68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IR68" t="n">
+      <c r="IR68" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IS68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -52893,8 +53097,11 @@
       <c r="IQ69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IR69" t="n">
+      <c r="IR69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IS69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -53653,8 +53860,11 @@
       <c r="IQ70" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IR70" t="n">
+      <c r="IR70" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IS70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -54413,8 +54623,11 @@
       <c r="IQ71" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="IR71" t="n">
+      <c r="IR71" s="1" t="n">
         <v>42.1</v>
+      </c>
+      <c r="IS71" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -55173,8 +55386,11 @@
       <c r="IQ72" s="1" t="n">
         <v>40.5</v>
       </c>
-      <c r="IR72" t="n">
+      <c r="IR72" s="1" t="n">
         <v>45.25</v>
+      </c>
+      <c r="IS72" t="n">
+        <v>42.33</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -55933,8 +56149,11 @@
       <c r="IQ73" s="1" t="n">
         <v>23.14</v>
       </c>
-      <c r="IR73" t="n">
+      <c r="IR73" s="1" t="n">
         <v>19.05</v>
+      </c>
+      <c r="IS73" t="n">
+        <v>22.41</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -56693,8 +56912,11 @@
       <c r="IQ74" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IR74" t="n">
+      <c r="IR74" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IS74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -57453,8 +57675,11 @@
       <c r="IQ75" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IR75" t="n">
+      <c r="IR75" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="IS75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -58213,8 +58438,11 @@
       <c r="IQ76" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IR76" t="n">
+      <c r="IR76" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IS76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -58973,8 +59201,11 @@
       <c r="IQ77" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IR77" t="n">
+      <c r="IR77" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IS77" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -59733,8 +59964,11 @@
       <c r="IQ78" s="1" t="n">
         <v>3.21</v>
       </c>
-      <c r="IR78" t="n">
+      <c r="IR78" s="1" t="n">
         <v>2.16</v>
+      </c>
+      <c r="IS78" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -60493,8 +60727,11 @@
       <c r="IQ79" s="1" t="n">
         <v>5.62</v>
       </c>
-      <c r="IR79" t="n">
+      <c r="IR79" s="1" t="n">
         <v>5.12</v>
+      </c>
+      <c r="IS79" t="n">
+        <v>4.22</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -61253,8 +61490,11 @@
       <c r="IQ80" s="1" t="n">
         <v>31.1</v>
       </c>
-      <c r="IR80" t="n">
+      <c r="IR80" s="1" t="n">
         <v>43.9</v>
+      </c>
+      <c r="IS80" t="n">
+        <v>39.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -62013,8 +62253,11 @@
       <c r="IQ81" s="1" t="n">
         <v>17.8</v>
       </c>
-      <c r="IR81" t="n">
+      <c r="IR81" s="1" t="n">
         <v>19.5</v>
+      </c>
+      <c r="IS81" t="n">
+        <v>23.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -62773,8 +63016,11 @@
       <c r="IQ82" s="1" t="n">
         <v>189.4</v>
       </c>
-      <c r="IR82" t="n">
+      <c r="IR82" s="1" t="n">
         <v>188.8</v>
+      </c>
+      <c r="IS82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -63533,8 +63779,11 @@
       <c r="IQ83" s="1" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="IR83" t="n">
+      <c r="IR83" s="1" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="IS83" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -64293,8 +64542,11 @@
       <c r="IQ84" s="1" t="n">
         <v>25.16</v>
       </c>
-      <c r="IR84" t="n">
+      <c r="IR84" s="1" t="n">
         <v>24.74</v>
+      </c>
+      <c r="IS84" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -65053,8 +65305,11 @@
       <c r="IQ85" s="1" t="n">
         <v>79.09999999999999</v>
       </c>
-      <c r="IR85" t="n">
+      <c r="IR85" s="1" t="n">
         <v>68.59999999999999</v>
+      </c>
+      <c r="IS85" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -65813,8 +66068,11 @@
       <c r="IQ86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IR86" t="n">
+      <c r="IR86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IS86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -66573,8 +66831,11 @@
       <c r="IQ87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IR87" t="n">
+      <c r="IR87" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IS87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -67333,8 +67594,11 @@
       <c r="IQ88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IR88" t="n">
+      <c r="IR88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IS88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -68093,8 +68357,11 @@
       <c r="IQ89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IR89" t="n">
+      <c r="IR89" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IS89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -68853,8 +69120,11 @@
       <c r="IQ90" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="IR90" t="n">
+      <c r="IR90" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="IS90" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -69613,8 +69883,11 @@
       <c r="IQ91" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="IR91" t="n">
+      <c r="IR91" s="1" t="n">
         <v>244</v>
+      </c>
+      <c r="IS91" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -70373,8 +70646,11 @@
       <c r="IQ92" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="IR92" t="n">
+      <c r="IR92" s="1" t="n">
         <v>270</v>
+      </c>
+      <c r="IS92" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -71133,8 +71409,11 @@
       <c r="IQ93" s="1" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="IR93" t="n">
+      <c r="IR93" s="1" t="n">
         <v>74.59999999999999</v>
+      </c>
+      <c r="IS93" t="n">
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -71893,8 +72172,11 @@
       <c r="IQ94" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IR94" t="n">
+      <c r="IR94" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="IS94" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -72653,8 +72935,11 @@
       <c r="IQ95" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IR95" t="n">
+      <c r="IR95" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IS95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -73413,8 +73698,11 @@
       <c r="IQ96" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IR96" t="n">
+      <c r="IR96" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IS96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -74173,8 +74461,11 @@
       <c r="IQ97" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IR97" t="n">
+      <c r="IR97" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IS97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -74933,8 +75224,11 @@
       <c r="IQ98" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IR98" t="n">
+      <c r="IR98" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IS98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -75693,8 +75987,11 @@
       <c r="IQ99" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IR99" t="n">
+      <c r="IR99" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IS99" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -76453,8 +76750,11 @@
       <c r="IQ100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IR100" t="n">
+      <c r="IR100" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IS100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -77213,8 +77513,11 @@
       <c r="IQ101" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IR101" t="n">
+      <c r="IR101" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IS101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -77973,8 +78276,11 @@
       <c r="IQ102" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="IR102" t="n">
+      <c r="IR102" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="IS102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IS102"/>
+  <dimension ref="A1:IU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1216,8 +1216,14 @@
       <c r="IR1" s="1" t="n">
         <v>10587</v>
       </c>
-      <c r="IS1" t="n">
+      <c r="IS1" s="1" t="n">
         <v>10592</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>10599</v>
+      </c>
+      <c r="IU1" t="n">
+        <v>10608</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1979,7 +1985,13 @@
       <c r="IR2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="IS2" t="n">
+      <c r="IS2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IT2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IU2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2742,8 +2754,14 @@
       <c r="IR3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IS3" t="n">
+      <c r="IS3" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IT3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3505,7 +3523,13 @@
       <c r="IR4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IS4" t="n">
+      <c r="IS4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,7 +4292,13 @@
       <c r="IR5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IS5" t="n">
+      <c r="IS5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5031,8 +5061,14 @@
       <c r="IR6" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="IS6" t="n">
+      <c r="IS6" s="1" t="n">
         <v>97</v>
+      </c>
+      <c r="IT6" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="IU6" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5794,8 +5830,14 @@
       <c r="IR7" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="IS7" t="n">
+      <c r="IS7" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="IT7" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="IU7" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6557,8 +6599,14 @@
       <c r="IR8" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IS8" t="n">
+      <c r="IS8" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IT8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IU8" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7320,7 +7368,13 @@
       <c r="IR9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IS9" t="n">
+      <c r="IS9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8083,8 +8137,14 @@
       <c r="IR10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IS10" t="n">
+      <c r="IS10" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IT10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IU10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8846,8 +8906,14 @@
       <c r="IR11" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="IS11" t="n">
+      <c r="IS11" s="1" t="n">
         <v>221</v>
+      </c>
+      <c r="IT11" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="IU11" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9609,8 +9675,14 @@
       <c r="IR12" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="IS12" t="n">
+      <c r="IS12" s="1" t="n">
         <v>137</v>
+      </c>
+      <c r="IT12" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="IU12" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10372,8 +10444,14 @@
       <c r="IR13" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="IS13" t="n">
+      <c r="IS13" s="1" t="n">
         <v>358</v>
+      </c>
+      <c r="IT13" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="IU13" t="n">
+        <v>407</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -11135,8 +11213,14 @@
       <c r="IR14" s="1" t="n">
         <v>1.31</v>
       </c>
-      <c r="IS14" t="n">
+      <c r="IS14" s="1" t="n">
         <v>1.61</v>
+      </c>
+      <c r="IT14" s="1" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="IU14" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11898,8 +11982,14 @@
       <c r="IR15" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="IS15" t="n">
+      <c r="IS15" s="1" t="n">
         <v>111</v>
+      </c>
+      <c r="IT15" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="IU15" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12661,8 +12751,14 @@
       <c r="IR16" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="IS16" t="n">
+      <c r="IS16" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IT16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="IU16" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -13424,8 +13520,14 @@
       <c r="IR17" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="IS17" t="n">
+      <c r="IS17" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IT17" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="IU17" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -14187,8 +14289,14 @@
       <c r="IR18" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IS18" t="n">
+      <c r="IS18" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IT18" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="IU18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14950,8 +15058,14 @@
       <c r="IR19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IS19" t="n">
+      <c r="IS19" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IT19" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="IU19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15713,8 +15827,14 @@
       <c r="IR20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IS20" t="n">
+      <c r="IS20" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IT20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IU20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -16476,8 +16596,14 @@
       <c r="IR21" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IS21" t="n">
+      <c r="IS21" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IT21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IU21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -17239,7 +17365,13 @@
       <c r="IR22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IS22" t="n">
+      <c r="IS22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IT22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IU22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -18002,8 +18134,14 @@
       <c r="IR23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IS23" t="n">
+      <c r="IS23" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IT23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IU23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -18765,7 +18903,13 @@
       <c r="IR24" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="IS24" t="n">
+      <c r="IS24" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="IT24" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="IU24" t="n">
         <v>27</v>
       </c>
     </row>
@@ -19528,8 +19672,14 @@
       <c r="IR25" s="1" t="n">
         <v>59.3</v>
       </c>
-      <c r="IS25" t="n">
+      <c r="IS25" s="1" t="n">
         <v>51.9</v>
+      </c>
+      <c r="IT25" s="1" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="IU25" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -20291,8 +20441,14 @@
       <c r="IR26" s="1" t="n">
         <v>24.88</v>
       </c>
-      <c r="IS26" t="n">
+      <c r="IS26" s="1" t="n">
         <v>25.57</v>
+      </c>
+      <c r="IT26" s="1" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="IU26" t="n">
+        <v>27.13</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -21054,8 +21210,14 @@
       <c r="IR27" s="1" t="n">
         <v>14.74</v>
       </c>
-      <c r="IS27" t="n">
+      <c r="IS27" s="1" t="n">
         <v>13.26</v>
+      </c>
+      <c r="IT27" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="IU27" t="n">
+        <v>15.07</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -21817,8 +21979,14 @@
       <c r="IR28" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IS28" t="n">
+      <c r="IS28" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IT28" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="IU28" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -22580,7 +22748,13 @@
       <c r="IR29" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="IS29" t="n">
+      <c r="IS29" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="IT29" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="IU29" t="n">
         <v>44</v>
       </c>
     </row>
@@ -23343,8 +23517,14 @@
       <c r="IR30" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IS30" t="n">
+      <c r="IS30" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IT30" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="IU30" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -24106,8 +24286,14 @@
       <c r="IR31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IS31" t="n">
+      <c r="IS31" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IT31" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IU31" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -24869,8 +25055,14 @@
       <c r="IR32" s="1" t="n">
         <v>1.96</v>
       </c>
-      <c r="IS32" t="n">
+      <c r="IS32" s="1" t="n">
         <v>2.07</v>
+      </c>
+      <c r="IT32" s="1" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="IU32" t="n">
+        <v>2.48</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -25632,8 +25824,14 @@
       <c r="IR33" s="1" t="n">
         <v>3.31</v>
       </c>
-      <c r="IS33" t="n">
+      <c r="IS33" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IT33" s="1" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="IU33" t="n">
+        <v>4.47</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -26395,8 +26593,14 @@
       <c r="IR34" s="1" t="n">
         <v>49.1</v>
       </c>
-      <c r="IS34" t="n">
+      <c r="IS34" s="1" t="n">
         <v>41.1</v>
+      </c>
+      <c r="IT34" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="IU34" t="n">
+        <v>35.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -27158,8 +27362,14 @@
       <c r="IR35" s="1" t="n">
         <v>30.2</v>
       </c>
-      <c r="IS35" t="n">
+      <c r="IS35" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IT35" s="1" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="IU35" t="n">
+        <v>22.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -27921,8 +28131,14 @@
       <c r="IR36" s="1" t="n">
         <v>188.5</v>
       </c>
-      <c r="IS36" t="n">
+      <c r="IS36" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="IT36" s="1" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="IU36" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -28684,8 +28900,14 @@
       <c r="IR37" s="1" t="n">
         <v>87.2</v>
       </c>
-      <c r="IS37" t="n">
+      <c r="IS37" s="1" t="n">
         <v>87.8</v>
+      </c>
+      <c r="IT37" s="1" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="IU37" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -29447,8 +29669,14 @@
       <c r="IR38" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="IS38" t="n">
+      <c r="IS38" s="1" t="n">
         <v>25.41</v>
+      </c>
+      <c r="IT38" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IU38" t="n">
+        <v>23.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -30210,8 +30438,14 @@
       <c r="IR39" s="1" t="n">
         <v>79.5</v>
       </c>
-      <c r="IS39" t="n">
+      <c r="IS39" s="1" t="n">
         <v>84.09999999999999</v>
+      </c>
+      <c r="IT39" s="1" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="IU39" t="n">
+        <v>65.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -30973,8 +31207,14 @@
       <c r="IR40" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IS40" t="n">
+      <c r="IS40" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IT40" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IU40" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -31736,7 +31976,13 @@
       <c r="IR41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IS41" t="n">
+      <c r="IS41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IT41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IU41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -32499,8 +32745,14 @@
       <c r="IR42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IS42" t="n">
+      <c r="IS42" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IT42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IU42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -33262,7 +33514,13 @@
       <c r="IR43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IS43" t="n">
+      <c r="IS43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IT43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IU43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -34025,8 +34283,14 @@
       <c r="IR44" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="IS44" t="n">
+      <c r="IS44" s="1" t="n">
         <v>128</v>
+      </c>
+      <c r="IT44" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="IU44" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -34788,8 +35052,14 @@
       <c r="IR45" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="IS45" t="n">
+      <c r="IS45" s="1" t="n">
         <v>225</v>
+      </c>
+      <c r="IT45" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="IU45" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -35551,8 +35821,14 @@
       <c r="IR46" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="IS46" t="n">
+      <c r="IS46" s="1" t="n">
         <v>288</v>
+      </c>
+      <c r="IT46" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="IU46" t="n">
+        <v>316</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -36314,8 +36590,14 @@
       <c r="IR47" s="1" t="n">
         <v>77.09999999999999</v>
       </c>
-      <c r="IS47" t="n">
+      <c r="IS47" s="1" t="n">
         <v>80.40000000000001</v>
+      </c>
+      <c r="IT47" s="1" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="IU47" t="n">
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -37077,7 +37359,13 @@
       <c r="IR48" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="IS48" t="n">
+      <c r="IS48" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="IT48" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="IU48" t="n">
         <v>44</v>
       </c>
     </row>
@@ -37840,8 +38128,14 @@
       <c r="IR49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IS49" t="n">
+      <c r="IS49" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IT49" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IU49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -38603,8 +38897,14 @@
       <c r="IR50" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IS50" t="n">
+      <c r="IS50" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IT50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IU50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -39366,8 +39666,14 @@
       <c r="IR51" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IS51" t="n">
+      <c r="IS51" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IT51" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="IU51" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -40129,8 +40435,14 @@
       <c r="IR52" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IS52" t="n">
+      <c r="IS52" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IT52" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="IU52" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -40892,8 +41204,14 @@
       <c r="IR53" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IS53" t="n">
+      <c r="IS53" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IT53" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="IU53" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -41655,8 +41973,14 @@
       <c r="IR54" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IS54" t="n">
+      <c r="IS54" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IT54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IU54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -42418,8 +42742,14 @@
       <c r="IR55" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IS55" t="n">
+      <c r="IS55" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IT55" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IU55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -43181,8 +43511,14 @@
       <c r="IR56" s="1" t="n">
         <v>81.2</v>
       </c>
-      <c r="IS56" t="n">
+      <c r="IS56" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="IT56" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="IU56" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -43944,8 +44280,14 @@
       <c r="IR57" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="IS57" t="n">
+      <c r="IS57" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="IT57" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="IU57" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -44707,8 +45049,14 @@
       <c r="IR58" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="IS58" t="n">
+      <c r="IS58" s="1" t="n">
         <v>165</v>
+      </c>
+      <c r="IT58" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="IU58" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -45470,8 +45818,14 @@
       <c r="IR59" s="1" t="n">
         <v>362</v>
       </c>
-      <c r="IS59" t="n">
+      <c r="IS59" s="1" t="n">
         <v>381</v>
+      </c>
+      <c r="IT59" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="IU59" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -46233,8 +46587,14 @@
       <c r="IR60" s="1" t="n">
         <v>1.12</v>
       </c>
-      <c r="IS60" t="n">
+      <c r="IS60" s="1" t="n">
         <v>1.31</v>
+      </c>
+      <c r="IT60" s="1" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="IU60" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -46996,8 +47356,14 @@
       <c r="IR61" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="IS61" t="n">
+      <c r="IS61" s="1" t="n">
         <v>110</v>
+      </c>
+      <c r="IT61" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="IU61" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -47759,8 +48125,14 @@
       <c r="IR62" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IS62" t="n">
+      <c r="IS62" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IT62" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="IU62" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -48522,8 +48894,14 @@
       <c r="IR63" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IS63" t="n">
+      <c r="IS63" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IT63" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="IU63" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -49285,8 +49663,14 @@
       <c r="IR64" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IS64" t="n">
+      <c r="IS64" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IT64" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="IU64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -50048,8 +50432,14 @@
       <c r="IR65" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IS65" t="n">
+      <c r="IS65" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IT65" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="IU65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -50811,8 +51201,14 @@
       <c r="IR66" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IS66" t="n">
+      <c r="IS66" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IT66" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IU66" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -51574,8 +51970,14 @@
       <c r="IR67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IS67" t="n">
+      <c r="IS67" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IT67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IU67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -52337,8 +52739,14 @@
       <c r="IR68" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IS68" t="n">
+      <c r="IS68" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IT68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IU68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -53100,7 +53508,13 @@
       <c r="IR69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IS69" t="n">
+      <c r="IS69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IT69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IU69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -53863,8 +54277,14 @@
       <c r="IR70" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IS70" t="n">
+      <c r="IS70" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IT70" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="IU70" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -54626,8 +55046,14 @@
       <c r="IR71" s="1" t="n">
         <v>42.1</v>
       </c>
-      <c r="IS71" t="n">
+      <c r="IS71" s="1" t="n">
         <v>52.9</v>
+      </c>
+      <c r="IT71" s="1" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="IU71" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -55389,8 +55815,14 @@
       <c r="IR72" s="1" t="n">
         <v>45.25</v>
       </c>
-      <c r="IS72" t="n">
+      <c r="IS72" s="1" t="n">
         <v>42.33</v>
+      </c>
+      <c r="IT72" s="1" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="IU72" t="n">
+        <v>101.33</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -56152,8 +56584,14 @@
       <c r="IR73" s="1" t="n">
         <v>19.05</v>
       </c>
-      <c r="IS73" t="n">
+      <c r="IS73" s="1" t="n">
         <v>22.41</v>
+      </c>
+      <c r="IT73" s="1" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="IU73" t="n">
+        <v>33.78</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -56915,8 +57353,14 @@
       <c r="IR74" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IS74" t="n">
+      <c r="IS74" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IT74" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="IU74" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -57678,8 +58122,14 @@
       <c r="IR75" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IS75" t="n">
+      <c r="IS75" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IT75" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="IU75" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -58441,8 +58891,14 @@
       <c r="IR76" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IS76" t="n">
+      <c r="IS76" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IT76" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="IU76" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -59204,8 +59660,14 @@
       <c r="IR77" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IS77" t="n">
+      <c r="IS77" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IT77" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="IU77" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -59967,8 +60429,14 @@
       <c r="IR78" s="1" t="n">
         <v>2.16</v>
       </c>
-      <c r="IS78" t="n">
+      <c r="IS78" s="1" t="n">
         <v>2.24</v>
+      </c>
+      <c r="IT78" s="1" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="IU78" t="n">
+        <v>3.56</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -60730,8 +61198,14 @@
       <c r="IR79" s="1" t="n">
         <v>5.12</v>
       </c>
-      <c r="IS79" t="n">
+      <c r="IS79" s="1" t="n">
         <v>4.22</v>
+      </c>
+      <c r="IT79" s="1" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="IU79" t="n">
+        <v>10.67</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -61493,8 +61967,14 @@
       <c r="IR80" s="1" t="n">
         <v>43.9</v>
       </c>
-      <c r="IS80" t="n">
+      <c r="IS80" s="1" t="n">
         <v>39.5</v>
+      </c>
+      <c r="IT80" s="1" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="IU80" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -62256,8 +62736,14 @@
       <c r="IR81" s="1" t="n">
         <v>19.5</v>
       </c>
-      <c r="IS81" t="n">
+      <c r="IS81" s="1" t="n">
         <v>23.7</v>
+      </c>
+      <c r="IT81" s="1" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="IU81" t="n">
+        <v>9.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -63019,8 +63505,14 @@
       <c r="IR82" s="1" t="n">
         <v>188.8</v>
       </c>
-      <c r="IS82" t="n">
+      <c r="IS82" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="IT82" s="1" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="IU82" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -63782,8 +64274,14 @@
       <c r="IR83" s="1" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="IS83" t="n">
+      <c r="IS83" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="IT83" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="IU83" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -64545,8 +65043,14 @@
       <c r="IR84" s="1" t="n">
         <v>24.74</v>
       </c>
-      <c r="IS84" t="n">
+      <c r="IS84" s="1" t="n">
         <v>24.91</v>
+      </c>
+      <c r="IT84" s="1" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="IU84" t="n">
+        <v>24.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -65308,8 +65812,14 @@
       <c r="IR85" s="1" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="IS85" t="n">
+      <c r="IS85" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="IT85" s="1" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="IU85" t="n">
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -66071,8 +66581,14 @@
       <c r="IR86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IS86" t="n">
+      <c r="IS86" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IT86" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IU86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -66834,8 +67350,14 @@
       <c r="IR87" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IS87" t="n">
+      <c r="IS87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IT87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IU87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -67597,8 +68119,14 @@
       <c r="IR88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IS88" t="n">
+      <c r="IS88" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IT88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IU88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -68360,8 +68888,14 @@
       <c r="IR89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IS89" t="n">
+      <c r="IS89" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IT89" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IU89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -69123,8 +69657,14 @@
       <c r="IR90" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="IS90" t="n">
+      <c r="IS90" s="1" t="n">
         <v>129</v>
+      </c>
+      <c r="IT90" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="IU90" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -69886,8 +70426,14 @@
       <c r="IR91" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="IS91" t="n">
+      <c r="IS91" s="1" t="n">
         <v>252</v>
+      </c>
+      <c r="IT91" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="IU91" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -70649,8 +71195,14 @@
       <c r="IR92" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="IS92" t="n">
+      <c r="IS92" s="1" t="n">
         <v>295</v>
+      </c>
+      <c r="IT92" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="IU92" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -71412,8 +71964,14 @@
       <c r="IR93" s="1" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="IS93" t="n">
+      <c r="IS93" s="1" t="n">
         <v>77.40000000000001</v>
+      </c>
+      <c r="IT93" s="1" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="IU93" t="n">
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -72175,8 +72733,14 @@
       <c r="IR94" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IS94" t="n">
+      <c r="IS94" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IT94" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="IU94" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -72938,7 +73502,13 @@
       <c r="IR95" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IS95" t="n">
+      <c r="IS95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IT95" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IU95" t="n">
         <v>12</v>
       </c>
     </row>
@@ -73701,7 +74271,13 @@
       <c r="IR96" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IS96" t="n">
+      <c r="IS96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IT96" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="IU96" t="n">
         <v>7</v>
       </c>
     </row>
@@ -74464,8 +75040,14 @@
       <c r="IR97" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IS97" t="n">
+      <c r="IS97" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IT97" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="IU97" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -75227,8 +75809,14 @@
       <c r="IR98" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IS98" t="n">
+      <c r="IS98" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IT98" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="IU98" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -75990,8 +76578,14 @@
       <c r="IR99" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IS99" t="n">
+      <c r="IS99" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="IT99" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="IU99" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -76753,8 +77347,14 @@
       <c r="IR100" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IS100" t="n">
+      <c r="IS100" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IT100" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IU100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -77516,8 +78116,14 @@
       <c r="IR101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IS101" t="n">
+      <c r="IS101" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IT101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IU101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -78279,8 +78885,14 @@
       <c r="IR102" s="1" t="n">
         <v>87.5</v>
       </c>
-      <c r="IS102" t="n">
+      <c r="IS102" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IT102" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="IU102" t="n">
+        <v>33.3</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IU102"/>
+  <dimension ref="A1:IW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1222,8 +1222,14 @@
       <c r="IT1" s="1" t="n">
         <v>10599</v>
       </c>
-      <c r="IU1" t="n">
+      <c r="IU1" s="1" t="n">
         <v>10608</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>10622</v>
+      </c>
+      <c r="IW1" t="n">
+        <v>10633</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1991,7 +1997,13 @@
       <c r="IT2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="IU2" t="n">
+      <c r="IU2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IV2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IW2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2760,8 +2772,14 @@
       <c r="IT3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IU3" t="n">
+      <c r="IU3" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IV3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3529,7 +3547,13 @@
       <c r="IT4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IU4" t="n">
+      <c r="IU4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4298,8 +4322,14 @@
       <c r="IT5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IU5" t="n">
+      <c r="IU5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IV5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5067,8 +5097,14 @@
       <c r="IT6" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="IU6" t="n">
+      <c r="IU6" s="1" t="n">
         <v>102</v>
+      </c>
+      <c r="IV6" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="IW6" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5836,8 +5872,14 @@
       <c r="IT7" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="IU7" t="n">
+      <c r="IU7" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IV7" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="IW7" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6605,8 +6647,14 @@
       <c r="IT8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IU8" t="n">
+      <c r="IU8" s="1" t="n">
         <v>78</v>
+      </c>
+      <c r="IV8" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="IW8" t="n">
+        <v>-36</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7374,8 +7422,14 @@
       <c r="IT9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IU9" t="n">
+      <c r="IU9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -8143,8 +8197,14 @@
       <c r="IT10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IU10" t="n">
+      <c r="IU10" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IV10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IW10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8912,8 +8972,14 @@
       <c r="IT11" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="IU11" t="n">
+      <c r="IU11" s="1" t="n">
         <v>224</v>
+      </c>
+      <c r="IV11" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="IW11" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9681,8 +9747,14 @@
       <c r="IT12" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="IU12" t="n">
+      <c r="IU12" s="1" t="n">
         <v>183</v>
+      </c>
+      <c r="IV12" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="IW12" t="n">
+        <v>177</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10450,8 +10522,14 @@
       <c r="IT13" s="1" t="n">
         <v>361</v>
       </c>
-      <c r="IU13" t="n">
+      <c r="IU13" s="1" t="n">
         <v>407</v>
+      </c>
+      <c r="IV13" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="IW13" t="n">
+        <v>396</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -11219,8 +11297,14 @@
       <c r="IT14" s="1" t="n">
         <v>1.07</v>
       </c>
-      <c r="IU14" t="n">
+      <c r="IU14" s="1" t="n">
         <v>1.22</v>
+      </c>
+      <c r="IV14" s="1" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="IW14" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11988,8 +12072,14 @@
       <c r="IT15" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="IU15" t="n">
+      <c r="IU15" s="1" t="n">
         <v>105</v>
+      </c>
+      <c r="IV15" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="IW15" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12757,8 +12847,14 @@
       <c r="IT16" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IU16" t="n">
+      <c r="IU16" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="IV16" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="IW16" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -13526,8 +13622,14 @@
       <c r="IT17" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IU17" t="n">
+      <c r="IU17" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IV17" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="IW17" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -14295,8 +14397,14 @@
       <c r="IT18" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="IU18" t="n">
+      <c r="IU18" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IV18" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="IW18" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -15064,8 +15172,14 @@
       <c r="IT19" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IU19" t="n">
+      <c r="IU19" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IV19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IW19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15833,8 +15947,14 @@
       <c r="IT20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IU20" t="n">
+      <c r="IU20" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IV20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -16602,8 +16722,14 @@
       <c r="IT21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IU21" t="n">
+      <c r="IU21" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IV21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -17371,8 +17497,14 @@
       <c r="IT22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IU22" t="n">
+      <c r="IU22" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IV22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IW22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -18140,8 +18272,14 @@
       <c r="IT23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IU23" t="n">
+      <c r="IU23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IV23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IW23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -18909,8 +19047,14 @@
       <c r="IT24" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IU24" t="n">
+      <c r="IU24" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IV24" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="IW24" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -19678,8 +19822,14 @@
       <c r="IT25" s="1" t="n">
         <v>52.6</v>
       </c>
-      <c r="IU25" t="n">
+      <c r="IU25" s="1" t="n">
         <v>55.6</v>
+      </c>
+      <c r="IV25" s="1" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="IW25" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -20447,8 +20597,14 @@
       <c r="IT26" s="1" t="n">
         <v>36.1</v>
       </c>
-      <c r="IU26" t="n">
+      <c r="IU26" s="1" t="n">
         <v>27.13</v>
+      </c>
+      <c r="IV26" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="IW26" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -21216,8 +21372,14 @@
       <c r="IT27" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IU27" t="n">
+      <c r="IU27" s="1" t="n">
         <v>15.07</v>
+      </c>
+      <c r="IV27" s="1" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="IW27" t="n">
+        <v>28.29</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -21985,8 +22147,14 @@
       <c r="IT28" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IU28" t="n">
+      <c r="IU28" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IV28" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IW28" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -22754,8 +22922,14 @@
       <c r="IT29" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="IU29" t="n">
+      <c r="IU29" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IV29" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="IW29" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -23523,8 +23697,14 @@
       <c r="IT30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IU30" t="n">
+      <c r="IU30" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IV30" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="IW30" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -24292,8 +24472,14 @@
       <c r="IT31" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IU31" t="n">
+      <c r="IU31" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="IV31" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="IW31" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -25061,8 +25247,14 @@
       <c r="IT32" s="1" t="n">
         <v>2.47</v>
       </c>
-      <c r="IU32" t="n">
+      <c r="IU32" s="1" t="n">
         <v>2.48</v>
+      </c>
+      <c r="IV32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW32" t="n">
+        <v>3.29</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -25830,8 +26022,14 @@
       <c r="IT33" s="1" t="n">
         <v>4.7</v>
       </c>
-      <c r="IU33" t="n">
+      <c r="IU33" s="1" t="n">
         <v>4.47</v>
+      </c>
+      <c r="IV33" s="1" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="IW33" t="n">
+        <v>7.67</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -26599,8 +26797,14 @@
       <c r="IT34" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IU34" t="n">
+      <c r="IU34" s="1" t="n">
         <v>35.8</v>
+      </c>
+      <c r="IV34" s="1" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="IW34" t="n">
+        <v>26.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -27368,8 +27572,14 @@
       <c r="IT35" s="1" t="n">
         <v>21.3</v>
       </c>
-      <c r="IU35" t="n">
+      <c r="IU35" s="1" t="n">
         <v>22.4</v>
+      </c>
+      <c r="IV35" s="1" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="IW35" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -28137,8 +28347,14 @@
       <c r="IT36" s="1" t="n">
         <v>187.6</v>
       </c>
-      <c r="IU36" t="n">
+      <c r="IU36" s="1" t="n">
         <v>187.8</v>
+      </c>
+      <c r="IV36" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="IW36" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -28906,8 +29122,14 @@
       <c r="IT37" s="1" t="n">
         <v>87.5</v>
       </c>
-      <c r="IU37" t="n">
+      <c r="IU37" s="1" t="n">
         <v>85.7</v>
+      </c>
+      <c r="IV37" s="1" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="IW37" t="n">
+        <v>88.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -29675,8 +29897,14 @@
       <c r="IT38" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="IU38" t="n">
+      <c r="IU38" s="1" t="n">
         <v>23.58</v>
+      </c>
+      <c r="IV38" s="1" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="IW38" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -30444,8 +30672,14 @@
       <c r="IT39" s="1" t="n">
         <v>80.5</v>
       </c>
-      <c r="IU39" t="n">
+      <c r="IU39" s="1" t="n">
         <v>65.3</v>
+      </c>
+      <c r="IV39" s="1" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="IW39" t="n">
+        <v>83.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -31213,8 +31447,14 @@
       <c r="IT40" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IU40" t="n">
+      <c r="IU40" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IV40" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IW40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -31982,8 +32222,14 @@
       <c r="IT41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IU41" t="n">
+      <c r="IU41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IV41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IW41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -32751,8 +32997,14 @@
       <c r="IT42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IU42" t="n">
+      <c r="IU42" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IV42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -33520,7 +33772,13 @@
       <c r="IT43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IU43" t="n">
+      <c r="IU43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -34289,8 +34547,14 @@
       <c r="IT44" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="IU44" t="n">
+      <c r="IU44" s="1" t="n">
         <v>129</v>
+      </c>
+      <c r="IV44" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="IW44" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -35058,8 +35322,14 @@
       <c r="IT45" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="IU45" t="n">
+      <c r="IU45" s="1" t="n">
         <v>268</v>
+      </c>
+      <c r="IV45" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="IW45" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -35827,8 +36097,14 @@
       <c r="IT46" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="IU46" t="n">
+      <c r="IU46" s="1" t="n">
         <v>316</v>
+      </c>
+      <c r="IV46" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="IW46" t="n">
+        <v>261</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -36596,8 +36872,14 @@
       <c r="IT47" s="1" t="n">
         <v>72.3</v>
       </c>
-      <c r="IU47" t="n">
+      <c r="IU47" s="1" t="n">
         <v>77.59999999999999</v>
+      </c>
+      <c r="IV47" s="1" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="IW47" t="n">
+        <v>65.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -37365,8 +37647,14 @@
       <c r="IT48" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="IU48" t="n">
+      <c r="IU48" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IV48" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="IW48" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -38134,8 +38422,14 @@
       <c r="IT49" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IU49" t="n">
+      <c r="IU49" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IV49" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -38903,8 +39197,14 @@
       <c r="IT50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IU50" t="n">
+      <c r="IU50" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IV50" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW50" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -39672,8 +39972,14 @@
       <c r="IT51" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IU51" t="n">
+      <c r="IU51" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IV51" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IW51" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -40441,8 +40747,14 @@
       <c r="IT52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IU52" t="n">
+      <c r="IU52" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IV52" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="IW52" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -41210,8 +41522,14 @@
       <c r="IT53" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IU53" t="n">
+      <c r="IU53" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IV53" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="IW53" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -41979,8 +42297,14 @@
       <c r="IT54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IU54" t="n">
+      <c r="IU54" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IV54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -42748,8 +43072,14 @@
       <c r="IT55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IU55" t="n">
+      <c r="IU55" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IV55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -43517,8 +43847,14 @@
       <c r="IT56" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IU56" t="n">
+      <c r="IU56" s="1" t="n">
         <v>73.3</v>
+      </c>
+      <c r="IV56" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="IW56" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -44286,8 +44622,14 @@
       <c r="IT57" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="IU57" t="n">
+      <c r="IU57" s="1" t="n">
         <v>187</v>
+      </c>
+      <c r="IV57" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="IW57" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -45055,8 +45397,14 @@
       <c r="IT58" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="IU58" t="n">
+      <c r="IU58" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="IV58" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="IW58" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -45824,8 +46172,14 @@
       <c r="IT59" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="IU59" t="n">
+      <c r="IU59" s="1" t="n">
         <v>304</v>
+      </c>
+      <c r="IV59" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="IW59" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -46593,8 +46947,14 @@
       <c r="IT60" s="1" t="n">
         <v>1.21</v>
       </c>
-      <c r="IU60" t="n">
+      <c r="IU60" s="1" t="n">
         <v>1.6</v>
+      </c>
+      <c r="IV60" s="1" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="IW60" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -47362,8 +47722,14 @@
       <c r="IT61" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="IU61" t="n">
+      <c r="IU61" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="IV61" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="IW61" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -48131,8 +48497,14 @@
       <c r="IT62" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IU62" t="n">
+      <c r="IU62" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IV62" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="IW62" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -48900,8 +49272,14 @@
       <c r="IT63" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IU63" t="n">
+      <c r="IU63" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IV63" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="IW63" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -49669,8 +50047,14 @@
       <c r="IT64" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IU64" t="n">
+      <c r="IU64" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IV64" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IW64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -50438,8 +50822,14 @@
       <c r="IT65" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="IU65" t="n">
+      <c r="IU65" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IV65" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="IW65" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -51207,8 +51597,14 @@
       <c r="IT66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IU66" t="n">
+      <c r="IU66" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IV66" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IW66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -51976,8 +52372,14 @@
       <c r="IT67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IU67" t="n">
+      <c r="IU67" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IV67" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -52745,8 +53147,14 @@
       <c r="IT68" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IU68" t="n">
+      <c r="IU68" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IV68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IW68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -53514,8 +53922,14 @@
       <c r="IT69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IU69" t="n">
+      <c r="IU69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IV69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -54283,8 +54697,14 @@
       <c r="IT70" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IU70" t="n">
+      <c r="IU70" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IV70" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="IW70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -55052,8 +55472,14 @@
       <c r="IT71" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="IU71" t="n">
+      <c r="IU71" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IV71" s="1" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="IW71" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -55821,8 +56247,14 @@
       <c r="IT72" s="1" t="n">
         <v>36.3</v>
       </c>
-      <c r="IU72" t="n">
+      <c r="IU72" s="1" t="n">
         <v>101.33</v>
+      </c>
+      <c r="IV72" s="1" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="IW72" t="n">
+        <v>29.08</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -56590,8 +57022,14 @@
       <c r="IT73" s="1" t="n">
         <v>22.69</v>
       </c>
-      <c r="IU73" t="n">
+      <c r="IU73" s="1" t="n">
         <v>33.78</v>
+      </c>
+      <c r="IV73" s="1" t="n">
+        <v>17.63</v>
+      </c>
+      <c r="IW73" t="n">
+        <v>17.45</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -57359,8 +57797,14 @@
       <c r="IT74" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IU74" t="n">
+      <c r="IU74" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IV74" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="IW74" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -58128,8 +58572,14 @@
       <c r="IT75" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IU75" t="n">
+      <c r="IU75" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IV75" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="IW75" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -58897,8 +59347,14 @@
       <c r="IT76" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IU76" t="n">
+      <c r="IU76" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IV76" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="IW76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -59666,8 +60122,14 @@
       <c r="IT77" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IU77" t="n">
+      <c r="IU77" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="IV77" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IW77" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -60435,8 +60897,14 @@
       <c r="IT78" s="1" t="n">
         <v>3.38</v>
       </c>
-      <c r="IU78" t="n">
+      <c r="IU78" s="1" t="n">
         <v>3.56</v>
+      </c>
+      <c r="IV78" s="1" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="IW78" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -61204,8 +61672,14 @@
       <c r="IT79" s="1" t="n">
         <v>5.4</v>
       </c>
-      <c r="IU79" t="n">
+      <c r="IU79" s="1" t="n">
         <v>10.67</v>
+      </c>
+      <c r="IV79" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="IW79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -61973,8 +62447,14 @@
       <c r="IT80" s="1" t="n">
         <v>25.9</v>
       </c>
-      <c r="IU80" t="n">
+      <c r="IU80" s="1" t="n">
         <v>21.9</v>
+      </c>
+      <c r="IV80" s="1" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="IW80" t="n">
+        <v>28.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -62742,8 +63222,14 @@
       <c r="IT81" s="1" t="n">
         <v>18.5</v>
       </c>
-      <c r="IU81" t="n">
+      <c r="IU81" s="1" t="n">
         <v>9.4</v>
+      </c>
+      <c r="IV81" s="1" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="IW81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -63511,8 +63997,14 @@
       <c r="IT82" s="1" t="n">
         <v>179.6</v>
       </c>
-      <c r="IU82" t="n">
+      <c r="IU82" s="1" t="n">
         <v>188.5</v>
+      </c>
+      <c r="IV82" s="1" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="IW82" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -64280,8 +64772,14 @@
       <c r="IT83" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="IU83" t="n">
+      <c r="IU83" s="1" t="n">
         <v>85.3</v>
+      </c>
+      <c r="IV83" s="1" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="IW83" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -65049,8 +65547,14 @@
       <c r="IT84" s="1" t="n">
         <v>27.8</v>
       </c>
-      <c r="IU84" t="n">
+      <c r="IU84" s="1" t="n">
         <v>24.58</v>
+      </c>
+      <c r="IV84" s="1" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IW84" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -65818,8 +66322,14 @@
       <c r="IT85" s="1" t="n">
         <v>147.8</v>
       </c>
-      <c r="IU85" t="n">
+      <c r="IU85" s="1" t="n">
         <v>77.90000000000001</v>
+      </c>
+      <c r="IV85" s="1" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="IW85" t="n">
+        <v>104.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -66587,8 +67097,14 @@
       <c r="IT86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IU86" t="n">
+      <c r="IU86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IV86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IW86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -67356,8 +67872,14 @@
       <c r="IT87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IU87" t="n">
+      <c r="IU87" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IV87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -68125,8 +68647,14 @@
       <c r="IT88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IU88" t="n">
+      <c r="IU88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IV88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -68894,8 +69422,14 @@
       <c r="IT89" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IU89" t="n">
+      <c r="IU89" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IV89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -69663,8 +70197,14 @@
       <c r="IT90" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="IU90" t="n">
+      <c r="IU90" s="1" t="n">
         <v>128</v>
+      </c>
+      <c r="IV90" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="IW90" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -70432,8 +70972,14 @@
       <c r="IT91" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="IU91" t="n">
+      <c r="IU91" s="1" t="n">
         <v>175</v>
+      </c>
+      <c r="IV91" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="IW91" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -71201,8 +71747,14 @@
       <c r="IT92" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="IU92" t="n">
+      <c r="IU92" s="1" t="n">
         <v>202</v>
+      </c>
+      <c r="IV92" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="IW92" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -71970,8 +72522,14 @@
       <c r="IT93" s="1" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="IU93" t="n">
+      <c r="IU93" s="1" t="n">
         <v>66.40000000000001</v>
+      </c>
+      <c r="IV93" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="IW93" t="n">
+        <v>64.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -72739,8 +73297,14 @@
       <c r="IT94" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IU94" t="n">
+      <c r="IU94" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IV94" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="IW94" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -73508,7 +74072,13 @@
       <c r="IT95" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IU95" t="n">
+      <c r="IU95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IV95" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IW95" t="n">
         <v>12</v>
       </c>
     </row>
@@ -74277,8 +74847,14 @@
       <c r="IT96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IU96" t="n">
+      <c r="IU96" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IV96" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -75046,8 +75622,14 @@
       <c r="IT97" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IU97" t="n">
+      <c r="IU97" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IV97" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="IW97" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -75815,8 +76397,14 @@
       <c r="IT98" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IU98" t="n">
+      <c r="IU98" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IV98" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="IW98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -76584,8 +77172,14 @@
       <c r="IT99" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IU99" t="n">
+      <c r="IU99" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IV99" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="IW99" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -77353,8 +77947,14 @@
       <c r="IT100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IU100" t="n">
+      <c r="IU100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IV100" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -78122,8 +78722,14 @@
       <c r="IT101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IU101" t="n">
+      <c r="IU101" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IV101" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -78891,8 +79497,14 @@
       <c r="IT102" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IU102" t="n">
+      <c r="IU102" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IV102" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="IW102" t="n">
+        <v>58.3</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IW102"/>
+  <dimension ref="A1:JC102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1228,8 +1228,26 @@
       <c r="IV1" s="1" t="n">
         <v>10622</v>
       </c>
-      <c r="IW1" t="n">
+      <c r="IW1" s="1" t="n">
         <v>10633</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>10637</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>10648</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>10654</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>10661</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>10678</v>
+      </c>
+      <c r="JC1" t="n">
+        <v>10684</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2003,7 +2021,25 @@
       <c r="IV2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="IW2" t="n">
+      <c r="IW2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IX2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IY2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IZ2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JA2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JB2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JC2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2778,8 +2814,26 @@
       <c r="IV3" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IW3" t="n">
+      <c r="IW3" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IX3" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY3" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IZ3" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="JA3" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="JB3" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3553,8 +3607,26 @@
       <c r="IV4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IW4" t="n">
+      <c r="IW4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IX4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JB4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4328,7 +4400,25 @@
       <c r="IV5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IW5" t="n">
+      <c r="IW5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,8 +5193,26 @@
       <c r="IV6" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IW6" t="n">
+      <c r="IW6" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IX6" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="IY6" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="IZ6" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="JA6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JB6" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="JC6" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5878,8 +5986,26 @@
       <c r="IV7" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="IW7" t="n">
+      <c r="IW7" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="IX7" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IY7" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="IZ7" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="JA7" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="JB7" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="JC7" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6653,8 +6779,26 @@
       <c r="IV8" s="1" t="n">
         <v>-36</v>
       </c>
-      <c r="IW8" t="n">
+      <c r="IW8" s="1" t="n">
         <v>-36</v>
+      </c>
+      <c r="IX8" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="IY8" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="IZ8" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="JA8" s="1" t="n">
+        <v>-31</v>
+      </c>
+      <c r="JB8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JC8" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7428,8 +7572,26 @@
       <c r="IV9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IW9" t="n">
+      <c r="IW9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IX9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -8203,8 +8365,26 @@
       <c r="IV10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IW10" t="n">
+      <c r="IW10" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IX10" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IZ10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JA10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JB10" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="JC10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8978,8 +9158,26 @@
       <c r="IV11" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="IW11" t="n">
+      <c r="IW11" s="1" t="n">
         <v>219</v>
+      </c>
+      <c r="IX11" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="IY11" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="IZ11" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="JA11" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="JB11" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="JC11" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9753,8 +9951,26 @@
       <c r="IV12" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="IW12" t="n">
+      <c r="IW12" s="1" t="n">
         <v>177</v>
+      </c>
+      <c r="IX12" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="IY12" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="IZ12" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="JA12" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="JB12" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="JC12" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10528,8 +10744,26 @@
       <c r="IV13" s="1" t="n">
         <v>376</v>
       </c>
-      <c r="IW13" t="n">
+      <c r="IW13" s="1" t="n">
         <v>396</v>
+      </c>
+      <c r="IX13" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="IY13" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="IZ13" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="JA13" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="JB13" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="JC13" t="n">
+        <v>408</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -11303,8 +11537,26 @@
       <c r="IV14" s="1" t="n">
         <v>1.28</v>
       </c>
-      <c r="IW14" t="n">
+      <c r="IW14" s="1" t="n">
         <v>1.24</v>
+      </c>
+      <c r="IX14" s="1" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="IY14" s="1" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="IZ14" s="1" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="JA14" s="1" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="JB14" s="1" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="JC14" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -12078,8 +12330,26 @@
       <c r="IV15" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="IW15" t="n">
+      <c r="IW15" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="IX15" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="IY15" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="IZ15" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="JA15" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="JB15" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="JC15" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12853,8 +13123,26 @@
       <c r="IV16" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="IW16" t="n">
+      <c r="IW16" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IX16" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IY16" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="IZ16" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="JA16" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JB16" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="JC16" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -13628,8 +13916,26 @@
       <c r="IV17" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IW17" t="n">
+      <c r="IW17" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="IX17" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="IY17" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="IZ17" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="JA17" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="JB17" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="JC17" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -14403,8 +14709,26 @@
       <c r="IV18" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="IW18" t="n">
+      <c r="IW18" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IX18" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IY18" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="IZ18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="JA18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JB18" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JC18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -15178,8 +15502,26 @@
       <c r="IV19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IW19" t="n">
+      <c r="IW19" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IX19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="IY19" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="IZ19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JA19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JB19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="JC19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15953,8 +16295,26 @@
       <c r="IV20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IW20" t="n">
+      <c r="IW20" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IX20" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="IY20" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="IZ20" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JA20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JB20" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="JC20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -16728,8 +17088,26 @@
       <c r="IV21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IW21" t="n">
+      <c r="IW21" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IX21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IY21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JA21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JB21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JC21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -17503,8 +17881,26 @@
       <c r="IV22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IW22" t="n">
+      <c r="IW22" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IX22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IY22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IZ22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JA22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JB22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JC22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -18278,8 +18674,26 @@
       <c r="IV23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IW23" t="n">
+      <c r="IW23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IX23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IY23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IZ23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JB23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -19053,8 +19467,26 @@
       <c r="IV24" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IW24" t="n">
+      <c r="IW24" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IX24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="IY24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="IZ24" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="JA24" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="JB24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="JC24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -19828,8 +20260,26 @@
       <c r="IV25" s="1" t="n">
         <v>30.8</v>
       </c>
-      <c r="IW25" t="n">
+      <c r="IW25" s="1" t="n">
         <v>42.9</v>
+      </c>
+      <c r="IX25" s="1" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="IY25" s="1" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="IZ25" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="JA25" s="1" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="JB25" s="1" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="JC25" t="n">
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -20603,8 +21053,26 @@
       <c r="IV26" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="IW26" t="n">
+      <c r="IW26" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="IX26" s="1" t="n">
+        <v>28.14</v>
+      </c>
+      <c r="IY26" s="1" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="IZ26" s="1" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="JA26" s="1" t="n">
+        <v>50.14</v>
+      </c>
+      <c r="JB26" s="1" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="JC26" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -21378,8 +21846,26 @@
       <c r="IV27" s="1" t="n">
         <v>28.92</v>
       </c>
-      <c r="IW27" t="n">
+      <c r="IW27" s="1" t="n">
         <v>28.29</v>
+      </c>
+      <c r="IX27" s="1" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="IY27" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="IZ27" s="1" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="JA27" s="1" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="JB27" s="1" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="JC27" t="n">
+        <v>15.69</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -22153,8 +22639,26 @@
       <c r="IV28" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IW28" t="n">
+      <c r="IW28" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IX28" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="IY28" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IZ28" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JA28" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="JB28" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JC28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -22928,8 +23432,26 @@
       <c r="IV29" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IW29" t="n">
+      <c r="IW29" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="IX29" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="IY29" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="IZ29" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="JA29" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="JB29" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JC29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -23703,8 +24225,26 @@
       <c r="IV30" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IW30" t="n">
+      <c r="IW30" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IX30" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="IY30" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="IZ30" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JA30" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="JB30" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="JC30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -24478,8 +25018,26 @@
       <c r="IV31" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="IW31" t="n">
+      <c r="IW31" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IX31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="IY31" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="IZ31" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JA31" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="JB31" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JC31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -25253,8 +25811,26 @@
       <c r="IV32" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IW32" t="n">
+      <c r="IW32" s="1" t="n">
         <v>3.29</v>
+      </c>
+      <c r="IX32" s="1" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="IY32" s="1" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="IZ32" s="1" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="JA32" s="1" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="JB32" s="1" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="JC32" t="n">
+        <v>1.73</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -26028,8 +26604,26 @@
       <c r="IV33" s="1" t="n">
         <v>16.25</v>
       </c>
-      <c r="IW33" t="n">
+      <c r="IW33" s="1" t="n">
         <v>7.67</v>
+      </c>
+      <c r="IX33" s="1" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="IY33" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="IZ33" s="1" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="JA33" s="1" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="JB33" s="1" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="JC33" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -26803,8 +27397,26 @@
       <c r="IV34" s="1" t="n">
         <v>16.9</v>
       </c>
-      <c r="IW34" t="n">
+      <c r="IW34" s="1" t="n">
         <v>26.1</v>
+      </c>
+      <c r="IX34" s="1" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="IY34" s="1" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="IZ34" s="1" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="JA34" s="1" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="JB34" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JC34" t="n">
+        <v>57.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -27578,8 +28190,26 @@
       <c r="IV35" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="IW35" t="n">
+      <c r="IW35" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IX35" s="1" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="IY35" s="1" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="IZ35" s="1" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="JA35" s="1" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="JB35" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="JC35" t="n">
+        <v>37.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -28353,8 +28983,26 @@
       <c r="IV36" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="IW36" t="n">
+      <c r="IW36" s="1" t="n">
         <v>188.6</v>
+      </c>
+      <c r="IX36" s="1" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="IY36" s="1" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="IZ36" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="JA36" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JB36" s="1" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="JC36" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -29128,8 +29776,26 @@
       <c r="IV37" s="1" t="n">
         <v>88.40000000000001</v>
       </c>
-      <c r="IW37" t="n">
+      <c r="IW37" s="1" t="n">
         <v>88.2</v>
+      </c>
+      <c r="IX37" s="1" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="IY37" s="1" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="IZ37" s="1" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="JA37" s="1" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="JB37" s="1" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="JC37" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -29903,8 +30569,26 @@
       <c r="IV38" s="1" t="n">
         <v>24.33</v>
       </c>
-      <c r="IW38" t="n">
+      <c r="IW38" s="1" t="n">
         <v>25.24</v>
+      </c>
+      <c r="IX38" s="1" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IY38" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IZ38" s="1" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="JA38" s="1" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="JB38" s="1" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JC38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -30678,8 +31362,26 @@
       <c r="IV39" s="1" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="IW39" t="n">
+      <c r="IW39" s="1" t="n">
         <v>83.90000000000001</v>
+      </c>
+      <c r="IX39" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="IY39" s="1" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="IZ39" s="1" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="JA39" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="JB39" s="1" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="JC39" t="n">
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -31453,8 +32155,26 @@
       <c r="IV40" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IW40" t="n">
+      <c r="IW40" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IX40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IY40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IZ40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JA40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JB40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JC40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -32228,8 +32948,26 @@
       <c r="IV41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IW41" t="n">
+      <c r="IW41" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IX41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JB41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JC41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -33003,7 +33741,25 @@
       <c r="IV42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IW42" t="n">
+      <c r="IW42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IX42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IY42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IZ42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JA42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JB42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JC42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -33778,8 +34534,26 @@
       <c r="IV43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IW43" t="n">
+      <c r="IW43" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IX43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IY43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JB43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JC43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -34553,8 +35327,26 @@
       <c r="IV44" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="IW44" t="n">
+      <c r="IW44" s="1" t="n">
         <v>175</v>
+      </c>
+      <c r="IX44" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="IY44" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="IZ44" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="JA44" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="JB44" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="JC44" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -35328,8 +36120,26 @@
       <c r="IV45" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="IW45" t="n">
+      <c r="IW45" s="1" t="n">
         <v>213</v>
+      </c>
+      <c r="IX45" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="IY45" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="IZ45" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="JA45" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="JB45" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="JC45" t="n">
+        <v>282</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -36103,8 +36913,26 @@
       <c r="IV46" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="IW46" t="n">
+      <c r="IW46" s="1" t="n">
         <v>261</v>
+      </c>
+      <c r="IX46" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="IY46" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="IZ46" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="JA46" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="JB46" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="JC46" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -36878,8 +37706,26 @@
       <c r="IV47" s="1" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="IW47" t="n">
+      <c r="IW47" s="1" t="n">
         <v>65.90000000000001</v>
+      </c>
+      <c r="IX47" s="1" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="IY47" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="IZ47" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="JA47" s="1" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="JB47" s="1" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="JC47" t="n">
+        <v>82.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -37653,8 +38499,26 @@
       <c r="IV48" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IW48" t="n">
+      <c r="IW48" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="IX48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="IY48" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="IZ48" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="JA48" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="JB48" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JC48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -38428,8 +39292,26 @@
       <c r="IV49" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IW49" t="n">
+      <c r="IW49" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IX49" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IY49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IZ49" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JA49" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="JB49" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JC49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -39203,8 +40085,26 @@
       <c r="IV50" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IW50" t="n">
+      <c r="IW50" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IX50" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IY50" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IZ50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JA50" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JB50" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="JC50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -39978,8 +40878,26 @@
       <c r="IV51" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IW51" t="n">
+      <c r="IW51" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IX51" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="IY51" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IZ51" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JA51" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="JB51" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JC51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -40753,8 +41671,26 @@
       <c r="IV52" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IW52" t="n">
+      <c r="IW52" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IX52" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="IY52" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="IZ52" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JA52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="JB52" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="JC52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -41528,8 +42464,26 @@
       <c r="IV53" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IW53" t="n">
+      <c r="IW53" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="IX53" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="IY53" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="IZ53" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="JA53" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="JB53" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JC53" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -42303,8 +43257,26 @@
       <c r="IV54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IW54" t="n">
+      <c r="IW54" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IX54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY54" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IZ54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JB54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -43078,8 +44050,26 @@
       <c r="IV55" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IW55" t="n">
+      <c r="IW55" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IX55" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IY55" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ55" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JA55" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JB55" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JC55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -43853,8 +44843,26 @@
       <c r="IV56" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="IW56" t="n">
+      <c r="IW56" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IX56" s="1" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="IY56" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="IZ56" s="1" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JA56" s="1" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JB56" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JC56" t="n">
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -44628,8 +45636,26 @@
       <c r="IV57" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="IW57" t="n">
+      <c r="IW57" s="1" t="n">
         <v>228</v>
+      </c>
+      <c r="IX57" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="IY57" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="IZ57" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="JA57" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="JB57" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="JC57" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -45403,8 +46429,26 @@
       <c r="IV58" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="IW58" t="n">
+      <c r="IW58" s="1" t="n">
         <v>121</v>
+      </c>
+      <c r="IX58" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="IY58" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="IZ58" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="JA58" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="JB58" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="JC58" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -46178,8 +47222,26 @@
       <c r="IV59" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="IW59" t="n">
+      <c r="IW59" s="1" t="n">
         <v>349</v>
+      </c>
+      <c r="IX59" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="IY59" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="IZ59" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="JA59" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="JB59" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="JC59" t="n">
+        <v>398</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -46953,8 +48015,26 @@
       <c r="IV60" s="1" t="n">
         <v>2.05</v>
       </c>
-      <c r="IW60" t="n">
+      <c r="IW60" s="1" t="n">
         <v>1.88</v>
+      </c>
+      <c r="IX60" s="1" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="IY60" s="1" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="IZ60" s="1" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="JA60" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="JB60" s="1" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="JC60" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -47728,8 +48808,26 @@
       <c r="IV61" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="IW61" t="n">
+      <c r="IW61" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="IX61" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="IY61" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="IZ61" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="JA61" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="JB61" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="JC61" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -48503,8 +49601,26 @@
       <c r="IV62" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="IW62" t="n">
+      <c r="IW62" s="1" t="n">
         <v>89</v>
+      </c>
+      <c r="IX62" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="IY62" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="IZ62" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="JA62" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JB62" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="JC62" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -49278,8 +50394,26 @@
       <c r="IV63" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IW63" t="n">
+      <c r="IW63" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IX63" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="IY63" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="IZ63" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="JA63" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="JB63" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="JC63" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -50053,8 +51187,26 @@
       <c r="IV64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IW64" t="n">
+      <c r="IW64" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IX64" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="IY64" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="IZ64" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JA64" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JB64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="JC64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -50828,8 +51980,26 @@
       <c r="IV65" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="IW65" t="n">
+      <c r="IW65" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IX65" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IY65" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="IZ65" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="JA65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JB65" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JC65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -51603,8 +52773,26 @@
       <c r="IV66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IW66" t="n">
+      <c r="IW66" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IX66" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY66" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="IZ66" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JA66" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JB66" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JC66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -52378,8 +53566,26 @@
       <c r="IV67" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IW67" t="n">
+      <c r="IW67" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IX67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IY67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ67" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JA67" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JB67" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JC67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -53153,8 +54359,26 @@
       <c r="IV68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IW68" t="n">
+      <c r="IW68" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IX68" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IZ68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JA68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JB68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JC68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -53928,8 +55152,26 @@
       <c r="IV69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IW69" t="n">
+      <c r="IW69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IX69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IY69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IZ69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JB69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -54703,7 +55945,25 @@
       <c r="IV70" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IW70" t="n">
+      <c r="IW70" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IX70" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="IY70" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IZ70" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="JA70" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="JB70" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="JC70" t="n">
         <v>20</v>
       </c>
     </row>
@@ -55478,8 +56738,26 @@
       <c r="IV71" s="1" t="n">
         <v>52.6</v>
       </c>
-      <c r="IW71" t="n">
+      <c r="IW71" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IX71" s="1" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="IY71" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="IZ71" s="1" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JA71" s="1" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="JB71" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JC71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -56253,8 +57531,26 @@
       <c r="IV72" s="1" t="n">
         <v>33.5</v>
       </c>
-      <c r="IW72" t="n">
+      <c r="IW72" s="1" t="n">
         <v>29.08</v>
+      </c>
+      <c r="IX72" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="IY72" s="1" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="IZ72" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="JA72" s="1" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="JB72" s="1" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="JC72" t="n">
+        <v>39.8</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -57028,8 +58324,26 @@
       <c r="IV73" s="1" t="n">
         <v>17.63</v>
       </c>
-      <c r="IW73" t="n">
+      <c r="IW73" s="1" t="n">
         <v>17.45</v>
+      </c>
+      <c r="IX73" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="IY73" s="1" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="IZ73" s="1" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="JA73" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JB73" s="1" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="JC73" t="n">
+        <v>19.9</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -57803,8 +59117,26 @@
       <c r="IV74" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IW74" t="n">
+      <c r="IW74" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IX74" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IY74" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="IZ74" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JA74" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JB74" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="JC74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -58578,8 +59910,26 @@
       <c r="IV75" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="IW75" t="n">
+      <c r="IW75" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="IX75" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="IY75" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="IZ75" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JA75" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="JB75" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="JC75" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -59353,8 +60703,26 @@
       <c r="IV76" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IW76" t="n">
+      <c r="IW76" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IX76" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="IY76" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IZ76" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="JA76" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JB76" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JC76" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -60128,8 +61496,26 @@
       <c r="IV77" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IW77" t="n">
+      <c r="IW77" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IX77" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="IY77" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="IZ77" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="JA77" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="JB77" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="JC77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -60903,8 +62289,26 @@
       <c r="IV78" s="1" t="n">
         <v>1.84</v>
       </c>
-      <c r="IW78" t="n">
+      <c r="IW78" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IX78" s="1" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="IY78" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="IZ78" s="1" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="JA78" s="1" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="JB78" s="1" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="JC78" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -61678,8 +63082,26 @@
       <c r="IV79" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="IW79" t="n">
+      <c r="IW79" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IX79" s="1" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="IY79" s="1" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="IZ79" s="1" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="JA79" s="1" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="JB79" s="1" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="JC79" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -62453,8 +63875,26 @@
       <c r="IV80" s="1" t="n">
         <v>54.3</v>
       </c>
-      <c r="IW80" t="n">
+      <c r="IW80" s="1" t="n">
         <v>28.3</v>
+      </c>
+      <c r="IX80" s="1" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="IY80" s="1" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="IZ80" s="1" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="JA80" s="1" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="JB80" s="1" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="JC80" t="n">
+        <v>34.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -63228,8 +64668,26 @@
       <c r="IV81" s="1" t="n">
         <v>28.6</v>
       </c>
-      <c r="IW81" t="n">
+      <c r="IW81" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IX81" s="1" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="IY81" s="1" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="IZ81" s="1" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="JA81" s="1" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="JB81" s="1" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="JC81" t="n">
+        <v>19.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -64003,8 +65461,26 @@
       <c r="IV82" s="1" t="n">
         <v>187.9</v>
       </c>
-      <c r="IW82" t="n">
+      <c r="IW82" s="1" t="n">
         <v>188.6</v>
+      </c>
+      <c r="IX82" s="1" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="IY82" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="IZ82" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JA82" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JB82" s="1" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JC82" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -64778,8 +66254,26 @@
       <c r="IV83" s="1" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="IW83" t="n">
+      <c r="IW83" s="1" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="IX83" s="1" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="IY83" s="1" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="IZ83" s="1" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="JA83" s="1" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="JB83" s="1" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="JC83" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -65553,8 +67047,26 @@
       <c r="IV84" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="IW84" t="n">
+      <c r="IW84" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IX84" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IY84" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="IZ84" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JA84" s="1" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="JB84" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="JC84" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -66328,8 +67840,26 @@
       <c r="IV85" s="1" t="n">
         <v>83.5</v>
       </c>
-      <c r="IW85" t="n">
+      <c r="IW85" s="1" t="n">
         <v>104.3</v>
+      </c>
+      <c r="IX85" s="1" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="IY85" s="1" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="IZ85" s="1" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="JA85" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="JB85" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="JC85" t="n">
+        <v>104.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -67103,8 +68633,26 @@
       <c r="IV86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IW86" t="n">
+      <c r="IW86" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IX86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IY86" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IZ86" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JA86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JB86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JC86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -67878,8 +69426,26 @@
       <c r="IV87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IW87" t="n">
+      <c r="IW87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IX87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IY87" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IZ87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA87" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JB87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -68653,8 +70219,26 @@
       <c r="IV88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IW88" t="n">
+      <c r="IW88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IX88" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IZ88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JA88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JB88" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JC88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -69428,8 +71012,26 @@
       <c r="IV89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IW89" t="n">
+      <c r="IW89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IX89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IY89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IZ89" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JB89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JC89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -70203,8 +71805,26 @@
       <c r="IV90" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="IW90" t="n">
+      <c r="IW90" s="1" t="n">
         <v>152</v>
+      </c>
+      <c r="IX90" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="IY90" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="IZ90" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="JA90" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="JB90" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="JC90" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -70978,8 +72598,26 @@
       <c r="IV91" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="IW91" t="n">
+      <c r="IW91" s="1" t="n">
         <v>170</v>
+      </c>
+      <c r="IX91" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="IY91" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="IZ91" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="JA91" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="JB91" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="JC91" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -71753,8 +73391,26 @@
       <c r="IV92" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="IW92" t="n">
+      <c r="IW92" s="1" t="n">
         <v>226</v>
+      </c>
+      <c r="IX92" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="IY92" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="IZ92" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="JA92" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="JB92" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="JC92" t="n">
+        <v>305</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -72528,8 +74184,26 @@
       <c r="IV93" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="IW93" t="n">
+      <c r="IW93" s="1" t="n">
         <v>64.8</v>
+      </c>
+      <c r="IX93" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="IY93" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="IZ93" s="1" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="JA93" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="JB93" s="1" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="JC93" t="n">
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -73303,8 +74977,26 @@
       <c r="IV94" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="IW94" t="n">
+      <c r="IW94" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="IX94" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="IY94" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="IZ94" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JA94" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="JB94" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="JC94" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -74078,8 +75770,26 @@
       <c r="IV95" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IW95" t="n">
+      <c r="IW95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IX95" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IY95" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ95" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JA95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JB95" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JC95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -74853,8 +76563,26 @@
       <c r="IV96" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IW96" t="n">
+      <c r="IW96" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IX96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY96" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IZ96" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JA96" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JB96" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JC96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -75628,8 +77356,26 @@
       <c r="IV97" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IW97" t="n">
+      <c r="IW97" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IX97" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IY97" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="IZ97" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JA97" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JB97" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="JC97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -76403,8 +78149,26 @@
       <c r="IV98" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IW98" t="n">
+      <c r="IW98" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IX98" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="IY98" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IZ98" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="JA98" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JB98" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JC98" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -77178,8 +78942,26 @@
       <c r="IV99" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IW99" t="n">
+      <c r="IW99" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="IX99" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="IY99" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="IZ99" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="JA99" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JB99" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JC99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -77953,8 +79735,26 @@
       <c r="IV100" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IW100" t="n">
+      <c r="IW100" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IX100" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IY100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IZ100" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA100" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JB100" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JC100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -78728,8 +80528,26 @@
       <c r="IV101" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IW101" t="n">
+      <c r="IW101" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IX101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IY101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ101" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JA101" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JB101" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JC101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -79503,8 +81321,26 @@
       <c r="IV102" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IW102" t="n">
+      <c r="IW102" s="1" t="n">
         <v>58.3</v>
+      </c>
+      <c r="IX102" s="1" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="IY102" s="1" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="IZ102" s="1" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="JA102" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JB102" s="1" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JC102" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JC102"/>
+  <dimension ref="A1:JK102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1246,8 +1246,32 @@
       <c r="JB1" s="1" t="n">
         <v>10678</v>
       </c>
-      <c r="JC1" t="n">
+      <c r="JC1" s="1" t="n">
         <v>10684</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>10696</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>10696</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>10696</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>10701</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>10714</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>10721</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>10732</v>
+      </c>
+      <c r="JK1" t="n">
+        <v>10737</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2039,7 +2063,31 @@
       <c r="JB2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="JC2" t="n">
+      <c r="JC2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JD2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JE2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JF2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JG2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JH2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JI2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JJ2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JK2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2832,8 +2880,32 @@
       <c r="JB3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JC3" t="n">
+      <c r="JC3" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JD3" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JE3" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JF3" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JG3" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JH3" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JI3" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="JJ3" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3625,7 +3697,31 @@
       <c r="JB4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JC4" t="n">
+      <c r="JC4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JD4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,7 +4514,31 @@
       <c r="JB5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JC5" t="n">
+      <c r="JC5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JD5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JG5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="JH5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JI5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5211,8 +5331,32 @@
       <c r="JB6" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="JC6" t="n">
+      <c r="JC6" s="1" t="n">
         <v>111</v>
+      </c>
+      <c r="JD6" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="JE6" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="JF6" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="JG6" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JH6" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="JI6" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="JJ6" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="JK6" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6004,8 +6148,32 @@
       <c r="JB7" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="JC7" t="n">
+      <c r="JC7" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="JD7" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="JE7" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="JF7" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="JG7" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JH7" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="JI7" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="JJ7" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JK7" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6797,8 +6965,32 @@
       <c r="JB8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JC8" t="n">
+      <c r="JC8" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JD8" s="1" t="n">
+        <v>-17</v>
+      </c>
+      <c r="JE8" s="1" t="n">
+        <v>-17</v>
+      </c>
+      <c r="JF8" s="1" t="n">
+        <v>-17</v>
+      </c>
+      <c r="JG8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH8" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="JI8" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="JJ8" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="JK8" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7590,7 +7782,31 @@
       <c r="JB9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JC9" t="n">
+      <c r="JC9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JD9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG9" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="JH9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8383,8 +8599,32 @@
       <c r="JB10" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JC10" t="n">
+      <c r="JC10" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="JD10" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JE10" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JF10" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JG10" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JH10" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JI10" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JJ10" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="JK10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9176,8 +9416,32 @@
       <c r="JB11" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="JC11" t="n">
+      <c r="JC11" s="1" t="n">
         <v>217</v>
+      </c>
+      <c r="JD11" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="JE11" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="JF11" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="JG11" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="JH11" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="JI11" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="JJ11" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="JK11" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9969,8 +10233,32 @@
       <c r="JB12" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="JC12" t="n">
+      <c r="JC12" s="1" t="n">
         <v>191</v>
+      </c>
+      <c r="JD12" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="JE12" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="JF12" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="JG12" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="JH12" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="JI12" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="JJ12" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="JK12" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10762,8 +11050,32 @@
       <c r="JB13" s="1" t="n">
         <v>399</v>
       </c>
-      <c r="JC13" t="n">
+      <c r="JC13" s="1" t="n">
         <v>408</v>
+      </c>
+      <c r="JD13" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="JE13" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="JF13" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="JG13" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="JH13" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="JI13" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="JJ13" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="JK13" t="n">
+        <v>397</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -11555,8 +11867,32 @@
       <c r="JB14" s="1" t="n">
         <v>1.33</v>
       </c>
-      <c r="JC14" t="n">
+      <c r="JC14" s="1" t="n">
         <v>1.14</v>
+      </c>
+      <c r="JD14" s="1" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="JE14" s="1" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="JF14" s="1" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="JG14" s="1" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="JH14" s="1" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="JI14" s="1" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="JJ14" s="1" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="JK14" t="n">
+        <v>1.18</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -12348,8 +12684,32 @@
       <c r="JB15" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="JC15" t="n">
+      <c r="JC15" s="1" t="n">
         <v>105</v>
+      </c>
+      <c r="JD15" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="JE15" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="JF15" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="JG15" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="JH15" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="JI15" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="JJ15" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="JK15" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -13141,8 +13501,32 @@
       <c r="JB16" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JC16" t="n">
+      <c r="JC16" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="JD16" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JE16" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JF16" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JG16" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="JH16" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="JI16" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="JJ16" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="JK16" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -13934,8 +14318,32 @@
       <c r="JB17" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="JC17" t="n">
+      <c r="JC17" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="JD17" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="JE17" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="JF17" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="JG17" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JH17" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="JI17" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JJ17" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="JK17" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -14727,8 +15135,32 @@
       <c r="JB18" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="JC18" t="n">
+      <c r="JC18" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JD18" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JE18" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JF18" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JG18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JH18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JI18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JJ18" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="JK18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -15520,7 +15952,31 @@
       <c r="JB19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JC19" t="n">
+      <c r="JC19" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="JD19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JE19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JF19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JG19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JH19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JI19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JJ19" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="JK19" t="n">
         <v>22</v>
       </c>
     </row>
@@ -16313,8 +16769,32 @@
       <c r="JB20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JC20" t="n">
+      <c r="JC20" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JD20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JE20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JF20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JH20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JI20" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JJ20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -17106,8 +17586,32 @@
       <c r="JB21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JC21" t="n">
+      <c r="JC21" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="JD21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JE21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JF21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JG21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JH21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JI21" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JJ21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -17899,8 +18403,32 @@
       <c r="JB22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JC22" t="n">
+      <c r="JC22" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JD22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JE22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JF22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JH22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JI22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JJ22" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JK22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -18692,7 +19220,31 @@
       <c r="JB23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JC23" t="n">
+      <c r="JC23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JE23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JF23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JG23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JI23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JJ23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JK23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19485,8 +20037,32 @@
       <c r="JB24" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="JC24" t="n">
+      <c r="JC24" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="JD24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JE24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JF24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JG24" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="JH24" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JI24" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="JJ24" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="JK24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -20278,8 +20854,32 @@
       <c r="JB25" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="JC25" t="n">
+      <c r="JC25" s="1" t="n">
         <v>65.40000000000001</v>
+      </c>
+      <c r="JD25" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="JE25" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="JF25" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="JG25" s="1" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="JH25" s="1" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="JI25" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="JJ25" s="1" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="JK25" t="n">
+        <v>54.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -21071,8 +21671,32 @@
       <c r="JB26" s="1" t="n">
         <v>26.6</v>
       </c>
-      <c r="JC26" t="n">
+      <c r="JC26" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="JD26" s="1" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="JE26" s="1" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="JF26" s="1" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="JG26" s="1" t="n">
+        <v>56.86</v>
+      </c>
+      <c r="JH26" s="1" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="JI26" s="1" t="n">
+        <v>27.71</v>
+      </c>
+      <c r="JJ26" s="1" t="n">
+        <v>42.33</v>
+      </c>
+      <c r="JK26" t="n">
+        <v>30.54</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -21864,8 +22488,32 @@
       <c r="JB27" s="1" t="n">
         <v>16.62</v>
       </c>
-      <c r="JC27" t="n">
+      <c r="JC27" s="1" t="n">
         <v>15.69</v>
+      </c>
+      <c r="JD27" s="1" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="JE27" s="1" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="JF27" s="1" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="JG27" s="1" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="JH27" s="1" t="n">
+        <v>27.93</v>
+      </c>
+      <c r="JI27" s="1" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="JJ27" s="1" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="JK27" t="n">
+        <v>16.54</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -22657,8 +23305,32 @@
       <c r="JB28" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JC28" t="n">
+      <c r="JC28" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JD28" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="JE28" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="JF28" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="JG28" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="JH28" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="JI28" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="JJ28" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="JK28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -23450,8 +24122,32 @@
       <c r="JB29" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JC29" t="n">
+      <c r="JC29" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="JD29" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JE29" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JF29" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JG29" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="JH29" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="JI29" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="JJ29" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="JK29" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -24243,8 +24939,32 @@
       <c r="JB30" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JC30" t="n">
+      <c r="JC30" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JD30" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JE30" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JF30" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JG30" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JH30" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JI30" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JJ30" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JK30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -25036,8 +25756,32 @@
       <c r="JB31" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JC31" t="n">
+      <c r="JC31" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="JD31" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JE31" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JF31" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JG31" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JH31" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="JI31" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JJ31" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="JK31" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -25829,8 +26573,32 @@
       <c r="JB32" s="1" t="n">
         <v>2.08</v>
       </c>
-      <c r="JC32" t="n">
+      <c r="JC32" s="1" t="n">
         <v>1.73</v>
+      </c>
+      <c r="JD32" s="1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="JE32" s="1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="JF32" s="1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="JG32" s="1" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="JH32" s="1" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="JI32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JJ32" s="1" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="JK32" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -26622,8 +27390,32 @@
       <c r="JB33" s="1" t="n">
         <v>3.33</v>
       </c>
-      <c r="JC33" t="n">
+      <c r="JC33" s="1" t="n">
         <v>2.65</v>
+      </c>
+      <c r="JD33" s="1" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="JE33" s="1" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="JF33" s="1" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="JG33" s="1" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="JH33" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JI33" s="1" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="JJ33" s="1" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="JK33" t="n">
+        <v>5.31</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -27415,8 +28207,32 @@
       <c r="JB34" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JC34" t="n">
+      <c r="JC34" s="1" t="n">
         <v>57.8</v>
+      </c>
+      <c r="JD34" s="1" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JE34" s="1" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JF34" s="1" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JG34" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="JH34" s="1" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="JI34" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="JJ34" s="1" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="JK34" t="n">
+        <v>34.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -28208,8 +29024,32 @@
       <c r="JB35" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="JC35" t="n">
+      <c r="JC35" s="1" t="n">
         <v>37.8</v>
+      </c>
+      <c r="JD35" s="1" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="JE35" s="1" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="JF35" s="1" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="JG35" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JH35" s="1" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="JI35" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="JJ35" s="1" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="JK35" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -29001,8 +29841,32 @@
       <c r="JB36" s="1" t="n">
         <v>188.5</v>
       </c>
-      <c r="JC36" t="n">
+      <c r="JC36" s="1" t="n">
         <v>187.6</v>
+      </c>
+      <c r="JD36" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JE36" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JF36" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JG36" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JH36" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JI36" s="1" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="JJ36" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JK36" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -29794,8 +30658,32 @@
       <c r="JB37" s="1" t="n">
         <v>88.7</v>
       </c>
-      <c r="JC37" t="n">
+      <c r="JC37" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="JD37" s="1" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="JE37" s="1" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="JF37" s="1" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="JG37" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="JH37" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="JI37" s="1" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="JJ37" s="1" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JK37" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -30587,8 +31475,32 @@
       <c r="JB38" s="1" t="n">
         <v>26.8</v>
       </c>
-      <c r="JC38" t="n">
+      <c r="JC38" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="JD38" s="1" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JE38" s="1" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JF38" s="1" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JG38" s="1" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="JH38" s="1" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="JI38" s="1" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="JJ38" s="1" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="JK38" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -31380,8 +32292,32 @@
       <c r="JB39" s="1" t="n">
         <v>100.4</v>
       </c>
-      <c r="JC39" t="n">
+      <c r="JC39" s="1" t="n">
         <v>99.09999999999999</v>
+      </c>
+      <c r="JD39" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="JE39" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="JF39" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="JG39" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="JH39" s="1" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="JI39" s="1" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="JJ39" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="JK39" t="n">
+        <v>89.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -32173,8 +33109,32 @@
       <c r="JB40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JC40" t="n">
+      <c r="JC40" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JD40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JE40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JF40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JH40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JI40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JJ40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -32966,7 +33926,31 @@
       <c r="JB41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JC41" t="n">
+      <c r="JC41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JD41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JE41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JF41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JH41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JI41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JJ41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -33759,8 +34743,32 @@
       <c r="JB42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JC42" t="n">
+      <c r="JC42" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JD42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JE42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JF42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JI42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JJ42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -34552,8 +35560,32 @@
       <c r="JB43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JC43" t="n">
+      <c r="JC43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JD43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JE43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JF43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JG43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JI43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JJ43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JK43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -35345,8 +36377,32 @@
       <c r="JB44" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="JC44" t="n">
+      <c r="JC44" s="1" t="n">
         <v>128</v>
+      </c>
+      <c r="JD44" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="JE44" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="JF44" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="JG44" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="JH44" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="JI44" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="JJ44" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="JK44" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -36138,8 +37194,32 @@
       <c r="JB45" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="JC45" t="n">
+      <c r="JC45" s="1" t="n">
         <v>282</v>
+      </c>
+      <c r="JD45" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="JE45" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="JF45" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="JG45" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="JH45" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="JI45" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="JJ45" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="JK45" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -36931,8 +38011,32 @@
       <c r="JB46" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="JC46" t="n">
+      <c r="JC46" s="1" t="n">
         <v>338</v>
+      </c>
+      <c r="JD46" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="JE46" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="JF46" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="JG46" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="JH46" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="JI46" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="JJ46" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="JK46" t="n">
+        <v>294</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -37724,8 +38828,32 @@
       <c r="JB47" s="1" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="JC47" t="n">
+      <c r="JC47" s="1" t="n">
         <v>82.8</v>
+      </c>
+      <c r="JD47" s="1" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="JE47" s="1" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="JF47" s="1" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="JG47" s="1" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="JH47" s="1" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="JI47" s="1" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="JJ47" s="1" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="JK47" t="n">
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -38517,8 +39645,32 @@
       <c r="JB48" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JC48" t="n">
+      <c r="JC48" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="JD48" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JE48" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JF48" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JG48" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="JH48" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="JI48" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="JJ48" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="JK48" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -39310,8 +40462,32 @@
       <c r="JB49" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JC49" t="n">
+      <c r="JC49" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JD49" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JE49" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JF49" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG49" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JH49" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JI49" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JJ49" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JK49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -40103,8 +41279,32 @@
       <c r="JB50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JC50" t="n">
+      <c r="JC50" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JD50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JE50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JF50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JH50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JI50" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JJ50" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -40896,8 +42096,32 @@
       <c r="JB51" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JC51" t="n">
+      <c r="JC51" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JD51" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="JE51" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="JF51" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="JG51" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="JH51" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="JI51" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="JJ51" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="JK51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -41689,8 +42913,32 @@
       <c r="JB52" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JC52" t="n">
+      <c r="JC52" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JD52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JE52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JF52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JG52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JH52" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JI52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JJ52" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JK52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -42482,8 +43730,32 @@
       <c r="JB53" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JC53" t="n">
+      <c r="JC53" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JD53" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="JE53" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="JF53" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="JG53" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="JH53" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="JI53" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="JJ53" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="JK53" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -43275,8 +44547,32 @@
       <c r="JB54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JC54" t="n">
+      <c r="JC54" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JD54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JE54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JF54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JG54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JH54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JI54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JJ54" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -44068,8 +45364,32 @@
       <c r="JB55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JC55" t="n">
+      <c r="JC55" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="JD55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JE55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JF55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JG55" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JH55" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JI55" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JJ55" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -44861,8 +46181,32 @@
       <c r="JB56" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="JC56" t="n">
+      <c r="JC56" s="1" t="n">
         <v>82.40000000000001</v>
+      </c>
+      <c r="JD56" s="1" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JE56" s="1" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JF56" s="1" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JG56" s="1" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="JH56" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="JI56" s="1" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JJ56" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JK56" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -45654,8 +46998,32 @@
       <c r="JB57" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="JC57" t="n">
+      <c r="JC57" s="1" t="n">
         <v>225</v>
+      </c>
+      <c r="JD57" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="JE57" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="JF57" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="JG57" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="JH57" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="JI57" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="JJ57" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="JK57" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -46447,8 +47815,32 @@
       <c r="JB58" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="JC58" t="n">
+      <c r="JC58" s="1" t="n">
         <v>173</v>
+      </c>
+      <c r="JD58" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="JE58" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="JF58" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="JG58" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="JH58" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="JI58" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="JJ58" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="JK58" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -47240,8 +48632,32 @@
       <c r="JB59" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="JC59" t="n">
+      <c r="JC59" s="1" t="n">
         <v>398</v>
+      </c>
+      <c r="JD59" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="JE59" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="JF59" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="JG59" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="JH59" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="JI59" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="JJ59" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="JK59" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -48033,8 +49449,32 @@
       <c r="JB60" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="JC60" t="n">
+      <c r="JC60" s="1" t="n">
         <v>1.3</v>
+      </c>
+      <c r="JD60" s="1" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="JE60" s="1" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="JF60" s="1" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="JG60" s="1" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="JH60" s="1" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="JI60" s="1" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="JJ60" s="1" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="JK60" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -48826,8 +50266,32 @@
       <c r="JB61" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="JC61" t="n">
+      <c r="JC61" s="1" t="n">
         <v>102</v>
+      </c>
+      <c r="JD61" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="JE61" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="JF61" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="JG61" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="JH61" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="JI61" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="JJ61" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="JK61" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -49619,8 +51083,32 @@
       <c r="JB62" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="JC62" t="n">
+      <c r="JC62" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="JD62" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="JE62" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="JF62" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="JG62" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="JH62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="JI62" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="JJ62" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="JK62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -50412,8 +51900,32 @@
       <c r="JB63" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JC63" t="n">
+      <c r="JC63" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="JD63" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JE63" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JF63" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JG63" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JH63" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="JI63" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="JJ63" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="JK63" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -51205,7 +52717,31 @@
       <c r="JB64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JC64" t="n">
+      <c r="JC64" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="JD64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="JE64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="JF64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="JG64" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JH64" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JI64" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JJ64" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="JK64" t="n">
         <v>22</v>
       </c>
     </row>
@@ -51998,8 +53534,32 @@
       <c r="JB65" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="JC65" t="n">
+      <c r="JC65" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JD65" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JE65" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JF65" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JG65" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JH65" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JI65" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JJ65" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JK65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -52791,7 +54351,31 @@
       <c r="JB66" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JC66" t="n">
+      <c r="JC66" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JD66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JE66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JF66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JG66" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JH66" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JI66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JJ66" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK66" t="n">
         <v>10</v>
       </c>
     </row>
@@ -53584,8 +55168,32 @@
       <c r="JB67" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JC67" t="n">
+      <c r="JC67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JD67" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JE67" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JF67" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JG67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JI67" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JJ67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -54377,7 +55985,31 @@
       <c r="JB68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JC68" t="n">
+      <c r="JC68" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JD68" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JE68" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JF68" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JG68" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JH68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JI68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JJ68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK68" t="n">
         <v>8</v>
       </c>
     </row>
@@ -55170,8 +56802,32 @@
       <c r="JB69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JC69" t="n">
+      <c r="JC69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JD69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JE69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JF69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JG69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JH69" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JI69" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JJ69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -55963,8 +57619,32 @@
       <c r="JB70" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="JC70" t="n">
+      <c r="JC70" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="JD70" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="JE70" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="JF70" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="JG70" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="JH70" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="JI70" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="JJ70" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JK70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -56756,8 +58436,32 @@
       <c r="JB71" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="JC71" t="n">
+      <c r="JC71" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JD71" s="1" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="JE71" s="1" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="JF71" s="1" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="JG71" s="1" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="JH71" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="JI71" s="1" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="JJ71" s="1" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="JK71" t="n">
+        <v>52.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -57549,8 +59253,32 @@
       <c r="JB72" s="1" t="n">
         <v>27.36</v>
       </c>
-      <c r="JC72" t="n">
+      <c r="JC72" s="1" t="n">
         <v>39.8</v>
+      </c>
+      <c r="JD72" s="1" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="JE72" s="1" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="JF72" s="1" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="JG72" s="1" t="n">
+        <v>48.86</v>
+      </c>
+      <c r="JH72" s="1" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="JI72" s="1" t="n">
+        <v>32.73</v>
+      </c>
+      <c r="JJ72" s="1" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="JK72" t="n">
+        <v>33.9</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -58342,8 +60070,32 @@
       <c r="JB73" s="1" t="n">
         <v>18.24</v>
       </c>
-      <c r="JC73" t="n">
+      <c r="JC73" s="1" t="n">
         <v>19.9</v>
+      </c>
+      <c r="JD73" s="1" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="JE73" s="1" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="JF73" s="1" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="JG73" s="1" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="JH73" s="1" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="JI73" s="1" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="JJ73" s="1" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="JK73" t="n">
+        <v>17.84</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -59135,8 +60887,32 @@
       <c r="JB74" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="JC74" t="n">
+      <c r="JC74" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="JD74" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="JE74" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="JF74" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="JG74" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="JH74" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="JI74" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="JJ74" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JK74" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -59928,8 +61704,32 @@
       <c r="JB75" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JC75" t="n">
+      <c r="JC75" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="JD75" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JE75" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JF75" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JG75" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="JH75" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="JI75" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="JJ75" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="JK75" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -60721,8 +62521,32 @@
       <c r="JB76" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JC76" t="n">
+      <c r="JC76" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="JD76" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JE76" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JF76" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JG76" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JH76" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JI76" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="JJ76" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="JK76" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -61514,8 +63338,32 @@
       <c r="JB77" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="JC77" t="n">
+      <c r="JC77" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JD77" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="JE77" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="JF77" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="JG77" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="JH77" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="JI77" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="JJ77" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JK77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -62307,8 +64155,32 @@
       <c r="JB78" s="1" t="n">
         <v>2.43</v>
       </c>
-      <c r="JC78" t="n">
+      <c r="JC78" s="1" t="n">
         <v>2.6</v>
+      </c>
+      <c r="JD78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JE78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JF78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JG78" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH78" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="JI78" s="1" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="JJ78" s="1" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="JK78" t="n">
+        <v>2.37</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -63100,8 +64972,32 @@
       <c r="JB79" s="1" t="n">
         <v>3.64</v>
       </c>
-      <c r="JC79" t="n">
+      <c r="JC79" s="1" t="n">
         <v>5.2</v>
+      </c>
+      <c r="JD79" s="1" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="JE79" s="1" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="JF79" s="1" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="JG79" s="1" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="JH79" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JI79" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JJ79" s="1" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="JK79" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -63893,8 +65789,32 @@
       <c r="JB80" s="1" t="n">
         <v>41.2</v>
       </c>
-      <c r="JC80" t="n">
+      <c r="JC80" s="1" t="n">
         <v>34.6</v>
+      </c>
+      <c r="JD80" s="1" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="JE80" s="1" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="JF80" s="1" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="JG80" s="1" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="JH80" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="JI80" s="1" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="JJ80" s="1" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="JK80" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -64686,8 +66606,32 @@
       <c r="JB81" s="1" t="n">
         <v>27.5</v>
       </c>
-      <c r="JC81" t="n">
+      <c r="JC81" s="1" t="n">
         <v>19.2</v>
+      </c>
+      <c r="JD81" s="1" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="JE81" s="1" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="JF81" s="1" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="JG81" s="1" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="JH81" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JI81" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JJ81" s="1" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="JK81" t="n">
+        <v>22.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -65479,8 +67423,32 @@
       <c r="JB82" s="1" t="n">
         <v>187.9</v>
       </c>
-      <c r="JC82" t="n">
+      <c r="JC82" s="1" t="n">
         <v>187.9</v>
+      </c>
+      <c r="JD82" s="1" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="JE82" s="1" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="JF82" s="1" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="JG82" s="1" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="JH82" s="1" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="JI82" s="1" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="JJ82" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JK82" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -66272,8 +68240,32 @@
       <c r="JB83" s="1" t="n">
         <v>86.8</v>
       </c>
-      <c r="JC83" t="n">
+      <c r="JC83" s="1" t="n">
         <v>86.2</v>
+      </c>
+      <c r="JD83" s="1" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JE83" s="1" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JF83" s="1" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JG83" s="1" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JH83" s="1" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="JI83" s="1" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JJ83" s="1" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="JK83" t="n">
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -67065,8 +69057,32 @@
       <c r="JB84" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="JC84" t="n">
+      <c r="JC84" s="1" t="n">
         <v>26.16</v>
+      </c>
+      <c r="JD84" s="1" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="JE84" s="1" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="JF84" s="1" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="JG84" s="1" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="JH84" s="1" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JI84" s="1" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="JJ84" s="1" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="JK84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -67858,8 +69874,32 @@
       <c r="JB85" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="JC85" t="n">
+      <c r="JC85" s="1" t="n">
         <v>104.2</v>
+      </c>
+      <c r="JD85" s="1" t="n">
+        <v>113.7</v>
+      </c>
+      <c r="JE85" s="1" t="n">
+        <v>113.7</v>
+      </c>
+      <c r="JF85" s="1" t="n">
+        <v>113.7</v>
+      </c>
+      <c r="JG85" s="1" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="JH85" s="1" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="JI85" s="1" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="JJ85" s="1" t="n">
+        <v>114.2</v>
+      </c>
+      <c r="JK85" t="n">
+        <v>91.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -68651,8 +70691,32 @@
       <c r="JB86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JC86" t="n">
+      <c r="JC86" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JD86" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JE86" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JF86" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JH86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JI86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JJ86" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -69444,8 +71508,32 @@
       <c r="JB87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JC87" t="n">
+      <c r="JC87" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JD87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JE87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JF87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JI87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JJ87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JK87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -70237,8 +72325,32 @@
       <c r="JB88" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JC88" t="n">
+      <c r="JC88" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JD88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JE88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JF88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH88" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JI88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JJ88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -71030,8 +73142,32 @@
       <c r="JB89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JC89" t="n">
+      <c r="JC89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JD89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JE89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JF89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG89" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JH89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JI89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JJ89" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -71823,8 +73959,32 @@
       <c r="JB90" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="JC90" t="n">
+      <c r="JC90" s="1" t="n">
         <v>138</v>
+      </c>
+      <c r="JD90" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="JE90" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="JF90" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="JG90" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="JH90" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="JI90" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="JJ90" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="JK90" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -72616,8 +74776,32 @@
       <c r="JB91" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="JC91" t="n">
+      <c r="JC91" s="1" t="n">
         <v>258</v>
+      </c>
+      <c r="JD91" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="JE91" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="JF91" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="JG91" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="JH91" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="JI91" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="JJ91" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="JK91" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -73409,8 +75593,32 @@
       <c r="JB92" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="JC92" t="n">
+      <c r="JC92" s="1" t="n">
         <v>305</v>
+      </c>
+      <c r="JD92" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="JE92" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="JF92" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="JG92" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="JH92" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="JI92" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="JJ92" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="JK92" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -74202,8 +76410,32 @@
       <c r="JB93" s="1" t="n">
         <v>74.2</v>
       </c>
-      <c r="JC93" t="n">
+      <c r="JC93" s="1" t="n">
         <v>76.59999999999999</v>
+      </c>
+      <c r="JD93" s="1" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JE93" s="1" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JF93" s="1" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JG93" s="1" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="JH93" s="1" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="JI93" s="1" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="JJ93" s="1" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="JK93" t="n">
+        <v>73.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -74995,8 +77227,32 @@
       <c r="JB94" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JC94" t="n">
+      <c r="JC94" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="JD94" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JE94" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JF94" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JG94" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="JH94" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="JI94" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="JJ94" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="JK94" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -75788,8 +78044,32 @@
       <c r="JB95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JC95" t="n">
+      <c r="JC95" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JD95" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JE95" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JF95" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JG95" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH95" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JI95" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JJ95" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JK95" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -76581,8 +78861,32 @@
       <c r="JB96" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JC96" t="n">
+      <c r="JC96" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JD96" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JE96" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JF96" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JG96" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JH96" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JI96" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JJ96" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -77374,8 +79678,32 @@
       <c r="JB97" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="JC97" t="n">
+      <c r="JC97" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="JD97" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="JE97" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="JF97" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="JG97" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="JH97" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="JI97" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="JJ97" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JK97" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -78167,8 +80495,32 @@
       <c r="JB98" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JC98" t="n">
+      <c r="JC98" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="JD98" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JE98" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JF98" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JG98" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JH98" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JI98" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="JJ98" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="JK98" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -78960,8 +81312,32 @@
       <c r="JB99" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JC99" t="n">
+      <c r="JC99" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="JD99" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JE99" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JF99" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JG99" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="JH99" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JI99" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JJ99" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="JK99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -79753,8 +82129,32 @@
       <c r="JB100" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JC100" t="n">
+      <c r="JC100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JD100" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE100" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JF100" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JG100" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JI100" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JJ100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JK100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -80546,8 +82946,32 @@
       <c r="JB101" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JC101" t="n">
+      <c r="JC101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JD101" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JE101" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JF101" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JG101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JI101" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JJ101" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -81339,8 +83763,32 @@
       <c r="JB102" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="JC102" t="n">
+      <c r="JC102" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="JD102" s="1" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="JE102" s="1" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="JF102" s="1" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="JG102" s="1" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="JH102" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JI102" s="1" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JJ102" s="1" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="JK102" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JK102"/>
+  <dimension ref="A1:JN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1270,8 +1270,17 @@
       <c r="JJ1" s="1" t="n">
         <v>10732</v>
       </c>
-      <c r="JK1" t="n">
+      <c r="JK1" s="1" t="n">
         <v>10737</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>10745</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>10745</v>
+      </c>
+      <c r="JN1" t="n">
+        <v>10747</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2087,7 +2096,16 @@
       <c r="JJ2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="JK2" t="n">
+      <c r="JK2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JL2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JM2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JN2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2904,8 +2922,17 @@
       <c r="JJ3" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JK3" t="n">
+      <c r="JK3" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="JL3" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="JM3" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3721,7 +3748,16 @@
       <c r="JJ4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JK4" t="n">
+      <c r="JK4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4538,8 +4574,17 @@
       <c r="JJ5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JK5" t="n">
+      <c r="JK5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JL5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5355,8 +5400,17 @@
       <c r="JJ6" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="JK6" t="n">
+      <c r="JK6" s="1" t="n">
         <v>89</v>
+      </c>
+      <c r="JL6" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="JM6" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="JN6" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6172,8 +6226,17 @@
       <c r="JJ7" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JK7" t="n">
+      <c r="JK7" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="JL7" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="JM7" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="JN7" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6989,8 +7052,17 @@
       <c r="JJ8" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="JK8" t="n">
+      <c r="JK8" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="JL8" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="JM8" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="JN8" t="n">
+        <v>-20</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7806,8 +7878,17 @@
       <c r="JJ9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JK9" t="n">
+      <c r="JK9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JL9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -8623,8 +8704,17 @@
       <c r="JJ10" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JK10" t="n">
+      <c r="JK10" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JL10" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JM10" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JN10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9440,8 +9530,17 @@
       <c r="JJ11" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="JK11" t="n">
+      <c r="JK11" s="1" t="n">
         <v>215</v>
+      </c>
+      <c r="JL11" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="JM11" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="JN11" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10257,8 +10356,17 @@
       <c r="JJ12" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="JK12" t="n">
+      <c r="JK12" s="1" t="n">
         <v>182</v>
+      </c>
+      <c r="JL12" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="JM12" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="JN12" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11074,8 +11182,17 @@
       <c r="JJ13" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="JK13" t="n">
+      <c r="JK13" s="1" t="n">
         <v>397</v>
+      </c>
+      <c r="JL13" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="JM13" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="JN13" t="n">
+        <v>364</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -11891,8 +12008,17 @@
       <c r="JJ14" s="1" t="n">
         <v>1.23</v>
       </c>
-      <c r="JK14" t="n">
+      <c r="JK14" s="1" t="n">
         <v>1.18</v>
+      </c>
+      <c r="JL14" s="1" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="JM14" s="1" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="JN14" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -12708,8 +12834,17 @@
       <c r="JJ15" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="JK15" t="n">
+      <c r="JK15" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="JL15" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="JM15" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="JN15" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -13525,8 +13660,17 @@
       <c r="JJ16" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="JK16" t="n">
+      <c r="JK16" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JL16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="JM16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="JN16" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14342,8 +14486,17 @@
       <c r="JJ17" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="JK17" t="n">
+      <c r="JK17" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="JL17" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="JM17" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="JN17" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15159,8 +15312,17 @@
       <c r="JJ18" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="JK18" t="n">
+      <c r="JK18" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JL18" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="JM18" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="JN18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -15976,8 +16138,17 @@
       <c r="JJ19" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JK19" t="n">
+      <c r="JK19" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JL19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JM19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JN19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -16793,8 +16964,17 @@
       <c r="JJ20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JK20" t="n">
+      <c r="JK20" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="JL20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JM20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JN20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -17610,8 +17790,17 @@
       <c r="JJ21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JK21" t="n">
+      <c r="JK21" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JL21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -18427,8 +18616,17 @@
       <c r="JJ22" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JK22" t="n">
+      <c r="JK22" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JL22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -19244,8 +19442,17 @@
       <c r="JJ23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JK23" t="n">
+      <c r="JK23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JL23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -20061,8 +20268,17 @@
       <c r="JJ24" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="JK24" t="n">
+      <c r="JK24" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="JL24" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JM24" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JN24" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -20878,8 +21094,17 @@
       <c r="JJ25" s="1" t="n">
         <v>34.6</v>
       </c>
-      <c r="JK25" t="n">
+      <c r="JK25" s="1" t="n">
         <v>54.2</v>
+      </c>
+      <c r="JL25" s="1" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="JM25" s="1" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="JN25" t="n">
+        <v>64.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -21695,8 +21920,17 @@
       <c r="JJ26" s="1" t="n">
         <v>42.33</v>
       </c>
-      <c r="JK26" t="n">
+      <c r="JK26" s="1" t="n">
         <v>30.54</v>
+      </c>
+      <c r="JL26" s="1" t="n">
+        <v>36.27</v>
+      </c>
+      <c r="JM26" s="1" t="n">
+        <v>36.27</v>
+      </c>
+      <c r="JN26" t="n">
+        <v>40.44</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -22512,8 +22746,17 @@
       <c r="JJ27" s="1" t="n">
         <v>14.65</v>
       </c>
-      <c r="JK27" t="n">
+      <c r="JK27" s="1" t="n">
         <v>16.54</v>
+      </c>
+      <c r="JL27" s="1" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="JM27" s="1" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="JN27" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -23329,8 +23572,17 @@
       <c r="JJ28" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="JK28" t="n">
+      <c r="JK28" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JL28" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JM28" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JN28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -24146,8 +24398,17 @@
       <c r="JJ29" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="JK29" t="n">
+      <c r="JK29" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="JL29" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="JM29" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="JN29" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -24963,8 +25224,17 @@
       <c r="JJ30" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="JK30" t="n">
+      <c r="JK30" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="JL30" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JM30" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JN30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -25780,8 +26050,17 @@
       <c r="JJ31" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JK31" t="n">
+      <c r="JK31" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="JL31" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="JM31" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="JN31" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -26597,8 +26876,17 @@
       <c r="JJ32" s="1" t="n">
         <v>2.19</v>
       </c>
-      <c r="JK32" t="n">
+      <c r="JK32" s="1" t="n">
         <v>2.88</v>
+      </c>
+      <c r="JL32" s="1" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="JM32" s="1" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="JN32" t="n">
+        <v>3.07</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -27414,8 +27702,17 @@
       <c r="JJ33" s="1" t="n">
         <v>6.33</v>
       </c>
-      <c r="JK33" t="n">
+      <c r="JK33" s="1" t="n">
         <v>5.31</v>
+      </c>
+      <c r="JL33" s="1" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="JM33" s="1" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="JN33" t="n">
+        <v>4.78</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -28231,8 +28528,17 @@
       <c r="JJ34" s="1" t="n">
         <v>40.4</v>
       </c>
-      <c r="JK34" t="n">
+      <c r="JK34" s="1" t="n">
         <v>34.8</v>
+      </c>
+      <c r="JL34" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JM34" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JN34" t="n">
+        <v>27.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -29048,8 +29354,17 @@
       <c r="JJ35" s="1" t="n">
         <v>15.8</v>
       </c>
-      <c r="JK35" t="n">
+      <c r="JK35" s="1" t="n">
         <v>18.8</v>
+      </c>
+      <c r="JL35" s="1" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="JM35" s="1" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="JN35" t="n">
+        <v>20.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -29865,8 +30180,17 @@
       <c r="JJ36" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="JK36" t="n">
+      <c r="JK36" s="1" t="n">
         <v>188.1</v>
+      </c>
+      <c r="JL36" s="1" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JM36" s="1" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JN36" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -30682,8 +31006,17 @@
       <c r="JJ37" s="1" t="n">
         <v>87.5</v>
       </c>
-      <c r="JK37" t="n">
+      <c r="JK37" s="1" t="n">
         <v>87.3</v>
+      </c>
+      <c r="JL37" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="JM37" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="JN37" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -31499,8 +31832,17 @@
       <c r="JJ38" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="JK38" t="n">
+      <c r="JK38" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="JL38" s="1" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JM38" s="1" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JN38" t="n">
+        <v>24.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -32316,8 +32658,17 @@
       <c r="JJ39" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="JK39" t="n">
+      <c r="JK39" s="1" t="n">
         <v>89.90000000000001</v>
+      </c>
+      <c r="JL39" s="1" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="JM39" s="1" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="JN39" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -33133,7 +33484,16 @@
       <c r="JJ40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JK40" t="n">
+      <c r="JK40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -33950,7 +34310,16 @@
       <c r="JJ41" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JK41" t="n">
+      <c r="JK41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -34767,8 +35136,17 @@
       <c r="JJ42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JK42" t="n">
+      <c r="JK42" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JL42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -35584,8 +35962,17 @@
       <c r="JJ43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JK43" t="n">
+      <c r="JK43" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JL43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -36401,8 +36788,17 @@
       <c r="JJ44" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="JK44" t="n">
+      <c r="JK44" s="1" t="n">
         <v>150</v>
+      </c>
+      <c r="JL44" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="JM44" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="JN44" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -37218,8 +37614,17 @@
       <c r="JJ45" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="JK45" t="n">
+      <c r="JK45" s="1" t="n">
         <v>237</v>
+      </c>
+      <c r="JL45" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="JM45" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="JN45" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -38035,8 +38440,17 @@
       <c r="JJ46" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="JK46" t="n">
+      <c r="JK46" s="1" t="n">
         <v>294</v>
+      </c>
+      <c r="JL46" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="JM46" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="JN46" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -38852,8 +39266,17 @@
       <c r="JJ47" s="1" t="n">
         <v>66.90000000000001</v>
       </c>
-      <c r="JK47" t="n">
+      <c r="JK47" s="1" t="n">
         <v>74.09999999999999</v>
+      </c>
+      <c r="JL47" s="1" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="JM47" s="1" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="JN47" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -39669,8 +40092,17 @@
       <c r="JJ48" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="JK48" t="n">
+      <c r="JK48" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="JL48" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="JM48" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="JN48" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -40486,8 +40918,17 @@
       <c r="JJ49" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JK49" t="n">
+      <c r="JK49" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JL49" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="JM49" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="JN49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -41303,7 +41744,16 @@
       <c r="JJ50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JK50" t="n">
+      <c r="JK50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL50" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM50" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JN50" t="n">
         <v>6</v>
       </c>
     </row>
@@ -42120,8 +42570,17 @@
       <c r="JJ51" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="JK51" t="n">
+      <c r="JK51" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JL51" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JM51" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JN51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -42937,8 +43396,17 @@
       <c r="JJ52" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="JK52" t="n">
+      <c r="JK52" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="JL52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JM52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JN52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -43754,8 +44222,17 @@
       <c r="JJ53" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="JK53" t="n">
+      <c r="JK53" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="JL53" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="JM53" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="JN53" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -44571,8 +45048,17 @@
       <c r="JJ54" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JK54" t="n">
+      <c r="JK54" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JL54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -45388,8 +45874,17 @@
       <c r="JJ55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JK55" t="n">
+      <c r="JK55" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JL55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -46205,8 +46700,17 @@
       <c r="JJ56" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="JK56" t="n">
+      <c r="JK56" s="1" t="n">
         <v>61.5</v>
+      </c>
+      <c r="JL56" s="1" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JM56" s="1" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JN56" t="n">
+        <v>77.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -47022,8 +47526,17 @@
       <c r="JJ57" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="JK57" t="n">
+      <c r="JK57" s="1" t="n">
         <v>217</v>
+      </c>
+      <c r="JL57" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="JM57" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="JN57" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -47839,8 +48352,17 @@
       <c r="JJ58" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="JK58" t="n">
+      <c r="JK58" s="1" t="n">
         <v>122</v>
+      </c>
+      <c r="JL58" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="JM58" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="JN58" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -48656,8 +49178,17 @@
       <c r="JJ59" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="JK59" t="n">
+      <c r="JK59" s="1" t="n">
         <v>339</v>
+      </c>
+      <c r="JL59" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="JM59" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="JN59" t="n">
+        <v>331</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -49473,8 +50004,17 @@
       <c r="JJ60" s="1" t="n">
         <v>2.07</v>
       </c>
-      <c r="JK60" t="n">
+      <c r="JK60" s="1" t="n">
         <v>1.78</v>
+      </c>
+      <c r="JL60" s="1" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="JM60" s="1" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="JN60" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -50290,8 +50830,17 @@
       <c r="JJ61" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="JK61" t="n">
+      <c r="JK61" s="1" t="n">
         <v>101</v>
+      </c>
+      <c r="JL61" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="JM61" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="JN61" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -51107,8 +51656,17 @@
       <c r="JJ62" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="JK62" t="n">
+      <c r="JK62" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="JL62" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="JM62" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="JN62" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -51924,8 +52482,17 @@
       <c r="JJ63" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="JK63" t="n">
+      <c r="JK63" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="JL63" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="JM63" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="JN63" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -52741,8 +53308,17 @@
       <c r="JJ64" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JK64" t="n">
+      <c r="JK64" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JL64" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JM64" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JN64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -53558,8 +54134,17 @@
       <c r="JJ65" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JK65" t="n">
+      <c r="JK65" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JL65" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="JM65" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="JN65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -54375,8 +54960,17 @@
       <c r="JJ66" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JK66" t="n">
+      <c r="JK66" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JL66" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM66" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -55192,8 +55786,17 @@
       <c r="JJ67" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JK67" t="n">
+      <c r="JK67" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JL67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -56009,8 +56612,17 @@
       <c r="JJ68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JK68" t="n">
+      <c r="JK68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JL68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -56826,8 +57438,17 @@
       <c r="JJ69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JK69" t="n">
+      <c r="JK69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JL69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -57643,8 +58264,17 @@
       <c r="JJ70" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JK70" t="n">
+      <c r="JK70" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="JL70" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JM70" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JN70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -58460,8 +59090,17 @@
       <c r="JJ71" s="1" t="n">
         <v>58.3</v>
       </c>
-      <c r="JK71" t="n">
+      <c r="JK71" s="1" t="n">
         <v>52.6</v>
+      </c>
+      <c r="JL71" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="JM71" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="JN71" t="n">
+        <v>45.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -59277,8 +59916,17 @@
       <c r="JJ72" s="1" t="n">
         <v>44.71</v>
       </c>
-      <c r="JK72" t="n">
+      <c r="JK72" s="1" t="n">
         <v>33.9</v>
+      </c>
+      <c r="JL72" s="1" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="JM72" s="1" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="JN72" t="n">
+        <v>30.09</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -60094,8 +60742,17 @@
       <c r="JJ73" s="1" t="n">
         <v>26.08</v>
       </c>
-      <c r="JK73" t="n">
+      <c r="JK73" s="1" t="n">
         <v>17.84</v>
+      </c>
+      <c r="JL73" s="1" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="JM73" s="1" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="JN73" t="n">
+        <v>13.79</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -60911,8 +61568,17 @@
       <c r="JJ74" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JK74" t="n">
+      <c r="JK74" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="JL74" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JM74" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JN74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -61728,8 +62394,17 @@
       <c r="JJ75" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JK75" t="n">
+      <c r="JK75" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="JL75" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="JM75" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="JN75" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -62545,8 +63220,17 @@
       <c r="JJ76" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="JK76" t="n">
+      <c r="JK76" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JL76" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="JM76" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="JN76" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -63362,8 +64046,17 @@
       <c r="JJ77" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JK77" t="n">
+      <c r="JK77" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="JL77" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="JM77" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="JN77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -64179,8 +64872,17 @@
       <c r="JJ78" s="1" t="n">
         <v>3.67</v>
       </c>
-      <c r="JK78" t="n">
+      <c r="JK78" s="1" t="n">
         <v>2.37</v>
+      </c>
+      <c r="JL78" s="1" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="JM78" s="1" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="JN78" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -64996,8 +65698,17 @@
       <c r="JJ79" s="1" t="n">
         <v>6.29</v>
       </c>
-      <c r="JK79" t="n">
+      <c r="JK79" s="1" t="n">
         <v>4.5</v>
+      </c>
+      <c r="JL79" s="1" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="JM79" s="1" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="JN79" t="n">
+        <v>5.09</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -65813,8 +66524,17 @@
       <c r="JJ80" s="1" t="n">
         <v>27.3</v>
       </c>
-      <c r="JK80" t="n">
+      <c r="JK80" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="JL80" s="1" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="JM80" s="1" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="JN80" t="n">
+        <v>39.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -66630,8 +67350,17 @@
       <c r="JJ81" s="1" t="n">
         <v>15.9</v>
       </c>
-      <c r="JK81" t="n">
+      <c r="JK81" s="1" t="n">
         <v>22.2</v>
+      </c>
+      <c r="JL81" s="1" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="JM81" s="1" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="JN81" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -67447,8 +68176,17 @@
       <c r="JJ82" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="JK82" t="n">
+      <c r="JK82" s="1" t="n">
         <v>189.1</v>
+      </c>
+      <c r="JL82" s="1" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="JM82" s="1" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="JN82" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -68264,8 +69002,17 @@
       <c r="JJ83" s="1" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="JK83" t="n">
+      <c r="JK83" s="1" t="n">
         <v>88.09999999999999</v>
+      </c>
+      <c r="JL83" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="JM83" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="JN83" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -69081,8 +69828,17 @@
       <c r="JJ84" s="1" t="n">
         <v>26.24</v>
       </c>
-      <c r="JK84" t="n">
+      <c r="JK84" s="1" t="n">
         <v>25.33</v>
+      </c>
+      <c r="JL84" s="1" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="JM84" s="1" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="JN84" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -69898,8 +70654,17 @@
       <c r="JJ85" s="1" t="n">
         <v>114.2</v>
       </c>
-      <c r="JK85" t="n">
+      <c r="JK85" s="1" t="n">
         <v>91.2</v>
+      </c>
+      <c r="JL85" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="JM85" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="JN85" t="n">
+        <v>108.6</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -70715,8 +71480,17 @@
       <c r="JJ86" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JK86" t="n">
+      <c r="JK86" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JL86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -71532,8 +72306,17 @@
       <c r="JJ87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JK87" t="n">
+      <c r="JK87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JL87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -72349,8 +73132,17 @@
       <c r="JJ88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JK88" t="n">
+      <c r="JK88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JL88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -73166,8 +73958,17 @@
       <c r="JJ89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JK89" t="n">
+      <c r="JK89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JL89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -73983,8 +74784,17 @@
       <c r="JJ90" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="JK90" t="n">
+      <c r="JK90" s="1" t="n">
         <v>133</v>
+      </c>
+      <c r="JL90" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="JM90" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="JN90" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -74800,8 +75610,17 @@
       <c r="JJ91" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="JK91" t="n">
+      <c r="JK91" s="1" t="n">
         <v>202</v>
+      </c>
+      <c r="JL91" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="JM91" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="JN91" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -75617,8 +76436,17 @@
       <c r="JJ92" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="JK92" t="n">
+      <c r="JK92" s="1" t="n">
         <v>250</v>
+      </c>
+      <c r="JL92" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="JM92" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="JN92" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -76434,8 +77262,17 @@
       <c r="JJ93" s="1" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="JK93" t="n">
+      <c r="JK93" s="1" t="n">
         <v>73.7</v>
+      </c>
+      <c r="JL93" s="1" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="JM93" s="1" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="JN93" t="n">
+        <v>72.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -77251,8 +78088,17 @@
       <c r="JJ94" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JK94" t="n">
+      <c r="JK94" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="JL94" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="JM94" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="JN94" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -78068,8 +78914,17 @@
       <c r="JJ95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JK95" t="n">
+      <c r="JK95" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="JL95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JN95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -78885,8 +79740,17 @@
       <c r="JJ96" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JK96" t="n">
+      <c r="JK96" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JL96" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM96" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -79702,8 +80566,17 @@
       <c r="JJ97" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JK97" t="n">
+      <c r="JK97" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="JL97" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JM97" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JN97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -80519,8 +81392,17 @@
       <c r="JJ98" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="JK98" t="n">
+      <c r="JK98" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JL98" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="JM98" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="JN98" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -81336,8 +82218,17 @@
       <c r="JJ99" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="JK99" t="n">
+      <c r="JK99" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="JL99" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="JM99" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="JN99" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -82153,8 +83044,17 @@
       <c r="JJ100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JK100" t="n">
+      <c r="JK100" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JL100" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM100" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN100" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -82970,8 +83870,17 @@
       <c r="JJ101" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JK101" t="n">
+      <c r="JK101" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JL101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -83787,8 +84696,17 @@
       <c r="JJ102" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="JK102" t="n">
+      <c r="JK102" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="JL102" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="JM102" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="JN102" t="n">
+        <v>54.5</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Fremantle_stats.xlsx
+++ b/django_AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JN102"/>
+  <dimension ref="A1:JQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1279,7 +1279,16 @@
       <c r="JM1" s="1" t="n">
         <v>10745</v>
       </c>
-      <c r="JN1" t="n">
+      <c r="JN1" s="1" t="n">
+        <v>10747</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>10747</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>10747</v>
+      </c>
+      <c r="JQ1" t="n">
         <v>10747</v>
       </c>
     </row>
@@ -2105,7 +2114,16 @@
       <c r="JM2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="JN2" t="n">
+      <c r="JN2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JO2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JP2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JQ2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2931,7 +2949,16 @@
       <c r="JM3" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="JN3" t="n">
+      <c r="JN3" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="JO3" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="JP3" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="JQ3" t="n">
         <v>26</v>
       </c>
     </row>
@@ -3757,7 +3784,16 @@
       <c r="JM4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JN4" t="n">
+      <c r="JN4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4583,7 +4619,16 @@
       <c r="JM5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JN5" t="n">
+      <c r="JN5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5409,7 +5454,16 @@
       <c r="JM6" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="JN6" t="n">
+      <c r="JN6" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="JO6" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="JP6" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="JQ6" t="n">
         <v>59</v>
       </c>
     </row>
@@ -6235,7 +6289,16 @@
       <c r="JM7" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="JN7" t="n">
+      <c r="JN7" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="JO7" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="JP7" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="JQ7" t="n">
         <v>79</v>
       </c>
     </row>
@@ -7061,7 +7124,16 @@
       <c r="JM8" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JN8" t="n">
+      <c r="JN8" s="1" t="n">
+        <v>-20</v>
+      </c>
+      <c r="JO8" s="1" t="n">
+        <v>-20</v>
+      </c>
+      <c r="JP8" s="1" t="n">
+        <v>-20</v>
+      </c>
+      <c r="JQ8" t="n">
         <v>-20</v>
       </c>
     </row>
@@ -7887,7 +7959,16 @@
       <c r="JM9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JN9" t="n">
+      <c r="JN9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8713,7 +8794,16 @@
       <c r="JM10" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="JN10" t="n">
+      <c r="JN10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JO10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9539,7 +9629,16 @@
       <c r="JM11" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="JN11" t="n">
+      <c r="JN11" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="JO11" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="JP11" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="JQ11" t="n">
         <v>216</v>
       </c>
     </row>
@@ -10365,7 +10464,16 @@
       <c r="JM12" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="JN12" t="n">
+      <c r="JN12" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="JO12" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="JP12" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="JQ12" t="n">
         <v>148</v>
       </c>
     </row>
@@ -11191,7 +11299,16 @@
       <c r="JM13" s="1" t="n">
         <v>399</v>
       </c>
-      <c r="JN13" t="n">
+      <c r="JN13" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="JO13" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="JP13" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="JQ13" t="n">
         <v>364</v>
       </c>
     </row>
@@ -12017,7 +12134,16 @@
       <c r="JM14" s="1" t="n">
         <v>1.36</v>
       </c>
-      <c r="JN14" t="n">
+      <c r="JN14" s="1" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="JO14" s="1" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="JP14" s="1" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="JQ14" t="n">
         <v>1.46</v>
       </c>
     </row>
@@ -12843,7 +12969,16 @@
       <c r="JM15" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="JN15" t="n">
+      <c r="JN15" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="JO15" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="JP15" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="JQ15" t="n">
         <v>81</v>
       </c>
     </row>
@@ -13669,7 +13804,16 @@
       <c r="JM16" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JN16" t="n">
+      <c r="JN16" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="JO16" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="JP16" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="JQ16" t="n">
         <v>64</v>
       </c>
     </row>
@@ -14495,7 +14639,16 @@
       <c r="JM17" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="JN17" t="n">
+      <c r="JN17" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JO17" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JP17" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JQ17" t="n">
         <v>42</v>
       </c>
     </row>
@@ -15321,7 +15474,16 @@
       <c r="JM18" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JN18" t="n">
+      <c r="JN18" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="JO18" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="JP18" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="JQ18" t="n">
         <v>24</v>
       </c>
     </row>
@@ -16147,7 +16309,16 @@
       <c r="JM19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JN19" t="n">
+      <c r="JN19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JO19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JP19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JQ19" t="n">
         <v>19</v>
       </c>
     </row>
@@ -16973,7 +17144,16 @@
       <c r="JM20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JN20" t="n">
+      <c r="JN20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ20" t="n">
         <v>9</v>
       </c>
     </row>
@@ -17799,7 +17979,16 @@
       <c r="JM21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JN21" t="n">
+      <c r="JN21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -18625,7 +18814,16 @@
       <c r="JM22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JN22" t="n">
+      <c r="JN22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JP22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19451,7 +19649,16 @@
       <c r="JM23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JN23" t="n">
+      <c r="JN23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20277,7 +20484,16 @@
       <c r="JM24" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="JN24" t="n">
+      <c r="JN24" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JO24" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JP24" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JQ24" t="n">
         <v>14</v>
       </c>
     </row>
@@ -21103,7 +21319,16 @@
       <c r="JM25" s="1" t="n">
         <v>61.1</v>
       </c>
-      <c r="JN25" t="n">
+      <c r="JN25" s="1" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="JO25" s="1" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="JP25" s="1" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="JQ25" t="n">
         <v>64.3</v>
       </c>
     </row>
@@ -21929,7 +22154,16 @@
       <c r="JM26" s="1" t="n">
         <v>36.27</v>
       </c>
-      <c r="JN26" t="n">
+      <c r="JN26" s="1" t="n">
+        <v>40.44</v>
+      </c>
+      <c r="JO26" s="1" t="n">
+        <v>40.44</v>
+      </c>
+      <c r="JP26" s="1" t="n">
+        <v>40.44</v>
+      </c>
+      <c r="JQ26" t="n">
         <v>40.44</v>
       </c>
     </row>
@@ -22755,7 +22989,16 @@
       <c r="JM27" s="1" t="n">
         <v>22.17</v>
       </c>
-      <c r="JN27" t="n">
+      <c r="JN27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="JO27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="JP27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="JQ27" t="n">
         <v>26</v>
       </c>
     </row>
@@ -23581,7 +23824,16 @@
       <c r="JM28" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="JN28" t="n">
+      <c r="JN28" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="JO28" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="JP28" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="JQ28" t="n">
         <v>33</v>
       </c>
     </row>
@@ -24407,7 +24659,16 @@
       <c r="JM29" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="JN29" t="n">
+      <c r="JN29" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="JO29" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="JP29" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="JQ29" t="n">
         <v>69</v>
       </c>
     </row>
@@ -25233,7 +25494,16 @@
       <c r="JM30" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JN30" t="n">
+      <c r="JN30" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JO30" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JP30" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JQ30" t="n">
         <v>44</v>
       </c>
     </row>
@@ -26059,7 +26329,16 @@
       <c r="JM31" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="JN31" t="n">
+      <c r="JN31" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JO31" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JP31" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JQ31" t="n">
         <v>43</v>
       </c>
     </row>
@@ -26885,7 +27164,16 @@
       <c r="JM32" s="1" t="n">
         <v>3.44</v>
       </c>
-      <c r="JN32" t="n">
+      <c r="JN32" s="1" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="JO32" s="1" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="JP32" s="1" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="JQ32" t="n">
         <v>3.07</v>
       </c>
     </row>
@@ -27711,7 +27999,16 @@
       <c r="JM33" s="1" t="n">
         <v>5.64</v>
       </c>
-      <c r="JN33" t="n">
+      <c r="JN33" s="1" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="JO33" s="1" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="JP33" s="1" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="JQ33" t="n">
         <v>4.78</v>
       </c>
     </row>
@@ -28537,7 +28834,16 @@
       <c r="JM34" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="JN34" t="n">
+      <c r="JN34" s="1" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JO34" s="1" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JP34" s="1" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JQ34" t="n">
         <v>27.9</v>
       </c>
     </row>
@@ -29363,7 +29669,16 @@
       <c r="JM35" s="1" t="n">
         <v>17.7</v>
       </c>
-      <c r="JN35" t="n">
+      <c r="JN35" s="1" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="JO35" s="1" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="JP35" s="1" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="JQ35" t="n">
         <v>20.9</v>
       </c>
     </row>
@@ -30189,7 +30504,16 @@
       <c r="JM36" s="1" t="n">
         <v>188.9</v>
       </c>
-      <c r="JN36" t="n">
+      <c r="JN36" s="1" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JO36" s="1" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JP36" s="1" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JQ36" t="n">
         <v>188.9</v>
       </c>
     </row>
@@ -31015,7 +31339,16 @@
       <c r="JM37" s="1" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="JN37" t="n">
+      <c r="JN37" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="JO37" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="JP37" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="JQ37" t="n">
         <v>87.40000000000001</v>
       </c>
     </row>
@@ -31841,7 +32174,16 @@
       <c r="JM38" s="1" t="n">
         <v>24.66</v>
       </c>
-      <c r="JN38" t="n">
+      <c r="JN38" s="1" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JO38" s="1" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JP38" s="1" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JQ38" t="n">
         <v>24.66</v>
       </c>
     </row>
@@ -32667,7 +33009,16 @@
       <c r="JM39" s="1" t="n">
         <v>85.2</v>
       </c>
-      <c r="JN39" t="n">
+      <c r="JN39" s="1" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JO39" s="1" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JP39" s="1" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JQ39" t="n">
         <v>86.2</v>
       </c>
     </row>
@@ -33493,7 +33844,16 @@
       <c r="JM40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JN40" t="n">
+      <c r="JN40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JP40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -34319,7 +34679,16 @@
       <c r="JM41" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JN41" t="n">
+      <c r="JN41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JP41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -35145,7 +35514,16 @@
       <c r="JM42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JN42" t="n">
+      <c r="JN42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -35971,7 +36349,16 @@
       <c r="JM43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JN43" t="n">
+      <c r="JN43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -36797,7 +37184,16 @@
       <c r="JM44" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="JN44" t="n">
+      <c r="JN44" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="JO44" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="JP44" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="JQ44" t="n">
         <v>151</v>
       </c>
     </row>
@@ -37623,7 +38019,16 @@
       <c r="JM45" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="JN45" t="n">
+      <c r="JN45" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="JO45" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="JP45" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="JQ45" t="n">
         <v>206</v>
       </c>
     </row>
@@ -38449,7 +38854,16 @@
       <c r="JM46" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="JN46" t="n">
+      <c r="JN46" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="JO46" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="JP46" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="JQ46" t="n">
         <v>266</v>
       </c>
     </row>
@@ -39275,7 +39689,16 @@
       <c r="JM47" s="1" t="n">
         <v>74.7</v>
       </c>
-      <c r="JN47" t="n">
+      <c r="JN47" s="1" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="JO47" s="1" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="JP47" s="1" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="JQ47" t="n">
         <v>73.09999999999999</v>
       </c>
     </row>
@@ -40101,7 +40524,16 @@
       <c r="JM48" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="JN48" t="n">
+      <c r="JN48" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="JO48" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="JP48" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="JQ48" t="n">
         <v>69</v>
       </c>
     </row>
@@ -40927,7 +41359,16 @@
       <c r="JM49" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JN49" t="n">
+      <c r="JN49" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JO49" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP49" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JQ49" t="n">
         <v>10</v>
       </c>
     </row>
@@ -41753,7 +42194,16 @@
       <c r="JM50" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JN50" t="n">
+      <c r="JN50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ50" t="n">
         <v>6</v>
       </c>
     </row>
@@ -42579,7 +43029,16 @@
       <c r="JM51" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="JN51" t="n">
+      <c r="JN51" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="JO51" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="JP51" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="JQ51" t="n">
         <v>33</v>
       </c>
     </row>
@@ -43405,7 +43864,16 @@
       <c r="JM52" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JN52" t="n">
+      <c r="JN52" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JO52" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JP52" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JQ52" t="n">
         <v>44</v>
       </c>
     </row>
@@ -44231,7 +44699,16 @@
       <c r="JM53" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="JN53" t="n">
+      <c r="JN53" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="JO53" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="JP53" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="JQ53" t="n">
         <v>38</v>
       </c>
     </row>
@@ -45057,7 +45534,16 @@
       <c r="JM54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JN54" t="n">
+      <c r="JN54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -45883,7 +46369,16 @@
       <c r="JM55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JN55" t="n">
+      <c r="JN55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ55" t="n">
         <v>7</v>
       </c>
     </row>
@@ -46709,7 +47204,16 @@
       <c r="JM56" s="1" t="n">
         <v>63.6</v>
       </c>
-      <c r="JN56" t="n">
+      <c r="JN56" s="1" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JO56" s="1" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JP56" s="1" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JQ56" t="n">
         <v>77.8</v>
       </c>
     </row>
@@ -47535,7 +48039,16 @@
       <c r="JM57" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="JN57" t="n">
+      <c r="JN57" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="JO57" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="JP57" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="JQ57" t="n">
         <v>205</v>
       </c>
     </row>
@@ -48361,7 +48874,16 @@
       <c r="JM58" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="JN58" t="n">
+      <c r="JN58" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="JO58" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="JP58" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="JQ58" t="n">
         <v>126</v>
       </c>
     </row>
@@ -49187,7 +49709,16 @@
       <c r="JM59" s="1" t="n">
         <v>370</v>
       </c>
-      <c r="JN59" t="n">
+      <c r="JN59" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="JO59" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="JP59" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="JQ59" t="n">
         <v>331</v>
       </c>
     </row>
@@ -50013,7 +50544,16 @@
       <c r="JM60" s="1" t="n">
         <v>1.55</v>
       </c>
-      <c r="JN60" t="n">
+      <c r="JN60" s="1" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="JO60" s="1" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="JP60" s="1" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="JQ60" t="n">
         <v>1.63</v>
       </c>
     </row>
@@ -50839,7 +51379,16 @@
       <c r="JM61" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="JN61" t="n">
+      <c r="JN61" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="JO61" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="JP61" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="JQ61" t="n">
         <v>87</v>
       </c>
     </row>
@@ -51665,7 +52214,16 @@
       <c r="JM62" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="JN62" t="n">
+      <c r="JN62" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="JO62" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="JP62" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="JQ62" t="n">
         <v>58</v>
       </c>
     </row>
@@ -52491,7 +53049,16 @@
       <c r="JM63" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="JN63" t="n">
+      <c r="JN63" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="JO63" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="JP63" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="JQ63" t="n">
         <v>33</v>
       </c>
     </row>
@@ -53317,7 +53884,16 @@
       <c r="JM64" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JN64" t="n">
+      <c r="JN64" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JO64" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JP64" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JQ64" t="n">
         <v>19</v>
       </c>
     </row>
@@ -54143,7 +54719,16 @@
       <c r="JM65" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JN65" t="n">
+      <c r="JN65" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="JO65" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="JP65" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="JQ65" t="n">
         <v>24</v>
       </c>
     </row>
@@ -54969,7 +55554,16 @@
       <c r="JM66" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JN66" t="n">
+      <c r="JN66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JO66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JP66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JQ66" t="n">
         <v>11</v>
       </c>
     </row>
@@ -55795,7 +56389,16 @@
       <c r="JM67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JN67" t="n">
+      <c r="JN67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ67" t="n">
         <v>6</v>
       </c>
     </row>
@@ -56621,7 +57224,16 @@
       <c r="JM68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JN68" t="n">
+      <c r="JN68" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JO68" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JP68" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JQ68" t="n">
         <v>11</v>
       </c>
     </row>
@@ -57447,7 +58059,16 @@
       <c r="JM69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JN69" t="n">
+      <c r="JN69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -58273,7 +58894,16 @@
       <c r="JM70" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JN70" t="n">
+      <c r="JN70" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="JO70" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="JP70" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="JQ70" t="n">
         <v>24</v>
       </c>
     </row>
@@ -59099,7 +59729,16 @@
       <c r="JM71" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="JN71" t="n">
+      <c r="JN71" s="1" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JO71" s="1" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JP71" s="1" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JQ71" t="n">
         <v>45.8</v>
       </c>
     </row>
@@ -59925,7 +60564,16 @@
       <c r="JM72" s="1" t="n">
         <v>46.25</v>
       </c>
-      <c r="JN72" t="n">
+      <c r="JN72" s="1" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="JO72" s="1" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="JP72" s="1" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="JQ72" t="n">
         <v>30.09</v>
       </c>
     </row>
@@ -60751,7 +61399,16 @@
       <c r="JM73" s="1" t="n">
         <v>18.5</v>
       </c>
-      <c r="JN73" t="n">
+      <c r="JN73" s="1" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="JO73" s="1" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="JP73" s="1" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="JQ73" t="n">
         <v>13.79</v>
       </c>
     </row>
@@ -61577,7 +62234,16 @@
       <c r="JM74" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="JN74" t="n">
+      <c r="JN74" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="JO74" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="JP74" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="JQ74" t="n">
         <v>33</v>
       </c>
     </row>
@@ -62403,7 +63069,16 @@
       <c r="JM75" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="JN75" t="n">
+      <c r="JN75" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="JO75" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="JP75" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="JQ75" t="n">
         <v>66</v>
       </c>
     </row>
@@ -63229,7 +63904,16 @@
       <c r="JM76" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="JN76" t="n">
+      <c r="JN76" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JO76" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JP76" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JQ76" t="n">
         <v>32</v>
       </c>
     </row>
@@ -64055,7 +64739,16 @@
       <c r="JM77" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="JN77" t="n">
+      <c r="JN77" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="JO77" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="JP77" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="JQ77" t="n">
         <v>56</v>
       </c>
     </row>
@@ -64881,7 +65574,16 @@
       <c r="JM78" s="1" t="n">
         <v>2.65</v>
       </c>
-      <c r="JN78" t="n">
+      <c r="JN78" s="1" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="JO78" s="1" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="JP78" s="1" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="JQ78" t="n">
         <v>2.33</v>
       </c>
     </row>
@@ -65707,7 +66409,16 @@
       <c r="JM79" s="1" t="n">
         <v>6.62</v>
       </c>
-      <c r="JN79" t="n">
+      <c r="JN79" s="1" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="JO79" s="1" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="JP79" s="1" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="JQ79" t="n">
         <v>5.09</v>
       </c>
     </row>
@@ -66533,7 +67244,16 @@
       <c r="JM80" s="1" t="n">
         <v>32.1</v>
       </c>
-      <c r="JN80" t="n">
+      <c r="JN80" s="1" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="JO80" s="1" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="JP80" s="1" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="JQ80" t="n">
         <v>39.3</v>
       </c>
     </row>
@@ -67359,7 +68079,16 @@
       <c r="JM81" s="1" t="n">
         <v>15.1</v>
       </c>
-      <c r="JN81" t="n">
+      <c r="JN81" s="1" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="JO81" s="1" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="JP81" s="1" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="JQ81" t="n">
         <v>19.6</v>
       </c>
     </row>
@@ -68185,7 +68914,16 @@
       <c r="JM82" s="1" t="n">
         <v>188.6</v>
       </c>
-      <c r="JN82" t="n">
+      <c r="JN82" s="1" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JO82" s="1" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JP82" s="1" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JQ82" t="n">
         <v>188.9</v>
       </c>
     </row>
@@ -69011,7 +69749,16 @@
       <c r="JM83" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="JN83" t="n">
+      <c r="JN83" s="1" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JO83" s="1" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JP83" s="1" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JQ83" t="n">
         <v>86.40000000000001</v>
       </c>
     </row>
@@ -69837,7 +70584,16 @@
       <c r="JM84" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="JN84" t="n">
+      <c r="JN84" s="1" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="JO84" s="1" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="JP84" s="1" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="JQ84" t="n">
         <v>26.16</v>
       </c>
     </row>
@@ -70663,7 +71419,16 @@
       <c r="JM85" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="JN85" t="n">
+      <c r="JN85" s="1" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="JO85" s="1" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="JP85" s="1" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="JQ85" t="n">
         <v>108.6</v>
       </c>
     </row>
@@ -71489,7 +72254,16 @@
       <c r="JM86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JN86" t="n">
+      <c r="JN86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -72315,7 +73089,16 @@
       <c r="JM87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JN87" t="n">
+      <c r="JN87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ87" t="n">
         <v>6</v>
       </c>
     </row>
@@ -73141,7 +73924,16 @@
       <c r="JM88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JN88" t="n">
+      <c r="JN88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JP88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -73967,7 +74759,16 @@
       <c r="JM89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JN89" t="n">
+      <c r="JN89" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO89" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP89" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ89" t="n">
         <v>7</v>
       </c>
     </row>
@@ -74793,7 +75594,16 @@
       <c r="JM90" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="JN90" t="n">
+      <c r="JN90" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="JO90" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="JP90" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="JQ90" t="n">
         <v>142</v>
       </c>
     </row>
@@ -75619,7 +76429,16 @@
       <c r="JM91" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="JN91" t="n">
+      <c r="JN91" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="JO91" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="JP91" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="JQ91" t="n">
         <v>197</v>
       </c>
     </row>
@@ -76445,7 +77264,16 @@
       <c r="JM92" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="JN92" t="n">
+      <c r="JN92" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="JO92" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="JP92" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="JQ92" t="n">
         <v>239</v>
       </c>
     </row>
@@ -77271,7 +78099,16 @@
       <c r="JM93" s="1" t="n">
         <v>72.2</v>
       </c>
-      <c r="JN93" t="n">
+      <c r="JN93" s="1" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="JO93" s="1" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="JP93" s="1" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="JQ93" t="n">
         <v>72.2</v>
       </c>
     </row>
@@ -78097,7 +78934,16 @@
       <c r="JM94" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="JN94" t="n">
+      <c r="JN94" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="JO94" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="JP94" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="JQ94" t="n">
         <v>66</v>
       </c>
     </row>
@@ -78923,7 +79769,16 @@
       <c r="JM95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JN95" t="n">
+      <c r="JN95" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO95" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP95" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ95" t="n">
         <v>9</v>
       </c>
     </row>
@@ -79749,7 +80604,16 @@
       <c r="JM96" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JN96" t="n">
+      <c r="JN96" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="JO96" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="JP96" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="JQ96" t="n">
         <v>13</v>
       </c>
     </row>
@@ -80575,7 +81439,16 @@
       <c r="JM97" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="JN97" t="n">
+      <c r="JN97" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="JO97" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="JP97" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="JQ97" t="n">
         <v>33</v>
       </c>
     </row>
@@ -81401,7 +82274,16 @@
       <c r="JM98" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="JN98" t="n">
+      <c r="JN98" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JO98" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JP98" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JQ98" t="n">
         <v>32</v>
       </c>
     </row>
@@ -82227,7 +83109,16 @@
       <c r="JM99" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="JN99" t="n">
+      <c r="JN99" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JO99" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JP99" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JQ99" t="n">
         <v>50</v>
       </c>
     </row>
@@ -83053,7 +83944,16 @@
       <c r="JM100" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JN100" t="n">
+      <c r="JN100" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="JO100" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="JP100" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="JQ100" t="n">
         <v>13</v>
       </c>
     </row>
@@ -83879,7 +84779,16 @@
       <c r="JM101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JN101" t="n">
+      <c r="JN101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ101" t="n">
         <v>6</v>
       </c>
     </row>
@@ -84705,7 +85614,16 @@
       <c r="JM102" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="JN102" t="n">
+      <c r="JN102" s="1" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JO102" s="1" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JP102" s="1" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JQ102" t="n">
         <v>54.5</v>
       </c>
     </row>
